--- a/data/pmi.xlsx
+++ b/data/pmi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ianmc\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA764441-6C17-4BF3-B08F-8F5EDF6DF752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB5BF91-4479-416F-8F80-56C380927026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Date</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>% Change vs Last Year</t>
-  </si>
-  <si>
-    <t>2024-11-01</t>
   </si>
 </sst>
 </file>
@@ -83,7 +80,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -92,6 +89,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,7 +370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C325"/>
+  <dimension ref="A1:C326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -394,3611 +392,3611 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>3</v>
+      <c r="A2" s="4">
+        <v>45627</v>
       </c>
       <c r="B2">
+        <v>49.3</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C66" si="0">(B2/B14-1)*100</f>
+        <v>4.6709129511677272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="4">
+        <v>45597</v>
+      </c>
+      <c r="B3">
         <v>48.4</v>
       </c>
-      <c r="C2">
-        <f t="shared" ref="C2:C65" si="0">(B2/B14-1)*100</f>
+      <c r="C3">
+        <f t="shared" si="0"/>
         <v>3.8626609442059978</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3">
-        <v>45566</v>
-      </c>
-      <c r="B3">
-        <v>46.5</v>
-      </c>
-      <c r="C3">
-        <f t="shared" si="0"/>
-        <v>-0.4282655246252709</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B4">
-        <v>47.2</v>
+        <v>46.5</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>-3.6734693877551017</v>
+        <v>-0.4282655246252709</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B5">
         <v>47.2</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>-0.84033613445377853</v>
+        <v>-3.6734693877551017</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B6">
-        <v>46.8</v>
+        <v>47.2</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>0.86206896551723755</v>
+        <v>-0.84033613445377853</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3">
-        <v>45444</v>
-      </c>
-      <c r="B7" s="1">
-        <v>48.5</v>
+        <v>45474</v>
+      </c>
+      <c r="B7">
+        <v>46.8</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>5.4347826086956541</v>
+        <v>0.86206896551723755</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B8" s="1">
-        <v>48.7</v>
+        <v>48.5</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>3.8379530916844429</v>
+        <v>5.4347826086956541</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B9" s="1">
-        <v>49.2</v>
+        <v>48.7</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>4.4585987261146487</v>
+        <v>3.8379530916844429</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B10" s="1">
-        <v>50.3</v>
+        <v>49.2</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>8.6393088552915831</v>
+        <v>4.4585987261146487</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B11" s="1">
-        <v>47.8</v>
+        <v>50.3</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>0.20964360587001352</v>
+        <v>8.6393088552915831</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B12" s="1">
-        <v>49.1</v>
+        <v>47.8</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>3.5864978902953704</v>
+        <v>0.20964360587001352</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B13" s="1">
-        <v>47.1</v>
+        <v>49.1</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>-2.6859504132231371</v>
+        <v>3.5864978902953704</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B14" s="1">
-        <v>46.6</v>
+        <v>47.1</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>-4.8979591836734615</v>
+        <v>-2.6859504132231371</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B15" s="1">
-        <v>46.7</v>
+        <v>46.6</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>-6.5999999999999943</v>
+        <v>-4.8979591836734615</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B16" s="1">
-        <v>49</v>
+        <v>46.7</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>-3.9215686274509776</v>
+        <v>-6.5999999999999943</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B17" s="1">
-        <v>47.6</v>
+        <v>49</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>-10.018903591682415</v>
+        <v>-3.9215686274509776</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B18" s="1">
-        <v>46.4</v>
+        <v>47.6</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>-11.954459203036061</v>
+        <v>-10.018903591682415</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B19" s="1">
-        <v>46</v>
+        <v>46.4</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>-13.370998116760834</v>
+        <v>-11.954459203036061</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B20" s="1">
-        <v>46.9</v>
+        <v>46</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>-16.399286987522288</v>
+        <v>-13.370998116760834</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B21" s="1">
-        <v>47.1</v>
+        <v>46.9</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>-15.742397137745968</v>
+        <v>-16.399286987522288</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B22" s="1">
-        <v>46.3</v>
+        <v>47.1</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>-18.771929824561408</v>
+        <v>-15.742397137745968</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B23" s="1">
-        <v>47.7</v>
+        <v>46.3</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>-18.321917808219169</v>
+        <v>-18.771929824561408</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3">
-        <v>44927</v>
-      </c>
-      <c r="B24" s="2">
-        <v>47.4</v>
+        <v>44958</v>
+      </c>
+      <c r="B24" s="1">
+        <v>47.7</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>-17.708333333333336</v>
+        <v>-18.321917808219169</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B25" s="2">
-        <v>48.4</v>
+        <v>47.4</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>-17.4061433447099</v>
+        <v>-17.708333333333336</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B26" s="2">
-        <v>49</v>
+        <v>48.4</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>-19.407894736842103</v>
+        <v>-17.4061433447099</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B27" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>-17.763157894736835</v>
+        <v>-19.407894736842103</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B28" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>-16.530278232405891</v>
+        <v>-17.763157894736835</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B29" s="2">
-        <v>52.9</v>
+        <v>51</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>-11.686143572621033</v>
+        <v>-16.530278232405891</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B30" s="2">
-        <v>52.7</v>
+        <v>52.9</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>-11.279461279461279</v>
+        <v>-11.686143572621033</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B31" s="2">
-        <v>53.1</v>
+        <v>52.7</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>-12.376237623762377</v>
+        <v>-11.279461279461279</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="3">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B32" s="2">
-        <v>56.1</v>
+        <v>53.1</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>-8.3333333333333375</v>
+        <v>-12.376237623762377</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B33" s="2">
-        <v>55.9</v>
+        <v>56.1</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>-7.9077429983525622</v>
+        <v>-8.3333333333333375</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B34" s="2">
-        <v>57</v>
+        <v>55.9</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>-11.901081916537869</v>
+        <v>-7.9077429983525622</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B35" s="2">
-        <v>58.4</v>
+        <v>57</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>-3.9473684210526327</v>
+        <v>-11.901081916537869</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B36" s="2">
-        <v>57.6</v>
+        <v>58.4</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>-1.8739352640545159</v>
+        <v>-3.9473684210526327</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="3">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B37" s="2">
-        <v>58.6</v>
+        <v>57.6</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>-3.140495867768589</v>
+        <v>-1.8739352640545159</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="3">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B38" s="2">
-        <v>60.8</v>
+        <v>58.6</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>5.3726169844020788</v>
+        <v>-3.140495867768589</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="3">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B39" s="2">
         <v>60.8</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>3.4013605442176909</v>
+        <v>5.3726169844020788</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="3">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B40" s="2">
-        <v>61.1</v>
+        <v>60.8</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>9.6947935368043137</v>
+        <v>3.4013605442176909</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="3">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B41" s="2">
-        <v>59.9</v>
+        <v>61.1</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>7.7338129496402841</v>
+        <v>9.6947935368043137</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="3">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B42" s="2">
-        <v>59.4</v>
+        <v>59.9</v>
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>10.614525139664789</v>
+        <v>7.7338129496402841</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="3">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B43" s="2">
-        <v>60.6</v>
+        <v>59.4</v>
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>16.09195402298851</v>
+        <v>10.614525139664789</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="3">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B44" s="2">
-        <v>61.2</v>
+        <v>60.6</v>
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>41.995359628770302</v>
+        <v>16.09195402298851</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="3">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B45" s="2">
-        <v>60.7</v>
+        <v>61.2</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>45.563549160671471</v>
+        <v>41.995359628770302</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="3">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B46" s="2">
-        <v>64.7</v>
+        <v>60.7</v>
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>30.181086519114686</v>
+        <v>45.563549160671471</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="3">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B47" s="2">
-        <v>60.8</v>
+        <v>64.7</v>
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>20.87475149105369</v>
+        <v>30.181086519114686</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="3">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B48" s="2">
-        <v>58.7</v>
+        <v>60.8</v>
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
-        <v>14.87279843444227</v>
+        <v>20.87475149105369</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="3">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B49" s="2">
-        <v>60.5</v>
+        <v>58.7</v>
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>26.834381551362686</v>
+        <v>14.87279843444227</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="3">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B50" s="2">
-        <v>57.7</v>
+        <v>60.5</v>
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
-        <v>19.709543568464728</v>
+        <v>26.834381551362686</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="3">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B51" s="2">
-        <v>58.8</v>
+        <v>57.7</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
-        <v>21.739130434782616</v>
+        <v>19.709543568464728</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="3">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B52" s="2">
-        <v>55.7</v>
+        <v>58.8</v>
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
-        <v>15.320910973084899</v>
+        <v>21.739130434782616</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="3">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B53" s="2">
-        <v>55.6</v>
+        <v>55.7</v>
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
-        <v>14.876033057851256</v>
+        <v>15.320910973084899</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="3">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B54" s="2">
-        <v>53.7</v>
+        <v>55.6</v>
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
-        <v>5.2941176470588269</v>
+        <v>14.876033057851256</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="3">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B55" s="2">
-        <v>52.2</v>
+        <v>53.7</v>
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
-        <v>1.7543859649122862</v>
+        <v>5.2941176470588269</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="3">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B56" s="2">
-        <v>43.1</v>
+        <v>52.2</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>-17.432950191570885</v>
+        <v>1.7543859649122862</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="3">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B57" s="2">
-        <v>41.7</v>
+        <v>43.1</v>
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
-        <v>-22.201492537313428</v>
+        <v>-17.432950191570885</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="3">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B58" s="2">
-        <v>49.7</v>
+        <v>41.7</v>
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
-        <v>-10.126582278480999</v>
+        <v>-22.201492537313428</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="3">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B59" s="2">
-        <v>50.3</v>
+        <v>49.7</v>
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
-        <v>-7.1955719557195703</v>
+        <v>-10.126582278480999</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="3">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B60" s="2">
-        <v>51.1</v>
+        <v>50.3</v>
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
-        <v>-8.2585278276481215</v>
+        <v>-7.1955719557195703</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="3">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B61" s="2">
-        <v>47.7</v>
+        <v>51.1</v>
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
-        <v>-12.956204379562031</v>
+        <v>-8.2585278276481215</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="3">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B62" s="2">
-        <v>48.2</v>
+        <v>47.7</v>
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
-        <v>-17.887563884156734</v>
+        <v>-12.956204379562031</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="3">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B63" s="2">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
-        <v>-17.152658662092623</v>
+        <v>-17.887563884156734</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="3">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B64" s="2">
         <v>48.3</v>
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
-        <v>-18.823529411764707</v>
+        <v>-17.152658662092623</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="3">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B65" s="2">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="C65">
         <f t="shared" si="0"/>
-        <v>-19.867549668874172</v>
+        <v>-18.823529411764707</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="3">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B66" s="2">
-        <v>51</v>
+        <v>48.4</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:C129" si="1">(B66/B78-1)*100</f>
-        <v>-12.068965517241381</v>
+        <f t="shared" si="0"/>
+        <v>-19.867549668874172</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="3">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B67" s="2">
-        <v>51.3</v>
+        <v>51</v>
       </c>
       <c r="C67">
-        <f t="shared" si="1"/>
-        <v>-14.070351758793976</v>
+        <f t="shared" ref="C67:C130" si="1">(B67/B79-1)*100</f>
+        <v>-12.068965517241381</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="3">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B68" s="2">
-        <v>52.2</v>
+        <v>51.3</v>
       </c>
       <c r="C68">
         <f t="shared" si="1"/>
-        <v>-11.375212224108655</v>
+        <v>-14.070351758793976</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="3">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B69" s="2">
-        <v>53.6</v>
+        <v>52.2</v>
       </c>
       <c r="C69">
         <f t="shared" si="1"/>
-        <v>-8.5324232081911315</v>
+        <v>-11.375212224108655</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="3">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B70" s="2">
-        <v>55.3</v>
+        <v>53.6</v>
       </c>
       <c r="C70">
         <f t="shared" si="1"/>
-        <v>-6.587837837837851</v>
+        <v>-8.5324232081911315</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="3">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B71" s="2">
-        <v>54.2</v>
+        <v>55.3</v>
       </c>
       <c r="C71">
         <f t="shared" si="1"/>
-        <v>-10.855263157894724</v>
+        <v>-6.587837837837851</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="3">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B72" s="2">
-        <v>55.7</v>
+        <v>54.2</v>
       </c>
       <c r="C72">
         <f t="shared" si="1"/>
-        <v>-6.2289562289562177</v>
+        <v>-10.855263157894724</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="3">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B73" s="2">
-        <v>54.8</v>
+        <v>55.7</v>
       </c>
       <c r="C73">
         <f t="shared" si="1"/>
-        <v>-7.4324324324324458</v>
+        <v>-6.2289562289562177</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="3">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B74" s="2">
-        <v>58.7</v>
+        <v>54.8</v>
       </c>
       <c r="C74">
         <f t="shared" si="1"/>
-        <v>1.3816925734024155</v>
+        <v>-7.4324324324324458</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="3">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B75" s="2">
-        <v>58.3</v>
+        <v>58.7</v>
       </c>
       <c r="C75">
         <f t="shared" si="1"/>
-        <v>-0.51194539249147519</v>
+        <v>1.3816925734024155</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="3">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B76" s="2">
-        <v>59.5</v>
+        <v>58.3</v>
       </c>
       <c r="C76">
         <f t="shared" si="1"/>
-        <v>-0.66777963272119933</v>
+        <v>-0.51194539249147519</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="3">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B77" s="2">
-        <v>60.4</v>
+        <v>59.5</v>
       </c>
       <c r="C77">
         <f t="shared" si="1"/>
-        <v>3.2478632478632363</v>
+        <v>-0.66777963272119933</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="3">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B78" s="2">
-        <v>58</v>
+        <v>60.4</v>
       </c>
       <c r="C78">
         <f t="shared" si="1"/>
-        <v>2.6548672566371723</v>
+        <v>3.2478632478632363</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="3">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B79" s="2">
-        <v>59.7</v>
+        <v>58</v>
       </c>
       <c r="C79">
         <f t="shared" si="1"/>
-        <v>6.4171122994652441</v>
+        <v>2.6548672566371723</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="3">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B80" s="2">
-        <v>58.9</v>
+        <v>59.7</v>
       </c>
       <c r="C80">
         <f t="shared" si="1"/>
-        <v>4.4326241134751809</v>
+        <v>6.4171122994652441</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="3">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B81" s="2">
-        <v>58.6</v>
+        <v>58.9</v>
       </c>
       <c r="C81">
         <f t="shared" si="1"/>
-        <v>5.2064631956912022</v>
+        <v>4.4326241134751809</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="3">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B82" s="2">
-        <v>59.2</v>
+        <v>58.6</v>
       </c>
       <c r="C82">
         <f t="shared" si="1"/>
-        <v>4.2253521126760729</v>
+        <v>5.2064631956912022</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="3">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B83" s="2">
-        <v>60.8</v>
+        <v>59.2</v>
       </c>
       <c r="C83">
         <f t="shared" si="1"/>
-        <v>5.3726169844020788</v>
+        <v>4.2253521126760729</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="3">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B84" s="2">
-        <v>59.4</v>
+        <v>60.8</v>
       </c>
       <c r="C84">
         <f t="shared" si="1"/>
-        <v>6.6427289048473837</v>
+        <v>5.3726169844020788</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="3">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B85" s="2">
-        <v>59.2</v>
+        <v>59.4</v>
       </c>
       <c r="C85">
         <f t="shared" si="1"/>
-        <v>9.2250922509225184</v>
+        <v>6.6427289048473837</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="3">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B86" s="2">
-        <v>57.9</v>
+        <v>59.2</v>
       </c>
       <c r="C86">
         <f t="shared" si="1"/>
-        <v>8.6303939962476548</v>
+        <v>9.2250922509225184</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="3">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B87" s="2">
-        <v>58.6</v>
+        <v>57.9</v>
       </c>
       <c r="C87">
         <f t="shared" si="1"/>
-        <v>13.127413127413146</v>
+        <v>8.6303939962476548</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="3">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B88" s="2">
-        <v>59.9</v>
+        <v>58.6</v>
       </c>
       <c r="C88">
         <f t="shared" si="1"/>
-        <v>17.450980392156868</v>
+        <v>13.127413127413146</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="3">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B89" s="2">
-        <v>58.5</v>
+        <v>59.9</v>
       </c>
       <c r="C89">
         <f t="shared" si="1"/>
-        <v>17.706237424547268</v>
+        <v>17.450980392156868</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="3">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B90" s="2">
-        <v>56.5</v>
+        <v>58.5</v>
       </c>
       <c r="C90">
         <f t="shared" si="1"/>
-        <v>7.8244274809160297</v>
+        <v>17.706237424547268</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="3">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B91" s="2">
-        <v>56.1</v>
+        <v>56.5</v>
       </c>
       <c r="C91">
         <f t="shared" si="1"/>
-        <v>7.0610687022900853</v>
+        <v>7.8244274809160297</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="3">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B92" s="2">
-        <v>56.4</v>
+        <v>56.1</v>
       </c>
       <c r="C92">
         <f t="shared" si="1"/>
-        <v>9.9415204678362521</v>
+        <v>7.0610687022900853</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="3">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B93" s="2">
-        <v>55.7</v>
+        <v>56.4</v>
       </c>
       <c r="C93">
         <f t="shared" si="1"/>
-        <v>9.2156862745098156</v>
+        <v>9.9415204678362521</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="3">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B94" s="2">
-        <v>56.8</v>
+        <v>55.7</v>
       </c>
       <c r="C94">
         <f t="shared" si="1"/>
-        <v>10.505836575875493</v>
+        <v>9.2156862745098156</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="3">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B95" s="2">
-        <v>57.7</v>
+        <v>56.8</v>
       </c>
       <c r="C95">
         <f t="shared" si="1"/>
-        <v>17.27642276422765</v>
+        <v>10.505836575875493</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="3">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B96" s="2">
-        <v>55.7</v>
+        <v>57.7</v>
       </c>
       <c r="C96">
         <f t="shared" si="1"/>
-        <v>17.263157894736846</v>
+        <v>17.27642276422765</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="3">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B97" s="2">
-        <v>54.2</v>
+        <v>55.7</v>
       </c>
       <c r="C97">
         <f t="shared" si="1"/>
-        <v>11.06557377049182</v>
+        <v>17.263157894736846</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="3">
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="B98" s="2">
-        <v>53.3</v>
+        <v>54.2</v>
       </c>
       <c r="C98">
         <f t="shared" si="1"/>
-        <v>8.5539714867616912</v>
+        <v>11.06557377049182</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="3">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B99" s="2">
-        <v>51.8</v>
+        <v>53.3</v>
       </c>
       <c r="C99">
         <f t="shared" si="1"/>
-        <v>5.7142857142857162</v>
+        <v>8.5539714867616912</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="3">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B100" s="2">
-        <v>51</v>
+        <v>51.8</v>
       </c>
       <c r="C100">
         <f t="shared" si="1"/>
-        <v>2.0000000000000018</v>
+        <v>5.7142857142857162</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="3">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B101" s="2">
-        <v>49.7</v>
+        <v>51</v>
       </c>
       <c r="C101">
         <f t="shared" si="1"/>
-        <v>-0.59999999999998943</v>
+        <v>2.0000000000000018</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="3">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B102" s="2">
-        <v>52.4</v>
+        <v>49.7</v>
       </c>
       <c r="C102">
         <f t="shared" si="1"/>
-        <v>0.9633911368015502</v>
+        <v>-0.59999999999998943</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="3">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B103" s="2">
         <v>52.4</v>
       </c>
       <c r="C103">
         <f t="shared" si="1"/>
-        <v>-0.38022813688213253</v>
+        <v>0.9633911368015502</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="3">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B104" s="2">
-        <v>51.3</v>
+        <v>52.4</v>
       </c>
       <c r="C104">
         <f t="shared" si="1"/>
-        <v>-2.6565464895635826</v>
+        <v>-0.38022813688213253</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="3">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B105" s="2">
-        <v>51</v>
+        <v>51.3</v>
       </c>
       <c r="C105">
         <f t="shared" si="1"/>
-        <v>-2.1113243761996192</v>
+        <v>-2.6565464895635826</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="3">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B106" s="2">
-        <v>51.4</v>
+        <v>51</v>
       </c>
       <c r="C106">
         <f t="shared" si="1"/>
-        <v>-1.7208413001912004</v>
+        <v>-2.1113243761996192</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="3">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B107" s="2">
-        <v>49.2</v>
+        <v>51.4</v>
       </c>
       <c r="C107">
         <f t="shared" si="1"/>
-        <v>-7.3446327683615813</v>
+        <v>-1.7208413001912004</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="3">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B108" s="2">
-        <v>47.5</v>
+        <v>49.2</v>
       </c>
       <c r="C108">
         <f t="shared" si="1"/>
-        <v>-12.037037037037035</v>
+        <v>-7.3446327683615813</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="3">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B109" s="2">
-        <v>48.8</v>
+        <v>47.5</v>
       </c>
       <c r="C109">
         <f t="shared" si="1"/>
-        <v>-12.387791741472187</v>
+        <v>-12.037037037037035</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="3">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B110" s="2">
-        <v>49.1</v>
+        <v>48.8</v>
       </c>
       <c r="C110">
         <f t="shared" si="1"/>
-        <v>-12.788632326820593</v>
+        <v>-12.387791741472187</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B111" s="2">
-        <v>49</v>
+        <v>49.1</v>
       </c>
       <c r="C111">
         <f t="shared" si="1"/>
-        <v>-12.811387900355875</v>
+        <v>-12.788632326820593</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="3">
-        <v>42248</v>
+        <v>42278</v>
       </c>
       <c r="B112" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C112">
         <f t="shared" si="1"/>
-        <v>-10.233393177737881</v>
+        <v>-12.811387900355875</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="3">
-        <v>42217</v>
+        <v>42248</v>
       </c>
       <c r="B113" s="2">
         <v>50</v>
       </c>
       <c r="C113">
         <f t="shared" si="1"/>
-        <v>-11.190053285968027</v>
+        <v>-10.233393177737881</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="3">
-        <v>42186</v>
+        <v>42217</v>
       </c>
       <c r="B114" s="2">
-        <v>51.9</v>
+        <v>50</v>
       </c>
       <c r="C114">
         <f t="shared" si="1"/>
-        <v>-5.8076225045372132</v>
+        <v>-11.190053285968027</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="3">
-        <v>42156</v>
+        <v>42186</v>
       </c>
       <c r="B115" s="2">
-        <v>52.6</v>
+        <v>51.9</v>
       </c>
       <c r="C115">
         <f t="shared" si="1"/>
-        <v>-4.363636363636358</v>
+        <v>-5.8076225045372132</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="3">
-        <v>42125</v>
+        <v>42156</v>
       </c>
       <c r="B116" s="2">
-        <v>52.7</v>
+        <v>52.6</v>
       </c>
       <c r="C116">
         <f t="shared" si="1"/>
-        <v>-5.3859964093357249</v>
+        <v>-4.363636363636358</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="3">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="B117" s="2">
-        <v>52.1</v>
+        <v>52.7</v>
       </c>
       <c r="C117">
         <f t="shared" si="1"/>
-        <v>-7.9505300353356905</v>
+        <v>-5.3859964093357249</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="3">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="B118" s="2">
-        <v>52.3</v>
+        <v>52.1</v>
       </c>
       <c r="C118">
         <f t="shared" si="1"/>
-        <v>-6.4400715563506239</v>
+        <v>-7.9505300353356905</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="3">
-        <v>42036</v>
+        <v>42064</v>
       </c>
       <c r="B119" s="2">
-        <v>53.1</v>
+        <v>52.3</v>
       </c>
       <c r="C119">
         <f t="shared" si="1"/>
-        <v>-3.4545454545454546</v>
+        <v>-6.4400715563506239</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="3">
-        <v>42005</v>
+        <v>42036</v>
       </c>
       <c r="B120" s="2">
-        <v>54</v>
+        <v>53.1</v>
       </c>
       <c r="C120">
         <f t="shared" si="1"/>
-        <v>2.857142857142847</v>
+        <v>-3.4545454545454546</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="3">
-        <v>41974</v>
+        <v>42005</v>
       </c>
       <c r="B121" s="2">
-        <v>55.7</v>
+        <v>54</v>
       </c>
       <c r="C121">
         <f t="shared" si="1"/>
-        <v>-1.415929203539823</v>
+        <v>2.857142857142847</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="3">
-        <v>41944</v>
+        <v>41974</v>
       </c>
       <c r="B122" s="2">
-        <v>56.3</v>
+        <v>55.7</v>
       </c>
       <c r="C122">
         <f t="shared" si="1"/>
-        <v>1.4414414414414267</v>
+        <v>-1.415929203539823</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="3">
-        <v>41913</v>
+        <v>41944</v>
       </c>
       <c r="B123" s="2">
-        <v>56.2</v>
+        <v>56.3</v>
       </c>
       <c r="C123">
         <f t="shared" si="1"/>
-        <v>2.9304029304029422</v>
+        <v>1.4414414414414267</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="3">
-        <v>41883</v>
+        <v>41913</v>
       </c>
       <c r="B124" s="2">
-        <v>55.7</v>
+        <v>56.2</v>
       </c>
       <c r="C124">
         <f t="shared" si="1"/>
-        <v>2.0146520146520075</v>
+        <v>2.9304029304029422</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="3">
-        <v>41852</v>
+        <v>41883</v>
       </c>
       <c r="B125" s="2">
-        <v>56.3</v>
+        <v>55.7</v>
       </c>
       <c r="C125">
         <f t="shared" si="1"/>
-        <v>4.2592592592592515</v>
+        <v>2.0146520146520075</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="3">
-        <v>41821</v>
+        <v>41852</v>
       </c>
       <c r="B126" s="2">
-        <v>55.1</v>
+        <v>56.3</v>
       </c>
       <c r="C126">
         <f t="shared" si="1"/>
-        <v>2.4163568773234223</v>
+        <v>4.2592592592592515</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="3">
-        <v>41791</v>
+        <v>41821</v>
       </c>
       <c r="B127" s="2">
-        <v>55</v>
+        <v>55.1</v>
       </c>
       <c r="C127">
         <f t="shared" si="1"/>
-        <v>7.6320939334638016</v>
+        <v>2.4163568773234223</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="3">
-        <v>41760</v>
+        <v>41791</v>
       </c>
       <c r="B128" s="2">
-        <v>55.7</v>
+        <v>55</v>
       </c>
       <c r="C128">
         <f t="shared" si="1"/>
-        <v>9.6456692913385886</v>
+        <v>7.6320939334638016</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="3">
-        <v>41730</v>
+        <v>41760</v>
       </c>
       <c r="B129" s="2">
-        <v>56.6</v>
+        <v>55.7</v>
       </c>
       <c r="C129">
         <f t="shared" si="1"/>
-        <v>10.98039215686275</v>
+        <v>9.6456692913385886</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="3">
-        <v>41699</v>
+        <v>41730</v>
       </c>
       <c r="B130" s="2">
-        <v>55.9</v>
+        <v>56.6</v>
       </c>
       <c r="C130">
-        <f t="shared" ref="C130:C193" si="2">(B130/B142-1)*100</f>
-        <v>7.707129094412335</v>
+        <f t="shared" si="1"/>
+        <v>10.98039215686275</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="3">
-        <v>41671</v>
+        <v>41699</v>
       </c>
       <c r="B131" s="2">
-        <v>55</v>
+        <v>55.9</v>
       </c>
       <c r="C131">
-        <f t="shared" si="2"/>
-        <v>1.4760147601476037</v>
+        <f t="shared" ref="C131:C194" si="2">(B131/B143-1)*100</f>
+        <v>7.707129094412335</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="3">
-        <v>41640</v>
+        <v>41671</v>
       </c>
       <c r="B132" s="2">
-        <v>52.5</v>
+        <v>55</v>
       </c>
       <c r="C132">
         <f t="shared" si="2"/>
-        <v>-1.5009380863039379</v>
+        <v>1.4760147601476037</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="3">
-        <v>41609</v>
+        <v>41640</v>
       </c>
       <c r="B133" s="2">
-        <v>56.5</v>
+        <v>52.5</v>
       </c>
       <c r="C133">
         <f t="shared" si="2"/>
-        <v>12.774451097804395</v>
+        <v>-1.5009380863039379</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="3">
-        <v>41579</v>
+        <v>41609</v>
       </c>
       <c r="B134" s="2">
-        <v>55.5</v>
+        <v>56.5</v>
       </c>
       <c r="C134">
         <f t="shared" si="2"/>
-        <v>15.625</v>
+        <v>12.774451097804395</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="3">
-        <v>41548</v>
+        <v>41579</v>
       </c>
       <c r="B135" s="2">
-        <v>54.6</v>
+        <v>55.5</v>
       </c>
       <c r="C135">
         <f t="shared" si="2"/>
-        <v>8.118811881188126</v>
+        <v>15.625</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="3">
-        <v>41518</v>
+        <v>41548</v>
       </c>
       <c r="B136" s="2">
         <v>54.6</v>
       </c>
       <c r="C136">
         <f t="shared" si="2"/>
-        <v>7.4803149606299302</v>
+        <v>8.118811881188126</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="3">
-        <v>41487</v>
+        <v>41518</v>
       </c>
       <c r="B137" s="2">
-        <v>54</v>
+        <v>54.6</v>
       </c>
       <c r="C137">
         <f t="shared" si="2"/>
-        <v>10.20408163265305</v>
+        <v>7.4803149606299302</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="3">
-        <v>41456</v>
+        <v>41487</v>
       </c>
       <c r="B138" s="2">
-        <v>53.8</v>
+        <v>54</v>
       </c>
       <c r="C138">
         <f t="shared" si="2"/>
-        <v>8.4677419354838523</v>
+        <v>10.20408163265305</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="3">
-        <v>41426</v>
+        <v>41456</v>
       </c>
       <c r="B139" s="2">
-        <v>51.1</v>
+        <v>53.8</v>
       </c>
       <c r="C139">
         <f t="shared" si="2"/>
-        <v>3.2323232323232309</v>
+        <v>8.4677419354838523</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="3">
-        <v>41395</v>
+        <v>41426</v>
       </c>
       <c r="B140" s="2">
-        <v>50.8</v>
+        <v>51.1</v>
       </c>
       <c r="C140">
         <f t="shared" si="2"/>
-        <v>-4.5112781954887327</v>
+        <v>3.2323232323232309</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="3">
-        <v>41365</v>
+        <v>41395</v>
       </c>
       <c r="B141" s="2">
-        <v>51</v>
+        <v>50.8</v>
       </c>
       <c r="C141">
         <f t="shared" si="2"/>
-        <v>-7.608695652173914</v>
+        <v>-4.5112781954887327</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="3">
-        <v>41334</v>
+        <v>41365</v>
       </c>
       <c r="B142" s="2">
-        <v>51.9</v>
+        <v>51</v>
       </c>
       <c r="C142">
         <f t="shared" si="2"/>
-        <v>-2.9906542056074792</v>
+        <v>-7.608695652173914</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="3">
-        <v>41306</v>
+        <v>41334</v>
       </c>
       <c r="B143" s="2">
-        <v>54.2</v>
+        <v>51.9</v>
       </c>
       <c r="C143">
         <f t="shared" si="2"/>
-        <v>1.6885553470919357</v>
+        <v>-2.9906542056074792</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="3">
-        <v>41275</v>
+        <v>41306</v>
       </c>
       <c r="B144" s="2">
-        <v>53.3</v>
+        <v>54.2</v>
       </c>
       <c r="C144">
         <f t="shared" si="2"/>
-        <v>-1.6605166051660625</v>
+        <v>1.6885553470919357</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="3">
-        <v>41244</v>
+        <v>41275</v>
       </c>
       <c r="B145" s="2">
-        <v>50.1</v>
+        <v>53.3</v>
       </c>
       <c r="C145">
         <f t="shared" si="2"/>
-        <v>-5.4716981132075464</v>
+        <v>-1.6605166051660625</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="3">
-        <v>41214</v>
+        <v>41244</v>
       </c>
       <c r="B146" s="2">
-        <v>48</v>
+        <v>50.1</v>
       </c>
       <c r="C146">
         <f t="shared" si="2"/>
-        <v>-7.3359073359073328</v>
+        <v>-5.4716981132075464</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="3">
-        <v>41183</v>
+        <v>41214</v>
       </c>
       <c r="B147" s="2">
-        <v>50.5</v>
+        <v>48</v>
       </c>
       <c r="C147">
         <f t="shared" si="2"/>
-        <v>-1.7509727626459082</v>
+        <v>-7.3359073359073328</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="3">
-        <v>41153</v>
+        <v>41183</v>
       </c>
       <c r="B148" s="2">
-        <v>50.8</v>
+        <v>50.5</v>
       </c>
       <c r="C148">
         <f t="shared" si="2"/>
-        <v>-5.4003724394785957</v>
+        <v>-1.7509727626459082</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="3">
-        <v>41122</v>
+        <v>41153</v>
       </c>
       <c r="B149" s="2">
-        <v>49</v>
+        <v>50.8</v>
       </c>
       <c r="C149">
         <f t="shared" si="2"/>
-        <v>-6.8441064638783295</v>
+        <v>-5.4003724394785957</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="3">
-        <v>41091</v>
+        <v>41122</v>
       </c>
       <c r="B150" s="2">
-        <v>49.6</v>
+        <v>49</v>
       </c>
       <c r="C150">
         <f t="shared" si="2"/>
-        <v>-6.2381852551984807</v>
+        <v>-6.8441064638783295</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="3">
-        <v>41061</v>
+        <v>41091</v>
       </c>
       <c r="B151" s="2">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="C151">
         <f t="shared" si="2"/>
-        <v>-11.290322580645151</v>
+        <v>-6.2381852551984807</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="3">
-        <v>41030</v>
+        <v>41061</v>
       </c>
       <c r="B152" s="2">
-        <v>53.2</v>
+        <v>49.5</v>
       </c>
       <c r="C152">
         <f t="shared" si="2"/>
-        <v>-2.9197080291970656</v>
+        <v>-11.290322580645151</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="3">
-        <v>41000</v>
+        <v>41030</v>
       </c>
       <c r="B153" s="2">
-        <v>55.2</v>
+        <v>53.2</v>
       </c>
       <c r="C153">
         <f t="shared" si="2"/>
-        <v>-4.663212435233155</v>
+        <v>-2.9197080291970656</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="3">
-        <v>40969</v>
+        <v>41000</v>
       </c>
       <c r="B154" s="2">
-        <v>53.5</v>
+        <v>55.2</v>
       </c>
       <c r="C154">
         <f t="shared" si="2"/>
-        <v>-8.3904109589041038</v>
+        <v>-4.663212435233155</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="3">
-        <v>40940</v>
+        <v>40969</v>
       </c>
       <c r="B155" s="2">
-        <v>53.3</v>
+        <v>53.5</v>
       </c>
       <c r="C155">
         <f t="shared" si="2"/>
-        <v>-9.9662162162162282</v>
+        <v>-8.3904109589041038</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="3">
-        <v>40909</v>
+        <v>40940</v>
       </c>
       <c r="B156" s="2">
-        <v>54.2</v>
+        <v>53.3</v>
       </c>
       <c r="C156">
         <f t="shared" si="2"/>
-        <v>-8.2910321489001682</v>
+        <v>-9.9662162162162282</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="3">
-        <v>40878</v>
+        <v>40909</v>
       </c>
       <c r="B157" s="2">
-        <v>53</v>
+        <v>54.2</v>
       </c>
       <c r="C157">
         <f t="shared" si="2"/>
-        <v>-6.360424028268552</v>
+        <v>-8.2910321489001682</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="3">
-        <v>40848</v>
+        <v>40878</v>
       </c>
       <c r="B158" s="2">
-        <v>51.8</v>
+        <v>53</v>
       </c>
       <c r="C158">
         <f t="shared" si="2"/>
-        <v>-9.5986038394415338</v>
+        <v>-6.360424028268552</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="3">
-        <v>40817</v>
+        <v>40848</v>
       </c>
       <c r="B159" s="2">
-        <v>51.4</v>
+        <v>51.8</v>
       </c>
       <c r="C159">
         <f t="shared" si="2"/>
-        <v>-9.6660808435852346</v>
+        <v>-9.5986038394415338</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="3">
-        <v>40787</v>
+        <v>40817</v>
       </c>
       <c r="B160" s="2">
-        <v>53.7</v>
+        <v>51.4</v>
       </c>
       <c r="C160">
         <f t="shared" si="2"/>
-        <v>-2.8933092224231349</v>
+        <v>-9.6660808435852346</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="3">
-        <v>40756</v>
+        <v>40787</v>
       </c>
       <c r="B161" s="2">
-        <v>52.6</v>
+        <v>53.7</v>
       </c>
       <c r="C161">
         <f t="shared" si="2"/>
-        <v>-6.7375886524822626</v>
+        <v>-2.8933092224231349</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="3">
-        <v>40725</v>
+        <v>40756</v>
       </c>
       <c r="B162" s="2">
-        <v>52.9</v>
+        <v>52.6</v>
       </c>
       <c r="C162">
         <f t="shared" si="2"/>
-        <v>-5.7040998217468886</v>
+        <v>-6.7375886524822626</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="3">
-        <v>40695</v>
+        <v>40725</v>
       </c>
       <c r="B163" s="2">
-        <v>55.8</v>
+        <v>52.9</v>
       </c>
       <c r="C163">
         <f t="shared" si="2"/>
-        <v>-1.2389380530973493</v>
+        <v>-5.7040998217468886</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="3">
-        <v>40664</v>
+        <v>40695</v>
       </c>
       <c r="B164" s="2">
-        <v>54.8</v>
+        <v>55.8</v>
       </c>
       <c r="C164">
         <f t="shared" si="2"/>
-        <v>-4.5296167247386832</v>
+        <v>-1.2389380530973493</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="3">
-        <v>40634</v>
+        <v>40664</v>
       </c>
       <c r="B165" s="2">
-        <v>57.9</v>
+        <v>54.8</v>
       </c>
       <c r="C165">
         <f t="shared" si="2"/>
-        <v>-0.34423407917384408</v>
+        <v>-4.5296167247386832</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="3">
-        <v>40603</v>
+        <v>40634</v>
       </c>
       <c r="B166" s="2">
-        <v>58.4</v>
+        <v>57.9</v>
       </c>
       <c r="C166">
         <f t="shared" si="2"/>
-        <v>-0.68027210884353817</v>
+        <v>-0.34423407917384408</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="3">
-        <v>40575</v>
+        <v>40603</v>
       </c>
       <c r="B167" s="2">
-        <v>59.2</v>
+        <v>58.4</v>
       </c>
       <c r="C167">
         <f t="shared" si="2"/>
-        <v>6.6666666666666652</v>
+        <v>-0.68027210884353817</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="3">
-        <v>40544</v>
+        <v>40575</v>
       </c>
       <c r="B168" s="2">
-        <v>59.1</v>
+        <v>59.2</v>
       </c>
       <c r="C168">
         <f t="shared" si="2"/>
-        <v>4.973357015985802</v>
+        <v>6.6666666666666652</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="3">
-        <v>40513</v>
+        <v>40544</v>
       </c>
       <c r="B169" s="2">
-        <v>56.6</v>
+        <v>59.1</v>
       </c>
       <c r="C169">
         <f t="shared" si="2"/>
-        <v>1.433691756272415</v>
+        <v>4.973357015985802</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="3">
-        <v>40483</v>
+        <v>40513</v>
       </c>
       <c r="B170" s="2">
-        <v>57.3</v>
+        <v>56.6</v>
       </c>
       <c r="C170">
         <f t="shared" si="2"/>
-        <v>3.4296028880866469</v>
+        <v>1.433691756272415</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="3">
-        <v>40452</v>
+        <v>40483</v>
       </c>
       <c r="B171" s="2">
-        <v>56.9</v>
+        <v>57.3</v>
       </c>
       <c r="C171">
         <f t="shared" si="2"/>
-        <v>-1.215277777777779</v>
+        <v>3.4296028880866469</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="3">
-        <v>40422</v>
+        <v>40452</v>
       </c>
       <c r="B172" s="2">
-        <v>55.3</v>
+        <v>56.9</v>
       </c>
       <c r="C172">
         <f t="shared" si="2"/>
-        <v>0.72859744990891873</v>
+        <v>-1.215277777777779</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="3">
-        <v>40391</v>
+        <v>40422</v>
       </c>
       <c r="B173" s="2">
-        <v>56.4</v>
+        <v>55.3</v>
       </c>
       <c r="C173">
         <f t="shared" si="2"/>
-        <v>5.6179775280898792</v>
+        <v>0.72859744990891873</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="3">
-        <v>40360</v>
+        <v>40391</v>
       </c>
       <c r="B174" s="2">
-        <v>56.1</v>
+        <v>56.4</v>
       </c>
       <c r="C174">
         <f t="shared" si="2"/>
-        <v>12.877263581488929</v>
+        <v>5.6179775280898792</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="3">
-        <v>40330</v>
+        <v>40360</v>
       </c>
       <c r="B175" s="2">
-        <v>56.5</v>
+        <v>56.1</v>
       </c>
       <c r="C175">
         <f t="shared" si="2"/>
-        <v>22.030237580993518</v>
+        <v>12.877263581488929</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="3">
-        <v>40299</v>
+        <v>40330</v>
       </c>
       <c r="B176" s="2">
-        <v>57.4</v>
+        <v>56.5</v>
       </c>
       <c r="C176">
         <f t="shared" si="2"/>
-        <v>30.15873015873014</v>
+        <v>22.030237580993518</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="3">
-        <v>40269</v>
+        <v>40299</v>
       </c>
       <c r="B177" s="2">
-        <v>58.1</v>
+        <v>57.4</v>
       </c>
       <c r="C177">
         <f t="shared" si="2"/>
-        <v>45.614035087719309</v>
+        <v>30.15873015873014</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="3">
-        <v>40238</v>
+        <v>40269</v>
       </c>
       <c r="B178" s="2">
-        <v>58.8</v>
+        <v>58.1</v>
       </c>
       <c r="C178">
         <f t="shared" si="2"/>
-        <v>58.064516129032228</v>
+        <v>45.614035087719309</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="3">
-        <v>40210</v>
+        <v>40238</v>
       </c>
       <c r="B179" s="2">
-        <v>55.5</v>
+        <v>58.8</v>
       </c>
       <c r="C179">
         <f t="shared" si="2"/>
-        <v>51.639344262295083</v>
+        <v>58.064516129032228</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="3">
-        <v>40179</v>
+        <v>40210</v>
       </c>
       <c r="B180" s="2">
-        <v>56.3</v>
+        <v>55.5</v>
       </c>
       <c r="C180">
         <f t="shared" si="2"/>
-        <v>54.670329670329679</v>
+        <v>51.639344262295083</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="3">
-        <v>40148</v>
+        <v>40179</v>
       </c>
       <c r="B181" s="2">
-        <v>55.8</v>
+        <v>56.3</v>
       </c>
       <c r="C181">
         <f t="shared" si="2"/>
-        <v>61.739130434782609</v>
+        <v>54.670329670329679</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="3">
-        <v>40118</v>
+        <v>40148</v>
       </c>
       <c r="B182" s="2">
-        <v>55.4</v>
+        <v>55.8</v>
       </c>
       <c r="C182">
         <f t="shared" si="2"/>
-        <v>42.051282051282058</v>
+        <v>61.739130434782609</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="3">
-        <v>40087</v>
+        <v>40118</v>
       </c>
       <c r="B183" s="2">
-        <v>57.6</v>
+        <v>55.4</v>
       </c>
       <c r="C183">
         <f t="shared" si="2"/>
-        <v>50.785340314136107</v>
+        <v>42.051282051282058</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="3">
-        <v>40057</v>
+        <v>40087</v>
       </c>
       <c r="B184" s="2">
-        <v>54.9</v>
+        <v>57.6</v>
       </c>
       <c r="C184">
         <f t="shared" si="2"/>
-        <v>16.313559322033889</v>
+        <v>50.785340314136107</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="3">
-        <v>40026</v>
+        <v>40057</v>
       </c>
       <c r="B185" s="2">
-        <v>53.4</v>
+        <v>54.9</v>
       </c>
       <c r="C185">
         <f t="shared" si="2"/>
-        <v>6.5868263473053856</v>
+        <v>16.313559322033889</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="3">
-        <v>39995</v>
+        <v>40026</v>
       </c>
       <c r="B186" s="2">
-        <v>49.7</v>
+        <v>53.4</v>
       </c>
       <c r="C186">
         <f t="shared" si="2"/>
-        <v>-2.1653543307086465</v>
+        <v>6.5868263473053856</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="3">
-        <v>39965</v>
+        <v>39995</v>
       </c>
       <c r="B187" s="2">
-        <v>46.3</v>
+        <v>49.7</v>
       </c>
       <c r="C187">
         <f t="shared" si="2"/>
-        <v>-7.2144288577154381</v>
+        <v>-2.1653543307086465</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="3">
-        <v>39934</v>
+        <v>39965</v>
       </c>
       <c r="B188" s="2">
-        <v>44.1</v>
+        <v>46.3</v>
       </c>
       <c r="C188">
         <f t="shared" si="2"/>
-        <v>-9.8159509202453972</v>
+        <v>-7.2144288577154381</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="3">
-        <v>39904</v>
+        <v>39934</v>
       </c>
       <c r="B189" s="2">
-        <v>39.9</v>
+        <v>44.1</v>
       </c>
       <c r="C189">
         <f t="shared" si="2"/>
-        <v>-17.731958762886602</v>
+        <v>-9.8159509202453972</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="3">
-        <v>39873</v>
+        <v>39904</v>
       </c>
       <c r="B190" s="2">
-        <v>37.200000000000003</v>
+        <v>39.9</v>
       </c>
       <c r="C190">
         <f t="shared" si="2"/>
-        <v>-25.150905432595572</v>
+        <v>-17.731958762886602</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="3">
-        <v>39845</v>
+        <v>39873</v>
       </c>
       <c r="B191" s="2">
-        <v>36.6</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="C191">
         <f t="shared" si="2"/>
-        <v>-24.999999999999989</v>
+        <v>-25.150905432595572</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="3">
-        <v>39814</v>
+        <v>39845</v>
       </c>
       <c r="B192" s="2">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="C192">
         <f t="shared" si="2"/>
-        <v>-28.487229862475438</v>
+        <v>-24.999999999999989</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="3">
-        <v>39783</v>
+        <v>39814</v>
       </c>
       <c r="B193" s="2">
-        <v>34.5</v>
+        <v>36.4</v>
       </c>
       <c r="C193">
         <f t="shared" si="2"/>
-        <v>-31.137724550898206</v>
+        <v>-28.487229862475438</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="3">
-        <v>39753</v>
+        <v>39783</v>
       </c>
       <c r="B194" s="2">
-        <v>39</v>
+        <v>34.5</v>
       </c>
       <c r="C194">
-        <f t="shared" ref="C194:C257" si="3">(B194/B206-1)*100</f>
-        <v>-24.271844660194176</v>
+        <f t="shared" si="2"/>
+        <v>-31.137724550898206</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="3">
-        <v>39722</v>
+        <v>39753</v>
       </c>
       <c r="B195" s="2">
-        <v>38.200000000000003</v>
+        <v>39</v>
       </c>
       <c r="C195">
-        <f t="shared" si="3"/>
-        <v>-27.651515151515138</v>
+        <f t="shared" ref="C195:C258" si="3">(B195/B207-1)*100</f>
+        <v>-24.271844660194176</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="3">
-        <v>39692</v>
+        <v>39722</v>
       </c>
       <c r="B196" s="2">
-        <v>47.2</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="C196">
         <f t="shared" si="3"/>
-        <v>-12.26765799256505</v>
+        <v>-27.651515151515138</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="3">
-        <v>39661</v>
+        <v>39692</v>
       </c>
       <c r="B197" s="2">
-        <v>50.1</v>
+        <v>47.2</v>
       </c>
       <c r="C197">
         <f t="shared" si="3"/>
-        <v>-4.0229885057471275</v>
+        <v>-12.26765799256505</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="3">
-        <v>39630</v>
+        <v>39661</v>
       </c>
       <c r="B198" s="2">
-        <v>50.8</v>
+        <v>50.1</v>
       </c>
       <c r="C198">
         <f t="shared" si="3"/>
-        <v>-1.9305019305019266</v>
+        <v>-4.0229885057471275</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="3">
-        <v>39600</v>
+        <v>39630</v>
       </c>
       <c r="B199" s="2">
-        <v>49.9</v>
+        <v>50.8</v>
       </c>
       <c r="C199">
         <f t="shared" si="3"/>
-        <v>-7.5925925925925952</v>
+        <v>-1.9305019305019266</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="3">
-        <v>39569</v>
+        <v>39600</v>
       </c>
       <c r="B200" s="2">
-        <v>48.9</v>
+        <v>49.9</v>
       </c>
       <c r="C200">
         <f t="shared" si="3"/>
-        <v>-7.9096045197740157</v>
+        <v>-7.5925925925925952</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="3">
-        <v>39539</v>
+        <v>39569</v>
       </c>
       <c r="B201" s="2">
-        <v>48.5</v>
+        <v>48.9</v>
       </c>
       <c r="C201">
         <f t="shared" si="3"/>
-        <v>-7.9696394686907031</v>
+        <v>-7.9096045197740157</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="3">
-        <v>39508</v>
+        <v>39539</v>
       </c>
       <c r="B202" s="2">
-        <v>49.7</v>
+        <v>48.5</v>
       </c>
       <c r="C202">
         <f t="shared" si="3"/>
-        <v>-5.8712121212121104</v>
+        <v>-7.9696394686907031</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="3">
-        <v>39479</v>
+        <v>39508</v>
       </c>
       <c r="B203" s="2">
-        <v>48.8</v>
+        <v>49.7</v>
       </c>
       <c r="C203">
         <f t="shared" si="3"/>
-        <v>-9.7966728280961313</v>
+        <v>-5.8712121212121104</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="3">
-        <v>39448</v>
+        <v>39479</v>
       </c>
       <c r="B204" s="2">
-        <v>50.9</v>
+        <v>48.8</v>
       </c>
       <c r="C204">
         <f t="shared" si="3"/>
-        <v>0.99206349206348854</v>
+        <v>-9.7966728280961313</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="3">
-        <v>39417</v>
+        <v>39448</v>
       </c>
       <c r="B205" s="2">
-        <v>50.1</v>
+        <v>50.9</v>
       </c>
       <c r="C205">
         <f t="shared" si="3"/>
-        <v>-2.5291828793774229</v>
+        <v>0.99206349206348854</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="3">
-        <v>39387</v>
+        <v>39417</v>
       </c>
       <c r="B206" s="2">
-        <v>51.5</v>
+        <v>50.1</v>
       </c>
       <c r="C206">
         <f t="shared" si="3"/>
-        <v>2.3856858846918572</v>
+        <v>-2.5291828793774229</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="3">
-        <v>39356</v>
+        <v>39387</v>
       </c>
       <c r="B207" s="2">
-        <v>52.8</v>
+        <v>51.5</v>
       </c>
       <c r="C207">
         <f t="shared" si="3"/>
-        <v>2.7237354085603016</v>
+        <v>2.3856858846918572</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="3">
-        <v>39326</v>
+        <v>39356</v>
       </c>
       <c r="B208" s="2">
-        <v>53.8</v>
+        <v>52.8</v>
       </c>
       <c r="C208">
         <f t="shared" si="3"/>
-        <v>3.0651340996168397</v>
+        <v>2.7237354085603016</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="3">
-        <v>39295</v>
+        <v>39326</v>
       </c>
       <c r="B209" s="2">
-        <v>52.2</v>
+        <v>53.8</v>
       </c>
       <c r="C209">
         <f t="shared" si="3"/>
-        <v>-2.7932960893854775</v>
+        <v>3.0651340996168397</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="3">
-        <v>39264</v>
+        <v>39295</v>
       </c>
       <c r="B210" s="2">
-        <v>51.8</v>
+        <v>52.2</v>
       </c>
       <c r="C210">
         <f t="shared" si="3"/>
-        <v>-2.264150943396237</v>
+        <v>-2.7932960893854775</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="3">
-        <v>39234</v>
+        <v>39264</v>
       </c>
       <c r="B211" s="2">
-        <v>54</v>
+        <v>51.8</v>
       </c>
       <c r="C211">
         <f t="shared" si="3"/>
-        <v>3.8461538461538547</v>
+        <v>-2.264150943396237</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="3">
-        <v>39203</v>
+        <v>39234</v>
       </c>
       <c r="B212" s="2">
-        <v>53.1</v>
+        <v>54</v>
       </c>
       <c r="C212">
         <f t="shared" si="3"/>
-        <v>-1.1173184357541888</v>
+        <v>3.8461538461538547</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="3">
-        <v>39173</v>
+        <v>39203</v>
       </c>
       <c r="B213" s="2">
-        <v>52.7</v>
+        <v>53.1</v>
       </c>
       <c r="C213">
         <f t="shared" si="3"/>
-        <v>-4.5289855072463752</v>
+        <v>-1.1173184357541888</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="3">
-        <v>39142</v>
+        <v>39173</v>
       </c>
       <c r="B214" s="2">
-        <v>52.8</v>
+        <v>52.7</v>
       </c>
       <c r="C214">
         <f t="shared" si="3"/>
-        <v>-2.7624309392265234</v>
+        <v>-4.5289855072463752</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="3">
-        <v>39114</v>
+        <v>39142</v>
       </c>
       <c r="B215" s="2">
-        <v>54.1</v>
+        <v>52.8</v>
       </c>
       <c r="C215">
         <f t="shared" si="3"/>
-        <v>-3.0465949820788429</v>
+        <v>-2.7624309392265234</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="3">
-        <v>39083</v>
+        <v>39114</v>
       </c>
       <c r="B216" s="2">
-        <v>50.4</v>
+        <v>54.1</v>
       </c>
       <c r="C216">
         <f t="shared" si="3"/>
-        <v>-8.3636363636363615</v>
+        <v>-3.0465949820788429</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="3">
-        <v>39052</v>
+        <v>39083</v>
       </c>
       <c r="B217" s="2">
-        <v>51.4</v>
+        <v>50.4</v>
       </c>
       <c r="C217">
         <f t="shared" si="3"/>
-        <v>-6.7150635208711451</v>
+        <v>-8.3636363636363615</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="3">
-        <v>39022</v>
+        <v>39052</v>
       </c>
       <c r="B218" s="2">
-        <v>50.3</v>
+        <v>51.4</v>
       </c>
       <c r="C218">
         <f t="shared" si="3"/>
-        <v>-11.287477954144631</v>
+        <v>-6.7150635208711451</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="3">
-        <v>38991</v>
+        <v>39022</v>
       </c>
       <c r="B219" s="2">
-        <v>51.4</v>
+        <v>50.3</v>
       </c>
       <c r="C219">
         <f t="shared" si="3"/>
-        <v>-10.139860139860147</v>
+        <v>-11.287477954144631</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="3">
-        <v>38961</v>
+        <v>38991</v>
       </c>
       <c r="B220" s="2">
-        <v>52.2</v>
+        <v>51.4</v>
       </c>
       <c r="C220">
         <f t="shared" si="3"/>
-        <v>-8.0985915492957634</v>
+        <v>-10.139860139860147</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="3">
-        <v>38930</v>
+        <v>38961</v>
       </c>
       <c r="B221" s="2">
-        <v>53.7</v>
+        <v>52.2</v>
       </c>
       <c r="C221">
         <f t="shared" si="3"/>
-        <v>2.4809160305343525</v>
+        <v>-8.0985915492957634</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="3">
-        <v>38899</v>
+        <v>38930</v>
       </c>
       <c r="B222" s="2">
-        <v>53</v>
+        <v>53.7</v>
       </c>
       <c r="C222">
         <f t="shared" si="3"/>
-        <v>0.37878787878788955</v>
+        <v>2.4809160305343525</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="3">
-        <v>38869</v>
+        <v>38899</v>
       </c>
       <c r="B223" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C223">
         <f t="shared" si="3"/>
-        <v>-0.76335877862595547</v>
+        <v>0.37878787878788955</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="3">
-        <v>38838</v>
+        <v>38869</v>
       </c>
       <c r="B224" s="2">
-        <v>53.7</v>
+        <v>52</v>
       </c>
       <c r="C224">
         <f t="shared" si="3"/>
-        <v>5.7086614173228467</v>
+        <v>-0.76335877862595547</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="3">
-        <v>38808</v>
+        <v>38838</v>
       </c>
       <c r="B225" s="2">
-        <v>55.2</v>
+        <v>53.7</v>
       </c>
       <c r="C225">
         <f t="shared" si="3"/>
-        <v>5.7471264367816133</v>
+        <v>5.7086614173228467</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="3">
-        <v>38777</v>
+        <v>38808</v>
       </c>
       <c r="B226" s="2">
-        <v>54.3</v>
+        <v>55.2</v>
       </c>
       <c r="C226">
         <f t="shared" si="3"/>
-        <v>-1.6304347826087029</v>
+        <v>5.7471264367816133</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="3">
-        <v>38749</v>
+        <v>38777</v>
       </c>
       <c r="B227" s="2">
-        <v>55.8</v>
+        <v>54.3</v>
       </c>
       <c r="C227">
         <f t="shared" si="3"/>
-        <v>0.54054054054053502</v>
+        <v>-1.6304347826087029</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="3">
-        <v>38718</v>
+        <v>38749</v>
       </c>
       <c r="B228" s="2">
-        <v>55</v>
+        <v>55.8</v>
       </c>
       <c r="C228">
         <f t="shared" si="3"/>
-        <v>-3.169014084507038</v>
+        <v>0.54054054054053502</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="3">
-        <v>38687</v>
+        <v>38718</v>
       </c>
       <c r="B229" s="2">
-        <v>55.1</v>
+        <v>55</v>
       </c>
       <c r="C229">
         <f t="shared" si="3"/>
-        <v>-3.6713286713286775</v>
+        <v>-3.169014084507038</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="3">
-        <v>38657</v>
+        <v>38687</v>
       </c>
       <c r="B230" s="2">
-        <v>56.7</v>
+        <v>55.1</v>
       </c>
       <c r="C230">
         <f t="shared" si="3"/>
-        <v>0.88967971530249379</v>
+        <v>-3.6713286713286775</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="3">
-        <v>38626</v>
+        <v>38657</v>
       </c>
       <c r="B231" s="2">
-        <v>57.2</v>
+        <v>56.7</v>
       </c>
       <c r="C231">
         <f t="shared" si="3"/>
-        <v>1.598579040852588</v>
+        <v>0.88967971530249379</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="3">
-        <v>38596</v>
+        <v>38626</v>
       </c>
       <c r="B232" s="2">
-        <v>56.8</v>
+        <v>57.2</v>
       </c>
       <c r="C232">
         <f t="shared" si="3"/>
-        <v>-1.0452961672473893</v>
+        <v>1.598579040852588</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="3">
-        <v>38565</v>
+        <v>38596</v>
       </c>
       <c r="B233" s="2">
-        <v>52.4</v>
+        <v>56.8</v>
       </c>
       <c r="C233">
         <f t="shared" si="3"/>
-        <v>-10.427350427350435</v>
+        <v>-1.0452961672473893</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="3">
-        <v>38534</v>
+        <v>38565</v>
       </c>
       <c r="B234" s="2">
-        <v>52.8</v>
+        <v>52.4</v>
       </c>
       <c r="C234">
         <f t="shared" si="3"/>
-        <v>-11.853088480801343</v>
+        <v>-10.427350427350435</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="3">
-        <v>38504</v>
+        <v>38534</v>
       </c>
       <c r="B235" s="2">
-        <v>52.4</v>
+        <v>52.8</v>
       </c>
       <c r="C235">
         <f t="shared" si="3"/>
-        <v>-13.388429752066122</v>
+        <v>-11.853088480801343</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="3">
-        <v>38473</v>
+        <v>38504</v>
       </c>
       <c r="B236" s="2">
-        <v>50.8</v>
+        <v>52.4</v>
       </c>
       <c r="C236">
         <f t="shared" si="3"/>
-        <v>-17.263843648208478</v>
+        <v>-13.388429752066122</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="3">
-        <v>38443</v>
+        <v>38473</v>
       </c>
       <c r="B237" s="2">
-        <v>52.2</v>
+        <v>50.8</v>
       </c>
       <c r="C237">
         <f t="shared" si="3"/>
-        <v>-13.861386138613863</v>
+        <v>-17.263843648208478</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="3">
-        <v>38412</v>
+        <v>38443</v>
       </c>
       <c r="B238" s="2">
-        <v>55.2</v>
+        <v>52.2</v>
       </c>
       <c r="C238">
         <f t="shared" si="3"/>
-        <v>-8.9108910891089081</v>
+        <v>-13.861386138613863</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="3">
-        <v>38384</v>
+        <v>38412</v>
       </c>
       <c r="B239" s="2">
-        <v>55.5</v>
+        <v>55.2</v>
       </c>
       <c r="C239">
         <f t="shared" si="3"/>
-        <v>-7.3455759599332149</v>
+        <v>-8.9108910891089081</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="3">
-        <v>38353</v>
+        <v>38384</v>
       </c>
       <c r="B240" s="2">
-        <v>56.8</v>
+        <v>55.5</v>
       </c>
       <c r="C240">
         <f t="shared" si="3"/>
-        <v>-6.5789473684210513</v>
+        <v>-7.3455759599332149</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="3">
-        <v>38322</v>
+        <v>38353</v>
       </c>
       <c r="B241" s="2">
-        <v>57.2</v>
+        <v>56.8</v>
       </c>
       <c r="C241">
         <f t="shared" si="3"/>
-        <v>-4.8252911813643884</v>
+        <v>-6.5789473684210513</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="3">
-        <v>38292</v>
+        <v>38322</v>
       </c>
       <c r="B242" s="2">
-        <v>56.2</v>
+        <v>57.2</v>
       </c>
       <c r="C242">
         <f t="shared" si="3"/>
-        <v>-3.7671232876712257</v>
+        <v>-4.8252911813643884</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="3">
-        <v>38261</v>
+        <v>38292</v>
       </c>
       <c r="B243" s="2">
-        <v>56.3</v>
+        <v>56.2</v>
       </c>
       <c r="C243">
         <f t="shared" si="3"/>
-        <v>1.9927536231884035</v>
+        <v>-3.7671232876712257</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="3">
-        <v>38231</v>
+        <v>38261</v>
       </c>
       <c r="B244" s="2">
-        <v>57.4</v>
+        <v>56.3</v>
       </c>
       <c r="C244">
         <f t="shared" si="3"/>
-        <v>9.5419847328244387</v>
+        <v>1.9927536231884035</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="3">
-        <v>38200</v>
+        <v>38231</v>
       </c>
       <c r="B245" s="2">
-        <v>58.5</v>
+        <v>57.4</v>
       </c>
       <c r="C245">
         <f t="shared" si="3"/>
-        <v>9.9624060150375939</v>
+        <v>9.5419847328244387</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="3">
-        <v>38169</v>
+        <v>38200</v>
       </c>
       <c r="B246" s="2">
-        <v>59.9</v>
+        <v>58.5</v>
       </c>
       <c r="C246">
         <f t="shared" si="3"/>
-        <v>17.450980392156868</v>
+        <v>9.9624060150375939</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="3">
-        <v>38139</v>
+        <v>38169</v>
       </c>
       <c r="B247" s="2">
-        <v>60.5</v>
+        <v>59.9</v>
       </c>
       <c r="C247">
         <f t="shared" si="3"/>
-        <v>23.469387755102034</v>
+        <v>17.450980392156868</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="3">
-        <v>38108</v>
+        <v>38139</v>
       </c>
       <c r="B248" s="2">
-        <v>61.4</v>
+        <v>60.5</v>
       </c>
       <c r="C248">
         <f t="shared" si="3"/>
-        <v>25.306122448979586</v>
+        <v>23.469387755102034</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="3">
-        <v>38078</v>
+        <v>38108</v>
       </c>
       <c r="B249" s="2">
-        <v>60.6</v>
+        <v>61.4</v>
       </c>
       <c r="C249">
         <f t="shared" si="3"/>
-        <v>31.453362255965288</v>
+        <v>25.306122448979586</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="3">
-        <v>38047</v>
+        <v>38078</v>
       </c>
       <c r="B250" s="2">
         <v>60.6</v>
       </c>
       <c r="C250">
         <f t="shared" si="3"/>
-        <v>30.885529157667403</v>
+        <v>31.453362255965288</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="3">
-        <v>38018</v>
+        <v>38047</v>
       </c>
       <c r="B251" s="2">
-        <v>59.9</v>
+        <v>60.6</v>
       </c>
       <c r="C251">
         <f t="shared" si="3"/>
-        <v>22.745901639344268</v>
+        <v>30.885529157667403</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="3">
-        <v>37987</v>
+        <v>38018</v>
       </c>
       <c r="B252" s="2">
-        <v>60.8</v>
+        <v>59.9</v>
       </c>
       <c r="C252">
         <f t="shared" si="3"/>
-        <v>18.518518518518512</v>
+        <v>22.745901639344268</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="3">
-        <v>37956</v>
+        <v>37987</v>
       </c>
       <c r="B253" s="2">
-        <v>60.1</v>
+        <v>60.8</v>
       </c>
       <c r="C253">
         <f t="shared" si="3"/>
-        <v>16.47286821705427</v>
+        <v>18.518518518518512</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="3">
-        <v>37926</v>
+        <v>37956</v>
       </c>
       <c r="B254" s="2">
-        <v>58.4</v>
+        <v>60.1</v>
       </c>
       <c r="C254">
         <f t="shared" si="3"/>
-        <v>20.412371134020614</v>
+        <v>16.47286821705427</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="3">
-        <v>37895</v>
+        <v>37926</v>
       </c>
       <c r="B255" s="2">
-        <v>55.2</v>
+        <v>58.4</v>
       </c>
       <c r="C255">
         <f t="shared" si="3"/>
-        <v>12.653061224489793</v>
+        <v>20.412371134020614</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="3">
-        <v>37865</v>
+        <v>37895</v>
       </c>
       <c r="B256" s="2">
-        <v>52.4</v>
+        <v>55.2</v>
       </c>
       <c r="C256">
         <f t="shared" si="3"/>
-        <v>3.7623762376237657</v>
+        <v>12.653061224489793</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="3">
-        <v>37834</v>
+        <v>37865</v>
       </c>
       <c r="B257" s="2">
-        <v>53.2</v>
+        <v>52.4</v>
       </c>
       <c r="C257">
         <f t="shared" si="3"/>
-        <v>5.7654075546719863</v>
+        <v>3.7623762376237657</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="3">
-        <v>37803</v>
+        <v>37834</v>
       </c>
       <c r="B258" s="2">
-        <v>51</v>
+        <v>53.2</v>
       </c>
       <c r="C258">
-        <f t="shared" ref="C258:C312" si="4">(B258/B270-1)*100</f>
-        <v>1.5936254980079667</v>
+        <f t="shared" si="3"/>
+        <v>5.7654075546719863</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="3">
-        <v>37773</v>
+        <v>37803</v>
       </c>
       <c r="B259" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C259">
-        <f t="shared" si="4"/>
-        <v>-8.5820895522388021</v>
+        <f t="shared" ref="C259:C313" si="4">(B259/B271-1)*100</f>
+        <v>1.5936254980079667</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="3">
-        <v>37742</v>
+        <v>37773</v>
       </c>
       <c r="B260" s="2">
         <v>49</v>
       </c>
       <c r="C260">
         <f t="shared" si="4"/>
-        <v>-7.7212806026365381</v>
+        <v>-8.5820895522388021</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="3">
-        <v>37712</v>
+        <v>37742</v>
       </c>
       <c r="B261" s="2">
-        <v>46.1</v>
+        <v>49</v>
       </c>
       <c r="C261">
         <f t="shared" si="4"/>
-        <v>-12.022900763358768</v>
+        <v>-7.7212806026365381</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="3">
-        <v>37681</v>
+        <v>37712</v>
       </c>
       <c r="B262" s="2">
-        <v>46.3</v>
+        <v>46.1</v>
       </c>
       <c r="C262">
         <f t="shared" si="4"/>
-        <v>-11.641221374045807</v>
+        <v>-12.022900763358768</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="3">
-        <v>37653</v>
+        <v>37681</v>
       </c>
       <c r="B263" s="2">
-        <v>48.8</v>
+        <v>46.3</v>
       </c>
       <c r="C263">
         <f t="shared" si="4"/>
-        <v>-3.747534516765294</v>
+        <v>-11.641221374045807</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="3">
-        <v>37622</v>
+        <v>37653</v>
       </c>
       <c r="B264" s="2">
-        <v>51.3</v>
+        <v>48.8</v>
       </c>
       <c r="C264">
         <f t="shared" si="4"/>
-        <v>7.9999999999999849</v>
+        <v>-3.747534516765294</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="3">
-        <v>37591</v>
+        <v>37622</v>
       </c>
       <c r="B265" s="2">
-        <v>51.6</v>
+        <v>51.3</v>
       </c>
       <c r="C265">
         <f t="shared" si="4"/>
-        <v>13.907284768211925</v>
+        <v>7.9999999999999849</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="3">
-        <v>37561</v>
+        <v>37591</v>
       </c>
       <c r="B266" s="2">
-        <v>48.5</v>
+        <v>51.6</v>
       </c>
       <c r="C266">
         <f t="shared" si="4"/>
-        <v>9.977324263038545</v>
+        <v>13.907284768211925</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="3">
-        <v>37530</v>
+        <v>37561</v>
       </c>
       <c r="B267" s="2">
-        <v>49</v>
+        <v>48.5</v>
       </c>
       <c r="C267">
         <f t="shared" si="4"/>
-        <v>20.098039215686292</v>
+        <v>9.977324263038545</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="3">
-        <v>37500</v>
+        <v>37530</v>
       </c>
       <c r="B268" s="2">
-        <v>50.5</v>
+        <v>49</v>
       </c>
       <c r="C268">
         <f t="shared" si="4"/>
-        <v>9.3073593073593095</v>
+        <v>20.098039215686292</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="3">
-        <v>37469</v>
+        <v>37500</v>
       </c>
       <c r="B269" s="2">
-        <v>50.3</v>
+        <v>50.5</v>
       </c>
       <c r="C269">
         <f t="shared" si="4"/>
-        <v>8.6393088552915831</v>
+        <v>9.3073593073593095</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="3">
-        <v>37438</v>
+        <v>37469</v>
       </c>
       <c r="B270" s="2">
-        <v>50.2</v>
+        <v>50.3</v>
       </c>
       <c r="C270">
         <f t="shared" si="4"/>
-        <v>15.402298850574713</v>
+        <v>8.6393088552915831</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="3">
-        <v>37408</v>
+        <v>37438</v>
       </c>
       <c r="B271" s="2">
-        <v>53.6</v>
+        <v>50.2</v>
       </c>
       <c r="C271">
         <f t="shared" si="4"/>
-        <v>24.074074074074069</v>
+        <v>15.402298850574713</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="3">
-        <v>37377</v>
+        <v>37408</v>
       </c>
       <c r="B272" s="2">
-        <v>53.1</v>
+        <v>53.6</v>
       </c>
       <c r="C272">
         <f t="shared" si="4"/>
-        <v>28.57142857142858</v>
+        <v>24.074074074074069</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="3">
-        <v>37347</v>
+        <v>37377</v>
       </c>
       <c r="B273" s="2">
-        <v>52.4</v>
+        <v>53.1</v>
       </c>
       <c r="C273">
         <f t="shared" si="4"/>
-        <v>22.716627634660401</v>
+        <v>28.57142857142858</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="3">
-        <v>37316</v>
+        <v>37347</v>
       </c>
       <c r="B274" s="2">
         <v>52.4</v>
       </c>
       <c r="C274">
         <f t="shared" si="4"/>
-        <v>21.577726218097439</v>
+        <v>22.716627634660401</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="3">
-        <v>37288</v>
+        <v>37316</v>
       </c>
       <c r="B275" s="2">
-        <v>50.7</v>
+        <v>52.4</v>
       </c>
       <c r="C275">
         <f t="shared" si="4"/>
-        <v>20.427553444180525</v>
+        <v>21.577726218097439</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="3">
-        <v>37257</v>
+        <v>37288</v>
       </c>
       <c r="B276" s="2">
-        <v>47.5</v>
+        <v>50.7</v>
       </c>
       <c r="C276">
         <f t="shared" si="4"/>
-        <v>12.293144208037843</v>
+        <v>20.427553444180525</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="3">
-        <v>37226</v>
+        <v>37257</v>
       </c>
       <c r="B277" s="2">
-        <v>45.3</v>
+        <v>47.5</v>
       </c>
       <c r="C277">
         <f t="shared" si="4"/>
-        <v>3.1890660592255093</v>
+        <v>12.293144208037843</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="3">
-        <v>37196</v>
+        <v>37226</v>
       </c>
       <c r="B278" s="2">
-        <v>44.1</v>
+        <v>45.3</v>
       </c>
       <c r="C278">
         <f t="shared" si="4"/>
-        <v>-9.0721649484536098</v>
+        <v>3.1890660592255093</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="3">
-        <v>37165</v>
+        <v>37196</v>
       </c>
       <c r="B279" s="2">
-        <v>40.799999999999997</v>
+        <v>44.1</v>
       </c>
       <c r="C279">
         <f t="shared" si="4"/>
-        <v>-16.221765913757714</v>
+        <v>-9.0721649484536098</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="3">
-        <v>37135</v>
+        <v>37165</v>
       </c>
       <c r="B280" s="2">
-        <v>46.2</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="C280">
         <f t="shared" si="4"/>
-        <v>-7.0422535211267618</v>
+        <v>-16.221765913757714</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="3">
-        <v>37104</v>
+        <v>37135</v>
       </c>
       <c r="B281" s="2">
-        <v>46.3</v>
+        <v>46.2</v>
       </c>
       <c r="C281">
         <f t="shared" si="4"/>
-        <v>-7.2144288577154381</v>
+        <v>-7.0422535211267618</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="3">
-        <v>37073</v>
+        <v>37104</v>
       </c>
       <c r="B282" s="2">
-        <v>43.5</v>
+        <v>46.3</v>
       </c>
       <c r="C282">
         <f t="shared" si="4"/>
-        <v>-17.142857142857139</v>
+        <v>-7.2144288577154381</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="3">
-        <v>37043</v>
+        <v>37073</v>
       </c>
       <c r="B283" s="2">
-        <v>43.2</v>
+        <v>43.5</v>
       </c>
       <c r="C283">
         <f t="shared" si="4"/>
-        <v>-15.953307392996097</v>
+        <v>-17.142857142857139</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="3">
-        <v>37012</v>
+        <v>37043</v>
       </c>
       <c r="B284" s="2">
-        <v>41.3</v>
+        <v>43.2</v>
       </c>
       <c r="C284">
         <f t="shared" si="4"/>
-        <v>-22.368421052631593</v>
+        <v>-15.953307392996097</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="3">
-        <v>36982</v>
+        <v>37012</v>
       </c>
       <c r="B285" s="2">
-        <v>42.7</v>
+        <v>41.3</v>
       </c>
       <c r="C285">
         <f t="shared" si="4"/>
-        <v>-21.937842778793414</v>
+        <v>-22.368421052631593</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="3">
-        <v>36951</v>
+        <v>36982</v>
       </c>
       <c r="B286" s="2">
-        <v>43.1</v>
+        <v>42.7</v>
       </c>
       <c r="C286">
         <f t="shared" si="4"/>
-        <v>-21.493624772313289</v>
+        <v>-21.937842778793414</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="3">
-        <v>36923</v>
+        <v>36951</v>
       </c>
       <c r="B287" s="2">
-        <v>42.1</v>
+        <v>43.1</v>
       </c>
       <c r="C287">
         <f t="shared" si="4"/>
-        <v>-24.551971326164868</v>
+        <v>-21.493624772313289</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="3">
-        <v>36892</v>
+        <v>36923</v>
       </c>
       <c r="B288" s="2">
-        <v>42.3</v>
+        <v>42.1</v>
       </c>
       <c r="C288">
         <f t="shared" si="4"/>
-        <v>-25.396825396825406</v>
+        <v>-24.551971326164868</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="3">
-        <v>36861</v>
+        <v>36892</v>
       </c>
       <c r="B289" s="2">
-        <v>43.9</v>
+        <v>42.3</v>
       </c>
       <c r="C289">
         <f t="shared" si="4"/>
-        <v>-24.048442906574397</v>
+        <v>-25.396825396825406</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="3">
-        <v>36831</v>
+        <v>36861</v>
       </c>
       <c r="B290" s="2">
-        <v>48.5</v>
+        <v>43.9</v>
       </c>
       <c r="C290">
         <f t="shared" si="4"/>
-        <v>-16.523235800344239</v>
+        <v>-24.048442906574397</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="3">
-        <v>36800</v>
+        <v>36831</v>
       </c>
       <c r="B291" s="2">
-        <v>48.7</v>
+        <v>48.5</v>
       </c>
       <c r="C291">
         <f t="shared" si="4"/>
-        <v>-14.860139860139865</v>
+        <v>-16.523235800344239</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="3">
-        <v>36770</v>
+        <v>36800</v>
       </c>
       <c r="B292" s="2">
-        <v>49.7</v>
+        <v>48.7</v>
       </c>
       <c r="C292">
         <f t="shared" si="4"/>
-        <v>-12.807017543859644</v>
+        <v>-14.860139860139865</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="3">
-        <v>36739</v>
+        <v>36770</v>
       </c>
       <c r="B293" s="2">
-        <v>49.9</v>
+        <v>49.7</v>
       </c>
       <c r="C293">
         <f t="shared" si="4"/>
-        <v>-8.9416058394160558</v>
+        <v>-12.807017543859644</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="3">
-        <v>36708</v>
+        <v>36739</v>
       </c>
       <c r="B294" s="2">
-        <v>52.5</v>
+        <v>49.9</v>
       </c>
       <c r="C294">
         <f t="shared" si="4"/>
-        <v>-2.0522388059701524</v>
+        <v>-8.9416058394160558</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="3">
-        <v>36678</v>
+        <v>36708</v>
       </c>
       <c r="B295" s="2">
-        <v>51.4</v>
+        <v>52.5</v>
       </c>
       <c r="C295">
         <f t="shared" si="4"/>
-        <v>-7.885304659498205</v>
+        <v>-2.0522388059701524</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="3">
-        <v>36647</v>
+        <v>36678</v>
       </c>
       <c r="B296" s="2">
-        <v>53.2</v>
+        <v>51.4</v>
       </c>
       <c r="C296">
         <f t="shared" si="4"/>
-        <v>-2.025782688766109</v>
+        <v>-7.885304659498205</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="3">
-        <v>36617</v>
+        <v>36647</v>
       </c>
       <c r="B297" s="2">
-        <v>54.7</v>
+        <v>53.2</v>
       </c>
       <c r="C297">
         <f t="shared" si="4"/>
-        <v>4.5889101338432159</v>
+        <v>-2.025782688766109</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="3">
-        <v>36586</v>
+        <v>36617</v>
       </c>
       <c r="B298" s="2">
-        <v>54.9</v>
+        <v>54.7</v>
       </c>
       <c r="C298">
         <f t="shared" si="4"/>
-        <v>4.7709923664122078</v>
+        <v>4.5889101338432159</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="3">
-        <v>36557</v>
+        <v>36586</v>
       </c>
       <c r="B299" s="2">
-        <v>55.8</v>
+        <v>54.9</v>
       </c>
       <c r="C299">
         <f t="shared" si="4"/>
-        <v>7.9303675048355782</v>
+        <v>4.7709923664122078</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="3">
-        <v>36526</v>
+        <v>36557</v>
       </c>
       <c r="B300" s="2">
-        <v>56.7</v>
+        <v>55.8</v>
       </c>
       <c r="C300">
         <f t="shared" si="4"/>
-        <v>12.055335968379444</v>
+        <v>7.9303675048355782</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="3">
-        <v>36495</v>
+        <v>36526</v>
       </c>
       <c r="B301" s="2">
-        <v>57.8</v>
-      </c>
-      <c r="C301" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>56.7</v>
+      </c>
+      <c r="C301">
+        <f t="shared" si="4"/>
+        <v>12.055335968379444</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="3">
-        <v>36465</v>
+        <v>36495</v>
       </c>
       <c r="B302" s="2">
-        <v>58.1</v>
+        <v>57.8</v>
       </c>
       <c r="C302" t="e">
         <f t="shared" si="4"/>
@@ -4007,10 +4005,10 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="3">
-        <v>36434</v>
+        <v>36465</v>
       </c>
       <c r="B303" s="2">
-        <v>57.2</v>
+        <v>58.1</v>
       </c>
       <c r="C303" t="e">
         <f t="shared" si="4"/>
@@ -4019,10 +4017,10 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="3">
-        <v>36404</v>
+        <v>36434</v>
       </c>
       <c r="B304" s="2">
-        <v>57</v>
+        <v>57.2</v>
       </c>
       <c r="C304" t="e">
         <f t="shared" si="4"/>
@@ -4031,10 +4029,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="3">
-        <v>36373</v>
+        <v>36404</v>
       </c>
       <c r="B305" s="2">
-        <v>54.8</v>
+        <v>57</v>
       </c>
       <c r="C305" t="e">
         <f t="shared" si="4"/>
@@ -4043,10 +4041,10 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="3">
-        <v>36342</v>
+        <v>36373</v>
       </c>
       <c r="B306" s="2">
-        <v>53.6</v>
+        <v>54.8</v>
       </c>
       <c r="C306" t="e">
         <f t="shared" si="4"/>
@@ -4055,10 +4053,10 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="3">
-        <v>36312</v>
+        <v>36342</v>
       </c>
       <c r="B307" s="2">
-        <v>55.8</v>
+        <v>53.6</v>
       </c>
       <c r="C307" t="e">
         <f t="shared" si="4"/>
@@ -4067,10 +4065,10 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="3">
-        <v>36281</v>
+        <v>36312</v>
       </c>
       <c r="B308" s="2">
-        <v>54.3</v>
+        <v>55.8</v>
       </c>
       <c r="C308" t="e">
         <f t="shared" si="4"/>
@@ -4079,10 +4077,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="3">
-        <v>36251</v>
+        <v>36281</v>
       </c>
       <c r="B309" s="2">
-        <v>52.3</v>
+        <v>54.3</v>
       </c>
       <c r="C309" t="e">
         <f t="shared" si="4"/>
@@ -4091,10 +4089,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="3">
-        <v>36220</v>
+        <v>36251</v>
       </c>
       <c r="B310" s="2">
-        <v>52.4</v>
+        <v>52.3</v>
       </c>
       <c r="C310" t="e">
         <f t="shared" si="4"/>
@@ -4103,10 +4101,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="3">
-        <v>36192</v>
+        <v>36220</v>
       </c>
       <c r="B311" s="2">
-        <v>51.7</v>
+        <v>52.4</v>
       </c>
       <c r="C311" t="e">
         <f t="shared" si="4"/>
@@ -4115,18 +4113,27 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="3">
+        <v>36192</v>
+      </c>
+      <c r="B312" s="2">
+        <v>51.7</v>
+      </c>
+      <c r="C312" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A313" s="3">
         <v>36161</v>
       </c>
-      <c r="B312" s="2">
+      <c r="B313" s="2">
         <v>50.6</v>
       </c>
-      <c r="C312" t="e">
+      <c r="C313" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A313" s="3"/>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="3"/>
@@ -4163,6 +4170,9 @@
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" s="3"/>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A326" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/pmi.xlsx
+++ b/data/pmi.xlsx
@@ -400,7 +400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C327"/>
+  <dimension ref="A1:C328"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,23 +432,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="C2">
+        <f>(B2/B14-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>2025-01-01</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B3" t="n">
         <v>50.9</v>
-      </c>
-      <c r="C2">
-        <f>(B2/B14-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="n">
-        <v>45627</v>
-      </c>
-      <c r="B3" t="n">
-        <v>49.3</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -457,10 +459,10 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B4" t="n">
-        <v>48.4</v>
+        <v>49.3</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -468,11 +470,11 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>45566</v>
+      <c r="A5" s="4" t="n">
+        <v>45597</v>
       </c>
       <c r="B5" t="n">
-        <v>46.5</v>
+        <v>48.4</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -481,10 +483,10 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B6" t="n">
-        <v>47.2</v>
+        <v>46.5</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -493,7 +495,7 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B7" t="n">
         <v>47.2</v>
@@ -505,10 +507,10 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B8" t="n">
-        <v>46.8</v>
+        <v>47.2</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -517,10 +519,10 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45444</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>48.5</v>
+        <v>45474</v>
+      </c>
+      <c r="B9" t="n">
+        <v>46.8</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -529,10 +531,10 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>48.7</v>
+        <v>48.5</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -541,10 +543,10 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>49.2</v>
+        <v>48.7</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -553,10 +555,10 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>50.3</v>
+        <v>49.2</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -565,10 +567,10 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>47.8</v>
+        <v>50.3</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -577,10 +579,10 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>49.1</v>
+        <v>47.8</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -589,10 +591,10 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>47.1</v>
+        <v>49.1</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -601,10 +603,10 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>46.6</v>
+        <v>47.1</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -613,10 +615,10 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>46.7</v>
+        <v>46.6</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -625,10 +627,10 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>49</v>
+        <v>46.7</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -637,10 +639,10 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>47.6</v>
+        <v>49</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -649,10 +651,10 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>46.4</v>
+        <v>47.6</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -661,10 +663,10 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>46</v>
+        <v>46.4</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -673,10 +675,10 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>46.9</v>
+        <v>46</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -685,10 +687,10 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>47.1</v>
+        <v>46.9</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -697,10 +699,10 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>46.3</v>
+        <v>47.1</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -709,10 +711,10 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>47.7</v>
+        <v>46.3</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -721,10 +723,10 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B26" s="2" t="n">
-        <v>47.4</v>
+        <v>44958</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>47.7</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -733,10 +735,10 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>48.4</v>
+        <v>47.4</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -745,10 +747,10 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>49</v>
+        <v>48.4</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -757,10 +759,10 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -769,10 +771,10 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -781,10 +783,10 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>52.9</v>
+        <v>51</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -793,10 +795,10 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>52.7</v>
+        <v>52.9</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -805,10 +807,10 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>53.1</v>
+        <v>52.7</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -817,10 +819,10 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>56.1</v>
+        <v>53.1</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -829,10 +831,10 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>55.9</v>
+        <v>56.1</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -841,10 +843,10 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>57</v>
+        <v>55.9</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -853,10 +855,10 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>58.4</v>
+        <v>57</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -865,10 +867,10 @@
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>57.6</v>
+        <v>58.4</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -877,10 +879,10 @@
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>58.6</v>
+        <v>57.6</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -889,10 +891,10 @@
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>60.8</v>
+        <v>58.6</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -901,7 +903,7 @@
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B41" s="2" t="n">
         <v>60.8</v>
@@ -913,10 +915,10 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>61.1</v>
+        <v>60.8</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -925,10 +927,10 @@
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>59.9</v>
+        <v>61.1</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -937,10 +939,10 @@
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>59.4</v>
+        <v>59.9</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -949,10 +951,10 @@
     </row>
     <row r="45">
       <c r="A45" s="3" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>60.6</v>
+        <v>59.4</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -961,10 +963,10 @@
     </row>
     <row r="46">
       <c r="A46" s="3" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>61.2</v>
+        <v>60.6</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -973,10 +975,10 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>60.7</v>
+        <v>61.2</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -985,10 +987,10 @@
     </row>
     <row r="48">
       <c r="A48" s="3" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>64.7</v>
+        <v>60.7</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -997,10 +999,10 @@
     </row>
     <row r="49">
       <c r="A49" s="3" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>60.8</v>
+        <v>64.7</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1009,10 +1011,10 @@
     </row>
     <row r="50">
       <c r="A50" s="3" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>58.7</v>
+        <v>60.8</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1021,10 +1023,10 @@
     </row>
     <row r="51">
       <c r="A51" s="3" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>60.5</v>
+        <v>58.7</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1033,10 +1035,10 @@
     </row>
     <row r="52">
       <c r="A52" s="3" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>57.7</v>
+        <v>60.5</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1045,10 +1047,10 @@
     </row>
     <row r="53">
       <c r="A53" s="3" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>58.8</v>
+        <v>57.7</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1057,10 +1059,10 @@
     </row>
     <row r="54">
       <c r="A54" s="3" t="n">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>55.7</v>
+        <v>58.8</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1069,10 +1071,10 @@
     </row>
     <row r="55">
       <c r="A55" s="3" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>55.6</v>
+        <v>55.7</v>
       </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
@@ -1081,10 +1083,10 @@
     </row>
     <row r="56">
       <c r="A56" s="3" t="n">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>53.7</v>
+        <v>55.6</v>
       </c>
       <c r="C56">
         <f>(B56/B68-1)*100</f>
@@ -1093,10 +1095,10 @@
     </row>
     <row r="57">
       <c r="A57" s="3" t="n">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>52.2</v>
+        <v>53.7</v>
       </c>
       <c r="C57">
         <f>(B57/B69-1)*100</f>
@@ -1105,10 +1107,10 @@
     </row>
     <row r="58">
       <c r="A58" s="3" t="n">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>43.1</v>
+        <v>52.2</v>
       </c>
       <c r="C58">
         <f>(B58/B70-1)*100</f>
@@ -1117,10 +1119,10 @@
     </row>
     <row r="59">
       <c r="A59" s="3" t="n">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>41.7</v>
+        <v>43.1</v>
       </c>
       <c r="C59">
         <f>(B59/B71-1)*100</f>
@@ -1129,10 +1131,10 @@
     </row>
     <row r="60">
       <c r="A60" s="3" t="n">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>49.7</v>
+        <v>41.7</v>
       </c>
       <c r="C60">
         <f>(B60/B72-1)*100</f>
@@ -1141,10 +1143,10 @@
     </row>
     <row r="61">
       <c r="A61" s="3" t="n">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>50.3</v>
+        <v>49.7</v>
       </c>
       <c r="C61">
         <f>(B61/B73-1)*100</f>
@@ -1153,10 +1155,10 @@
     </row>
     <row r="62">
       <c r="A62" s="3" t="n">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>51.1</v>
+        <v>50.3</v>
       </c>
       <c r="C62">
         <f>(B62/B74-1)*100</f>
@@ -1165,10 +1167,10 @@
     </row>
     <row r="63">
       <c r="A63" s="3" t="n">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>47.7</v>
+        <v>51.1</v>
       </c>
       <c r="C63">
         <f>(B63/B75-1)*100</f>
@@ -1177,10 +1179,10 @@
     </row>
     <row r="64">
       <c r="A64" s="3" t="n">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>48.2</v>
+        <v>47.7</v>
       </c>
       <c r="C64">
         <f>(B64/B76-1)*100</f>
@@ -1189,10 +1191,10 @@
     </row>
     <row r="65">
       <c r="A65" s="3" t="n">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="C65">
         <f>(B65/B77-1)*100</f>
@@ -1201,7 +1203,7 @@
     </row>
     <row r="66">
       <c r="A66" s="3" t="n">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B66" s="2" t="n">
         <v>48.3</v>
@@ -1213,10 +1215,10 @@
     </row>
     <row r="67">
       <c r="A67" s="3" t="n">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="C67">
         <f>(B67/B79-1)*100</f>
@@ -1225,10 +1227,10 @@
     </row>
     <row r="68">
       <c r="A68" s="3" t="n">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>51</v>
+        <v>48.4</v>
       </c>
       <c r="C68">
         <f>(B68/B80-1)*100</f>
@@ -1237,10 +1239,10 @@
     </row>
     <row r="69">
       <c r="A69" s="3" t="n">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>51.3</v>
+        <v>51</v>
       </c>
       <c r="C69">
         <f>(B69/B81-1)*100</f>
@@ -1249,10 +1251,10 @@
     </row>
     <row r="70">
       <c r="A70" s="3" t="n">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>52.2</v>
+        <v>51.3</v>
       </c>
       <c r="C70">
         <f>(B70/B82-1)*100</f>
@@ -1261,10 +1263,10 @@
     </row>
     <row r="71">
       <c r="A71" s="3" t="n">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>53.6</v>
+        <v>52.2</v>
       </c>
       <c r="C71">
         <f>(B71/B83-1)*100</f>
@@ -1273,10 +1275,10 @@
     </row>
     <row r="72">
       <c r="A72" s="3" t="n">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>55.3</v>
+        <v>53.6</v>
       </c>
       <c r="C72">
         <f>(B72/B84-1)*100</f>
@@ -1285,10 +1287,10 @@
     </row>
     <row r="73">
       <c r="A73" s="3" t="n">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>54.2</v>
+        <v>55.3</v>
       </c>
       <c r="C73">
         <f>(B73/B85-1)*100</f>
@@ -1297,10 +1299,10 @@
     </row>
     <row r="74">
       <c r="A74" s="3" t="n">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>55.7</v>
+        <v>54.2</v>
       </c>
       <c r="C74">
         <f>(B74/B86-1)*100</f>
@@ -1309,10 +1311,10 @@
     </row>
     <row r="75">
       <c r="A75" s="3" t="n">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>54.8</v>
+        <v>55.7</v>
       </c>
       <c r="C75">
         <f>(B75/B87-1)*100</f>
@@ -1321,10 +1323,10 @@
     </row>
     <row r="76">
       <c r="A76" s="3" t="n">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>58.7</v>
+        <v>54.8</v>
       </c>
       <c r="C76">
         <f>(B76/B88-1)*100</f>
@@ -1333,10 +1335,10 @@
     </row>
     <row r="77">
       <c r="A77" s="3" t="n">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>58.3</v>
+        <v>58.7</v>
       </c>
       <c r="C77">
         <f>(B77/B89-1)*100</f>
@@ -1345,10 +1347,10 @@
     </row>
     <row r="78">
       <c r="A78" s="3" t="n">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>59.5</v>
+        <v>58.3</v>
       </c>
       <c r="C78">
         <f>(B78/B90-1)*100</f>
@@ -1357,10 +1359,10 @@
     </row>
     <row r="79">
       <c r="A79" s="3" t="n">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>60.4</v>
+        <v>59.5</v>
       </c>
       <c r="C79">
         <f>(B79/B91-1)*100</f>
@@ -1369,10 +1371,10 @@
     </row>
     <row r="80">
       <c r="A80" s="3" t="n">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>58</v>
+        <v>60.4</v>
       </c>
       <c r="C80">
         <f>(B80/B92-1)*100</f>
@@ -1381,10 +1383,10 @@
     </row>
     <row r="81">
       <c r="A81" s="3" t="n">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>59.7</v>
+        <v>58</v>
       </c>
       <c r="C81">
         <f>(B81/B93-1)*100</f>
@@ -1393,10 +1395,10 @@
     </row>
     <row r="82">
       <c r="A82" s="3" t="n">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>58.9</v>
+        <v>59.7</v>
       </c>
       <c r="C82">
         <f>(B82/B94-1)*100</f>
@@ -1405,10 +1407,10 @@
     </row>
     <row r="83">
       <c r="A83" s="3" t="n">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>58.6</v>
+        <v>58.9</v>
       </c>
       <c r="C83">
         <f>(B83/B95-1)*100</f>
@@ -1417,10 +1419,10 @@
     </row>
     <row r="84">
       <c r="A84" s="3" t="n">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>59.2</v>
+        <v>58.6</v>
       </c>
       <c r="C84">
         <f>(B84/B96-1)*100</f>
@@ -1429,10 +1431,10 @@
     </row>
     <row r="85">
       <c r="A85" s="3" t="n">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>60.8</v>
+        <v>59.2</v>
       </c>
       <c r="C85">
         <f>(B85/B97-1)*100</f>
@@ -1441,10 +1443,10 @@
     </row>
     <row r="86">
       <c r="A86" s="3" t="n">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>59.4</v>
+        <v>60.8</v>
       </c>
       <c r="C86">
         <f>(B86/B98-1)*100</f>
@@ -1453,10 +1455,10 @@
     </row>
     <row r="87">
       <c r="A87" s="3" t="n">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>59.2</v>
+        <v>59.4</v>
       </c>
       <c r="C87">
         <f>(B87/B99-1)*100</f>
@@ -1465,10 +1467,10 @@
     </row>
     <row r="88">
       <c r="A88" s="3" t="n">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>57.9</v>
+        <v>59.2</v>
       </c>
       <c r="C88">
         <f>(B88/B100-1)*100</f>
@@ -1477,10 +1479,10 @@
     </row>
     <row r="89">
       <c r="A89" s="3" t="n">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>58.6</v>
+        <v>57.9</v>
       </c>
       <c r="C89">
         <f>(B89/B101-1)*100</f>
@@ -1489,10 +1491,10 @@
     </row>
     <row r="90">
       <c r="A90" s="3" t="n">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>59.9</v>
+        <v>58.6</v>
       </c>
       <c r="C90">
         <f>(B90/B102-1)*100</f>
@@ -1501,10 +1503,10 @@
     </row>
     <row r="91">
       <c r="A91" s="3" t="n">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>58.5</v>
+        <v>59.9</v>
       </c>
       <c r="C91">
         <f>(B91/B103-1)*100</f>
@@ -1513,10 +1515,10 @@
     </row>
     <row r="92">
       <c r="A92" s="3" t="n">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>56.5</v>
+        <v>58.5</v>
       </c>
       <c r="C92">
         <f>(B92/B104-1)*100</f>
@@ -1525,10 +1527,10 @@
     </row>
     <row r="93">
       <c r="A93" s="3" t="n">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>56.1</v>
+        <v>56.5</v>
       </c>
       <c r="C93">
         <f>(B93/B105-1)*100</f>
@@ -1537,10 +1539,10 @@
     </row>
     <row r="94">
       <c r="A94" s="3" t="n">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>56.4</v>
+        <v>56.1</v>
       </c>
       <c r="C94">
         <f>(B94/B106-1)*100</f>
@@ -1549,10 +1551,10 @@
     </row>
     <row r="95">
       <c r="A95" s="3" t="n">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>55.7</v>
+        <v>56.4</v>
       </c>
       <c r="C95">
         <f>(B95/B107-1)*100</f>
@@ -1561,10 +1563,10 @@
     </row>
     <row r="96">
       <c r="A96" s="3" t="n">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>56.8</v>
+        <v>55.7</v>
       </c>
       <c r="C96">
         <f>(B96/B108-1)*100</f>
@@ -1573,10 +1575,10 @@
     </row>
     <row r="97">
       <c r="A97" s="3" t="n">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>57.7</v>
+        <v>56.8</v>
       </c>
       <c r="C97">
         <f>(B97/B109-1)*100</f>
@@ -1585,10 +1587,10 @@
     </row>
     <row r="98">
       <c r="A98" s="3" t="n">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>55.7</v>
+        <v>57.7</v>
       </c>
       <c r="C98">
         <f>(B98/B110-1)*100</f>
@@ -1597,10 +1599,10 @@
     </row>
     <row r="99">
       <c r="A99" s="3" t="n">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>54.2</v>
+        <v>55.7</v>
       </c>
       <c r="C99">
         <f>(B99/B111-1)*100</f>
@@ -1609,10 +1611,10 @@
     </row>
     <row r="100">
       <c r="A100" s="3" t="n">
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>53.3</v>
+        <v>54.2</v>
       </c>
       <c r="C100">
         <f>(B100/B112-1)*100</f>
@@ -1621,10 +1623,10 @@
     </row>
     <row r="101">
       <c r="A101" s="3" t="n">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>51.8</v>
+        <v>53.3</v>
       </c>
       <c r="C101">
         <f>(B101/B113-1)*100</f>
@@ -1633,10 +1635,10 @@
     </row>
     <row r="102">
       <c r="A102" s="3" t="n">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>51</v>
+        <v>51.8</v>
       </c>
       <c r="C102">
         <f>(B102/B114-1)*100</f>
@@ -1645,10 +1647,10 @@
     </row>
     <row r="103">
       <c r="A103" s="3" t="n">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>49.7</v>
+        <v>51</v>
       </c>
       <c r="C103">
         <f>(B103/B115-1)*100</f>
@@ -1657,10 +1659,10 @@
     </row>
     <row r="104">
       <c r="A104" s="3" t="n">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>52.4</v>
+        <v>49.7</v>
       </c>
       <c r="C104">
         <f>(B104/B116-1)*100</f>
@@ -1669,7 +1671,7 @@
     </row>
     <row r="105">
       <c r="A105" s="3" t="n">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B105" s="2" t="n">
         <v>52.4</v>
@@ -1681,10 +1683,10 @@
     </row>
     <row r="106">
       <c r="A106" s="3" t="n">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>51.3</v>
+        <v>52.4</v>
       </c>
       <c r="C106">
         <f>(B106/B118-1)*100</f>
@@ -1693,10 +1695,10 @@
     </row>
     <row r="107">
       <c r="A107" s="3" t="n">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>51</v>
+        <v>51.3</v>
       </c>
       <c r="C107">
         <f>(B107/B119-1)*100</f>
@@ -1705,10 +1707,10 @@
     </row>
     <row r="108">
       <c r="A108" s="3" t="n">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>51.4</v>
+        <v>51</v>
       </c>
       <c r="C108">
         <f>(B108/B120-1)*100</f>
@@ -1717,10 +1719,10 @@
     </row>
     <row r="109">
       <c r="A109" s="3" t="n">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B109" s="2" t="n">
-        <v>49.2</v>
+        <v>51.4</v>
       </c>
       <c r="C109">
         <f>(B109/B121-1)*100</f>
@@ -1729,10 +1731,10 @@
     </row>
     <row r="110">
       <c r="A110" s="3" t="n">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>47.5</v>
+        <v>49.2</v>
       </c>
       <c r="C110">
         <f>(B110/B122-1)*100</f>
@@ -1741,10 +1743,10 @@
     </row>
     <row r="111">
       <c r="A111" s="3" t="n">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>48.8</v>
+        <v>47.5</v>
       </c>
       <c r="C111">
         <f>(B111/B123-1)*100</f>
@@ -1753,10 +1755,10 @@
     </row>
     <row r="112">
       <c r="A112" s="3" t="n">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>49.1</v>
+        <v>48.8</v>
       </c>
       <c r="C112">
         <f>(B112/B124-1)*100</f>
@@ -1765,10 +1767,10 @@
     </row>
     <row r="113">
       <c r="A113" s="3" t="n">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>49</v>
+        <v>49.1</v>
       </c>
       <c r="C113">
         <f>(B113/B125-1)*100</f>
@@ -1777,10 +1779,10 @@
     </row>
     <row r="114">
       <c r="A114" s="3" t="n">
-        <v>42248</v>
+        <v>42278</v>
       </c>
       <c r="B114" s="2" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C114">
         <f>(B114/B126-1)*100</f>
@@ -1789,7 +1791,7 @@
     </row>
     <row r="115">
       <c r="A115" s="3" t="n">
-        <v>42217</v>
+        <v>42248</v>
       </c>
       <c r="B115" s="2" t="n">
         <v>50</v>
@@ -1801,10 +1803,10 @@
     </row>
     <row r="116">
       <c r="A116" s="3" t="n">
-        <v>42186</v>
+        <v>42217</v>
       </c>
       <c r="B116" s="2" t="n">
-        <v>51.9</v>
+        <v>50</v>
       </c>
       <c r="C116">
         <f>(B116/B128-1)*100</f>
@@ -1813,10 +1815,10 @@
     </row>
     <row r="117">
       <c r="A117" s="3" t="n">
-        <v>42156</v>
+        <v>42186</v>
       </c>
       <c r="B117" s="2" t="n">
-        <v>52.6</v>
+        <v>51.9</v>
       </c>
       <c r="C117">
         <f>(B117/B129-1)*100</f>
@@ -1825,10 +1827,10 @@
     </row>
     <row r="118">
       <c r="A118" s="3" t="n">
-        <v>42125</v>
+        <v>42156</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>52.7</v>
+        <v>52.6</v>
       </c>
       <c r="C118">
         <f>(B118/B130-1)*100</f>
@@ -1837,10 +1839,10 @@
     </row>
     <row r="119">
       <c r="A119" s="3" t="n">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="B119" s="2" t="n">
-        <v>52.1</v>
+        <v>52.7</v>
       </c>
       <c r="C119">
         <f>(B119/B131-1)*100</f>
@@ -1849,10 +1851,10 @@
     </row>
     <row r="120">
       <c r="A120" s="3" t="n">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>52.3</v>
+        <v>52.1</v>
       </c>
       <c r="C120">
         <f>(B120/B132-1)*100</f>
@@ -1861,10 +1863,10 @@
     </row>
     <row r="121">
       <c r="A121" s="3" t="n">
-        <v>42036</v>
+        <v>42064</v>
       </c>
       <c r="B121" s="2" t="n">
-        <v>53.1</v>
+        <v>52.3</v>
       </c>
       <c r="C121">
         <f>(B121/B133-1)*100</f>
@@ -1873,10 +1875,10 @@
     </row>
     <row r="122">
       <c r="A122" s="3" t="n">
-        <v>42005</v>
+        <v>42036</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>54</v>
+        <v>53.1</v>
       </c>
       <c r="C122">
         <f>(B122/B134-1)*100</f>
@@ -1885,10 +1887,10 @@
     </row>
     <row r="123">
       <c r="A123" s="3" t="n">
-        <v>41974</v>
+        <v>42005</v>
       </c>
       <c r="B123" s="2" t="n">
-        <v>55.7</v>
+        <v>54</v>
       </c>
       <c r="C123">
         <f>(B123/B135-1)*100</f>
@@ -1897,10 +1899,10 @@
     </row>
     <row r="124">
       <c r="A124" s="3" t="n">
-        <v>41944</v>
+        <v>41974</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>56.3</v>
+        <v>55.7</v>
       </c>
       <c r="C124">
         <f>(B124/B136-1)*100</f>
@@ -1909,10 +1911,10 @@
     </row>
     <row r="125">
       <c r="A125" s="3" t="n">
-        <v>41913</v>
+        <v>41944</v>
       </c>
       <c r="B125" s="2" t="n">
-        <v>56.2</v>
+        <v>56.3</v>
       </c>
       <c r="C125">
         <f>(B125/B137-1)*100</f>
@@ -1921,10 +1923,10 @@
     </row>
     <row r="126">
       <c r="A126" s="3" t="n">
-        <v>41883</v>
+        <v>41913</v>
       </c>
       <c r="B126" s="2" t="n">
-        <v>55.7</v>
+        <v>56.2</v>
       </c>
       <c r="C126">
         <f>(B126/B138-1)*100</f>
@@ -1933,10 +1935,10 @@
     </row>
     <row r="127">
       <c r="A127" s="3" t="n">
-        <v>41852</v>
+        <v>41883</v>
       </c>
       <c r="B127" s="2" t="n">
-        <v>56.3</v>
+        <v>55.7</v>
       </c>
       <c r="C127">
         <f>(B127/B139-1)*100</f>
@@ -1945,10 +1947,10 @@
     </row>
     <row r="128">
       <c r="A128" s="3" t="n">
-        <v>41821</v>
+        <v>41852</v>
       </c>
       <c r="B128" s="2" t="n">
-        <v>55.1</v>
+        <v>56.3</v>
       </c>
       <c r="C128">
         <f>(B128/B140-1)*100</f>
@@ -1957,10 +1959,10 @@
     </row>
     <row r="129">
       <c r="A129" s="3" t="n">
-        <v>41791</v>
+        <v>41821</v>
       </c>
       <c r="B129" s="2" t="n">
-        <v>55</v>
+        <v>55.1</v>
       </c>
       <c r="C129">
         <f>(B129/B141-1)*100</f>
@@ -1969,10 +1971,10 @@
     </row>
     <row r="130">
       <c r="A130" s="3" t="n">
-        <v>41760</v>
+        <v>41791</v>
       </c>
       <c r="B130" s="2" t="n">
-        <v>55.7</v>
+        <v>55</v>
       </c>
       <c r="C130">
         <f>(B130/B142-1)*100</f>
@@ -1981,10 +1983,10 @@
     </row>
     <row r="131">
       <c r="A131" s="3" t="n">
-        <v>41730</v>
+        <v>41760</v>
       </c>
       <c r="B131" s="2" t="n">
-        <v>56.6</v>
+        <v>55.7</v>
       </c>
       <c r="C131">
         <f>(B131/B143-1)*100</f>
@@ -1993,10 +1995,10 @@
     </row>
     <row r="132">
       <c r="A132" s="3" t="n">
-        <v>41699</v>
+        <v>41730</v>
       </c>
       <c r="B132" s="2" t="n">
-        <v>55.9</v>
+        <v>56.6</v>
       </c>
       <c r="C132">
         <f>(B132/B144-1)*100</f>
@@ -2005,10 +2007,10 @@
     </row>
     <row r="133">
       <c r="A133" s="3" t="n">
-        <v>41671</v>
+        <v>41699</v>
       </c>
       <c r="B133" s="2" t="n">
-        <v>55</v>
+        <v>55.9</v>
       </c>
       <c r="C133">
         <f>(B133/B145-1)*100</f>
@@ -2017,10 +2019,10 @@
     </row>
     <row r="134">
       <c r="A134" s="3" t="n">
-        <v>41640</v>
+        <v>41671</v>
       </c>
       <c r="B134" s="2" t="n">
-        <v>52.5</v>
+        <v>55</v>
       </c>
       <c r="C134">
         <f>(B134/B146-1)*100</f>
@@ -2029,10 +2031,10 @@
     </row>
     <row r="135">
       <c r="A135" s="3" t="n">
-        <v>41609</v>
+        <v>41640</v>
       </c>
       <c r="B135" s="2" t="n">
-        <v>56.5</v>
+        <v>52.5</v>
       </c>
       <c r="C135">
         <f>(B135/B147-1)*100</f>
@@ -2041,10 +2043,10 @@
     </row>
     <row r="136">
       <c r="A136" s="3" t="n">
-        <v>41579</v>
+        <v>41609</v>
       </c>
       <c r="B136" s="2" t="n">
-        <v>55.5</v>
+        <v>56.5</v>
       </c>
       <c r="C136">
         <f>(B136/B148-1)*100</f>
@@ -2053,10 +2055,10 @@
     </row>
     <row r="137">
       <c r="A137" s="3" t="n">
-        <v>41548</v>
+        <v>41579</v>
       </c>
       <c r="B137" s="2" t="n">
-        <v>54.6</v>
+        <v>55.5</v>
       </c>
       <c r="C137">
         <f>(B137/B149-1)*100</f>
@@ -2065,7 +2067,7 @@
     </row>
     <row r="138">
       <c r="A138" s="3" t="n">
-        <v>41518</v>
+        <v>41548</v>
       </c>
       <c r="B138" s="2" t="n">
         <v>54.6</v>
@@ -2077,10 +2079,10 @@
     </row>
     <row r="139">
       <c r="A139" s="3" t="n">
-        <v>41487</v>
+        <v>41518</v>
       </c>
       <c r="B139" s="2" t="n">
-        <v>54</v>
+        <v>54.6</v>
       </c>
       <c r="C139">
         <f>(B139/B151-1)*100</f>
@@ -2089,10 +2091,10 @@
     </row>
     <row r="140">
       <c r="A140" s="3" t="n">
-        <v>41456</v>
+        <v>41487</v>
       </c>
       <c r="B140" s="2" t="n">
-        <v>53.8</v>
+        <v>54</v>
       </c>
       <c r="C140">
         <f>(B140/B152-1)*100</f>
@@ -2101,10 +2103,10 @@
     </row>
     <row r="141">
       <c r="A141" s="3" t="n">
-        <v>41426</v>
+        <v>41456</v>
       </c>
       <c r="B141" s="2" t="n">
-        <v>51.1</v>
+        <v>53.8</v>
       </c>
       <c r="C141">
         <f>(B141/B153-1)*100</f>
@@ -2113,10 +2115,10 @@
     </row>
     <row r="142">
       <c r="A142" s="3" t="n">
-        <v>41395</v>
+        <v>41426</v>
       </c>
       <c r="B142" s="2" t="n">
-        <v>50.8</v>
+        <v>51.1</v>
       </c>
       <c r="C142">
         <f>(B142/B154-1)*100</f>
@@ -2125,10 +2127,10 @@
     </row>
     <row r="143">
       <c r="A143" s="3" t="n">
-        <v>41365</v>
+        <v>41395</v>
       </c>
       <c r="B143" s="2" t="n">
-        <v>51</v>
+        <v>50.8</v>
       </c>
       <c r="C143">
         <f>(B143/B155-1)*100</f>
@@ -2137,10 +2139,10 @@
     </row>
     <row r="144">
       <c r="A144" s="3" t="n">
-        <v>41334</v>
+        <v>41365</v>
       </c>
       <c r="B144" s="2" t="n">
-        <v>51.9</v>
+        <v>51</v>
       </c>
       <c r="C144">
         <f>(B144/B156-1)*100</f>
@@ -2149,10 +2151,10 @@
     </row>
     <row r="145">
       <c r="A145" s="3" t="n">
-        <v>41306</v>
+        <v>41334</v>
       </c>
       <c r="B145" s="2" t="n">
-        <v>54.2</v>
+        <v>51.9</v>
       </c>
       <c r="C145">
         <f>(B145/B157-1)*100</f>
@@ -2161,10 +2163,10 @@
     </row>
     <row r="146">
       <c r="A146" s="3" t="n">
-        <v>41275</v>
+        <v>41306</v>
       </c>
       <c r="B146" s="2" t="n">
-        <v>53.3</v>
+        <v>54.2</v>
       </c>
       <c r="C146">
         <f>(B146/B158-1)*100</f>
@@ -2173,10 +2175,10 @@
     </row>
     <row r="147">
       <c r="A147" s="3" t="n">
-        <v>41244</v>
+        <v>41275</v>
       </c>
       <c r="B147" s="2" t="n">
-        <v>50.1</v>
+        <v>53.3</v>
       </c>
       <c r="C147">
         <f>(B147/B159-1)*100</f>
@@ -2185,10 +2187,10 @@
     </row>
     <row r="148">
       <c r="A148" s="3" t="n">
-        <v>41214</v>
+        <v>41244</v>
       </c>
       <c r="B148" s="2" t="n">
-        <v>48</v>
+        <v>50.1</v>
       </c>
       <c r="C148">
         <f>(B148/B160-1)*100</f>
@@ -2197,10 +2199,10 @@
     </row>
     <row r="149">
       <c r="A149" s="3" t="n">
-        <v>41183</v>
+        <v>41214</v>
       </c>
       <c r="B149" s="2" t="n">
-        <v>50.5</v>
+        <v>48</v>
       </c>
       <c r="C149">
         <f>(B149/B161-1)*100</f>
@@ -2209,10 +2211,10 @@
     </row>
     <row r="150">
       <c r="A150" s="3" t="n">
-        <v>41153</v>
+        <v>41183</v>
       </c>
       <c r="B150" s="2" t="n">
-        <v>50.8</v>
+        <v>50.5</v>
       </c>
       <c r="C150">
         <f>(B150/B162-1)*100</f>
@@ -2221,10 +2223,10 @@
     </row>
     <row r="151">
       <c r="A151" s="3" t="n">
-        <v>41122</v>
+        <v>41153</v>
       </c>
       <c r="B151" s="2" t="n">
-        <v>49</v>
+        <v>50.8</v>
       </c>
       <c r="C151">
         <f>(B151/B163-1)*100</f>
@@ -2233,10 +2235,10 @@
     </row>
     <row r="152">
       <c r="A152" s="3" t="n">
-        <v>41091</v>
+        <v>41122</v>
       </c>
       <c r="B152" s="2" t="n">
-        <v>49.6</v>
+        <v>49</v>
       </c>
       <c r="C152">
         <f>(B152/B164-1)*100</f>
@@ -2245,10 +2247,10 @@
     </row>
     <row r="153">
       <c r="A153" s="3" t="n">
-        <v>41061</v>
+        <v>41091</v>
       </c>
       <c r="B153" s="2" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="C153">
         <f>(B153/B165-1)*100</f>
@@ -2257,10 +2259,10 @@
     </row>
     <row r="154">
       <c r="A154" s="3" t="n">
-        <v>41030</v>
+        <v>41061</v>
       </c>
       <c r="B154" s="2" t="n">
-        <v>53.2</v>
+        <v>49.5</v>
       </c>
       <c r="C154">
         <f>(B154/B166-1)*100</f>
@@ -2269,10 +2271,10 @@
     </row>
     <row r="155">
       <c r="A155" s="3" t="n">
-        <v>41000</v>
+        <v>41030</v>
       </c>
       <c r="B155" s="2" t="n">
-        <v>55.2</v>
+        <v>53.2</v>
       </c>
       <c r="C155">
         <f>(B155/B167-1)*100</f>
@@ -2281,10 +2283,10 @@
     </row>
     <row r="156">
       <c r="A156" s="3" t="n">
-        <v>40969</v>
+        <v>41000</v>
       </c>
       <c r="B156" s="2" t="n">
-        <v>53.5</v>
+        <v>55.2</v>
       </c>
       <c r="C156">
         <f>(B156/B168-1)*100</f>
@@ -2293,10 +2295,10 @@
     </row>
     <row r="157">
       <c r="A157" s="3" t="n">
-        <v>40940</v>
+        <v>40969</v>
       </c>
       <c r="B157" s="2" t="n">
-        <v>53.3</v>
+        <v>53.5</v>
       </c>
       <c r="C157">
         <f>(B157/B169-1)*100</f>
@@ -2305,10 +2307,10 @@
     </row>
     <row r="158">
       <c r="A158" s="3" t="n">
-        <v>40909</v>
+        <v>40940</v>
       </c>
       <c r="B158" s="2" t="n">
-        <v>54.2</v>
+        <v>53.3</v>
       </c>
       <c r="C158">
         <f>(B158/B170-1)*100</f>
@@ -2317,10 +2319,10 @@
     </row>
     <row r="159">
       <c r="A159" s="3" t="n">
-        <v>40878</v>
+        <v>40909</v>
       </c>
       <c r="B159" s="2" t="n">
-        <v>53</v>
+        <v>54.2</v>
       </c>
       <c r="C159">
         <f>(B159/B171-1)*100</f>
@@ -2329,10 +2331,10 @@
     </row>
     <row r="160">
       <c r="A160" s="3" t="n">
-        <v>40848</v>
+        <v>40878</v>
       </c>
       <c r="B160" s="2" t="n">
-        <v>51.8</v>
+        <v>53</v>
       </c>
       <c r="C160">
         <f>(B160/B172-1)*100</f>
@@ -2341,10 +2343,10 @@
     </row>
     <row r="161">
       <c r="A161" s="3" t="n">
-        <v>40817</v>
+        <v>40848</v>
       </c>
       <c r="B161" s="2" t="n">
-        <v>51.4</v>
+        <v>51.8</v>
       </c>
       <c r="C161">
         <f>(B161/B173-1)*100</f>
@@ -2353,10 +2355,10 @@
     </row>
     <row r="162">
       <c r="A162" s="3" t="n">
-        <v>40787</v>
+        <v>40817</v>
       </c>
       <c r="B162" s="2" t="n">
-        <v>53.7</v>
+        <v>51.4</v>
       </c>
       <c r="C162">
         <f>(B162/B174-1)*100</f>
@@ -2365,10 +2367,10 @@
     </row>
     <row r="163">
       <c r="A163" s="3" t="n">
-        <v>40756</v>
+        <v>40787</v>
       </c>
       <c r="B163" s="2" t="n">
-        <v>52.6</v>
+        <v>53.7</v>
       </c>
       <c r="C163">
         <f>(B163/B175-1)*100</f>
@@ -2377,10 +2379,10 @@
     </row>
     <row r="164">
       <c r="A164" s="3" t="n">
-        <v>40725</v>
+        <v>40756</v>
       </c>
       <c r="B164" s="2" t="n">
-        <v>52.9</v>
+        <v>52.6</v>
       </c>
       <c r="C164">
         <f>(B164/B176-1)*100</f>
@@ -2389,10 +2391,10 @@
     </row>
     <row r="165">
       <c r="A165" s="3" t="n">
-        <v>40695</v>
+        <v>40725</v>
       </c>
       <c r="B165" s="2" t="n">
-        <v>55.8</v>
+        <v>52.9</v>
       </c>
       <c r="C165">
         <f>(B165/B177-1)*100</f>
@@ -2401,10 +2403,10 @@
     </row>
     <row r="166">
       <c r="A166" s="3" t="n">
-        <v>40664</v>
+        <v>40695</v>
       </c>
       <c r="B166" s="2" t="n">
-        <v>54.8</v>
+        <v>55.8</v>
       </c>
       <c r="C166">
         <f>(B166/B178-1)*100</f>
@@ -2413,10 +2415,10 @@
     </row>
     <row r="167">
       <c r="A167" s="3" t="n">
-        <v>40634</v>
+        <v>40664</v>
       </c>
       <c r="B167" s="2" t="n">
-        <v>57.9</v>
+        <v>54.8</v>
       </c>
       <c r="C167">
         <f>(B167/B179-1)*100</f>
@@ -2425,10 +2427,10 @@
     </row>
     <row r="168">
       <c r="A168" s="3" t="n">
-        <v>40603</v>
+        <v>40634</v>
       </c>
       <c r="B168" s="2" t="n">
-        <v>58.4</v>
+        <v>57.9</v>
       </c>
       <c r="C168">
         <f>(B168/B180-1)*100</f>
@@ -2437,10 +2439,10 @@
     </row>
     <row r="169">
       <c r="A169" s="3" t="n">
-        <v>40575</v>
+        <v>40603</v>
       </c>
       <c r="B169" s="2" t="n">
-        <v>59.2</v>
+        <v>58.4</v>
       </c>
       <c r="C169">
         <f>(B169/B181-1)*100</f>
@@ -2449,10 +2451,10 @@
     </row>
     <row r="170">
       <c r="A170" s="3" t="n">
-        <v>40544</v>
+        <v>40575</v>
       </c>
       <c r="B170" s="2" t="n">
-        <v>59.1</v>
+        <v>59.2</v>
       </c>
       <c r="C170">
         <f>(B170/B182-1)*100</f>
@@ -2461,10 +2463,10 @@
     </row>
     <row r="171">
       <c r="A171" s="3" t="n">
-        <v>40513</v>
+        <v>40544</v>
       </c>
       <c r="B171" s="2" t="n">
-        <v>56.6</v>
+        <v>59.1</v>
       </c>
       <c r="C171">
         <f>(B171/B183-1)*100</f>
@@ -2473,10 +2475,10 @@
     </row>
     <row r="172">
       <c r="A172" s="3" t="n">
-        <v>40483</v>
+        <v>40513</v>
       </c>
       <c r="B172" s="2" t="n">
-        <v>57.3</v>
+        <v>56.6</v>
       </c>
       <c r="C172">
         <f>(B172/B184-1)*100</f>
@@ -2485,10 +2487,10 @@
     </row>
     <row r="173">
       <c r="A173" s="3" t="n">
-        <v>40452</v>
+        <v>40483</v>
       </c>
       <c r="B173" s="2" t="n">
-        <v>56.9</v>
+        <v>57.3</v>
       </c>
       <c r="C173">
         <f>(B173/B185-1)*100</f>
@@ -2497,10 +2499,10 @@
     </row>
     <row r="174">
       <c r="A174" s="3" t="n">
-        <v>40422</v>
+        <v>40452</v>
       </c>
       <c r="B174" s="2" t="n">
-        <v>55.3</v>
+        <v>56.9</v>
       </c>
       <c r="C174">
         <f>(B174/B186-1)*100</f>
@@ -2509,10 +2511,10 @@
     </row>
     <row r="175">
       <c r="A175" s="3" t="n">
-        <v>40391</v>
+        <v>40422</v>
       </c>
       <c r="B175" s="2" t="n">
-        <v>56.4</v>
+        <v>55.3</v>
       </c>
       <c r="C175">
         <f>(B175/B187-1)*100</f>
@@ -2521,10 +2523,10 @@
     </row>
     <row r="176">
       <c r="A176" s="3" t="n">
-        <v>40360</v>
+        <v>40391</v>
       </c>
       <c r="B176" s="2" t="n">
-        <v>56.1</v>
+        <v>56.4</v>
       </c>
       <c r="C176">
         <f>(B176/B188-1)*100</f>
@@ -2533,10 +2535,10 @@
     </row>
     <row r="177">
       <c r="A177" s="3" t="n">
-        <v>40330</v>
+        <v>40360</v>
       </c>
       <c r="B177" s="2" t="n">
-        <v>56.5</v>
+        <v>56.1</v>
       </c>
       <c r="C177">
         <f>(B177/B189-1)*100</f>
@@ -2545,10 +2547,10 @@
     </row>
     <row r="178">
       <c r="A178" s="3" t="n">
-        <v>40299</v>
+        <v>40330</v>
       </c>
       <c r="B178" s="2" t="n">
-        <v>57.4</v>
+        <v>56.5</v>
       </c>
       <c r="C178">
         <f>(B178/B190-1)*100</f>
@@ -2557,10 +2559,10 @@
     </row>
     <row r="179">
       <c r="A179" s="3" t="n">
-        <v>40269</v>
+        <v>40299</v>
       </c>
       <c r="B179" s="2" t="n">
-        <v>58.1</v>
+        <v>57.4</v>
       </c>
       <c r="C179">
         <f>(B179/B191-1)*100</f>
@@ -2569,10 +2571,10 @@
     </row>
     <row r="180">
       <c r="A180" s="3" t="n">
-        <v>40238</v>
+        <v>40269</v>
       </c>
       <c r="B180" s="2" t="n">
-        <v>58.8</v>
+        <v>58.1</v>
       </c>
       <c r="C180">
         <f>(B180/B192-1)*100</f>
@@ -2581,10 +2583,10 @@
     </row>
     <row r="181">
       <c r="A181" s="3" t="n">
-        <v>40210</v>
+        <v>40238</v>
       </c>
       <c r="B181" s="2" t="n">
-        <v>55.5</v>
+        <v>58.8</v>
       </c>
       <c r="C181">
         <f>(B181/B193-1)*100</f>
@@ -2593,10 +2595,10 @@
     </row>
     <row r="182">
       <c r="A182" s="3" t="n">
-        <v>40179</v>
+        <v>40210</v>
       </c>
       <c r="B182" s="2" t="n">
-        <v>56.3</v>
+        <v>55.5</v>
       </c>
       <c r="C182">
         <f>(B182/B194-1)*100</f>
@@ -2605,10 +2607,10 @@
     </row>
     <row r="183">
       <c r="A183" s="3" t="n">
-        <v>40148</v>
+        <v>40179</v>
       </c>
       <c r="B183" s="2" t="n">
-        <v>55.8</v>
+        <v>56.3</v>
       </c>
       <c r="C183">
         <f>(B183/B195-1)*100</f>
@@ -2617,10 +2619,10 @@
     </row>
     <row r="184">
       <c r="A184" s="3" t="n">
-        <v>40118</v>
+        <v>40148</v>
       </c>
       <c r="B184" s="2" t="n">
-        <v>55.4</v>
+        <v>55.8</v>
       </c>
       <c r="C184">
         <f>(B184/B196-1)*100</f>
@@ -2629,10 +2631,10 @@
     </row>
     <row r="185">
       <c r="A185" s="3" t="n">
-        <v>40087</v>
+        <v>40118</v>
       </c>
       <c r="B185" s="2" t="n">
-        <v>57.6</v>
+        <v>55.4</v>
       </c>
       <c r="C185">
         <f>(B185/B197-1)*100</f>
@@ -2641,10 +2643,10 @@
     </row>
     <row r="186">
       <c r="A186" s="3" t="n">
-        <v>40057</v>
+        <v>40087</v>
       </c>
       <c r="B186" s="2" t="n">
-        <v>54.9</v>
+        <v>57.6</v>
       </c>
       <c r="C186">
         <f>(B186/B198-1)*100</f>
@@ -2653,10 +2655,10 @@
     </row>
     <row r="187">
       <c r="A187" s="3" t="n">
-        <v>40026</v>
+        <v>40057</v>
       </c>
       <c r="B187" s="2" t="n">
-        <v>53.4</v>
+        <v>54.9</v>
       </c>
       <c r="C187">
         <f>(B187/B199-1)*100</f>
@@ -2665,10 +2667,10 @@
     </row>
     <row r="188">
       <c r="A188" s="3" t="n">
-        <v>39995</v>
+        <v>40026</v>
       </c>
       <c r="B188" s="2" t="n">
-        <v>49.7</v>
+        <v>53.4</v>
       </c>
       <c r="C188">
         <f>(B188/B200-1)*100</f>
@@ -2677,10 +2679,10 @@
     </row>
     <row r="189">
       <c r="A189" s="3" t="n">
-        <v>39965</v>
+        <v>39995</v>
       </c>
       <c r="B189" s="2" t="n">
-        <v>46.3</v>
+        <v>49.7</v>
       </c>
       <c r="C189">
         <f>(B189/B201-1)*100</f>
@@ -2689,10 +2691,10 @@
     </row>
     <row r="190">
       <c r="A190" s="3" t="n">
-        <v>39934</v>
+        <v>39965</v>
       </c>
       <c r="B190" s="2" t="n">
-        <v>44.1</v>
+        <v>46.3</v>
       </c>
       <c r="C190">
         <f>(B190/B202-1)*100</f>
@@ -2701,10 +2703,10 @@
     </row>
     <row r="191">
       <c r="A191" s="3" t="n">
-        <v>39904</v>
+        <v>39934</v>
       </c>
       <c r="B191" s="2" t="n">
-        <v>39.9</v>
+        <v>44.1</v>
       </c>
       <c r="C191">
         <f>(B191/B203-1)*100</f>
@@ -2713,10 +2715,10 @@
     </row>
     <row r="192">
       <c r="A192" s="3" t="n">
-        <v>39873</v>
+        <v>39904</v>
       </c>
       <c r="B192" s="2" t="n">
-        <v>37.2</v>
+        <v>39.9</v>
       </c>
       <c r="C192">
         <f>(B192/B204-1)*100</f>
@@ -2725,10 +2727,10 @@
     </row>
     <row r="193">
       <c r="A193" s="3" t="n">
-        <v>39845</v>
+        <v>39873</v>
       </c>
       <c r="B193" s="2" t="n">
-        <v>36.6</v>
+        <v>37.2</v>
       </c>
       <c r="C193">
         <f>(B193/B205-1)*100</f>
@@ -2737,10 +2739,10 @@
     </row>
     <row r="194">
       <c r="A194" s="3" t="n">
-        <v>39814</v>
+        <v>39845</v>
       </c>
       <c r="B194" s="2" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="C194">
         <f>(B194/B206-1)*100</f>
@@ -2749,10 +2751,10 @@
     </row>
     <row r="195">
       <c r="A195" s="3" t="n">
-        <v>39783</v>
+        <v>39814</v>
       </c>
       <c r="B195" s="2" t="n">
-        <v>34.5</v>
+        <v>36.4</v>
       </c>
       <c r="C195">
         <f>(B195/B207-1)*100</f>
@@ -2761,10 +2763,10 @@
     </row>
     <row r="196">
       <c r="A196" s="3" t="n">
-        <v>39753</v>
+        <v>39783</v>
       </c>
       <c r="B196" s="2" t="n">
-        <v>39</v>
+        <v>34.5</v>
       </c>
       <c r="C196">
         <f>(B196/B208-1)*100</f>
@@ -2773,10 +2775,10 @@
     </row>
     <row r="197">
       <c r="A197" s="3" t="n">
-        <v>39722</v>
+        <v>39753</v>
       </c>
       <c r="B197" s="2" t="n">
-        <v>38.2</v>
+        <v>39</v>
       </c>
       <c r="C197">
         <f>(B197/B209-1)*100</f>
@@ -2785,10 +2787,10 @@
     </row>
     <row r="198">
       <c r="A198" s="3" t="n">
-        <v>39692</v>
+        <v>39722</v>
       </c>
       <c r="B198" s="2" t="n">
-        <v>47.2</v>
+        <v>38.2</v>
       </c>
       <c r="C198">
         <f>(B198/B210-1)*100</f>
@@ -2797,10 +2799,10 @@
     </row>
     <row r="199">
       <c r="A199" s="3" t="n">
-        <v>39661</v>
+        <v>39692</v>
       </c>
       <c r="B199" s="2" t="n">
-        <v>50.1</v>
+        <v>47.2</v>
       </c>
       <c r="C199">
         <f>(B199/B211-1)*100</f>
@@ -2809,10 +2811,10 @@
     </row>
     <row r="200">
       <c r="A200" s="3" t="n">
-        <v>39630</v>
+        <v>39661</v>
       </c>
       <c r="B200" s="2" t="n">
-        <v>50.8</v>
+        <v>50.1</v>
       </c>
       <c r="C200">
         <f>(B200/B212-1)*100</f>
@@ -2821,10 +2823,10 @@
     </row>
     <row r="201">
       <c r="A201" s="3" t="n">
-        <v>39600</v>
+        <v>39630</v>
       </c>
       <c r="B201" s="2" t="n">
-        <v>49.9</v>
+        <v>50.8</v>
       </c>
       <c r="C201">
         <f>(B201/B213-1)*100</f>
@@ -2833,10 +2835,10 @@
     </row>
     <row r="202">
       <c r="A202" s="3" t="n">
-        <v>39569</v>
+        <v>39600</v>
       </c>
       <c r="B202" s="2" t="n">
-        <v>48.9</v>
+        <v>49.9</v>
       </c>
       <c r="C202">
         <f>(B202/B214-1)*100</f>
@@ -2845,10 +2847,10 @@
     </row>
     <row r="203">
       <c r="A203" s="3" t="n">
-        <v>39539</v>
+        <v>39569</v>
       </c>
       <c r="B203" s="2" t="n">
-        <v>48.5</v>
+        <v>48.9</v>
       </c>
       <c r="C203">
         <f>(B203/B215-1)*100</f>
@@ -2857,10 +2859,10 @@
     </row>
     <row r="204">
       <c r="A204" s="3" t="n">
-        <v>39508</v>
+        <v>39539</v>
       </c>
       <c r="B204" s="2" t="n">
-        <v>49.7</v>
+        <v>48.5</v>
       </c>
       <c r="C204">
         <f>(B204/B216-1)*100</f>
@@ -2869,10 +2871,10 @@
     </row>
     <row r="205">
       <c r="A205" s="3" t="n">
-        <v>39479</v>
+        <v>39508</v>
       </c>
       <c r="B205" s="2" t="n">
-        <v>48.8</v>
+        <v>49.7</v>
       </c>
       <c r="C205">
         <f>(B205/B217-1)*100</f>
@@ -2881,10 +2883,10 @@
     </row>
     <row r="206">
       <c r="A206" s="3" t="n">
-        <v>39448</v>
+        <v>39479</v>
       </c>
       <c r="B206" s="2" t="n">
-        <v>50.9</v>
+        <v>48.8</v>
       </c>
       <c r="C206">
         <f>(B206/B218-1)*100</f>
@@ -2893,10 +2895,10 @@
     </row>
     <row r="207">
       <c r="A207" s="3" t="n">
-        <v>39417</v>
+        <v>39448</v>
       </c>
       <c r="B207" s="2" t="n">
-        <v>50.1</v>
+        <v>50.9</v>
       </c>
       <c r="C207">
         <f>(B207/B219-1)*100</f>
@@ -2905,10 +2907,10 @@
     </row>
     <row r="208">
       <c r="A208" s="3" t="n">
-        <v>39387</v>
+        <v>39417</v>
       </c>
       <c r="B208" s="2" t="n">
-        <v>51.5</v>
+        <v>50.1</v>
       </c>
       <c r="C208">
         <f>(B208/B220-1)*100</f>
@@ -2917,10 +2919,10 @@
     </row>
     <row r="209">
       <c r="A209" s="3" t="n">
-        <v>39356</v>
+        <v>39387</v>
       </c>
       <c r="B209" s="2" t="n">
-        <v>52.8</v>
+        <v>51.5</v>
       </c>
       <c r="C209">
         <f>(B209/B221-1)*100</f>
@@ -2929,10 +2931,10 @@
     </row>
     <row r="210">
       <c r="A210" s="3" t="n">
-        <v>39326</v>
+        <v>39356</v>
       </c>
       <c r="B210" s="2" t="n">
-        <v>53.8</v>
+        <v>52.8</v>
       </c>
       <c r="C210">
         <f>(B210/B222-1)*100</f>
@@ -2941,10 +2943,10 @@
     </row>
     <row r="211">
       <c r="A211" s="3" t="n">
-        <v>39295</v>
+        <v>39326</v>
       </c>
       <c r="B211" s="2" t="n">
-        <v>52.2</v>
+        <v>53.8</v>
       </c>
       <c r="C211">
         <f>(B211/B223-1)*100</f>
@@ -2953,10 +2955,10 @@
     </row>
     <row r="212">
       <c r="A212" s="3" t="n">
-        <v>39264</v>
+        <v>39295</v>
       </c>
       <c r="B212" s="2" t="n">
-        <v>51.8</v>
+        <v>52.2</v>
       </c>
       <c r="C212">
         <f>(B212/B224-1)*100</f>
@@ -2965,10 +2967,10 @@
     </row>
     <row r="213">
       <c r="A213" s="3" t="n">
-        <v>39234</v>
+        <v>39264</v>
       </c>
       <c r="B213" s="2" t="n">
-        <v>54</v>
+        <v>51.8</v>
       </c>
       <c r="C213">
         <f>(B213/B225-1)*100</f>
@@ -2977,10 +2979,10 @@
     </row>
     <row r="214">
       <c r="A214" s="3" t="n">
-        <v>39203</v>
+        <v>39234</v>
       </c>
       <c r="B214" s="2" t="n">
-        <v>53.1</v>
+        <v>54</v>
       </c>
       <c r="C214">
         <f>(B214/B226-1)*100</f>
@@ -2989,10 +2991,10 @@
     </row>
     <row r="215">
       <c r="A215" s="3" t="n">
-        <v>39173</v>
+        <v>39203</v>
       </c>
       <c r="B215" s="2" t="n">
-        <v>52.7</v>
+        <v>53.1</v>
       </c>
       <c r="C215">
         <f>(B215/B227-1)*100</f>
@@ -3001,10 +3003,10 @@
     </row>
     <row r="216">
       <c r="A216" s="3" t="n">
-        <v>39142</v>
+        <v>39173</v>
       </c>
       <c r="B216" s="2" t="n">
-        <v>52.8</v>
+        <v>52.7</v>
       </c>
       <c r="C216">
         <f>(B216/B228-1)*100</f>
@@ -3013,10 +3015,10 @@
     </row>
     <row r="217">
       <c r="A217" s="3" t="n">
-        <v>39114</v>
+        <v>39142</v>
       </c>
       <c r="B217" s="2" t="n">
-        <v>54.1</v>
+        <v>52.8</v>
       </c>
       <c r="C217">
         <f>(B217/B229-1)*100</f>
@@ -3025,10 +3027,10 @@
     </row>
     <row r="218">
       <c r="A218" s="3" t="n">
-        <v>39083</v>
+        <v>39114</v>
       </c>
       <c r="B218" s="2" t="n">
-        <v>50.4</v>
+        <v>54.1</v>
       </c>
       <c r="C218">
         <f>(B218/B230-1)*100</f>
@@ -3037,10 +3039,10 @@
     </row>
     <row r="219">
       <c r="A219" s="3" t="n">
-        <v>39052</v>
+        <v>39083</v>
       </c>
       <c r="B219" s="2" t="n">
-        <v>51.4</v>
+        <v>50.4</v>
       </c>
       <c r="C219">
         <f>(B219/B231-1)*100</f>
@@ -3049,10 +3051,10 @@
     </row>
     <row r="220">
       <c r="A220" s="3" t="n">
-        <v>39022</v>
+        <v>39052</v>
       </c>
       <c r="B220" s="2" t="n">
-        <v>50.3</v>
+        <v>51.4</v>
       </c>
       <c r="C220">
         <f>(B220/B232-1)*100</f>
@@ -3061,10 +3063,10 @@
     </row>
     <row r="221">
       <c r="A221" s="3" t="n">
-        <v>38991</v>
+        <v>39022</v>
       </c>
       <c r="B221" s="2" t="n">
-        <v>51.4</v>
+        <v>50.3</v>
       </c>
       <c r="C221">
         <f>(B221/B233-1)*100</f>
@@ -3073,10 +3075,10 @@
     </row>
     <row r="222">
       <c r="A222" s="3" t="n">
-        <v>38961</v>
+        <v>38991</v>
       </c>
       <c r="B222" s="2" t="n">
-        <v>52.2</v>
+        <v>51.4</v>
       </c>
       <c r="C222">
         <f>(B222/B234-1)*100</f>
@@ -3085,10 +3087,10 @@
     </row>
     <row r="223">
       <c r="A223" s="3" t="n">
-        <v>38930</v>
+        <v>38961</v>
       </c>
       <c r="B223" s="2" t="n">
-        <v>53.7</v>
+        <v>52.2</v>
       </c>
       <c r="C223">
         <f>(B223/B235-1)*100</f>
@@ -3097,10 +3099,10 @@
     </row>
     <row r="224">
       <c r="A224" s="3" t="n">
-        <v>38899</v>
+        <v>38930</v>
       </c>
       <c r="B224" s="2" t="n">
-        <v>53</v>
+        <v>53.7</v>
       </c>
       <c r="C224">
         <f>(B224/B236-1)*100</f>
@@ -3109,10 +3111,10 @@
     </row>
     <row r="225">
       <c r="A225" s="3" t="n">
-        <v>38869</v>
+        <v>38899</v>
       </c>
       <c r="B225" s="2" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C225">
         <f>(B225/B237-1)*100</f>
@@ -3121,10 +3123,10 @@
     </row>
     <row r="226">
       <c r="A226" s="3" t="n">
-        <v>38838</v>
+        <v>38869</v>
       </c>
       <c r="B226" s="2" t="n">
-        <v>53.7</v>
+        <v>52</v>
       </c>
       <c r="C226">
         <f>(B226/B238-1)*100</f>
@@ -3133,10 +3135,10 @@
     </row>
     <row r="227">
       <c r="A227" s="3" t="n">
-        <v>38808</v>
+        <v>38838</v>
       </c>
       <c r="B227" s="2" t="n">
-        <v>55.2</v>
+        <v>53.7</v>
       </c>
       <c r="C227">
         <f>(B227/B239-1)*100</f>
@@ -3145,10 +3147,10 @@
     </row>
     <row r="228">
       <c r="A228" s="3" t="n">
-        <v>38777</v>
+        <v>38808</v>
       </c>
       <c r="B228" s="2" t="n">
-        <v>54.3</v>
+        <v>55.2</v>
       </c>
       <c r="C228">
         <f>(B228/B240-1)*100</f>
@@ -3157,10 +3159,10 @@
     </row>
     <row r="229">
       <c r="A229" s="3" t="n">
-        <v>38749</v>
+        <v>38777</v>
       </c>
       <c r="B229" s="2" t="n">
-        <v>55.8</v>
+        <v>54.3</v>
       </c>
       <c r="C229">
         <f>(B229/B241-1)*100</f>
@@ -3169,10 +3171,10 @@
     </row>
     <row r="230">
       <c r="A230" s="3" t="n">
-        <v>38718</v>
+        <v>38749</v>
       </c>
       <c r="B230" s="2" t="n">
-        <v>55</v>
+        <v>55.8</v>
       </c>
       <c r="C230">
         <f>(B230/B242-1)*100</f>
@@ -3181,10 +3183,10 @@
     </row>
     <row r="231">
       <c r="A231" s="3" t="n">
-        <v>38687</v>
+        <v>38718</v>
       </c>
       <c r="B231" s="2" t="n">
-        <v>55.1</v>
+        <v>55</v>
       </c>
       <c r="C231">
         <f>(B231/B243-1)*100</f>
@@ -3193,10 +3195,10 @@
     </row>
     <row r="232">
       <c r="A232" s="3" t="n">
-        <v>38657</v>
+        <v>38687</v>
       </c>
       <c r="B232" s="2" t="n">
-        <v>56.7</v>
+        <v>55.1</v>
       </c>
       <c r="C232">
         <f>(B232/B244-1)*100</f>
@@ -3205,10 +3207,10 @@
     </row>
     <row r="233">
       <c r="A233" s="3" t="n">
-        <v>38626</v>
+        <v>38657</v>
       </c>
       <c r="B233" s="2" t="n">
-        <v>57.2</v>
+        <v>56.7</v>
       </c>
       <c r="C233">
         <f>(B233/B245-1)*100</f>
@@ -3217,10 +3219,10 @@
     </row>
     <row r="234">
       <c r="A234" s="3" t="n">
-        <v>38596</v>
+        <v>38626</v>
       </c>
       <c r="B234" s="2" t="n">
-        <v>56.8</v>
+        <v>57.2</v>
       </c>
       <c r="C234">
         <f>(B234/B246-1)*100</f>
@@ -3229,10 +3231,10 @@
     </row>
     <row r="235">
       <c r="A235" s="3" t="n">
-        <v>38565</v>
+        <v>38596</v>
       </c>
       <c r="B235" s="2" t="n">
-        <v>52.4</v>
+        <v>56.8</v>
       </c>
       <c r="C235">
         <f>(B235/B247-1)*100</f>
@@ -3241,10 +3243,10 @@
     </row>
     <row r="236">
       <c r="A236" s="3" t="n">
-        <v>38534</v>
+        <v>38565</v>
       </c>
       <c r="B236" s="2" t="n">
-        <v>52.8</v>
+        <v>52.4</v>
       </c>
       <c r="C236">
         <f>(B236/B248-1)*100</f>
@@ -3253,10 +3255,10 @@
     </row>
     <row r="237">
       <c r="A237" s="3" t="n">
-        <v>38504</v>
+        <v>38534</v>
       </c>
       <c r="B237" s="2" t="n">
-        <v>52.4</v>
+        <v>52.8</v>
       </c>
       <c r="C237">
         <f>(B237/B249-1)*100</f>
@@ -3265,10 +3267,10 @@
     </row>
     <row r="238">
       <c r="A238" s="3" t="n">
-        <v>38473</v>
+        <v>38504</v>
       </c>
       <c r="B238" s="2" t="n">
-        <v>50.8</v>
+        <v>52.4</v>
       </c>
       <c r="C238">
         <f>(B238/B250-1)*100</f>
@@ -3277,10 +3279,10 @@
     </row>
     <row r="239">
       <c r="A239" s="3" t="n">
-        <v>38443</v>
+        <v>38473</v>
       </c>
       <c r="B239" s="2" t="n">
-        <v>52.2</v>
+        <v>50.8</v>
       </c>
       <c r="C239">
         <f>(B239/B251-1)*100</f>
@@ -3289,10 +3291,10 @@
     </row>
     <row r="240">
       <c r="A240" s="3" t="n">
-        <v>38412</v>
+        <v>38443</v>
       </c>
       <c r="B240" s="2" t="n">
-        <v>55.2</v>
+        <v>52.2</v>
       </c>
       <c r="C240">
         <f>(B240/B252-1)*100</f>
@@ -3301,10 +3303,10 @@
     </row>
     <row r="241">
       <c r="A241" s="3" t="n">
-        <v>38384</v>
+        <v>38412</v>
       </c>
       <c r="B241" s="2" t="n">
-        <v>55.5</v>
+        <v>55.2</v>
       </c>
       <c r="C241">
         <f>(B241/B253-1)*100</f>
@@ -3313,10 +3315,10 @@
     </row>
     <row r="242">
       <c r="A242" s="3" t="n">
-        <v>38353</v>
+        <v>38384</v>
       </c>
       <c r="B242" s="2" t="n">
-        <v>56.8</v>
+        <v>55.5</v>
       </c>
       <c r="C242">
         <f>(B242/B254-1)*100</f>
@@ -3325,10 +3327,10 @@
     </row>
     <row r="243">
       <c r="A243" s="3" t="n">
-        <v>38322</v>
+        <v>38353</v>
       </c>
       <c r="B243" s="2" t="n">
-        <v>57.2</v>
+        <v>56.8</v>
       </c>
       <c r="C243">
         <f>(B243/B255-1)*100</f>
@@ -3337,10 +3339,10 @@
     </row>
     <row r="244">
       <c r="A244" s="3" t="n">
-        <v>38292</v>
+        <v>38322</v>
       </c>
       <c r="B244" s="2" t="n">
-        <v>56.2</v>
+        <v>57.2</v>
       </c>
       <c r="C244">
         <f>(B244/B256-1)*100</f>
@@ -3349,10 +3351,10 @@
     </row>
     <row r="245">
       <c r="A245" s="3" t="n">
-        <v>38261</v>
+        <v>38292</v>
       </c>
       <c r="B245" s="2" t="n">
-        <v>56.3</v>
+        <v>56.2</v>
       </c>
       <c r="C245">
         <f>(B245/B257-1)*100</f>
@@ -3361,10 +3363,10 @@
     </row>
     <row r="246">
       <c r="A246" s="3" t="n">
-        <v>38231</v>
+        <v>38261</v>
       </c>
       <c r="B246" s="2" t="n">
-        <v>57.4</v>
+        <v>56.3</v>
       </c>
       <c r="C246">
         <f>(B246/B258-1)*100</f>
@@ -3373,10 +3375,10 @@
     </row>
     <row r="247">
       <c r="A247" s="3" t="n">
-        <v>38200</v>
+        <v>38231</v>
       </c>
       <c r="B247" s="2" t="n">
-        <v>58.5</v>
+        <v>57.4</v>
       </c>
       <c r="C247">
         <f>(B247/B259-1)*100</f>
@@ -3385,10 +3387,10 @@
     </row>
     <row r="248">
       <c r="A248" s="3" t="n">
-        <v>38169</v>
+        <v>38200</v>
       </c>
       <c r="B248" s="2" t="n">
-        <v>59.9</v>
+        <v>58.5</v>
       </c>
       <c r="C248">
         <f>(B248/B260-1)*100</f>
@@ -3397,10 +3399,10 @@
     </row>
     <row r="249">
       <c r="A249" s="3" t="n">
-        <v>38139</v>
+        <v>38169</v>
       </c>
       <c r="B249" s="2" t="n">
-        <v>60.5</v>
+        <v>59.9</v>
       </c>
       <c r="C249">
         <f>(B249/B261-1)*100</f>
@@ -3409,10 +3411,10 @@
     </row>
     <row r="250">
       <c r="A250" s="3" t="n">
-        <v>38108</v>
+        <v>38139</v>
       </c>
       <c r="B250" s="2" t="n">
-        <v>61.4</v>
+        <v>60.5</v>
       </c>
       <c r="C250">
         <f>(B250/B262-1)*100</f>
@@ -3421,10 +3423,10 @@
     </row>
     <row r="251">
       <c r="A251" s="3" t="n">
-        <v>38078</v>
+        <v>38108</v>
       </c>
       <c r="B251" s="2" t="n">
-        <v>60.6</v>
+        <v>61.4</v>
       </c>
       <c r="C251">
         <f>(B251/B263-1)*100</f>
@@ -3433,7 +3435,7 @@
     </row>
     <row r="252">
       <c r="A252" s="3" t="n">
-        <v>38047</v>
+        <v>38078</v>
       </c>
       <c r="B252" s="2" t="n">
         <v>60.6</v>
@@ -3445,10 +3447,10 @@
     </row>
     <row r="253">
       <c r="A253" s="3" t="n">
-        <v>38018</v>
+        <v>38047</v>
       </c>
       <c r="B253" s="2" t="n">
-        <v>59.9</v>
+        <v>60.6</v>
       </c>
       <c r="C253">
         <f>(B253/B265-1)*100</f>
@@ -3457,10 +3459,10 @@
     </row>
     <row r="254">
       <c r="A254" s="3" t="n">
-        <v>37987</v>
+        <v>38018</v>
       </c>
       <c r="B254" s="2" t="n">
-        <v>60.8</v>
+        <v>59.9</v>
       </c>
       <c r="C254">
         <f>(B254/B266-1)*100</f>
@@ -3469,10 +3471,10 @@
     </row>
     <row r="255">
       <c r="A255" s="3" t="n">
-        <v>37956</v>
+        <v>37987</v>
       </c>
       <c r="B255" s="2" t="n">
-        <v>60.1</v>
+        <v>60.8</v>
       </c>
       <c r="C255">
         <f>(B255/B267-1)*100</f>
@@ -3481,10 +3483,10 @@
     </row>
     <row r="256">
       <c r="A256" s="3" t="n">
-        <v>37926</v>
+        <v>37956</v>
       </c>
       <c r="B256" s="2" t="n">
-        <v>58.4</v>
+        <v>60.1</v>
       </c>
       <c r="C256">
         <f>(B256/B268-1)*100</f>
@@ -3493,10 +3495,10 @@
     </row>
     <row r="257">
       <c r="A257" s="3" t="n">
-        <v>37895</v>
+        <v>37926</v>
       </c>
       <c r="B257" s="2" t="n">
-        <v>55.2</v>
+        <v>58.4</v>
       </c>
       <c r="C257">
         <f>(B257/B269-1)*100</f>
@@ -3505,10 +3507,10 @@
     </row>
     <row r="258">
       <c r="A258" s="3" t="n">
-        <v>37865</v>
+        <v>37895</v>
       </c>
       <c r="B258" s="2" t="n">
-        <v>52.4</v>
+        <v>55.2</v>
       </c>
       <c r="C258">
         <f>(B258/B270-1)*100</f>
@@ -3517,10 +3519,10 @@
     </row>
     <row r="259">
       <c r="A259" s="3" t="n">
-        <v>37834</v>
+        <v>37865</v>
       </c>
       <c r="B259" s="2" t="n">
-        <v>53.2</v>
+        <v>52.4</v>
       </c>
       <c r="C259">
         <f>(B259/B271-1)*100</f>
@@ -3529,10 +3531,10 @@
     </row>
     <row r="260">
       <c r="A260" s="3" t="n">
-        <v>37803</v>
+        <v>37834</v>
       </c>
       <c r="B260" s="2" t="n">
-        <v>51</v>
+        <v>53.2</v>
       </c>
       <c r="C260">
         <f>(B260/B272-1)*100</f>
@@ -3541,10 +3543,10 @@
     </row>
     <row r="261">
       <c r="A261" s="3" t="n">
-        <v>37773</v>
+        <v>37803</v>
       </c>
       <c r="B261" s="2" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C261">
         <f>(B261/B273-1)*100</f>
@@ -3553,7 +3555,7 @@
     </row>
     <row r="262">
       <c r="A262" s="3" t="n">
-        <v>37742</v>
+        <v>37773</v>
       </c>
       <c r="B262" s="2" t="n">
         <v>49</v>
@@ -3565,10 +3567,10 @@
     </row>
     <row r="263">
       <c r="A263" s="3" t="n">
-        <v>37712</v>
+        <v>37742</v>
       </c>
       <c r="B263" s="2" t="n">
-        <v>46.1</v>
+        <v>49</v>
       </c>
       <c r="C263">
         <f>(B263/B275-1)*100</f>
@@ -3577,10 +3579,10 @@
     </row>
     <row r="264">
       <c r="A264" s="3" t="n">
-        <v>37681</v>
+        <v>37712</v>
       </c>
       <c r="B264" s="2" t="n">
-        <v>46.3</v>
+        <v>46.1</v>
       </c>
       <c r="C264">
         <f>(B264/B276-1)*100</f>
@@ -3589,10 +3591,10 @@
     </row>
     <row r="265">
       <c r="A265" s="3" t="n">
-        <v>37653</v>
+        <v>37681</v>
       </c>
       <c r="B265" s="2" t="n">
-        <v>48.8</v>
+        <v>46.3</v>
       </c>
       <c r="C265">
         <f>(B265/B277-1)*100</f>
@@ -3601,10 +3603,10 @@
     </row>
     <row r="266">
       <c r="A266" s="3" t="n">
-        <v>37622</v>
+        <v>37653</v>
       </c>
       <c r="B266" s="2" t="n">
-        <v>51.3</v>
+        <v>48.8</v>
       </c>
       <c r="C266">
         <f>(B266/B278-1)*100</f>
@@ -3613,10 +3615,10 @@
     </row>
     <row r="267">
       <c r="A267" s="3" t="n">
-        <v>37591</v>
+        <v>37622</v>
       </c>
       <c r="B267" s="2" t="n">
-        <v>51.6</v>
+        <v>51.3</v>
       </c>
       <c r="C267">
         <f>(B267/B279-1)*100</f>
@@ -3625,10 +3627,10 @@
     </row>
     <row r="268">
       <c r="A268" s="3" t="n">
-        <v>37561</v>
+        <v>37591</v>
       </c>
       <c r="B268" s="2" t="n">
-        <v>48.5</v>
+        <v>51.6</v>
       </c>
       <c r="C268">
         <f>(B268/B280-1)*100</f>
@@ -3637,10 +3639,10 @@
     </row>
     <row r="269">
       <c r="A269" s="3" t="n">
-        <v>37530</v>
+        <v>37561</v>
       </c>
       <c r="B269" s="2" t="n">
-        <v>49</v>
+        <v>48.5</v>
       </c>
       <c r="C269">
         <f>(B269/B281-1)*100</f>
@@ -3649,10 +3651,10 @@
     </row>
     <row r="270">
       <c r="A270" s="3" t="n">
-        <v>37500</v>
+        <v>37530</v>
       </c>
       <c r="B270" s="2" t="n">
-        <v>50.5</v>
+        <v>49</v>
       </c>
       <c r="C270">
         <f>(B270/B282-1)*100</f>
@@ -3661,10 +3663,10 @@
     </row>
     <row r="271">
       <c r="A271" s="3" t="n">
-        <v>37469</v>
+        <v>37500</v>
       </c>
       <c r="B271" s="2" t="n">
-        <v>50.3</v>
+        <v>50.5</v>
       </c>
       <c r="C271">
         <f>(B271/B283-1)*100</f>
@@ -3673,10 +3675,10 @@
     </row>
     <row r="272">
       <c r="A272" s="3" t="n">
-        <v>37438</v>
+        <v>37469</v>
       </c>
       <c r="B272" s="2" t="n">
-        <v>50.2</v>
+        <v>50.3</v>
       </c>
       <c r="C272">
         <f>(B272/B284-1)*100</f>
@@ -3685,10 +3687,10 @@
     </row>
     <row r="273">
       <c r="A273" s="3" t="n">
-        <v>37408</v>
+        <v>37438</v>
       </c>
       <c r="B273" s="2" t="n">
-        <v>53.6</v>
+        <v>50.2</v>
       </c>
       <c r="C273">
         <f>(B273/B285-1)*100</f>
@@ -3697,10 +3699,10 @@
     </row>
     <row r="274">
       <c r="A274" s="3" t="n">
-        <v>37377</v>
+        <v>37408</v>
       </c>
       <c r="B274" s="2" t="n">
-        <v>53.1</v>
+        <v>53.6</v>
       </c>
       <c r="C274">
         <f>(B274/B286-1)*100</f>
@@ -3709,10 +3711,10 @@
     </row>
     <row r="275">
       <c r="A275" s="3" t="n">
-        <v>37347</v>
+        <v>37377</v>
       </c>
       <c r="B275" s="2" t="n">
-        <v>52.4</v>
+        <v>53.1</v>
       </c>
       <c r="C275">
         <f>(B275/B287-1)*100</f>
@@ -3721,7 +3723,7 @@
     </row>
     <row r="276">
       <c r="A276" s="3" t="n">
-        <v>37316</v>
+        <v>37347</v>
       </c>
       <c r="B276" s="2" t="n">
         <v>52.4</v>
@@ -3733,10 +3735,10 @@
     </row>
     <row r="277">
       <c r="A277" s="3" t="n">
-        <v>37288</v>
+        <v>37316</v>
       </c>
       <c r="B277" s="2" t="n">
-        <v>50.7</v>
+        <v>52.4</v>
       </c>
       <c r="C277">
         <f>(B277/B289-1)*100</f>
@@ -3745,10 +3747,10 @@
     </row>
     <row r="278">
       <c r="A278" s="3" t="n">
-        <v>37257</v>
+        <v>37288</v>
       </c>
       <c r="B278" s="2" t="n">
-        <v>47.5</v>
+        <v>50.7</v>
       </c>
       <c r="C278">
         <f>(B278/B290-1)*100</f>
@@ -3757,10 +3759,10 @@
     </row>
     <row r="279">
       <c r="A279" s="3" t="n">
-        <v>37226</v>
+        <v>37257</v>
       </c>
       <c r="B279" s="2" t="n">
-        <v>45.3</v>
+        <v>47.5</v>
       </c>
       <c r="C279">
         <f>(B279/B291-1)*100</f>
@@ -3769,10 +3771,10 @@
     </row>
     <row r="280">
       <c r="A280" s="3" t="n">
-        <v>37196</v>
+        <v>37226</v>
       </c>
       <c r="B280" s="2" t="n">
-        <v>44.1</v>
+        <v>45.3</v>
       </c>
       <c r="C280">
         <f>(B280/B292-1)*100</f>
@@ -3781,10 +3783,10 @@
     </row>
     <row r="281">
       <c r="A281" s="3" t="n">
-        <v>37165</v>
+        <v>37196</v>
       </c>
       <c r="B281" s="2" t="n">
-        <v>40.8</v>
+        <v>44.1</v>
       </c>
       <c r="C281">
         <f>(B281/B293-1)*100</f>
@@ -3793,10 +3795,10 @@
     </row>
     <row r="282">
       <c r="A282" s="3" t="n">
-        <v>37135</v>
+        <v>37165</v>
       </c>
       <c r="B282" s="2" t="n">
-        <v>46.2</v>
+        <v>40.8</v>
       </c>
       <c r="C282">
         <f>(B282/B294-1)*100</f>
@@ -3805,10 +3807,10 @@
     </row>
     <row r="283">
       <c r="A283" s="3" t="n">
-        <v>37104</v>
+        <v>37135</v>
       </c>
       <c r="B283" s="2" t="n">
-        <v>46.3</v>
+        <v>46.2</v>
       </c>
       <c r="C283">
         <f>(B283/B295-1)*100</f>
@@ -3817,10 +3819,10 @@
     </row>
     <row r="284">
       <c r="A284" s="3" t="n">
-        <v>37073</v>
+        <v>37104</v>
       </c>
       <c r="B284" s="2" t="n">
-        <v>43.5</v>
+        <v>46.3</v>
       </c>
       <c r="C284">
         <f>(B284/B296-1)*100</f>
@@ -3829,10 +3831,10 @@
     </row>
     <row r="285">
       <c r="A285" s="3" t="n">
-        <v>37043</v>
+        <v>37073</v>
       </c>
       <c r="B285" s="2" t="n">
-        <v>43.2</v>
+        <v>43.5</v>
       </c>
       <c r="C285">
         <f>(B285/B297-1)*100</f>
@@ -3841,10 +3843,10 @@
     </row>
     <row r="286">
       <c r="A286" s="3" t="n">
-        <v>37012</v>
+        <v>37043</v>
       </c>
       <c r="B286" s="2" t="n">
-        <v>41.3</v>
+        <v>43.2</v>
       </c>
       <c r="C286">
         <f>(B286/B298-1)*100</f>
@@ -3853,10 +3855,10 @@
     </row>
     <row r="287">
       <c r="A287" s="3" t="n">
-        <v>36982</v>
+        <v>37012</v>
       </c>
       <c r="B287" s="2" t="n">
-        <v>42.7</v>
+        <v>41.3</v>
       </c>
       <c r="C287">
         <f>(B287/B299-1)*100</f>
@@ -3865,10 +3867,10 @@
     </row>
     <row r="288">
       <c r="A288" s="3" t="n">
-        <v>36951</v>
+        <v>36982</v>
       </c>
       <c r="B288" s="2" t="n">
-        <v>43.1</v>
+        <v>42.7</v>
       </c>
       <c r="C288">
         <f>(B288/B300-1)*100</f>
@@ -3877,10 +3879,10 @@
     </row>
     <row r="289">
       <c r="A289" s="3" t="n">
-        <v>36923</v>
+        <v>36951</v>
       </c>
       <c r="B289" s="2" t="n">
-        <v>42.1</v>
+        <v>43.1</v>
       </c>
       <c r="C289">
         <f>(B289/B301-1)*100</f>
@@ -3889,10 +3891,10 @@
     </row>
     <row r="290">
       <c r="A290" s="3" t="n">
-        <v>36892</v>
+        <v>36923</v>
       </c>
       <c r="B290" s="2" t="n">
-        <v>42.3</v>
+        <v>42.1</v>
       </c>
       <c r="C290">
         <f>(B290/B302-1)*100</f>
@@ -3901,10 +3903,10 @@
     </row>
     <row r="291">
       <c r="A291" s="3" t="n">
-        <v>36861</v>
+        <v>36892</v>
       </c>
       <c r="B291" s="2" t="n">
-        <v>43.9</v>
+        <v>42.3</v>
       </c>
       <c r="C291">
         <f>(B291/B303-1)*100</f>
@@ -3913,10 +3915,10 @@
     </row>
     <row r="292">
       <c r="A292" s="3" t="n">
-        <v>36831</v>
+        <v>36861</v>
       </c>
       <c r="B292" s="2" t="n">
-        <v>48.5</v>
+        <v>43.9</v>
       </c>
       <c r="C292">
         <f>(B292/B304-1)*100</f>
@@ -3925,10 +3927,10 @@
     </row>
     <row r="293">
       <c r="A293" s="3" t="n">
-        <v>36800</v>
+        <v>36831</v>
       </c>
       <c r="B293" s="2" t="n">
-        <v>48.7</v>
+        <v>48.5</v>
       </c>
       <c r="C293">
         <f>(B293/B305-1)*100</f>
@@ -3937,10 +3939,10 @@
     </row>
     <row r="294">
       <c r="A294" s="3" t="n">
-        <v>36770</v>
+        <v>36800</v>
       </c>
       <c r="B294" s="2" t="n">
-        <v>49.7</v>
+        <v>48.7</v>
       </c>
       <c r="C294">
         <f>(B294/B306-1)*100</f>
@@ -3949,10 +3951,10 @@
     </row>
     <row r="295">
       <c r="A295" s="3" t="n">
-        <v>36739</v>
+        <v>36770</v>
       </c>
       <c r="B295" s="2" t="n">
-        <v>49.9</v>
+        <v>49.7</v>
       </c>
       <c r="C295">
         <f>(B295/B307-1)*100</f>
@@ -3961,10 +3963,10 @@
     </row>
     <row r="296">
       <c r="A296" s="3" t="n">
-        <v>36708</v>
+        <v>36739</v>
       </c>
       <c r="B296" s="2" t="n">
-        <v>52.5</v>
+        <v>49.9</v>
       </c>
       <c r="C296">
         <f>(B296/B308-1)*100</f>
@@ -3973,10 +3975,10 @@
     </row>
     <row r="297">
       <c r="A297" s="3" t="n">
-        <v>36678</v>
+        <v>36708</v>
       </c>
       <c r="B297" s="2" t="n">
-        <v>51.4</v>
+        <v>52.5</v>
       </c>
       <c r="C297">
         <f>(B297/B309-1)*100</f>
@@ -3985,10 +3987,10 @@
     </row>
     <row r="298">
       <c r="A298" s="3" t="n">
-        <v>36647</v>
+        <v>36678</v>
       </c>
       <c r="B298" s="2" t="n">
-        <v>53.2</v>
+        <v>51.4</v>
       </c>
       <c r="C298">
         <f>(B298/B310-1)*100</f>
@@ -3997,10 +3999,10 @@
     </row>
     <row r="299">
       <c r="A299" s="3" t="n">
-        <v>36617</v>
+        <v>36647</v>
       </c>
       <c r="B299" s="2" t="n">
-        <v>54.7</v>
+        <v>53.2</v>
       </c>
       <c r="C299">
         <f>(B299/B311-1)*100</f>
@@ -4009,10 +4011,10 @@
     </row>
     <row r="300">
       <c r="A300" s="3" t="n">
-        <v>36586</v>
+        <v>36617</v>
       </c>
       <c r="B300" s="2" t="n">
-        <v>54.9</v>
+        <v>54.7</v>
       </c>
       <c r="C300">
         <f>(B300/B312-1)*100</f>
@@ -4021,10 +4023,10 @@
     </row>
     <row r="301">
       <c r="A301" s="3" t="n">
-        <v>36557</v>
+        <v>36586</v>
       </c>
       <c r="B301" s="2" t="n">
-        <v>55.8</v>
+        <v>54.9</v>
       </c>
       <c r="C301">
         <f>(B301/B313-1)*100</f>
@@ -4033,10 +4035,10 @@
     </row>
     <row r="302">
       <c r="A302" s="3" t="n">
-        <v>36526</v>
+        <v>36557</v>
       </c>
       <c r="B302" s="2" t="n">
-        <v>56.7</v>
+        <v>55.8</v>
       </c>
       <c r="C302">
         <f>(B302/B314-1)*100</f>
@@ -4045,10 +4047,10 @@
     </row>
     <row r="303">
       <c r="A303" s="3" t="n">
-        <v>36495</v>
+        <v>36526</v>
       </c>
       <c r="B303" s="2" t="n">
-        <v>57.8</v>
+        <v>56.7</v>
       </c>
       <c r="C303">
         <f>(B303/B315-1)*100</f>
@@ -4057,10 +4059,10 @@
     </row>
     <row r="304">
       <c r="A304" s="3" t="n">
-        <v>36465</v>
+        <v>36495</v>
       </c>
       <c r="B304" s="2" t="n">
-        <v>58.1</v>
+        <v>57.8</v>
       </c>
       <c r="C304">
         <f>(B304/B316-1)*100</f>
@@ -4069,10 +4071,10 @@
     </row>
     <row r="305">
       <c r="A305" s="3" t="n">
-        <v>36434</v>
+        <v>36465</v>
       </c>
       <c r="B305" s="2" t="n">
-        <v>57.2</v>
+        <v>58.1</v>
       </c>
       <c r="C305">
         <f>(B305/B317-1)*100</f>
@@ -4081,10 +4083,10 @@
     </row>
     <row r="306">
       <c r="A306" s="3" t="n">
-        <v>36404</v>
+        <v>36434</v>
       </c>
       <c r="B306" s="2" t="n">
-        <v>57</v>
+        <v>57.2</v>
       </c>
       <c r="C306">
         <f>(B306/B318-1)*100</f>
@@ -4093,10 +4095,10 @@
     </row>
     <row r="307">
       <c r="A307" s="3" t="n">
-        <v>36373</v>
+        <v>36404</v>
       </c>
       <c r="B307" s="2" t="n">
-        <v>54.8</v>
+        <v>57</v>
       </c>
       <c r="C307">
         <f>(B307/B319-1)*100</f>
@@ -4105,10 +4107,10 @@
     </row>
     <row r="308">
       <c r="A308" s="3" t="n">
-        <v>36342</v>
+        <v>36373</v>
       </c>
       <c r="B308" s="2" t="n">
-        <v>53.6</v>
+        <v>54.8</v>
       </c>
       <c r="C308">
         <f>(B308/B320-1)*100</f>
@@ -4117,10 +4119,10 @@
     </row>
     <row r="309">
       <c r="A309" s="3" t="n">
-        <v>36312</v>
+        <v>36342</v>
       </c>
       <c r="B309" s="2" t="n">
-        <v>55.8</v>
+        <v>53.6</v>
       </c>
       <c r="C309">
         <f>(B309/B321-1)*100</f>
@@ -4129,10 +4131,10 @@
     </row>
     <row r="310">
       <c r="A310" s="3" t="n">
-        <v>36281</v>
+        <v>36312</v>
       </c>
       <c r="B310" s="2" t="n">
-        <v>54.3</v>
+        <v>55.8</v>
       </c>
       <c r="C310">
         <f>(B310/B322-1)*100</f>
@@ -4141,10 +4143,10 @@
     </row>
     <row r="311">
       <c r="A311" s="3" t="n">
-        <v>36251</v>
+        <v>36281</v>
       </c>
       <c r="B311" s="2" t="n">
-        <v>52.3</v>
+        <v>54.3</v>
       </c>
       <c r="C311">
         <f>(B311/B323-1)*100</f>
@@ -4153,10 +4155,10 @@
     </row>
     <row r="312">
       <c r="A312" s="3" t="n">
-        <v>36220</v>
+        <v>36251</v>
       </c>
       <c r="B312" s="2" t="n">
-        <v>52.4</v>
+        <v>52.3</v>
       </c>
       <c r="C312">
         <f>(B312/B324-1)*100</f>
@@ -4165,10 +4167,10 @@
     </row>
     <row r="313">
       <c r="A313" s="3" t="n">
-        <v>36192</v>
+        <v>36220</v>
       </c>
       <c r="B313" s="2" t="n">
-        <v>51.7</v>
+        <v>52.4</v>
       </c>
       <c r="C313">
         <f>(B313/B325-1)*100</f>
@@ -4177,10 +4179,10 @@
     </row>
     <row r="314">
       <c r="A314" s="3" t="n">
-        <v>36161</v>
+        <v>36192</v>
       </c>
       <c r="B314" s="2" t="n">
-        <v>50.6</v>
+        <v>51.7</v>
       </c>
       <c r="C314">
         <f>(B314/B326-1)*100</f>
@@ -4188,7 +4190,12 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="3" t="n"/>
+      <c r="A315" s="3" t="n">
+        <v>36161</v>
+      </c>
+      <c r="B315" s="2" t="n">
+        <v>50.6</v>
+      </c>
       <c r="C315">
         <f>(B315/B327-1)*100</f>
         <v/>
@@ -4278,6 +4285,13 @@
         <v/>
       </c>
     </row>
+    <row r="328">
+      <c r="A328" s="3" t="n"/>
+      <c r="C328">
+        <f>(B328/B340-1)*100</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/pmi.xlsx
+++ b/data/pmi.xlsx
@@ -400,7 +400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C328"/>
+  <dimension ref="A1:C329"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,11 +432,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50.3</v>
+        <v>49</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -446,23 +446,25 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="C3">
+        <f>(B3/B15-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>2025-01-01</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B4" t="n">
         <v>50.9</v>
-      </c>
-      <c r="C3">
-        <f>(B3/B15-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="n">
-        <v>45627</v>
-      </c>
-      <c r="B4" t="n">
-        <v>49.3</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -471,10 +473,10 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B5" t="n">
-        <v>48.4</v>
+        <v>49.3</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -482,11 +484,11 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45566</v>
+      <c r="A6" s="4" t="n">
+        <v>45597</v>
       </c>
       <c r="B6" t="n">
-        <v>46.5</v>
+        <v>48.4</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -495,10 +497,10 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B7" t="n">
-        <v>47.2</v>
+        <v>46.5</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -507,7 +509,7 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B8" t="n">
         <v>47.2</v>
@@ -519,10 +521,10 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B9" t="n">
-        <v>46.8</v>
+        <v>47.2</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -531,10 +533,10 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45444</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>48.5</v>
+        <v>45474</v>
+      </c>
+      <c r="B10" t="n">
+        <v>46.8</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -543,10 +545,10 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>48.7</v>
+        <v>48.5</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -555,10 +557,10 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>49.2</v>
+        <v>48.7</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -567,10 +569,10 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>50.3</v>
+        <v>49.2</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -579,10 +581,10 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>47.8</v>
+        <v>50.3</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -591,10 +593,10 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>49.1</v>
+        <v>47.8</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -603,10 +605,10 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>47.1</v>
+        <v>49.1</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -615,10 +617,10 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>46.6</v>
+        <v>47.1</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -627,10 +629,10 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>46.7</v>
+        <v>46.6</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -639,10 +641,10 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>49</v>
+        <v>46.7</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -651,10 +653,10 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>47.6</v>
+        <v>49</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -663,10 +665,10 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>46.4</v>
+        <v>47.6</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -675,10 +677,10 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>46</v>
+        <v>46.4</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -687,10 +689,10 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>46.9</v>
+        <v>46</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -699,10 +701,10 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>47.1</v>
+        <v>46.9</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -711,10 +713,10 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>46.3</v>
+        <v>47.1</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -723,10 +725,10 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>47.7</v>
+        <v>46.3</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -735,10 +737,10 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B27" s="2" t="n">
-        <v>47.4</v>
+        <v>44958</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>47.7</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -747,10 +749,10 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>48.4</v>
+        <v>47.4</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -759,10 +761,10 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>49</v>
+        <v>48.4</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -771,10 +773,10 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -783,10 +785,10 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -795,10 +797,10 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>52.9</v>
+        <v>51</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -807,10 +809,10 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>52.7</v>
+        <v>52.9</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -819,10 +821,10 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>53.1</v>
+        <v>52.7</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -831,10 +833,10 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>56.1</v>
+        <v>53.1</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -843,10 +845,10 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>55.9</v>
+        <v>56.1</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -855,10 +857,10 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>57</v>
+        <v>55.9</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -867,10 +869,10 @@
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>58.4</v>
+        <v>57</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -879,10 +881,10 @@
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>57.6</v>
+        <v>58.4</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -891,10 +893,10 @@
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>58.6</v>
+        <v>57.6</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -903,10 +905,10 @@
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>60.8</v>
+        <v>58.6</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -915,7 +917,7 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B42" s="2" t="n">
         <v>60.8</v>
@@ -927,10 +929,10 @@
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>61.1</v>
+        <v>60.8</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -939,10 +941,10 @@
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>59.9</v>
+        <v>61.1</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -951,10 +953,10 @@
     </row>
     <row r="45">
       <c r="A45" s="3" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>59.4</v>
+        <v>59.9</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -963,10 +965,10 @@
     </row>
     <row r="46">
       <c r="A46" s="3" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>60.6</v>
+        <v>59.4</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -975,10 +977,10 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>61.2</v>
+        <v>60.6</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -987,10 +989,10 @@
     </row>
     <row r="48">
       <c r="A48" s="3" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>60.7</v>
+        <v>61.2</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -999,10 +1001,10 @@
     </row>
     <row r="49">
       <c r="A49" s="3" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>64.7</v>
+        <v>60.7</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1011,10 +1013,10 @@
     </row>
     <row r="50">
       <c r="A50" s="3" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>60.8</v>
+        <v>64.7</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1023,10 +1025,10 @@
     </row>
     <row r="51">
       <c r="A51" s="3" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>58.7</v>
+        <v>60.8</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1035,10 +1037,10 @@
     </row>
     <row r="52">
       <c r="A52" s="3" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>60.5</v>
+        <v>58.7</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1047,10 +1049,10 @@
     </row>
     <row r="53">
       <c r="A53" s="3" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>57.7</v>
+        <v>60.5</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1059,10 +1061,10 @@
     </row>
     <row r="54">
       <c r="A54" s="3" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>58.8</v>
+        <v>57.7</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1071,10 +1073,10 @@
     </row>
     <row r="55">
       <c r="A55" s="3" t="n">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>55.7</v>
+        <v>58.8</v>
       </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
@@ -1083,10 +1085,10 @@
     </row>
     <row r="56">
       <c r="A56" s="3" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>55.6</v>
+        <v>55.7</v>
       </c>
       <c r="C56">
         <f>(B56/B68-1)*100</f>
@@ -1095,10 +1097,10 @@
     </row>
     <row r="57">
       <c r="A57" s="3" t="n">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>53.7</v>
+        <v>55.6</v>
       </c>
       <c r="C57">
         <f>(B57/B69-1)*100</f>
@@ -1107,10 +1109,10 @@
     </row>
     <row r="58">
       <c r="A58" s="3" t="n">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>52.2</v>
+        <v>53.7</v>
       </c>
       <c r="C58">
         <f>(B58/B70-1)*100</f>
@@ -1119,10 +1121,10 @@
     </row>
     <row r="59">
       <c r="A59" s="3" t="n">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>43.1</v>
+        <v>52.2</v>
       </c>
       <c r="C59">
         <f>(B59/B71-1)*100</f>
@@ -1131,10 +1133,10 @@
     </row>
     <row r="60">
       <c r="A60" s="3" t="n">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>41.7</v>
+        <v>43.1</v>
       </c>
       <c r="C60">
         <f>(B60/B72-1)*100</f>
@@ -1143,10 +1145,10 @@
     </row>
     <row r="61">
       <c r="A61" s="3" t="n">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>49.7</v>
+        <v>41.7</v>
       </c>
       <c r="C61">
         <f>(B61/B73-1)*100</f>
@@ -1155,10 +1157,10 @@
     </row>
     <row r="62">
       <c r="A62" s="3" t="n">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>50.3</v>
+        <v>49.7</v>
       </c>
       <c r="C62">
         <f>(B62/B74-1)*100</f>
@@ -1167,10 +1169,10 @@
     </row>
     <row r="63">
       <c r="A63" s="3" t="n">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>51.1</v>
+        <v>50.3</v>
       </c>
       <c r="C63">
         <f>(B63/B75-1)*100</f>
@@ -1179,10 +1181,10 @@
     </row>
     <row r="64">
       <c r="A64" s="3" t="n">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>47.7</v>
+        <v>51.1</v>
       </c>
       <c r="C64">
         <f>(B64/B76-1)*100</f>
@@ -1191,10 +1193,10 @@
     </row>
     <row r="65">
       <c r="A65" s="3" t="n">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>48.2</v>
+        <v>47.7</v>
       </c>
       <c r="C65">
         <f>(B65/B77-1)*100</f>
@@ -1203,10 +1205,10 @@
     </row>
     <row r="66">
       <c r="A66" s="3" t="n">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="C66">
         <f>(B66/B78-1)*100</f>
@@ -1215,7 +1217,7 @@
     </row>
     <row r="67">
       <c r="A67" s="3" t="n">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B67" s="2" t="n">
         <v>48.3</v>
@@ -1227,10 +1229,10 @@
     </row>
     <row r="68">
       <c r="A68" s="3" t="n">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="C68">
         <f>(B68/B80-1)*100</f>
@@ -1239,10 +1241,10 @@
     </row>
     <row r="69">
       <c r="A69" s="3" t="n">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>51</v>
+        <v>48.4</v>
       </c>
       <c r="C69">
         <f>(B69/B81-1)*100</f>
@@ -1251,10 +1253,10 @@
     </row>
     <row r="70">
       <c r="A70" s="3" t="n">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>51.3</v>
+        <v>51</v>
       </c>
       <c r="C70">
         <f>(B70/B82-1)*100</f>
@@ -1263,10 +1265,10 @@
     </row>
     <row r="71">
       <c r="A71" s="3" t="n">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>52.2</v>
+        <v>51.3</v>
       </c>
       <c r="C71">
         <f>(B71/B83-1)*100</f>
@@ -1275,10 +1277,10 @@
     </row>
     <row r="72">
       <c r="A72" s="3" t="n">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>53.6</v>
+        <v>52.2</v>
       </c>
       <c r="C72">
         <f>(B72/B84-1)*100</f>
@@ -1287,10 +1289,10 @@
     </row>
     <row r="73">
       <c r="A73" s="3" t="n">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>55.3</v>
+        <v>53.6</v>
       </c>
       <c r="C73">
         <f>(B73/B85-1)*100</f>
@@ -1299,10 +1301,10 @@
     </row>
     <row r="74">
       <c r="A74" s="3" t="n">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>54.2</v>
+        <v>55.3</v>
       </c>
       <c r="C74">
         <f>(B74/B86-1)*100</f>
@@ -1311,10 +1313,10 @@
     </row>
     <row r="75">
       <c r="A75" s="3" t="n">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>55.7</v>
+        <v>54.2</v>
       </c>
       <c r="C75">
         <f>(B75/B87-1)*100</f>
@@ -1323,10 +1325,10 @@
     </row>
     <row r="76">
       <c r="A76" s="3" t="n">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>54.8</v>
+        <v>55.7</v>
       </c>
       <c r="C76">
         <f>(B76/B88-1)*100</f>
@@ -1335,10 +1337,10 @@
     </row>
     <row r="77">
       <c r="A77" s="3" t="n">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>58.7</v>
+        <v>54.8</v>
       </c>
       <c r="C77">
         <f>(B77/B89-1)*100</f>
@@ -1347,10 +1349,10 @@
     </row>
     <row r="78">
       <c r="A78" s="3" t="n">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>58.3</v>
+        <v>58.7</v>
       </c>
       <c r="C78">
         <f>(B78/B90-1)*100</f>
@@ -1359,10 +1361,10 @@
     </row>
     <row r="79">
       <c r="A79" s="3" t="n">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>59.5</v>
+        <v>58.3</v>
       </c>
       <c r="C79">
         <f>(B79/B91-1)*100</f>
@@ -1371,10 +1373,10 @@
     </row>
     <row r="80">
       <c r="A80" s="3" t="n">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>60.4</v>
+        <v>59.5</v>
       </c>
       <c r="C80">
         <f>(B80/B92-1)*100</f>
@@ -1383,10 +1385,10 @@
     </row>
     <row r="81">
       <c r="A81" s="3" t="n">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>58</v>
+        <v>60.4</v>
       </c>
       <c r="C81">
         <f>(B81/B93-1)*100</f>
@@ -1395,10 +1397,10 @@
     </row>
     <row r="82">
       <c r="A82" s="3" t="n">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>59.7</v>
+        <v>58</v>
       </c>
       <c r="C82">
         <f>(B82/B94-1)*100</f>
@@ -1407,10 +1409,10 @@
     </row>
     <row r="83">
       <c r="A83" s="3" t="n">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>58.9</v>
+        <v>59.7</v>
       </c>
       <c r="C83">
         <f>(B83/B95-1)*100</f>
@@ -1419,10 +1421,10 @@
     </row>
     <row r="84">
       <c r="A84" s="3" t="n">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>58.6</v>
+        <v>58.9</v>
       </c>
       <c r="C84">
         <f>(B84/B96-1)*100</f>
@@ -1431,10 +1433,10 @@
     </row>
     <row r="85">
       <c r="A85" s="3" t="n">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>59.2</v>
+        <v>58.6</v>
       </c>
       <c r="C85">
         <f>(B85/B97-1)*100</f>
@@ -1443,10 +1445,10 @@
     </row>
     <row r="86">
       <c r="A86" s="3" t="n">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>60.8</v>
+        <v>59.2</v>
       </c>
       <c r="C86">
         <f>(B86/B98-1)*100</f>
@@ -1455,10 +1457,10 @@
     </row>
     <row r="87">
       <c r="A87" s="3" t="n">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>59.4</v>
+        <v>60.8</v>
       </c>
       <c r="C87">
         <f>(B87/B99-1)*100</f>
@@ -1467,10 +1469,10 @@
     </row>
     <row r="88">
       <c r="A88" s="3" t="n">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>59.2</v>
+        <v>59.4</v>
       </c>
       <c r="C88">
         <f>(B88/B100-1)*100</f>
@@ -1479,10 +1481,10 @@
     </row>
     <row r="89">
       <c r="A89" s="3" t="n">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>57.9</v>
+        <v>59.2</v>
       </c>
       <c r="C89">
         <f>(B89/B101-1)*100</f>
@@ -1491,10 +1493,10 @@
     </row>
     <row r="90">
       <c r="A90" s="3" t="n">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>58.6</v>
+        <v>57.9</v>
       </c>
       <c r="C90">
         <f>(B90/B102-1)*100</f>
@@ -1503,10 +1505,10 @@
     </row>
     <row r="91">
       <c r="A91" s="3" t="n">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>59.9</v>
+        <v>58.6</v>
       </c>
       <c r="C91">
         <f>(B91/B103-1)*100</f>
@@ -1515,10 +1517,10 @@
     </row>
     <row r="92">
       <c r="A92" s="3" t="n">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>58.5</v>
+        <v>59.9</v>
       </c>
       <c r="C92">
         <f>(B92/B104-1)*100</f>
@@ -1527,10 +1529,10 @@
     </row>
     <row r="93">
       <c r="A93" s="3" t="n">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>56.5</v>
+        <v>58.5</v>
       </c>
       <c r="C93">
         <f>(B93/B105-1)*100</f>
@@ -1539,10 +1541,10 @@
     </row>
     <row r="94">
       <c r="A94" s="3" t="n">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>56.1</v>
+        <v>56.5</v>
       </c>
       <c r="C94">
         <f>(B94/B106-1)*100</f>
@@ -1551,10 +1553,10 @@
     </row>
     <row r="95">
       <c r="A95" s="3" t="n">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>56.4</v>
+        <v>56.1</v>
       </c>
       <c r="C95">
         <f>(B95/B107-1)*100</f>
@@ -1563,10 +1565,10 @@
     </row>
     <row r="96">
       <c r="A96" s="3" t="n">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>55.7</v>
+        <v>56.4</v>
       </c>
       <c r="C96">
         <f>(B96/B108-1)*100</f>
@@ -1575,10 +1577,10 @@
     </row>
     <row r="97">
       <c r="A97" s="3" t="n">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>56.8</v>
+        <v>55.7</v>
       </c>
       <c r="C97">
         <f>(B97/B109-1)*100</f>
@@ -1587,10 +1589,10 @@
     </row>
     <row r="98">
       <c r="A98" s="3" t="n">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>57.7</v>
+        <v>56.8</v>
       </c>
       <c r="C98">
         <f>(B98/B110-1)*100</f>
@@ -1599,10 +1601,10 @@
     </row>
     <row r="99">
       <c r="A99" s="3" t="n">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>55.7</v>
+        <v>57.7</v>
       </c>
       <c r="C99">
         <f>(B99/B111-1)*100</f>
@@ -1611,10 +1613,10 @@
     </row>
     <row r="100">
       <c r="A100" s="3" t="n">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>54.2</v>
+        <v>55.7</v>
       </c>
       <c r="C100">
         <f>(B100/B112-1)*100</f>
@@ -1623,10 +1625,10 @@
     </row>
     <row r="101">
       <c r="A101" s="3" t="n">
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>53.3</v>
+        <v>54.2</v>
       </c>
       <c r="C101">
         <f>(B101/B113-1)*100</f>
@@ -1635,10 +1637,10 @@
     </row>
     <row r="102">
       <c r="A102" s="3" t="n">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>51.8</v>
+        <v>53.3</v>
       </c>
       <c r="C102">
         <f>(B102/B114-1)*100</f>
@@ -1647,10 +1649,10 @@
     </row>
     <row r="103">
       <c r="A103" s="3" t="n">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>51</v>
+        <v>51.8</v>
       </c>
       <c r="C103">
         <f>(B103/B115-1)*100</f>
@@ -1659,10 +1661,10 @@
     </row>
     <row r="104">
       <c r="A104" s="3" t="n">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>49.7</v>
+        <v>51</v>
       </c>
       <c r="C104">
         <f>(B104/B116-1)*100</f>
@@ -1671,10 +1673,10 @@
     </row>
     <row r="105">
       <c r="A105" s="3" t="n">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>52.4</v>
+        <v>49.7</v>
       </c>
       <c r="C105">
         <f>(B105/B117-1)*100</f>
@@ -1683,7 +1685,7 @@
     </row>
     <row r="106">
       <c r="A106" s="3" t="n">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B106" s="2" t="n">
         <v>52.4</v>
@@ -1695,10 +1697,10 @@
     </row>
     <row r="107">
       <c r="A107" s="3" t="n">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>51.3</v>
+        <v>52.4</v>
       </c>
       <c r="C107">
         <f>(B107/B119-1)*100</f>
@@ -1707,10 +1709,10 @@
     </row>
     <row r="108">
       <c r="A108" s="3" t="n">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>51</v>
+        <v>51.3</v>
       </c>
       <c r="C108">
         <f>(B108/B120-1)*100</f>
@@ -1719,10 +1721,10 @@
     </row>
     <row r="109">
       <c r="A109" s="3" t="n">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B109" s="2" t="n">
-        <v>51.4</v>
+        <v>51</v>
       </c>
       <c r="C109">
         <f>(B109/B121-1)*100</f>
@@ -1731,10 +1733,10 @@
     </row>
     <row r="110">
       <c r="A110" s="3" t="n">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>49.2</v>
+        <v>51.4</v>
       </c>
       <c r="C110">
         <f>(B110/B122-1)*100</f>
@@ -1743,10 +1745,10 @@
     </row>
     <row r="111">
       <c r="A111" s="3" t="n">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>47.5</v>
+        <v>49.2</v>
       </c>
       <c r="C111">
         <f>(B111/B123-1)*100</f>
@@ -1755,10 +1757,10 @@
     </row>
     <row r="112">
       <c r="A112" s="3" t="n">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>48.8</v>
+        <v>47.5</v>
       </c>
       <c r="C112">
         <f>(B112/B124-1)*100</f>
@@ -1767,10 +1769,10 @@
     </row>
     <row r="113">
       <c r="A113" s="3" t="n">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>49.1</v>
+        <v>48.8</v>
       </c>
       <c r="C113">
         <f>(B113/B125-1)*100</f>
@@ -1779,10 +1781,10 @@
     </row>
     <row r="114">
       <c r="A114" s="3" t="n">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B114" s="2" t="n">
-        <v>49</v>
+        <v>49.1</v>
       </c>
       <c r="C114">
         <f>(B114/B126-1)*100</f>
@@ -1791,10 +1793,10 @@
     </row>
     <row r="115">
       <c r="A115" s="3" t="n">
-        <v>42248</v>
+        <v>42278</v>
       </c>
       <c r="B115" s="2" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C115">
         <f>(B115/B127-1)*100</f>
@@ -1803,7 +1805,7 @@
     </row>
     <row r="116">
       <c r="A116" s="3" t="n">
-        <v>42217</v>
+        <v>42248</v>
       </c>
       <c r="B116" s="2" t="n">
         <v>50</v>
@@ -1815,10 +1817,10 @@
     </row>
     <row r="117">
       <c r="A117" s="3" t="n">
-        <v>42186</v>
+        <v>42217</v>
       </c>
       <c r="B117" s="2" t="n">
-        <v>51.9</v>
+        <v>50</v>
       </c>
       <c r="C117">
         <f>(B117/B129-1)*100</f>
@@ -1827,10 +1829,10 @@
     </row>
     <row r="118">
       <c r="A118" s="3" t="n">
-        <v>42156</v>
+        <v>42186</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>52.6</v>
+        <v>51.9</v>
       </c>
       <c r="C118">
         <f>(B118/B130-1)*100</f>
@@ -1839,10 +1841,10 @@
     </row>
     <row r="119">
       <c r="A119" s="3" t="n">
-        <v>42125</v>
+        <v>42156</v>
       </c>
       <c r="B119" s="2" t="n">
-        <v>52.7</v>
+        <v>52.6</v>
       </c>
       <c r="C119">
         <f>(B119/B131-1)*100</f>
@@ -1851,10 +1853,10 @@
     </row>
     <row r="120">
       <c r="A120" s="3" t="n">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>52.1</v>
+        <v>52.7</v>
       </c>
       <c r="C120">
         <f>(B120/B132-1)*100</f>
@@ -1863,10 +1865,10 @@
     </row>
     <row r="121">
       <c r="A121" s="3" t="n">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="B121" s="2" t="n">
-        <v>52.3</v>
+        <v>52.1</v>
       </c>
       <c r="C121">
         <f>(B121/B133-1)*100</f>
@@ -1875,10 +1877,10 @@
     </row>
     <row r="122">
       <c r="A122" s="3" t="n">
-        <v>42036</v>
+        <v>42064</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>53.1</v>
+        <v>52.3</v>
       </c>
       <c r="C122">
         <f>(B122/B134-1)*100</f>
@@ -1887,10 +1889,10 @@
     </row>
     <row r="123">
       <c r="A123" s="3" t="n">
-        <v>42005</v>
+        <v>42036</v>
       </c>
       <c r="B123" s="2" t="n">
-        <v>54</v>
+        <v>53.1</v>
       </c>
       <c r="C123">
         <f>(B123/B135-1)*100</f>
@@ -1899,10 +1901,10 @@
     </row>
     <row r="124">
       <c r="A124" s="3" t="n">
-        <v>41974</v>
+        <v>42005</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>55.7</v>
+        <v>54</v>
       </c>
       <c r="C124">
         <f>(B124/B136-1)*100</f>
@@ -1911,10 +1913,10 @@
     </row>
     <row r="125">
       <c r="A125" s="3" t="n">
-        <v>41944</v>
+        <v>41974</v>
       </c>
       <c r="B125" s="2" t="n">
-        <v>56.3</v>
+        <v>55.7</v>
       </c>
       <c r="C125">
         <f>(B125/B137-1)*100</f>
@@ -1923,10 +1925,10 @@
     </row>
     <row r="126">
       <c r="A126" s="3" t="n">
-        <v>41913</v>
+        <v>41944</v>
       </c>
       <c r="B126" s="2" t="n">
-        <v>56.2</v>
+        <v>56.3</v>
       </c>
       <c r="C126">
         <f>(B126/B138-1)*100</f>
@@ -1935,10 +1937,10 @@
     </row>
     <row r="127">
       <c r="A127" s="3" t="n">
-        <v>41883</v>
+        <v>41913</v>
       </c>
       <c r="B127" s="2" t="n">
-        <v>55.7</v>
+        <v>56.2</v>
       </c>
       <c r="C127">
         <f>(B127/B139-1)*100</f>
@@ -1947,10 +1949,10 @@
     </row>
     <row r="128">
       <c r="A128" s="3" t="n">
-        <v>41852</v>
+        <v>41883</v>
       </c>
       <c r="B128" s="2" t="n">
-        <v>56.3</v>
+        <v>55.7</v>
       </c>
       <c r="C128">
         <f>(B128/B140-1)*100</f>
@@ -1959,10 +1961,10 @@
     </row>
     <row r="129">
       <c r="A129" s="3" t="n">
-        <v>41821</v>
+        <v>41852</v>
       </c>
       <c r="B129" s="2" t="n">
-        <v>55.1</v>
+        <v>56.3</v>
       </c>
       <c r="C129">
         <f>(B129/B141-1)*100</f>
@@ -1971,10 +1973,10 @@
     </row>
     <row r="130">
       <c r="A130" s="3" t="n">
-        <v>41791</v>
+        <v>41821</v>
       </c>
       <c r="B130" s="2" t="n">
-        <v>55</v>
+        <v>55.1</v>
       </c>
       <c r="C130">
         <f>(B130/B142-1)*100</f>
@@ -1983,10 +1985,10 @@
     </row>
     <row r="131">
       <c r="A131" s="3" t="n">
-        <v>41760</v>
+        <v>41791</v>
       </c>
       <c r="B131" s="2" t="n">
-        <v>55.7</v>
+        <v>55</v>
       </c>
       <c r="C131">
         <f>(B131/B143-1)*100</f>
@@ -1995,10 +1997,10 @@
     </row>
     <row r="132">
       <c r="A132" s="3" t="n">
-        <v>41730</v>
+        <v>41760</v>
       </c>
       <c r="B132" s="2" t="n">
-        <v>56.6</v>
+        <v>55.7</v>
       </c>
       <c r="C132">
         <f>(B132/B144-1)*100</f>
@@ -2007,10 +2009,10 @@
     </row>
     <row r="133">
       <c r="A133" s="3" t="n">
-        <v>41699</v>
+        <v>41730</v>
       </c>
       <c r="B133" s="2" t="n">
-        <v>55.9</v>
+        <v>56.6</v>
       </c>
       <c r="C133">
         <f>(B133/B145-1)*100</f>
@@ -2019,10 +2021,10 @@
     </row>
     <row r="134">
       <c r="A134" s="3" t="n">
-        <v>41671</v>
+        <v>41699</v>
       </c>
       <c r="B134" s="2" t="n">
-        <v>55</v>
+        <v>55.9</v>
       </c>
       <c r="C134">
         <f>(B134/B146-1)*100</f>
@@ -2031,10 +2033,10 @@
     </row>
     <row r="135">
       <c r="A135" s="3" t="n">
-        <v>41640</v>
+        <v>41671</v>
       </c>
       <c r="B135" s="2" t="n">
-        <v>52.5</v>
+        <v>55</v>
       </c>
       <c r="C135">
         <f>(B135/B147-1)*100</f>
@@ -2043,10 +2045,10 @@
     </row>
     <row r="136">
       <c r="A136" s="3" t="n">
-        <v>41609</v>
+        <v>41640</v>
       </c>
       <c r="B136" s="2" t="n">
-        <v>56.5</v>
+        <v>52.5</v>
       </c>
       <c r="C136">
         <f>(B136/B148-1)*100</f>
@@ -2055,10 +2057,10 @@
     </row>
     <row r="137">
       <c r="A137" s="3" t="n">
-        <v>41579</v>
+        <v>41609</v>
       </c>
       <c r="B137" s="2" t="n">
-        <v>55.5</v>
+        <v>56.5</v>
       </c>
       <c r="C137">
         <f>(B137/B149-1)*100</f>
@@ -2067,10 +2069,10 @@
     </row>
     <row r="138">
       <c r="A138" s="3" t="n">
-        <v>41548</v>
+        <v>41579</v>
       </c>
       <c r="B138" s="2" t="n">
-        <v>54.6</v>
+        <v>55.5</v>
       </c>
       <c r="C138">
         <f>(B138/B150-1)*100</f>
@@ -2079,7 +2081,7 @@
     </row>
     <row r="139">
       <c r="A139" s="3" t="n">
-        <v>41518</v>
+        <v>41548</v>
       </c>
       <c r="B139" s="2" t="n">
         <v>54.6</v>
@@ -2091,10 +2093,10 @@
     </row>
     <row r="140">
       <c r="A140" s="3" t="n">
-        <v>41487</v>
+        <v>41518</v>
       </c>
       <c r="B140" s="2" t="n">
-        <v>54</v>
+        <v>54.6</v>
       </c>
       <c r="C140">
         <f>(B140/B152-1)*100</f>
@@ -2103,10 +2105,10 @@
     </row>
     <row r="141">
       <c r="A141" s="3" t="n">
-        <v>41456</v>
+        <v>41487</v>
       </c>
       <c r="B141" s="2" t="n">
-        <v>53.8</v>
+        <v>54</v>
       </c>
       <c r="C141">
         <f>(B141/B153-1)*100</f>
@@ -2115,10 +2117,10 @@
     </row>
     <row r="142">
       <c r="A142" s="3" t="n">
-        <v>41426</v>
+        <v>41456</v>
       </c>
       <c r="B142" s="2" t="n">
-        <v>51.1</v>
+        <v>53.8</v>
       </c>
       <c r="C142">
         <f>(B142/B154-1)*100</f>
@@ -2127,10 +2129,10 @@
     </row>
     <row r="143">
       <c r="A143" s="3" t="n">
-        <v>41395</v>
+        <v>41426</v>
       </c>
       <c r="B143" s="2" t="n">
-        <v>50.8</v>
+        <v>51.1</v>
       </c>
       <c r="C143">
         <f>(B143/B155-1)*100</f>
@@ -2139,10 +2141,10 @@
     </row>
     <row r="144">
       <c r="A144" s="3" t="n">
-        <v>41365</v>
+        <v>41395</v>
       </c>
       <c r="B144" s="2" t="n">
-        <v>51</v>
+        <v>50.8</v>
       </c>
       <c r="C144">
         <f>(B144/B156-1)*100</f>
@@ -2151,10 +2153,10 @@
     </row>
     <row r="145">
       <c r="A145" s="3" t="n">
-        <v>41334</v>
+        <v>41365</v>
       </c>
       <c r="B145" s="2" t="n">
-        <v>51.9</v>
+        <v>51</v>
       </c>
       <c r="C145">
         <f>(B145/B157-1)*100</f>
@@ -2163,10 +2165,10 @@
     </row>
     <row r="146">
       <c r="A146" s="3" t="n">
-        <v>41306</v>
+        <v>41334</v>
       </c>
       <c r="B146" s="2" t="n">
-        <v>54.2</v>
+        <v>51.9</v>
       </c>
       <c r="C146">
         <f>(B146/B158-1)*100</f>
@@ -2175,10 +2177,10 @@
     </row>
     <row r="147">
       <c r="A147" s="3" t="n">
-        <v>41275</v>
+        <v>41306</v>
       </c>
       <c r="B147" s="2" t="n">
-        <v>53.3</v>
+        <v>54.2</v>
       </c>
       <c r="C147">
         <f>(B147/B159-1)*100</f>
@@ -2187,10 +2189,10 @@
     </row>
     <row r="148">
       <c r="A148" s="3" t="n">
-        <v>41244</v>
+        <v>41275</v>
       </c>
       <c r="B148" s="2" t="n">
-        <v>50.1</v>
+        <v>53.3</v>
       </c>
       <c r="C148">
         <f>(B148/B160-1)*100</f>
@@ -2199,10 +2201,10 @@
     </row>
     <row r="149">
       <c r="A149" s="3" t="n">
-        <v>41214</v>
+        <v>41244</v>
       </c>
       <c r="B149" s="2" t="n">
-        <v>48</v>
+        <v>50.1</v>
       </c>
       <c r="C149">
         <f>(B149/B161-1)*100</f>
@@ -2211,10 +2213,10 @@
     </row>
     <row r="150">
       <c r="A150" s="3" t="n">
-        <v>41183</v>
+        <v>41214</v>
       </c>
       <c r="B150" s="2" t="n">
-        <v>50.5</v>
+        <v>48</v>
       </c>
       <c r="C150">
         <f>(B150/B162-1)*100</f>
@@ -2223,10 +2225,10 @@
     </row>
     <row r="151">
       <c r="A151" s="3" t="n">
-        <v>41153</v>
+        <v>41183</v>
       </c>
       <c r="B151" s="2" t="n">
-        <v>50.8</v>
+        <v>50.5</v>
       </c>
       <c r="C151">
         <f>(B151/B163-1)*100</f>
@@ -2235,10 +2237,10 @@
     </row>
     <row r="152">
       <c r="A152" s="3" t="n">
-        <v>41122</v>
+        <v>41153</v>
       </c>
       <c r="B152" s="2" t="n">
-        <v>49</v>
+        <v>50.8</v>
       </c>
       <c r="C152">
         <f>(B152/B164-1)*100</f>
@@ -2247,10 +2249,10 @@
     </row>
     <row r="153">
       <c r="A153" s="3" t="n">
-        <v>41091</v>
+        <v>41122</v>
       </c>
       <c r="B153" s="2" t="n">
-        <v>49.6</v>
+        <v>49</v>
       </c>
       <c r="C153">
         <f>(B153/B165-1)*100</f>
@@ -2259,10 +2261,10 @@
     </row>
     <row r="154">
       <c r="A154" s="3" t="n">
-        <v>41061</v>
+        <v>41091</v>
       </c>
       <c r="B154" s="2" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="C154">
         <f>(B154/B166-1)*100</f>
@@ -2271,10 +2273,10 @@
     </row>
     <row r="155">
       <c r="A155" s="3" t="n">
-        <v>41030</v>
+        <v>41061</v>
       </c>
       <c r="B155" s="2" t="n">
-        <v>53.2</v>
+        <v>49.5</v>
       </c>
       <c r="C155">
         <f>(B155/B167-1)*100</f>
@@ -2283,10 +2285,10 @@
     </row>
     <row r="156">
       <c r="A156" s="3" t="n">
-        <v>41000</v>
+        <v>41030</v>
       </c>
       <c r="B156" s="2" t="n">
-        <v>55.2</v>
+        <v>53.2</v>
       </c>
       <c r="C156">
         <f>(B156/B168-1)*100</f>
@@ -2295,10 +2297,10 @@
     </row>
     <row r="157">
       <c r="A157" s="3" t="n">
-        <v>40969</v>
+        <v>41000</v>
       </c>
       <c r="B157" s="2" t="n">
-        <v>53.5</v>
+        <v>55.2</v>
       </c>
       <c r="C157">
         <f>(B157/B169-1)*100</f>
@@ -2307,10 +2309,10 @@
     </row>
     <row r="158">
       <c r="A158" s="3" t="n">
-        <v>40940</v>
+        <v>40969</v>
       </c>
       <c r="B158" s="2" t="n">
-        <v>53.3</v>
+        <v>53.5</v>
       </c>
       <c r="C158">
         <f>(B158/B170-1)*100</f>
@@ -2319,10 +2321,10 @@
     </row>
     <row r="159">
       <c r="A159" s="3" t="n">
-        <v>40909</v>
+        <v>40940</v>
       </c>
       <c r="B159" s="2" t="n">
-        <v>54.2</v>
+        <v>53.3</v>
       </c>
       <c r="C159">
         <f>(B159/B171-1)*100</f>
@@ -2331,10 +2333,10 @@
     </row>
     <row r="160">
       <c r="A160" s="3" t="n">
-        <v>40878</v>
+        <v>40909</v>
       </c>
       <c r="B160" s="2" t="n">
-        <v>53</v>
+        <v>54.2</v>
       </c>
       <c r="C160">
         <f>(B160/B172-1)*100</f>
@@ -2343,10 +2345,10 @@
     </row>
     <row r="161">
       <c r="A161" s="3" t="n">
-        <v>40848</v>
+        <v>40878</v>
       </c>
       <c r="B161" s="2" t="n">
-        <v>51.8</v>
+        <v>53</v>
       </c>
       <c r="C161">
         <f>(B161/B173-1)*100</f>
@@ -2355,10 +2357,10 @@
     </row>
     <row r="162">
       <c r="A162" s="3" t="n">
-        <v>40817</v>
+        <v>40848</v>
       </c>
       <c r="B162" s="2" t="n">
-        <v>51.4</v>
+        <v>51.8</v>
       </c>
       <c r="C162">
         <f>(B162/B174-1)*100</f>
@@ -2367,10 +2369,10 @@
     </row>
     <row r="163">
       <c r="A163" s="3" t="n">
-        <v>40787</v>
+        <v>40817</v>
       </c>
       <c r="B163" s="2" t="n">
-        <v>53.7</v>
+        <v>51.4</v>
       </c>
       <c r="C163">
         <f>(B163/B175-1)*100</f>
@@ -2379,10 +2381,10 @@
     </row>
     <row r="164">
       <c r="A164" s="3" t="n">
-        <v>40756</v>
+        <v>40787</v>
       </c>
       <c r="B164" s="2" t="n">
-        <v>52.6</v>
+        <v>53.7</v>
       </c>
       <c r="C164">
         <f>(B164/B176-1)*100</f>
@@ -2391,10 +2393,10 @@
     </row>
     <row r="165">
       <c r="A165" s="3" t="n">
-        <v>40725</v>
+        <v>40756</v>
       </c>
       <c r="B165" s="2" t="n">
-        <v>52.9</v>
+        <v>52.6</v>
       </c>
       <c r="C165">
         <f>(B165/B177-1)*100</f>
@@ -2403,10 +2405,10 @@
     </row>
     <row r="166">
       <c r="A166" s="3" t="n">
-        <v>40695</v>
+        <v>40725</v>
       </c>
       <c r="B166" s="2" t="n">
-        <v>55.8</v>
+        <v>52.9</v>
       </c>
       <c r="C166">
         <f>(B166/B178-1)*100</f>
@@ -2415,10 +2417,10 @@
     </row>
     <row r="167">
       <c r="A167" s="3" t="n">
-        <v>40664</v>
+        <v>40695</v>
       </c>
       <c r="B167" s="2" t="n">
-        <v>54.8</v>
+        <v>55.8</v>
       </c>
       <c r="C167">
         <f>(B167/B179-1)*100</f>
@@ -2427,10 +2429,10 @@
     </row>
     <row r="168">
       <c r="A168" s="3" t="n">
-        <v>40634</v>
+        <v>40664</v>
       </c>
       <c r="B168" s="2" t="n">
-        <v>57.9</v>
+        <v>54.8</v>
       </c>
       <c r="C168">
         <f>(B168/B180-1)*100</f>
@@ -2439,10 +2441,10 @@
     </row>
     <row r="169">
       <c r="A169" s="3" t="n">
-        <v>40603</v>
+        <v>40634</v>
       </c>
       <c r="B169" s="2" t="n">
-        <v>58.4</v>
+        <v>57.9</v>
       </c>
       <c r="C169">
         <f>(B169/B181-1)*100</f>
@@ -2451,10 +2453,10 @@
     </row>
     <row r="170">
       <c r="A170" s="3" t="n">
-        <v>40575</v>
+        <v>40603</v>
       </c>
       <c r="B170" s="2" t="n">
-        <v>59.2</v>
+        <v>58.4</v>
       </c>
       <c r="C170">
         <f>(B170/B182-1)*100</f>
@@ -2463,10 +2465,10 @@
     </row>
     <row r="171">
       <c r="A171" s="3" t="n">
-        <v>40544</v>
+        <v>40575</v>
       </c>
       <c r="B171" s="2" t="n">
-        <v>59.1</v>
+        <v>59.2</v>
       </c>
       <c r="C171">
         <f>(B171/B183-1)*100</f>
@@ -2475,10 +2477,10 @@
     </row>
     <row r="172">
       <c r="A172" s="3" t="n">
-        <v>40513</v>
+        <v>40544</v>
       </c>
       <c r="B172" s="2" t="n">
-        <v>56.6</v>
+        <v>59.1</v>
       </c>
       <c r="C172">
         <f>(B172/B184-1)*100</f>
@@ -2487,10 +2489,10 @@
     </row>
     <row r="173">
       <c r="A173" s="3" t="n">
-        <v>40483</v>
+        <v>40513</v>
       </c>
       <c r="B173" s="2" t="n">
-        <v>57.3</v>
+        <v>56.6</v>
       </c>
       <c r="C173">
         <f>(B173/B185-1)*100</f>
@@ -2499,10 +2501,10 @@
     </row>
     <row r="174">
       <c r="A174" s="3" t="n">
-        <v>40452</v>
+        <v>40483</v>
       </c>
       <c r="B174" s="2" t="n">
-        <v>56.9</v>
+        <v>57.3</v>
       </c>
       <c r="C174">
         <f>(B174/B186-1)*100</f>
@@ -2511,10 +2513,10 @@
     </row>
     <row r="175">
       <c r="A175" s="3" t="n">
-        <v>40422</v>
+        <v>40452</v>
       </c>
       <c r="B175" s="2" t="n">
-        <v>55.3</v>
+        <v>56.9</v>
       </c>
       <c r="C175">
         <f>(B175/B187-1)*100</f>
@@ -2523,10 +2525,10 @@
     </row>
     <row r="176">
       <c r="A176" s="3" t="n">
-        <v>40391</v>
+        <v>40422</v>
       </c>
       <c r="B176" s="2" t="n">
-        <v>56.4</v>
+        <v>55.3</v>
       </c>
       <c r="C176">
         <f>(B176/B188-1)*100</f>
@@ -2535,10 +2537,10 @@
     </row>
     <row r="177">
       <c r="A177" s="3" t="n">
-        <v>40360</v>
+        <v>40391</v>
       </c>
       <c r="B177" s="2" t="n">
-        <v>56.1</v>
+        <v>56.4</v>
       </c>
       <c r="C177">
         <f>(B177/B189-1)*100</f>
@@ -2547,10 +2549,10 @@
     </row>
     <row r="178">
       <c r="A178" s="3" t="n">
-        <v>40330</v>
+        <v>40360</v>
       </c>
       <c r="B178" s="2" t="n">
-        <v>56.5</v>
+        <v>56.1</v>
       </c>
       <c r="C178">
         <f>(B178/B190-1)*100</f>
@@ -2559,10 +2561,10 @@
     </row>
     <row r="179">
       <c r="A179" s="3" t="n">
-        <v>40299</v>
+        <v>40330</v>
       </c>
       <c r="B179" s="2" t="n">
-        <v>57.4</v>
+        <v>56.5</v>
       </c>
       <c r="C179">
         <f>(B179/B191-1)*100</f>
@@ -2571,10 +2573,10 @@
     </row>
     <row r="180">
       <c r="A180" s="3" t="n">
-        <v>40269</v>
+        <v>40299</v>
       </c>
       <c r="B180" s="2" t="n">
-        <v>58.1</v>
+        <v>57.4</v>
       </c>
       <c r="C180">
         <f>(B180/B192-1)*100</f>
@@ -2583,10 +2585,10 @@
     </row>
     <row r="181">
       <c r="A181" s="3" t="n">
-        <v>40238</v>
+        <v>40269</v>
       </c>
       <c r="B181" s="2" t="n">
-        <v>58.8</v>
+        <v>58.1</v>
       </c>
       <c r="C181">
         <f>(B181/B193-1)*100</f>
@@ -2595,10 +2597,10 @@
     </row>
     <row r="182">
       <c r="A182" s="3" t="n">
-        <v>40210</v>
+        <v>40238</v>
       </c>
       <c r="B182" s="2" t="n">
-        <v>55.5</v>
+        <v>58.8</v>
       </c>
       <c r="C182">
         <f>(B182/B194-1)*100</f>
@@ -2607,10 +2609,10 @@
     </row>
     <row r="183">
       <c r="A183" s="3" t="n">
-        <v>40179</v>
+        <v>40210</v>
       </c>
       <c r="B183" s="2" t="n">
-        <v>56.3</v>
+        <v>55.5</v>
       </c>
       <c r="C183">
         <f>(B183/B195-1)*100</f>
@@ -2619,10 +2621,10 @@
     </row>
     <row r="184">
       <c r="A184" s="3" t="n">
-        <v>40148</v>
+        <v>40179</v>
       </c>
       <c r="B184" s="2" t="n">
-        <v>55.8</v>
+        <v>56.3</v>
       </c>
       <c r="C184">
         <f>(B184/B196-1)*100</f>
@@ -2631,10 +2633,10 @@
     </row>
     <row r="185">
       <c r="A185" s="3" t="n">
-        <v>40118</v>
+        <v>40148</v>
       </c>
       <c r="B185" s="2" t="n">
-        <v>55.4</v>
+        <v>55.8</v>
       </c>
       <c r="C185">
         <f>(B185/B197-1)*100</f>
@@ -2643,10 +2645,10 @@
     </row>
     <row r="186">
       <c r="A186" s="3" t="n">
-        <v>40087</v>
+        <v>40118</v>
       </c>
       <c r="B186" s="2" t="n">
-        <v>57.6</v>
+        <v>55.4</v>
       </c>
       <c r="C186">
         <f>(B186/B198-1)*100</f>
@@ -2655,10 +2657,10 @@
     </row>
     <row r="187">
       <c r="A187" s="3" t="n">
-        <v>40057</v>
+        <v>40087</v>
       </c>
       <c r="B187" s="2" t="n">
-        <v>54.9</v>
+        <v>57.6</v>
       </c>
       <c r="C187">
         <f>(B187/B199-1)*100</f>
@@ -2667,10 +2669,10 @@
     </row>
     <row r="188">
       <c r="A188" s="3" t="n">
-        <v>40026</v>
+        <v>40057</v>
       </c>
       <c r="B188" s="2" t="n">
-        <v>53.4</v>
+        <v>54.9</v>
       </c>
       <c r="C188">
         <f>(B188/B200-1)*100</f>
@@ -2679,10 +2681,10 @@
     </row>
     <row r="189">
       <c r="A189" s="3" t="n">
-        <v>39995</v>
+        <v>40026</v>
       </c>
       <c r="B189" s="2" t="n">
-        <v>49.7</v>
+        <v>53.4</v>
       </c>
       <c r="C189">
         <f>(B189/B201-1)*100</f>
@@ -2691,10 +2693,10 @@
     </row>
     <row r="190">
       <c r="A190" s="3" t="n">
-        <v>39965</v>
+        <v>39995</v>
       </c>
       <c r="B190" s="2" t="n">
-        <v>46.3</v>
+        <v>49.7</v>
       </c>
       <c r="C190">
         <f>(B190/B202-1)*100</f>
@@ -2703,10 +2705,10 @@
     </row>
     <row r="191">
       <c r="A191" s="3" t="n">
-        <v>39934</v>
+        <v>39965</v>
       </c>
       <c r="B191" s="2" t="n">
-        <v>44.1</v>
+        <v>46.3</v>
       </c>
       <c r="C191">
         <f>(B191/B203-1)*100</f>
@@ -2715,10 +2717,10 @@
     </row>
     <row r="192">
       <c r="A192" s="3" t="n">
-        <v>39904</v>
+        <v>39934</v>
       </c>
       <c r="B192" s="2" t="n">
-        <v>39.9</v>
+        <v>44.1</v>
       </c>
       <c r="C192">
         <f>(B192/B204-1)*100</f>
@@ -2727,10 +2729,10 @@
     </row>
     <row r="193">
       <c r="A193" s="3" t="n">
-        <v>39873</v>
+        <v>39904</v>
       </c>
       <c r="B193" s="2" t="n">
-        <v>37.2</v>
+        <v>39.9</v>
       </c>
       <c r="C193">
         <f>(B193/B205-1)*100</f>
@@ -2739,10 +2741,10 @@
     </row>
     <row r="194">
       <c r="A194" s="3" t="n">
-        <v>39845</v>
+        <v>39873</v>
       </c>
       <c r="B194" s="2" t="n">
-        <v>36.6</v>
+        <v>37.2</v>
       </c>
       <c r="C194">
         <f>(B194/B206-1)*100</f>
@@ -2751,10 +2753,10 @@
     </row>
     <row r="195">
       <c r="A195" s="3" t="n">
-        <v>39814</v>
+        <v>39845</v>
       </c>
       <c r="B195" s="2" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="C195">
         <f>(B195/B207-1)*100</f>
@@ -2763,10 +2765,10 @@
     </row>
     <row r="196">
       <c r="A196" s="3" t="n">
-        <v>39783</v>
+        <v>39814</v>
       </c>
       <c r="B196" s="2" t="n">
-        <v>34.5</v>
+        <v>36.4</v>
       </c>
       <c r="C196">
         <f>(B196/B208-1)*100</f>
@@ -2775,10 +2777,10 @@
     </row>
     <row r="197">
       <c r="A197" s="3" t="n">
-        <v>39753</v>
+        <v>39783</v>
       </c>
       <c r="B197" s="2" t="n">
-        <v>39</v>
+        <v>34.5</v>
       </c>
       <c r="C197">
         <f>(B197/B209-1)*100</f>
@@ -2787,10 +2789,10 @@
     </row>
     <row r="198">
       <c r="A198" s="3" t="n">
-        <v>39722</v>
+        <v>39753</v>
       </c>
       <c r="B198" s="2" t="n">
-        <v>38.2</v>
+        <v>39</v>
       </c>
       <c r="C198">
         <f>(B198/B210-1)*100</f>
@@ -2799,10 +2801,10 @@
     </row>
     <row r="199">
       <c r="A199" s="3" t="n">
-        <v>39692</v>
+        <v>39722</v>
       </c>
       <c r="B199" s="2" t="n">
-        <v>47.2</v>
+        <v>38.2</v>
       </c>
       <c r="C199">
         <f>(B199/B211-1)*100</f>
@@ -2811,10 +2813,10 @@
     </row>
     <row r="200">
       <c r="A200" s="3" t="n">
-        <v>39661</v>
+        <v>39692</v>
       </c>
       <c r="B200" s="2" t="n">
-        <v>50.1</v>
+        <v>47.2</v>
       </c>
       <c r="C200">
         <f>(B200/B212-1)*100</f>
@@ -2823,10 +2825,10 @@
     </row>
     <row r="201">
       <c r="A201" s="3" t="n">
-        <v>39630</v>
+        <v>39661</v>
       </c>
       <c r="B201" s="2" t="n">
-        <v>50.8</v>
+        <v>50.1</v>
       </c>
       <c r="C201">
         <f>(B201/B213-1)*100</f>
@@ -2835,10 +2837,10 @@
     </row>
     <row r="202">
       <c r="A202" s="3" t="n">
-        <v>39600</v>
+        <v>39630</v>
       </c>
       <c r="B202" s="2" t="n">
-        <v>49.9</v>
+        <v>50.8</v>
       </c>
       <c r="C202">
         <f>(B202/B214-1)*100</f>
@@ -2847,10 +2849,10 @@
     </row>
     <row r="203">
       <c r="A203" s="3" t="n">
-        <v>39569</v>
+        <v>39600</v>
       </c>
       <c r="B203" s="2" t="n">
-        <v>48.9</v>
+        <v>49.9</v>
       </c>
       <c r="C203">
         <f>(B203/B215-1)*100</f>
@@ -2859,10 +2861,10 @@
     </row>
     <row r="204">
       <c r="A204" s="3" t="n">
-        <v>39539</v>
+        <v>39569</v>
       </c>
       <c r="B204" s="2" t="n">
-        <v>48.5</v>
+        <v>48.9</v>
       </c>
       <c r="C204">
         <f>(B204/B216-1)*100</f>
@@ -2871,10 +2873,10 @@
     </row>
     <row r="205">
       <c r="A205" s="3" t="n">
-        <v>39508</v>
+        <v>39539</v>
       </c>
       <c r="B205" s="2" t="n">
-        <v>49.7</v>
+        <v>48.5</v>
       </c>
       <c r="C205">
         <f>(B205/B217-1)*100</f>
@@ -2883,10 +2885,10 @@
     </row>
     <row r="206">
       <c r="A206" s="3" t="n">
-        <v>39479</v>
+        <v>39508</v>
       </c>
       <c r="B206" s="2" t="n">
-        <v>48.8</v>
+        <v>49.7</v>
       </c>
       <c r="C206">
         <f>(B206/B218-1)*100</f>
@@ -2895,10 +2897,10 @@
     </row>
     <row r="207">
       <c r="A207" s="3" t="n">
-        <v>39448</v>
+        <v>39479</v>
       </c>
       <c r="B207" s="2" t="n">
-        <v>50.9</v>
+        <v>48.8</v>
       </c>
       <c r="C207">
         <f>(B207/B219-1)*100</f>
@@ -2907,10 +2909,10 @@
     </row>
     <row r="208">
       <c r="A208" s="3" t="n">
-        <v>39417</v>
+        <v>39448</v>
       </c>
       <c r="B208" s="2" t="n">
-        <v>50.1</v>
+        <v>50.9</v>
       </c>
       <c r="C208">
         <f>(B208/B220-1)*100</f>
@@ -2919,10 +2921,10 @@
     </row>
     <row r="209">
       <c r="A209" s="3" t="n">
-        <v>39387</v>
+        <v>39417</v>
       </c>
       <c r="B209" s="2" t="n">
-        <v>51.5</v>
+        <v>50.1</v>
       </c>
       <c r="C209">
         <f>(B209/B221-1)*100</f>
@@ -2931,10 +2933,10 @@
     </row>
     <row r="210">
       <c r="A210" s="3" t="n">
-        <v>39356</v>
+        <v>39387</v>
       </c>
       <c r="B210" s="2" t="n">
-        <v>52.8</v>
+        <v>51.5</v>
       </c>
       <c r="C210">
         <f>(B210/B222-1)*100</f>
@@ -2943,10 +2945,10 @@
     </row>
     <row r="211">
       <c r="A211" s="3" t="n">
-        <v>39326</v>
+        <v>39356</v>
       </c>
       <c r="B211" s="2" t="n">
-        <v>53.8</v>
+        <v>52.8</v>
       </c>
       <c r="C211">
         <f>(B211/B223-1)*100</f>
@@ -2955,10 +2957,10 @@
     </row>
     <row r="212">
       <c r="A212" s="3" t="n">
-        <v>39295</v>
+        <v>39326</v>
       </c>
       <c r="B212" s="2" t="n">
-        <v>52.2</v>
+        <v>53.8</v>
       </c>
       <c r="C212">
         <f>(B212/B224-1)*100</f>
@@ -2967,10 +2969,10 @@
     </row>
     <row r="213">
       <c r="A213" s="3" t="n">
-        <v>39264</v>
+        <v>39295</v>
       </c>
       <c r="B213" s="2" t="n">
-        <v>51.8</v>
+        <v>52.2</v>
       </c>
       <c r="C213">
         <f>(B213/B225-1)*100</f>
@@ -2979,10 +2981,10 @@
     </row>
     <row r="214">
       <c r="A214" s="3" t="n">
-        <v>39234</v>
+        <v>39264</v>
       </c>
       <c r="B214" s="2" t="n">
-        <v>54</v>
+        <v>51.8</v>
       </c>
       <c r="C214">
         <f>(B214/B226-1)*100</f>
@@ -2991,10 +2993,10 @@
     </row>
     <row r="215">
       <c r="A215" s="3" t="n">
-        <v>39203</v>
+        <v>39234</v>
       </c>
       <c r="B215" s="2" t="n">
-        <v>53.1</v>
+        <v>54</v>
       </c>
       <c r="C215">
         <f>(B215/B227-1)*100</f>
@@ -3003,10 +3005,10 @@
     </row>
     <row r="216">
       <c r="A216" s="3" t="n">
-        <v>39173</v>
+        <v>39203</v>
       </c>
       <c r="B216" s="2" t="n">
-        <v>52.7</v>
+        <v>53.1</v>
       </c>
       <c r="C216">
         <f>(B216/B228-1)*100</f>
@@ -3015,10 +3017,10 @@
     </row>
     <row r="217">
       <c r="A217" s="3" t="n">
-        <v>39142</v>
+        <v>39173</v>
       </c>
       <c r="B217" s="2" t="n">
-        <v>52.8</v>
+        <v>52.7</v>
       </c>
       <c r="C217">
         <f>(B217/B229-1)*100</f>
@@ -3027,10 +3029,10 @@
     </row>
     <row r="218">
       <c r="A218" s="3" t="n">
-        <v>39114</v>
+        <v>39142</v>
       </c>
       <c r="B218" s="2" t="n">
-        <v>54.1</v>
+        <v>52.8</v>
       </c>
       <c r="C218">
         <f>(B218/B230-1)*100</f>
@@ -3039,10 +3041,10 @@
     </row>
     <row r="219">
       <c r="A219" s="3" t="n">
-        <v>39083</v>
+        <v>39114</v>
       </c>
       <c r="B219" s="2" t="n">
-        <v>50.4</v>
+        <v>54.1</v>
       </c>
       <c r="C219">
         <f>(B219/B231-1)*100</f>
@@ -3051,10 +3053,10 @@
     </row>
     <row r="220">
       <c r="A220" s="3" t="n">
-        <v>39052</v>
+        <v>39083</v>
       </c>
       <c r="B220" s="2" t="n">
-        <v>51.4</v>
+        <v>50.4</v>
       </c>
       <c r="C220">
         <f>(B220/B232-1)*100</f>
@@ -3063,10 +3065,10 @@
     </row>
     <row r="221">
       <c r="A221" s="3" t="n">
-        <v>39022</v>
+        <v>39052</v>
       </c>
       <c r="B221" s="2" t="n">
-        <v>50.3</v>
+        <v>51.4</v>
       </c>
       <c r="C221">
         <f>(B221/B233-1)*100</f>
@@ -3075,10 +3077,10 @@
     </row>
     <row r="222">
       <c r="A222" s="3" t="n">
-        <v>38991</v>
+        <v>39022</v>
       </c>
       <c r="B222" s="2" t="n">
-        <v>51.4</v>
+        <v>50.3</v>
       </c>
       <c r="C222">
         <f>(B222/B234-1)*100</f>
@@ -3087,10 +3089,10 @@
     </row>
     <row r="223">
       <c r="A223" s="3" t="n">
-        <v>38961</v>
+        <v>38991</v>
       </c>
       <c r="B223" s="2" t="n">
-        <v>52.2</v>
+        <v>51.4</v>
       </c>
       <c r="C223">
         <f>(B223/B235-1)*100</f>
@@ -3099,10 +3101,10 @@
     </row>
     <row r="224">
       <c r="A224" s="3" t="n">
-        <v>38930</v>
+        <v>38961</v>
       </c>
       <c r="B224" s="2" t="n">
-        <v>53.7</v>
+        <v>52.2</v>
       </c>
       <c r="C224">
         <f>(B224/B236-1)*100</f>
@@ -3111,10 +3113,10 @@
     </row>
     <row r="225">
       <c r="A225" s="3" t="n">
-        <v>38899</v>
+        <v>38930</v>
       </c>
       <c r="B225" s="2" t="n">
-        <v>53</v>
+        <v>53.7</v>
       </c>
       <c r="C225">
         <f>(B225/B237-1)*100</f>
@@ -3123,10 +3125,10 @@
     </row>
     <row r="226">
       <c r="A226" s="3" t="n">
-        <v>38869</v>
+        <v>38899</v>
       </c>
       <c r="B226" s="2" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C226">
         <f>(B226/B238-1)*100</f>
@@ -3135,10 +3137,10 @@
     </row>
     <row r="227">
       <c r="A227" s="3" t="n">
-        <v>38838</v>
+        <v>38869</v>
       </c>
       <c r="B227" s="2" t="n">
-        <v>53.7</v>
+        <v>52</v>
       </c>
       <c r="C227">
         <f>(B227/B239-1)*100</f>
@@ -3147,10 +3149,10 @@
     </row>
     <row r="228">
       <c r="A228" s="3" t="n">
-        <v>38808</v>
+        <v>38838</v>
       </c>
       <c r="B228" s="2" t="n">
-        <v>55.2</v>
+        <v>53.7</v>
       </c>
       <c r="C228">
         <f>(B228/B240-1)*100</f>
@@ -3159,10 +3161,10 @@
     </row>
     <row r="229">
       <c r="A229" s="3" t="n">
-        <v>38777</v>
+        <v>38808</v>
       </c>
       <c r="B229" s="2" t="n">
-        <v>54.3</v>
+        <v>55.2</v>
       </c>
       <c r="C229">
         <f>(B229/B241-1)*100</f>
@@ -3171,10 +3173,10 @@
     </row>
     <row r="230">
       <c r="A230" s="3" t="n">
-        <v>38749</v>
+        <v>38777</v>
       </c>
       <c r="B230" s="2" t="n">
-        <v>55.8</v>
+        <v>54.3</v>
       </c>
       <c r="C230">
         <f>(B230/B242-1)*100</f>
@@ -3183,10 +3185,10 @@
     </row>
     <row r="231">
       <c r="A231" s="3" t="n">
-        <v>38718</v>
+        <v>38749</v>
       </c>
       <c r="B231" s="2" t="n">
-        <v>55</v>
+        <v>55.8</v>
       </c>
       <c r="C231">
         <f>(B231/B243-1)*100</f>
@@ -3195,10 +3197,10 @@
     </row>
     <row r="232">
       <c r="A232" s="3" t="n">
-        <v>38687</v>
+        <v>38718</v>
       </c>
       <c r="B232" s="2" t="n">
-        <v>55.1</v>
+        <v>55</v>
       </c>
       <c r="C232">
         <f>(B232/B244-1)*100</f>
@@ -3207,10 +3209,10 @@
     </row>
     <row r="233">
       <c r="A233" s="3" t="n">
-        <v>38657</v>
+        <v>38687</v>
       </c>
       <c r="B233" s="2" t="n">
-        <v>56.7</v>
+        <v>55.1</v>
       </c>
       <c r="C233">
         <f>(B233/B245-1)*100</f>
@@ -3219,10 +3221,10 @@
     </row>
     <row r="234">
       <c r="A234" s="3" t="n">
-        <v>38626</v>
+        <v>38657</v>
       </c>
       <c r="B234" s="2" t="n">
-        <v>57.2</v>
+        <v>56.7</v>
       </c>
       <c r="C234">
         <f>(B234/B246-1)*100</f>
@@ -3231,10 +3233,10 @@
     </row>
     <row r="235">
       <c r="A235" s="3" t="n">
-        <v>38596</v>
+        <v>38626</v>
       </c>
       <c r="B235" s="2" t="n">
-        <v>56.8</v>
+        <v>57.2</v>
       </c>
       <c r="C235">
         <f>(B235/B247-1)*100</f>
@@ -3243,10 +3245,10 @@
     </row>
     <row r="236">
       <c r="A236" s="3" t="n">
-        <v>38565</v>
+        <v>38596</v>
       </c>
       <c r="B236" s="2" t="n">
-        <v>52.4</v>
+        <v>56.8</v>
       </c>
       <c r="C236">
         <f>(B236/B248-1)*100</f>
@@ -3255,10 +3257,10 @@
     </row>
     <row r="237">
       <c r="A237" s="3" t="n">
-        <v>38534</v>
+        <v>38565</v>
       </c>
       <c r="B237" s="2" t="n">
-        <v>52.8</v>
+        <v>52.4</v>
       </c>
       <c r="C237">
         <f>(B237/B249-1)*100</f>
@@ -3267,10 +3269,10 @@
     </row>
     <row r="238">
       <c r="A238" s="3" t="n">
-        <v>38504</v>
+        <v>38534</v>
       </c>
       <c r="B238" s="2" t="n">
-        <v>52.4</v>
+        <v>52.8</v>
       </c>
       <c r="C238">
         <f>(B238/B250-1)*100</f>
@@ -3279,10 +3281,10 @@
     </row>
     <row r="239">
       <c r="A239" s="3" t="n">
-        <v>38473</v>
+        <v>38504</v>
       </c>
       <c r="B239" s="2" t="n">
-        <v>50.8</v>
+        <v>52.4</v>
       </c>
       <c r="C239">
         <f>(B239/B251-1)*100</f>
@@ -3291,10 +3293,10 @@
     </row>
     <row r="240">
       <c r="A240" s="3" t="n">
-        <v>38443</v>
+        <v>38473</v>
       </c>
       <c r="B240" s="2" t="n">
-        <v>52.2</v>
+        <v>50.8</v>
       </c>
       <c r="C240">
         <f>(B240/B252-1)*100</f>
@@ -3303,10 +3305,10 @@
     </row>
     <row r="241">
       <c r="A241" s="3" t="n">
-        <v>38412</v>
+        <v>38443</v>
       </c>
       <c r="B241" s="2" t="n">
-        <v>55.2</v>
+        <v>52.2</v>
       </c>
       <c r="C241">
         <f>(B241/B253-1)*100</f>
@@ -3315,10 +3317,10 @@
     </row>
     <row r="242">
       <c r="A242" s="3" t="n">
-        <v>38384</v>
+        <v>38412</v>
       </c>
       <c r="B242" s="2" t="n">
-        <v>55.5</v>
+        <v>55.2</v>
       </c>
       <c r="C242">
         <f>(B242/B254-1)*100</f>
@@ -3327,10 +3329,10 @@
     </row>
     <row r="243">
       <c r="A243" s="3" t="n">
-        <v>38353</v>
+        <v>38384</v>
       </c>
       <c r="B243" s="2" t="n">
-        <v>56.8</v>
+        <v>55.5</v>
       </c>
       <c r="C243">
         <f>(B243/B255-1)*100</f>
@@ -3339,10 +3341,10 @@
     </row>
     <row r="244">
       <c r="A244" s="3" t="n">
-        <v>38322</v>
+        <v>38353</v>
       </c>
       <c r="B244" s="2" t="n">
-        <v>57.2</v>
+        <v>56.8</v>
       </c>
       <c r="C244">
         <f>(B244/B256-1)*100</f>
@@ -3351,10 +3353,10 @@
     </row>
     <row r="245">
       <c r="A245" s="3" t="n">
-        <v>38292</v>
+        <v>38322</v>
       </c>
       <c r="B245" s="2" t="n">
-        <v>56.2</v>
+        <v>57.2</v>
       </c>
       <c r="C245">
         <f>(B245/B257-1)*100</f>
@@ -3363,10 +3365,10 @@
     </row>
     <row r="246">
       <c r="A246" s="3" t="n">
-        <v>38261</v>
+        <v>38292</v>
       </c>
       <c r="B246" s="2" t="n">
-        <v>56.3</v>
+        <v>56.2</v>
       </c>
       <c r="C246">
         <f>(B246/B258-1)*100</f>
@@ -3375,10 +3377,10 @@
     </row>
     <row r="247">
       <c r="A247" s="3" t="n">
-        <v>38231</v>
+        <v>38261</v>
       </c>
       <c r="B247" s="2" t="n">
-        <v>57.4</v>
+        <v>56.3</v>
       </c>
       <c r="C247">
         <f>(B247/B259-1)*100</f>
@@ -3387,10 +3389,10 @@
     </row>
     <row r="248">
       <c r="A248" s="3" t="n">
-        <v>38200</v>
+        <v>38231</v>
       </c>
       <c r="B248" s="2" t="n">
-        <v>58.5</v>
+        <v>57.4</v>
       </c>
       <c r="C248">
         <f>(B248/B260-1)*100</f>
@@ -3399,10 +3401,10 @@
     </row>
     <row r="249">
       <c r="A249" s="3" t="n">
-        <v>38169</v>
+        <v>38200</v>
       </c>
       <c r="B249" s="2" t="n">
-        <v>59.9</v>
+        <v>58.5</v>
       </c>
       <c r="C249">
         <f>(B249/B261-1)*100</f>
@@ -3411,10 +3413,10 @@
     </row>
     <row r="250">
       <c r="A250" s="3" t="n">
-        <v>38139</v>
+        <v>38169</v>
       </c>
       <c r="B250" s="2" t="n">
-        <v>60.5</v>
+        <v>59.9</v>
       </c>
       <c r="C250">
         <f>(B250/B262-1)*100</f>
@@ -3423,10 +3425,10 @@
     </row>
     <row r="251">
       <c r="A251" s="3" t="n">
-        <v>38108</v>
+        <v>38139</v>
       </c>
       <c r="B251" s="2" t="n">
-        <v>61.4</v>
+        <v>60.5</v>
       </c>
       <c r="C251">
         <f>(B251/B263-1)*100</f>
@@ -3435,10 +3437,10 @@
     </row>
     <row r="252">
       <c r="A252" s="3" t="n">
-        <v>38078</v>
+        <v>38108</v>
       </c>
       <c r="B252" s="2" t="n">
-        <v>60.6</v>
+        <v>61.4</v>
       </c>
       <c r="C252">
         <f>(B252/B264-1)*100</f>
@@ -3447,7 +3449,7 @@
     </row>
     <row r="253">
       <c r="A253" s="3" t="n">
-        <v>38047</v>
+        <v>38078</v>
       </c>
       <c r="B253" s="2" t="n">
         <v>60.6</v>
@@ -3459,10 +3461,10 @@
     </row>
     <row r="254">
       <c r="A254" s="3" t="n">
-        <v>38018</v>
+        <v>38047</v>
       </c>
       <c r="B254" s="2" t="n">
-        <v>59.9</v>
+        <v>60.6</v>
       </c>
       <c r="C254">
         <f>(B254/B266-1)*100</f>
@@ -3471,10 +3473,10 @@
     </row>
     <row r="255">
       <c r="A255" s="3" t="n">
-        <v>37987</v>
+        <v>38018</v>
       </c>
       <c r="B255" s="2" t="n">
-        <v>60.8</v>
+        <v>59.9</v>
       </c>
       <c r="C255">
         <f>(B255/B267-1)*100</f>
@@ -3483,10 +3485,10 @@
     </row>
     <row r="256">
       <c r="A256" s="3" t="n">
-        <v>37956</v>
+        <v>37987</v>
       </c>
       <c r="B256" s="2" t="n">
-        <v>60.1</v>
+        <v>60.8</v>
       </c>
       <c r="C256">
         <f>(B256/B268-1)*100</f>
@@ -3495,10 +3497,10 @@
     </row>
     <row r="257">
       <c r="A257" s="3" t="n">
-        <v>37926</v>
+        <v>37956</v>
       </c>
       <c r="B257" s="2" t="n">
-        <v>58.4</v>
+        <v>60.1</v>
       </c>
       <c r="C257">
         <f>(B257/B269-1)*100</f>
@@ -3507,10 +3509,10 @@
     </row>
     <row r="258">
       <c r="A258" s="3" t="n">
-        <v>37895</v>
+        <v>37926</v>
       </c>
       <c r="B258" s="2" t="n">
-        <v>55.2</v>
+        <v>58.4</v>
       </c>
       <c r="C258">
         <f>(B258/B270-1)*100</f>
@@ -3519,10 +3521,10 @@
     </row>
     <row r="259">
       <c r="A259" s="3" t="n">
-        <v>37865</v>
+        <v>37895</v>
       </c>
       <c r="B259" s="2" t="n">
-        <v>52.4</v>
+        <v>55.2</v>
       </c>
       <c r="C259">
         <f>(B259/B271-1)*100</f>
@@ -3531,10 +3533,10 @@
     </row>
     <row r="260">
       <c r="A260" s="3" t="n">
-        <v>37834</v>
+        <v>37865</v>
       </c>
       <c r="B260" s="2" t="n">
-        <v>53.2</v>
+        <v>52.4</v>
       </c>
       <c r="C260">
         <f>(B260/B272-1)*100</f>
@@ -3543,10 +3545,10 @@
     </row>
     <row r="261">
       <c r="A261" s="3" t="n">
-        <v>37803</v>
+        <v>37834</v>
       </c>
       <c r="B261" s="2" t="n">
-        <v>51</v>
+        <v>53.2</v>
       </c>
       <c r="C261">
         <f>(B261/B273-1)*100</f>
@@ -3555,10 +3557,10 @@
     </row>
     <row r="262">
       <c r="A262" s="3" t="n">
-        <v>37773</v>
+        <v>37803</v>
       </c>
       <c r="B262" s="2" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C262">
         <f>(B262/B274-1)*100</f>
@@ -3567,7 +3569,7 @@
     </row>
     <row r="263">
       <c r="A263" s="3" t="n">
-        <v>37742</v>
+        <v>37773</v>
       </c>
       <c r="B263" s="2" t="n">
         <v>49</v>
@@ -3579,10 +3581,10 @@
     </row>
     <row r="264">
       <c r="A264" s="3" t="n">
-        <v>37712</v>
+        <v>37742</v>
       </c>
       <c r="B264" s="2" t="n">
-        <v>46.1</v>
+        <v>49</v>
       </c>
       <c r="C264">
         <f>(B264/B276-1)*100</f>
@@ -3591,10 +3593,10 @@
     </row>
     <row r="265">
       <c r="A265" s="3" t="n">
-        <v>37681</v>
+        <v>37712</v>
       </c>
       <c r="B265" s="2" t="n">
-        <v>46.3</v>
+        <v>46.1</v>
       </c>
       <c r="C265">
         <f>(B265/B277-1)*100</f>
@@ -3603,10 +3605,10 @@
     </row>
     <row r="266">
       <c r="A266" s="3" t="n">
-        <v>37653</v>
+        <v>37681</v>
       </c>
       <c r="B266" s="2" t="n">
-        <v>48.8</v>
+        <v>46.3</v>
       </c>
       <c r="C266">
         <f>(B266/B278-1)*100</f>
@@ -3615,10 +3617,10 @@
     </row>
     <row r="267">
       <c r="A267" s="3" t="n">
-        <v>37622</v>
+        <v>37653</v>
       </c>
       <c r="B267" s="2" t="n">
-        <v>51.3</v>
+        <v>48.8</v>
       </c>
       <c r="C267">
         <f>(B267/B279-1)*100</f>
@@ -3627,10 +3629,10 @@
     </row>
     <row r="268">
       <c r="A268" s="3" t="n">
-        <v>37591</v>
+        <v>37622</v>
       </c>
       <c r="B268" s="2" t="n">
-        <v>51.6</v>
+        <v>51.3</v>
       </c>
       <c r="C268">
         <f>(B268/B280-1)*100</f>
@@ -3639,10 +3641,10 @@
     </row>
     <row r="269">
       <c r="A269" s="3" t="n">
-        <v>37561</v>
+        <v>37591</v>
       </c>
       <c r="B269" s="2" t="n">
-        <v>48.5</v>
+        <v>51.6</v>
       </c>
       <c r="C269">
         <f>(B269/B281-1)*100</f>
@@ -3651,10 +3653,10 @@
     </row>
     <row r="270">
       <c r="A270" s="3" t="n">
-        <v>37530</v>
+        <v>37561</v>
       </c>
       <c r="B270" s="2" t="n">
-        <v>49</v>
+        <v>48.5</v>
       </c>
       <c r="C270">
         <f>(B270/B282-1)*100</f>
@@ -3663,10 +3665,10 @@
     </row>
     <row r="271">
       <c r="A271" s="3" t="n">
-        <v>37500</v>
+        <v>37530</v>
       </c>
       <c r="B271" s="2" t="n">
-        <v>50.5</v>
+        <v>49</v>
       </c>
       <c r="C271">
         <f>(B271/B283-1)*100</f>
@@ -3675,10 +3677,10 @@
     </row>
     <row r="272">
       <c r="A272" s="3" t="n">
-        <v>37469</v>
+        <v>37500</v>
       </c>
       <c r="B272" s="2" t="n">
-        <v>50.3</v>
+        <v>50.5</v>
       </c>
       <c r="C272">
         <f>(B272/B284-1)*100</f>
@@ -3687,10 +3689,10 @@
     </row>
     <row r="273">
       <c r="A273" s="3" t="n">
-        <v>37438</v>
+        <v>37469</v>
       </c>
       <c r="B273" s="2" t="n">
-        <v>50.2</v>
+        <v>50.3</v>
       </c>
       <c r="C273">
         <f>(B273/B285-1)*100</f>
@@ -3699,10 +3701,10 @@
     </row>
     <row r="274">
       <c r="A274" s="3" t="n">
-        <v>37408</v>
+        <v>37438</v>
       </c>
       <c r="B274" s="2" t="n">
-        <v>53.6</v>
+        <v>50.2</v>
       </c>
       <c r="C274">
         <f>(B274/B286-1)*100</f>
@@ -3711,10 +3713,10 @@
     </row>
     <row r="275">
       <c r="A275" s="3" t="n">
-        <v>37377</v>
+        <v>37408</v>
       </c>
       <c r="B275" s="2" t="n">
-        <v>53.1</v>
+        <v>53.6</v>
       </c>
       <c r="C275">
         <f>(B275/B287-1)*100</f>
@@ -3723,10 +3725,10 @@
     </row>
     <row r="276">
       <c r="A276" s="3" t="n">
-        <v>37347</v>
+        <v>37377</v>
       </c>
       <c r="B276" s="2" t="n">
-        <v>52.4</v>
+        <v>53.1</v>
       </c>
       <c r="C276">
         <f>(B276/B288-1)*100</f>
@@ -3735,7 +3737,7 @@
     </row>
     <row r="277">
       <c r="A277" s="3" t="n">
-        <v>37316</v>
+        <v>37347</v>
       </c>
       <c r="B277" s="2" t="n">
         <v>52.4</v>
@@ -3747,10 +3749,10 @@
     </row>
     <row r="278">
       <c r="A278" s="3" t="n">
-        <v>37288</v>
+        <v>37316</v>
       </c>
       <c r="B278" s="2" t="n">
-        <v>50.7</v>
+        <v>52.4</v>
       </c>
       <c r="C278">
         <f>(B278/B290-1)*100</f>
@@ -3759,10 +3761,10 @@
     </row>
     <row r="279">
       <c r="A279" s="3" t="n">
-        <v>37257</v>
+        <v>37288</v>
       </c>
       <c r="B279" s="2" t="n">
-        <v>47.5</v>
+        <v>50.7</v>
       </c>
       <c r="C279">
         <f>(B279/B291-1)*100</f>
@@ -3771,10 +3773,10 @@
     </row>
     <row r="280">
       <c r="A280" s="3" t="n">
-        <v>37226</v>
+        <v>37257</v>
       </c>
       <c r="B280" s="2" t="n">
-        <v>45.3</v>
+        <v>47.5</v>
       </c>
       <c r="C280">
         <f>(B280/B292-1)*100</f>
@@ -3783,10 +3785,10 @@
     </row>
     <row r="281">
       <c r="A281" s="3" t="n">
-        <v>37196</v>
+        <v>37226</v>
       </c>
       <c r="B281" s="2" t="n">
-        <v>44.1</v>
+        <v>45.3</v>
       </c>
       <c r="C281">
         <f>(B281/B293-1)*100</f>
@@ -3795,10 +3797,10 @@
     </row>
     <row r="282">
       <c r="A282" s="3" t="n">
-        <v>37165</v>
+        <v>37196</v>
       </c>
       <c r="B282" s="2" t="n">
-        <v>40.8</v>
+        <v>44.1</v>
       </c>
       <c r="C282">
         <f>(B282/B294-1)*100</f>
@@ -3807,10 +3809,10 @@
     </row>
     <row r="283">
       <c r="A283" s="3" t="n">
-        <v>37135</v>
+        <v>37165</v>
       </c>
       <c r="B283" s="2" t="n">
-        <v>46.2</v>
+        <v>40.8</v>
       </c>
       <c r="C283">
         <f>(B283/B295-1)*100</f>
@@ -3819,10 +3821,10 @@
     </row>
     <row r="284">
       <c r="A284" s="3" t="n">
-        <v>37104</v>
+        <v>37135</v>
       </c>
       <c r="B284" s="2" t="n">
-        <v>46.3</v>
+        <v>46.2</v>
       </c>
       <c r="C284">
         <f>(B284/B296-1)*100</f>
@@ -3831,10 +3833,10 @@
     </row>
     <row r="285">
       <c r="A285" s="3" t="n">
-        <v>37073</v>
+        <v>37104</v>
       </c>
       <c r="B285" s="2" t="n">
-        <v>43.5</v>
+        <v>46.3</v>
       </c>
       <c r="C285">
         <f>(B285/B297-1)*100</f>
@@ -3843,10 +3845,10 @@
     </row>
     <row r="286">
       <c r="A286" s="3" t="n">
-        <v>37043</v>
+        <v>37073</v>
       </c>
       <c r="B286" s="2" t="n">
-        <v>43.2</v>
+        <v>43.5</v>
       </c>
       <c r="C286">
         <f>(B286/B298-1)*100</f>
@@ -3855,10 +3857,10 @@
     </row>
     <row r="287">
       <c r="A287" s="3" t="n">
-        <v>37012</v>
+        <v>37043</v>
       </c>
       <c r="B287" s="2" t="n">
-        <v>41.3</v>
+        <v>43.2</v>
       </c>
       <c r="C287">
         <f>(B287/B299-1)*100</f>
@@ -3867,10 +3869,10 @@
     </row>
     <row r="288">
       <c r="A288" s="3" t="n">
-        <v>36982</v>
+        <v>37012</v>
       </c>
       <c r="B288" s="2" t="n">
-        <v>42.7</v>
+        <v>41.3</v>
       </c>
       <c r="C288">
         <f>(B288/B300-1)*100</f>
@@ -3879,10 +3881,10 @@
     </row>
     <row r="289">
       <c r="A289" s="3" t="n">
-        <v>36951</v>
+        <v>36982</v>
       </c>
       <c r="B289" s="2" t="n">
-        <v>43.1</v>
+        <v>42.7</v>
       </c>
       <c r="C289">
         <f>(B289/B301-1)*100</f>
@@ -3891,10 +3893,10 @@
     </row>
     <row r="290">
       <c r="A290" s="3" t="n">
-        <v>36923</v>
+        <v>36951</v>
       </c>
       <c r="B290" s="2" t="n">
-        <v>42.1</v>
+        <v>43.1</v>
       </c>
       <c r="C290">
         <f>(B290/B302-1)*100</f>
@@ -3903,10 +3905,10 @@
     </row>
     <row r="291">
       <c r="A291" s="3" t="n">
-        <v>36892</v>
+        <v>36923</v>
       </c>
       <c r="B291" s="2" t="n">
-        <v>42.3</v>
+        <v>42.1</v>
       </c>
       <c r="C291">
         <f>(B291/B303-1)*100</f>
@@ -3915,10 +3917,10 @@
     </row>
     <row r="292">
       <c r="A292" s="3" t="n">
-        <v>36861</v>
+        <v>36892</v>
       </c>
       <c r="B292" s="2" t="n">
-        <v>43.9</v>
+        <v>42.3</v>
       </c>
       <c r="C292">
         <f>(B292/B304-1)*100</f>
@@ -3927,10 +3929,10 @@
     </row>
     <row r="293">
       <c r="A293" s="3" t="n">
-        <v>36831</v>
+        <v>36861</v>
       </c>
       <c r="B293" s="2" t="n">
-        <v>48.5</v>
+        <v>43.9</v>
       </c>
       <c r="C293">
         <f>(B293/B305-1)*100</f>
@@ -3939,10 +3941,10 @@
     </row>
     <row r="294">
       <c r="A294" s="3" t="n">
-        <v>36800</v>
+        <v>36831</v>
       </c>
       <c r="B294" s="2" t="n">
-        <v>48.7</v>
+        <v>48.5</v>
       </c>
       <c r="C294">
         <f>(B294/B306-1)*100</f>
@@ -3951,10 +3953,10 @@
     </row>
     <row r="295">
       <c r="A295" s="3" t="n">
-        <v>36770</v>
+        <v>36800</v>
       </c>
       <c r="B295" s="2" t="n">
-        <v>49.7</v>
+        <v>48.7</v>
       </c>
       <c r="C295">
         <f>(B295/B307-1)*100</f>
@@ -3963,10 +3965,10 @@
     </row>
     <row r="296">
       <c r="A296" s="3" t="n">
-        <v>36739</v>
+        <v>36770</v>
       </c>
       <c r="B296" s="2" t="n">
-        <v>49.9</v>
+        <v>49.7</v>
       </c>
       <c r="C296">
         <f>(B296/B308-1)*100</f>
@@ -3975,10 +3977,10 @@
     </row>
     <row r="297">
       <c r="A297" s="3" t="n">
-        <v>36708</v>
+        <v>36739</v>
       </c>
       <c r="B297" s="2" t="n">
-        <v>52.5</v>
+        <v>49.9</v>
       </c>
       <c r="C297">
         <f>(B297/B309-1)*100</f>
@@ -3987,10 +3989,10 @@
     </row>
     <row r="298">
       <c r="A298" s="3" t="n">
-        <v>36678</v>
+        <v>36708</v>
       </c>
       <c r="B298" s="2" t="n">
-        <v>51.4</v>
+        <v>52.5</v>
       </c>
       <c r="C298">
         <f>(B298/B310-1)*100</f>
@@ -3999,10 +4001,10 @@
     </row>
     <row r="299">
       <c r="A299" s="3" t="n">
-        <v>36647</v>
+        <v>36678</v>
       </c>
       <c r="B299" s="2" t="n">
-        <v>53.2</v>
+        <v>51.4</v>
       </c>
       <c r="C299">
         <f>(B299/B311-1)*100</f>
@@ -4011,10 +4013,10 @@
     </row>
     <row r="300">
       <c r="A300" s="3" t="n">
-        <v>36617</v>
+        <v>36647</v>
       </c>
       <c r="B300" s="2" t="n">
-        <v>54.7</v>
+        <v>53.2</v>
       </c>
       <c r="C300">
         <f>(B300/B312-1)*100</f>
@@ -4023,10 +4025,10 @@
     </row>
     <row r="301">
       <c r="A301" s="3" t="n">
-        <v>36586</v>
+        <v>36617</v>
       </c>
       <c r="B301" s="2" t="n">
-        <v>54.9</v>
+        <v>54.7</v>
       </c>
       <c r="C301">
         <f>(B301/B313-1)*100</f>
@@ -4035,10 +4037,10 @@
     </row>
     <row r="302">
       <c r="A302" s="3" t="n">
-        <v>36557</v>
+        <v>36586</v>
       </c>
       <c r="B302" s="2" t="n">
-        <v>55.8</v>
+        <v>54.9</v>
       </c>
       <c r="C302">
         <f>(B302/B314-1)*100</f>
@@ -4047,10 +4049,10 @@
     </row>
     <row r="303">
       <c r="A303" s="3" t="n">
-        <v>36526</v>
+        <v>36557</v>
       </c>
       <c r="B303" s="2" t="n">
-        <v>56.7</v>
+        <v>55.8</v>
       </c>
       <c r="C303">
         <f>(B303/B315-1)*100</f>
@@ -4059,10 +4061,10 @@
     </row>
     <row r="304">
       <c r="A304" s="3" t="n">
-        <v>36495</v>
+        <v>36526</v>
       </c>
       <c r="B304" s="2" t="n">
-        <v>57.8</v>
+        <v>56.7</v>
       </c>
       <c r="C304">
         <f>(B304/B316-1)*100</f>
@@ -4071,10 +4073,10 @@
     </row>
     <row r="305">
       <c r="A305" s="3" t="n">
-        <v>36465</v>
+        <v>36495</v>
       </c>
       <c r="B305" s="2" t="n">
-        <v>58.1</v>
+        <v>57.8</v>
       </c>
       <c r="C305">
         <f>(B305/B317-1)*100</f>
@@ -4083,10 +4085,10 @@
     </row>
     <row r="306">
       <c r="A306" s="3" t="n">
-        <v>36434</v>
+        <v>36465</v>
       </c>
       <c r="B306" s="2" t="n">
-        <v>57.2</v>
+        <v>58.1</v>
       </c>
       <c r="C306">
         <f>(B306/B318-1)*100</f>
@@ -4095,10 +4097,10 @@
     </row>
     <row r="307">
       <c r="A307" s="3" t="n">
-        <v>36404</v>
+        <v>36434</v>
       </c>
       <c r="B307" s="2" t="n">
-        <v>57</v>
+        <v>57.2</v>
       </c>
       <c r="C307">
         <f>(B307/B319-1)*100</f>
@@ -4107,10 +4109,10 @@
     </row>
     <row r="308">
       <c r="A308" s="3" t="n">
-        <v>36373</v>
+        <v>36404</v>
       </c>
       <c r="B308" s="2" t="n">
-        <v>54.8</v>
+        <v>57</v>
       </c>
       <c r="C308">
         <f>(B308/B320-1)*100</f>
@@ -4119,10 +4121,10 @@
     </row>
     <row r="309">
       <c r="A309" s="3" t="n">
-        <v>36342</v>
+        <v>36373</v>
       </c>
       <c r="B309" s="2" t="n">
-        <v>53.6</v>
+        <v>54.8</v>
       </c>
       <c r="C309">
         <f>(B309/B321-1)*100</f>
@@ -4131,10 +4133,10 @@
     </row>
     <row r="310">
       <c r="A310" s="3" t="n">
-        <v>36312</v>
+        <v>36342</v>
       </c>
       <c r="B310" s="2" t="n">
-        <v>55.8</v>
+        <v>53.6</v>
       </c>
       <c r="C310">
         <f>(B310/B322-1)*100</f>
@@ -4143,10 +4145,10 @@
     </row>
     <row r="311">
       <c r="A311" s="3" t="n">
-        <v>36281</v>
+        <v>36312</v>
       </c>
       <c r="B311" s="2" t="n">
-        <v>54.3</v>
+        <v>55.8</v>
       </c>
       <c r="C311">
         <f>(B311/B323-1)*100</f>
@@ -4155,10 +4157,10 @@
     </row>
     <row r="312">
       <c r="A312" s="3" t="n">
-        <v>36251</v>
+        <v>36281</v>
       </c>
       <c r="B312" s="2" t="n">
-        <v>52.3</v>
+        <v>54.3</v>
       </c>
       <c r="C312">
         <f>(B312/B324-1)*100</f>
@@ -4167,10 +4169,10 @@
     </row>
     <row r="313">
       <c r="A313" s="3" t="n">
-        <v>36220</v>
+        <v>36251</v>
       </c>
       <c r="B313" s="2" t="n">
-        <v>52.4</v>
+        <v>52.3</v>
       </c>
       <c r="C313">
         <f>(B313/B325-1)*100</f>
@@ -4179,10 +4181,10 @@
     </row>
     <row r="314">
       <c r="A314" s="3" t="n">
-        <v>36192</v>
+        <v>36220</v>
       </c>
       <c r="B314" s="2" t="n">
-        <v>51.7</v>
+        <v>52.4</v>
       </c>
       <c r="C314">
         <f>(B314/B326-1)*100</f>
@@ -4191,10 +4193,10 @@
     </row>
     <row r="315">
       <c r="A315" s="3" t="n">
-        <v>36161</v>
+        <v>36192</v>
       </c>
       <c r="B315" s="2" t="n">
-        <v>50.6</v>
+        <v>51.7</v>
       </c>
       <c r="C315">
         <f>(B315/B327-1)*100</f>
@@ -4202,7 +4204,12 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="3" t="n"/>
+      <c r="A316" s="3" t="n">
+        <v>36161</v>
+      </c>
+      <c r="B316" s="2" t="n">
+        <v>50.6</v>
+      </c>
       <c r="C316">
         <f>(B316/B328-1)*100</f>
         <v/>
@@ -4292,6 +4299,13 @@
         <v/>
       </c>
     </row>
+    <row r="329">
+      <c r="A329" s="3" t="n"/>
+      <c r="C329">
+        <f>(B329/B341-1)*100</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/pmi.xlsx
+++ b/data/pmi.xlsx
@@ -400,7 +400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C329"/>
+  <dimension ref="A1:C330"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,11 +432,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>49</v>
+        <v>48.7</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -446,11 +446,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50.3</v>
+        <v>49</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -460,23 +460,25 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="C4">
+        <f>(B4/B16-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>2025-01-01</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B5" t="n">
         <v>50.9</v>
-      </c>
-      <c r="C4">
-        <f>(B4/B16-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="n">
-        <v>45627</v>
-      </c>
-      <c r="B5" t="n">
-        <v>49.3</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -485,10 +487,10 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B6" t="n">
-        <v>48.4</v>
+        <v>49.3</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -496,11 +498,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>45566</v>
+      <c r="A7" s="4" t="n">
+        <v>45597</v>
       </c>
       <c r="B7" t="n">
-        <v>46.5</v>
+        <v>48.4</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -509,10 +511,10 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B8" t="n">
-        <v>47.2</v>
+        <v>46.5</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -521,7 +523,7 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B9" t="n">
         <v>47.2</v>
@@ -533,10 +535,10 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B10" t="n">
-        <v>46.8</v>
+        <v>47.2</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -545,10 +547,10 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45444</v>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>48.5</v>
+        <v>45474</v>
+      </c>
+      <c r="B11" t="n">
+        <v>46.8</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -557,10 +559,10 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>48.7</v>
+        <v>48.5</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -569,10 +571,10 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>49.2</v>
+        <v>48.7</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -581,10 +583,10 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>50.3</v>
+        <v>49.2</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -593,10 +595,10 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>47.8</v>
+        <v>50.3</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -605,10 +607,10 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>49.1</v>
+        <v>47.8</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -617,10 +619,10 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>47.1</v>
+        <v>49.1</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -629,10 +631,10 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>46.6</v>
+        <v>47.1</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -641,10 +643,10 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>46.7</v>
+        <v>46.6</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -653,10 +655,10 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>49</v>
+        <v>46.7</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -665,10 +667,10 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>47.6</v>
+        <v>49</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -677,10 +679,10 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>46.4</v>
+        <v>47.6</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -689,10 +691,10 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>46</v>
+        <v>46.4</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -701,10 +703,10 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>46.9</v>
+        <v>46</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -713,10 +715,10 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>47.1</v>
+        <v>46.9</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -725,10 +727,10 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>46.3</v>
+        <v>47.1</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -737,10 +739,10 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>47.7</v>
+        <v>46.3</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -749,10 +751,10 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B28" s="2" t="n">
-        <v>47.4</v>
+        <v>44958</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>47.7</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -761,10 +763,10 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>48.4</v>
+        <v>47.4</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -773,10 +775,10 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>49</v>
+        <v>48.4</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -785,10 +787,10 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -797,10 +799,10 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -809,10 +811,10 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>52.9</v>
+        <v>51</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -821,10 +823,10 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>52.7</v>
+        <v>52.9</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -833,10 +835,10 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>53.1</v>
+        <v>52.7</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -845,10 +847,10 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>56.1</v>
+        <v>53.1</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -857,10 +859,10 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>55.9</v>
+        <v>56.1</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -869,10 +871,10 @@
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>57</v>
+        <v>55.9</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -881,10 +883,10 @@
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>58.4</v>
+        <v>57</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -893,10 +895,10 @@
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>57.6</v>
+        <v>58.4</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -905,10 +907,10 @@
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>58.6</v>
+        <v>57.6</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -917,10 +919,10 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>60.8</v>
+        <v>58.6</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -929,7 +931,7 @@
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B43" s="2" t="n">
         <v>60.8</v>
@@ -941,10 +943,10 @@
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>61.1</v>
+        <v>60.8</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -953,10 +955,10 @@
     </row>
     <row r="45">
       <c r="A45" s="3" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>59.9</v>
+        <v>61.1</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -965,10 +967,10 @@
     </row>
     <row r="46">
       <c r="A46" s="3" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>59.4</v>
+        <v>59.9</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -977,10 +979,10 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>60.6</v>
+        <v>59.4</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -989,10 +991,10 @@
     </row>
     <row r="48">
       <c r="A48" s="3" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>61.2</v>
+        <v>60.6</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1001,10 +1003,10 @@
     </row>
     <row r="49">
       <c r="A49" s="3" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>60.7</v>
+        <v>61.2</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1013,10 +1015,10 @@
     </row>
     <row r="50">
       <c r="A50" s="3" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>64.7</v>
+        <v>60.7</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1025,10 +1027,10 @@
     </row>
     <row r="51">
       <c r="A51" s="3" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>60.8</v>
+        <v>64.7</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1037,10 +1039,10 @@
     </row>
     <row r="52">
       <c r="A52" s="3" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>58.7</v>
+        <v>60.8</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1049,10 +1051,10 @@
     </row>
     <row r="53">
       <c r="A53" s="3" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>60.5</v>
+        <v>58.7</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1061,10 +1063,10 @@
     </row>
     <row r="54">
       <c r="A54" s="3" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>57.7</v>
+        <v>60.5</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1073,10 +1075,10 @@
     </row>
     <row r="55">
       <c r="A55" s="3" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>58.8</v>
+        <v>57.7</v>
       </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
@@ -1085,10 +1087,10 @@
     </row>
     <row r="56">
       <c r="A56" s="3" t="n">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>55.7</v>
+        <v>58.8</v>
       </c>
       <c r="C56">
         <f>(B56/B68-1)*100</f>
@@ -1097,10 +1099,10 @@
     </row>
     <row r="57">
       <c r="A57" s="3" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>55.6</v>
+        <v>55.7</v>
       </c>
       <c r="C57">
         <f>(B57/B69-1)*100</f>
@@ -1109,10 +1111,10 @@
     </row>
     <row r="58">
       <c r="A58" s="3" t="n">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>53.7</v>
+        <v>55.6</v>
       </c>
       <c r="C58">
         <f>(B58/B70-1)*100</f>
@@ -1121,10 +1123,10 @@
     </row>
     <row r="59">
       <c r="A59" s="3" t="n">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>52.2</v>
+        <v>53.7</v>
       </c>
       <c r="C59">
         <f>(B59/B71-1)*100</f>
@@ -1133,10 +1135,10 @@
     </row>
     <row r="60">
       <c r="A60" s="3" t="n">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>43.1</v>
+        <v>52.2</v>
       </c>
       <c r="C60">
         <f>(B60/B72-1)*100</f>
@@ -1145,10 +1147,10 @@
     </row>
     <row r="61">
       <c r="A61" s="3" t="n">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>41.7</v>
+        <v>43.1</v>
       </c>
       <c r="C61">
         <f>(B61/B73-1)*100</f>
@@ -1157,10 +1159,10 @@
     </row>
     <row r="62">
       <c r="A62" s="3" t="n">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>49.7</v>
+        <v>41.7</v>
       </c>
       <c r="C62">
         <f>(B62/B74-1)*100</f>
@@ -1169,10 +1171,10 @@
     </row>
     <row r="63">
       <c r="A63" s="3" t="n">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>50.3</v>
+        <v>49.7</v>
       </c>
       <c r="C63">
         <f>(B63/B75-1)*100</f>
@@ -1181,10 +1183,10 @@
     </row>
     <row r="64">
       <c r="A64" s="3" t="n">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>51.1</v>
+        <v>50.3</v>
       </c>
       <c r="C64">
         <f>(B64/B76-1)*100</f>
@@ -1193,10 +1195,10 @@
     </row>
     <row r="65">
       <c r="A65" s="3" t="n">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>47.7</v>
+        <v>51.1</v>
       </c>
       <c r="C65">
         <f>(B65/B77-1)*100</f>
@@ -1205,10 +1207,10 @@
     </row>
     <row r="66">
       <c r="A66" s="3" t="n">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>48.2</v>
+        <v>47.7</v>
       </c>
       <c r="C66">
         <f>(B66/B78-1)*100</f>
@@ -1217,10 +1219,10 @@
     </row>
     <row r="67">
       <c r="A67" s="3" t="n">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="C67">
         <f>(B67/B79-1)*100</f>
@@ -1229,7 +1231,7 @@
     </row>
     <row r="68">
       <c r="A68" s="3" t="n">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B68" s="2" t="n">
         <v>48.3</v>
@@ -1241,10 +1243,10 @@
     </row>
     <row r="69">
       <c r="A69" s="3" t="n">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="C69">
         <f>(B69/B81-1)*100</f>
@@ -1253,10 +1255,10 @@
     </row>
     <row r="70">
       <c r="A70" s="3" t="n">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>51</v>
+        <v>48.4</v>
       </c>
       <c r="C70">
         <f>(B70/B82-1)*100</f>
@@ -1265,10 +1267,10 @@
     </row>
     <row r="71">
       <c r="A71" s="3" t="n">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>51.3</v>
+        <v>51</v>
       </c>
       <c r="C71">
         <f>(B71/B83-1)*100</f>
@@ -1277,10 +1279,10 @@
     </row>
     <row r="72">
       <c r="A72" s="3" t="n">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>52.2</v>
+        <v>51.3</v>
       </c>
       <c r="C72">
         <f>(B72/B84-1)*100</f>
@@ -1289,10 +1291,10 @@
     </row>
     <row r="73">
       <c r="A73" s="3" t="n">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>53.6</v>
+        <v>52.2</v>
       </c>
       <c r="C73">
         <f>(B73/B85-1)*100</f>
@@ -1301,10 +1303,10 @@
     </row>
     <row r="74">
       <c r="A74" s="3" t="n">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>55.3</v>
+        <v>53.6</v>
       </c>
       <c r="C74">
         <f>(B74/B86-1)*100</f>
@@ -1313,10 +1315,10 @@
     </row>
     <row r="75">
       <c r="A75" s="3" t="n">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>54.2</v>
+        <v>55.3</v>
       </c>
       <c r="C75">
         <f>(B75/B87-1)*100</f>
@@ -1325,10 +1327,10 @@
     </row>
     <row r="76">
       <c r="A76" s="3" t="n">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>55.7</v>
+        <v>54.2</v>
       </c>
       <c r="C76">
         <f>(B76/B88-1)*100</f>
@@ -1337,10 +1339,10 @@
     </row>
     <row r="77">
       <c r="A77" s="3" t="n">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>54.8</v>
+        <v>55.7</v>
       </c>
       <c r="C77">
         <f>(B77/B89-1)*100</f>
@@ -1349,10 +1351,10 @@
     </row>
     <row r="78">
       <c r="A78" s="3" t="n">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>58.7</v>
+        <v>54.8</v>
       </c>
       <c r="C78">
         <f>(B78/B90-1)*100</f>
@@ -1361,10 +1363,10 @@
     </row>
     <row r="79">
       <c r="A79" s="3" t="n">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>58.3</v>
+        <v>58.7</v>
       </c>
       <c r="C79">
         <f>(B79/B91-1)*100</f>
@@ -1373,10 +1375,10 @@
     </row>
     <row r="80">
       <c r="A80" s="3" t="n">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>59.5</v>
+        <v>58.3</v>
       </c>
       <c r="C80">
         <f>(B80/B92-1)*100</f>
@@ -1385,10 +1387,10 @@
     </row>
     <row r="81">
       <c r="A81" s="3" t="n">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>60.4</v>
+        <v>59.5</v>
       </c>
       <c r="C81">
         <f>(B81/B93-1)*100</f>
@@ -1397,10 +1399,10 @@
     </row>
     <row r="82">
       <c r="A82" s="3" t="n">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>58</v>
+        <v>60.4</v>
       </c>
       <c r="C82">
         <f>(B82/B94-1)*100</f>
@@ -1409,10 +1411,10 @@
     </row>
     <row r="83">
       <c r="A83" s="3" t="n">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>59.7</v>
+        <v>58</v>
       </c>
       <c r="C83">
         <f>(B83/B95-1)*100</f>
@@ -1421,10 +1423,10 @@
     </row>
     <row r="84">
       <c r="A84" s="3" t="n">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>58.9</v>
+        <v>59.7</v>
       </c>
       <c r="C84">
         <f>(B84/B96-1)*100</f>
@@ -1433,10 +1435,10 @@
     </row>
     <row r="85">
       <c r="A85" s="3" t="n">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>58.6</v>
+        <v>58.9</v>
       </c>
       <c r="C85">
         <f>(B85/B97-1)*100</f>
@@ -1445,10 +1447,10 @@
     </row>
     <row r="86">
       <c r="A86" s="3" t="n">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>59.2</v>
+        <v>58.6</v>
       </c>
       <c r="C86">
         <f>(B86/B98-1)*100</f>
@@ -1457,10 +1459,10 @@
     </row>
     <row r="87">
       <c r="A87" s="3" t="n">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>60.8</v>
+        <v>59.2</v>
       </c>
       <c r="C87">
         <f>(B87/B99-1)*100</f>
@@ -1469,10 +1471,10 @@
     </row>
     <row r="88">
       <c r="A88" s="3" t="n">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>59.4</v>
+        <v>60.8</v>
       </c>
       <c r="C88">
         <f>(B88/B100-1)*100</f>
@@ -1481,10 +1483,10 @@
     </row>
     <row r="89">
       <c r="A89" s="3" t="n">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>59.2</v>
+        <v>59.4</v>
       </c>
       <c r="C89">
         <f>(B89/B101-1)*100</f>
@@ -1493,10 +1495,10 @@
     </row>
     <row r="90">
       <c r="A90" s="3" t="n">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>57.9</v>
+        <v>59.2</v>
       </c>
       <c r="C90">
         <f>(B90/B102-1)*100</f>
@@ -1505,10 +1507,10 @@
     </row>
     <row r="91">
       <c r="A91" s="3" t="n">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>58.6</v>
+        <v>57.9</v>
       </c>
       <c r="C91">
         <f>(B91/B103-1)*100</f>
@@ -1517,10 +1519,10 @@
     </row>
     <row r="92">
       <c r="A92" s="3" t="n">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>59.9</v>
+        <v>58.6</v>
       </c>
       <c r="C92">
         <f>(B92/B104-1)*100</f>
@@ -1529,10 +1531,10 @@
     </row>
     <row r="93">
       <c r="A93" s="3" t="n">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>58.5</v>
+        <v>59.9</v>
       </c>
       <c r="C93">
         <f>(B93/B105-1)*100</f>
@@ -1541,10 +1543,10 @@
     </row>
     <row r="94">
       <c r="A94" s="3" t="n">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>56.5</v>
+        <v>58.5</v>
       </c>
       <c r="C94">
         <f>(B94/B106-1)*100</f>
@@ -1553,10 +1555,10 @@
     </row>
     <row r="95">
       <c r="A95" s="3" t="n">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>56.1</v>
+        <v>56.5</v>
       </c>
       <c r="C95">
         <f>(B95/B107-1)*100</f>
@@ -1565,10 +1567,10 @@
     </row>
     <row r="96">
       <c r="A96" s="3" t="n">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>56.4</v>
+        <v>56.1</v>
       </c>
       <c r="C96">
         <f>(B96/B108-1)*100</f>
@@ -1577,10 +1579,10 @@
     </row>
     <row r="97">
       <c r="A97" s="3" t="n">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>55.7</v>
+        <v>56.4</v>
       </c>
       <c r="C97">
         <f>(B97/B109-1)*100</f>
@@ -1589,10 +1591,10 @@
     </row>
     <row r="98">
       <c r="A98" s="3" t="n">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>56.8</v>
+        <v>55.7</v>
       </c>
       <c r="C98">
         <f>(B98/B110-1)*100</f>
@@ -1601,10 +1603,10 @@
     </row>
     <row r="99">
       <c r="A99" s="3" t="n">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>57.7</v>
+        <v>56.8</v>
       </c>
       <c r="C99">
         <f>(B99/B111-1)*100</f>
@@ -1613,10 +1615,10 @@
     </row>
     <row r="100">
       <c r="A100" s="3" t="n">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>55.7</v>
+        <v>57.7</v>
       </c>
       <c r="C100">
         <f>(B100/B112-1)*100</f>
@@ -1625,10 +1627,10 @@
     </row>
     <row r="101">
       <c r="A101" s="3" t="n">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>54.2</v>
+        <v>55.7</v>
       </c>
       <c r="C101">
         <f>(B101/B113-1)*100</f>
@@ -1637,10 +1639,10 @@
     </row>
     <row r="102">
       <c r="A102" s="3" t="n">
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>53.3</v>
+        <v>54.2</v>
       </c>
       <c r="C102">
         <f>(B102/B114-1)*100</f>
@@ -1649,10 +1651,10 @@
     </row>
     <row r="103">
       <c r="A103" s="3" t="n">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>51.8</v>
+        <v>53.3</v>
       </c>
       <c r="C103">
         <f>(B103/B115-1)*100</f>
@@ -1661,10 +1663,10 @@
     </row>
     <row r="104">
       <c r="A104" s="3" t="n">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>51</v>
+        <v>51.8</v>
       </c>
       <c r="C104">
         <f>(B104/B116-1)*100</f>
@@ -1673,10 +1675,10 @@
     </row>
     <row r="105">
       <c r="A105" s="3" t="n">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>49.7</v>
+        <v>51</v>
       </c>
       <c r="C105">
         <f>(B105/B117-1)*100</f>
@@ -1685,10 +1687,10 @@
     </row>
     <row r="106">
       <c r="A106" s="3" t="n">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>52.4</v>
+        <v>49.7</v>
       </c>
       <c r="C106">
         <f>(B106/B118-1)*100</f>
@@ -1697,7 +1699,7 @@
     </row>
     <row r="107">
       <c r="A107" s="3" t="n">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B107" s="2" t="n">
         <v>52.4</v>
@@ -1709,10 +1711,10 @@
     </row>
     <row r="108">
       <c r="A108" s="3" t="n">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>51.3</v>
+        <v>52.4</v>
       </c>
       <c r="C108">
         <f>(B108/B120-1)*100</f>
@@ -1721,10 +1723,10 @@
     </row>
     <row r="109">
       <c r="A109" s="3" t="n">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B109" s="2" t="n">
-        <v>51</v>
+        <v>51.3</v>
       </c>
       <c r="C109">
         <f>(B109/B121-1)*100</f>
@@ -1733,10 +1735,10 @@
     </row>
     <row r="110">
       <c r="A110" s="3" t="n">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>51.4</v>
+        <v>51</v>
       </c>
       <c r="C110">
         <f>(B110/B122-1)*100</f>
@@ -1745,10 +1747,10 @@
     </row>
     <row r="111">
       <c r="A111" s="3" t="n">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>49.2</v>
+        <v>51.4</v>
       </c>
       <c r="C111">
         <f>(B111/B123-1)*100</f>
@@ -1757,10 +1759,10 @@
     </row>
     <row r="112">
       <c r="A112" s="3" t="n">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>47.5</v>
+        <v>49.2</v>
       </c>
       <c r="C112">
         <f>(B112/B124-1)*100</f>
@@ -1769,10 +1771,10 @@
     </row>
     <row r="113">
       <c r="A113" s="3" t="n">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>48.8</v>
+        <v>47.5</v>
       </c>
       <c r="C113">
         <f>(B113/B125-1)*100</f>
@@ -1781,10 +1783,10 @@
     </row>
     <row r="114">
       <c r="A114" s="3" t="n">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B114" s="2" t="n">
-        <v>49.1</v>
+        <v>48.8</v>
       </c>
       <c r="C114">
         <f>(B114/B126-1)*100</f>
@@ -1793,10 +1795,10 @@
     </row>
     <row r="115">
       <c r="A115" s="3" t="n">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B115" s="2" t="n">
-        <v>49</v>
+        <v>49.1</v>
       </c>
       <c r="C115">
         <f>(B115/B127-1)*100</f>
@@ -1805,10 +1807,10 @@
     </row>
     <row r="116">
       <c r="A116" s="3" t="n">
-        <v>42248</v>
+        <v>42278</v>
       </c>
       <c r="B116" s="2" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C116">
         <f>(B116/B128-1)*100</f>
@@ -1817,7 +1819,7 @@
     </row>
     <row r="117">
       <c r="A117" s="3" t="n">
-        <v>42217</v>
+        <v>42248</v>
       </c>
       <c r="B117" s="2" t="n">
         <v>50</v>
@@ -1829,10 +1831,10 @@
     </row>
     <row r="118">
       <c r="A118" s="3" t="n">
-        <v>42186</v>
+        <v>42217</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>51.9</v>
+        <v>50</v>
       </c>
       <c r="C118">
         <f>(B118/B130-1)*100</f>
@@ -1841,10 +1843,10 @@
     </row>
     <row r="119">
       <c r="A119" s="3" t="n">
-        <v>42156</v>
+        <v>42186</v>
       </c>
       <c r="B119" s="2" t="n">
-        <v>52.6</v>
+        <v>51.9</v>
       </c>
       <c r="C119">
         <f>(B119/B131-1)*100</f>
@@ -1853,10 +1855,10 @@
     </row>
     <row r="120">
       <c r="A120" s="3" t="n">
-        <v>42125</v>
+        <v>42156</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>52.7</v>
+        <v>52.6</v>
       </c>
       <c r="C120">
         <f>(B120/B132-1)*100</f>
@@ -1865,10 +1867,10 @@
     </row>
     <row r="121">
       <c r="A121" s="3" t="n">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="B121" s="2" t="n">
-        <v>52.1</v>
+        <v>52.7</v>
       </c>
       <c r="C121">
         <f>(B121/B133-1)*100</f>
@@ -1877,10 +1879,10 @@
     </row>
     <row r="122">
       <c r="A122" s="3" t="n">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>52.3</v>
+        <v>52.1</v>
       </c>
       <c r="C122">
         <f>(B122/B134-1)*100</f>
@@ -1889,10 +1891,10 @@
     </row>
     <row r="123">
       <c r="A123" s="3" t="n">
-        <v>42036</v>
+        <v>42064</v>
       </c>
       <c r="B123" s="2" t="n">
-        <v>53.1</v>
+        <v>52.3</v>
       </c>
       <c r="C123">
         <f>(B123/B135-1)*100</f>
@@ -1901,10 +1903,10 @@
     </row>
     <row r="124">
       <c r="A124" s="3" t="n">
-        <v>42005</v>
+        <v>42036</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>54</v>
+        <v>53.1</v>
       </c>
       <c r="C124">
         <f>(B124/B136-1)*100</f>
@@ -1913,10 +1915,10 @@
     </row>
     <row r="125">
       <c r="A125" s="3" t="n">
-        <v>41974</v>
+        <v>42005</v>
       </c>
       <c r="B125" s="2" t="n">
-        <v>55.7</v>
+        <v>54</v>
       </c>
       <c r="C125">
         <f>(B125/B137-1)*100</f>
@@ -1925,10 +1927,10 @@
     </row>
     <row r="126">
       <c r="A126" s="3" t="n">
-        <v>41944</v>
+        <v>41974</v>
       </c>
       <c r="B126" s="2" t="n">
-        <v>56.3</v>
+        <v>55.7</v>
       </c>
       <c r="C126">
         <f>(B126/B138-1)*100</f>
@@ -1937,10 +1939,10 @@
     </row>
     <row r="127">
       <c r="A127" s="3" t="n">
-        <v>41913</v>
+        <v>41944</v>
       </c>
       <c r="B127" s="2" t="n">
-        <v>56.2</v>
+        <v>56.3</v>
       </c>
       <c r="C127">
         <f>(B127/B139-1)*100</f>
@@ -1949,10 +1951,10 @@
     </row>
     <row r="128">
       <c r="A128" s="3" t="n">
-        <v>41883</v>
+        <v>41913</v>
       </c>
       <c r="B128" s="2" t="n">
-        <v>55.7</v>
+        <v>56.2</v>
       </c>
       <c r="C128">
         <f>(B128/B140-1)*100</f>
@@ -1961,10 +1963,10 @@
     </row>
     <row r="129">
       <c r="A129" s="3" t="n">
-        <v>41852</v>
+        <v>41883</v>
       </c>
       <c r="B129" s="2" t="n">
-        <v>56.3</v>
+        <v>55.7</v>
       </c>
       <c r="C129">
         <f>(B129/B141-1)*100</f>
@@ -1973,10 +1975,10 @@
     </row>
     <row r="130">
       <c r="A130" s="3" t="n">
-        <v>41821</v>
+        <v>41852</v>
       </c>
       <c r="B130" s="2" t="n">
-        <v>55.1</v>
+        <v>56.3</v>
       </c>
       <c r="C130">
         <f>(B130/B142-1)*100</f>
@@ -1985,10 +1987,10 @@
     </row>
     <row r="131">
       <c r="A131" s="3" t="n">
-        <v>41791</v>
+        <v>41821</v>
       </c>
       <c r="B131" s="2" t="n">
-        <v>55</v>
+        <v>55.1</v>
       </c>
       <c r="C131">
         <f>(B131/B143-1)*100</f>
@@ -1997,10 +1999,10 @@
     </row>
     <row r="132">
       <c r="A132" s="3" t="n">
-        <v>41760</v>
+        <v>41791</v>
       </c>
       <c r="B132" s="2" t="n">
-        <v>55.7</v>
+        <v>55</v>
       </c>
       <c r="C132">
         <f>(B132/B144-1)*100</f>
@@ -2009,10 +2011,10 @@
     </row>
     <row r="133">
       <c r="A133" s="3" t="n">
-        <v>41730</v>
+        <v>41760</v>
       </c>
       <c r="B133" s="2" t="n">
-        <v>56.6</v>
+        <v>55.7</v>
       </c>
       <c r="C133">
         <f>(B133/B145-1)*100</f>
@@ -2021,10 +2023,10 @@
     </row>
     <row r="134">
       <c r="A134" s="3" t="n">
-        <v>41699</v>
+        <v>41730</v>
       </c>
       <c r="B134" s="2" t="n">
-        <v>55.9</v>
+        <v>56.6</v>
       </c>
       <c r="C134">
         <f>(B134/B146-1)*100</f>
@@ -2033,10 +2035,10 @@
     </row>
     <row r="135">
       <c r="A135" s="3" t="n">
-        <v>41671</v>
+        <v>41699</v>
       </c>
       <c r="B135" s="2" t="n">
-        <v>55</v>
+        <v>55.9</v>
       </c>
       <c r="C135">
         <f>(B135/B147-1)*100</f>
@@ -2045,10 +2047,10 @@
     </row>
     <row r="136">
       <c r="A136" s="3" t="n">
-        <v>41640</v>
+        <v>41671</v>
       </c>
       <c r="B136" s="2" t="n">
-        <v>52.5</v>
+        <v>55</v>
       </c>
       <c r="C136">
         <f>(B136/B148-1)*100</f>
@@ -2057,10 +2059,10 @@
     </row>
     <row r="137">
       <c r="A137" s="3" t="n">
-        <v>41609</v>
+        <v>41640</v>
       </c>
       <c r="B137" s="2" t="n">
-        <v>56.5</v>
+        <v>52.5</v>
       </c>
       <c r="C137">
         <f>(B137/B149-1)*100</f>
@@ -2069,10 +2071,10 @@
     </row>
     <row r="138">
       <c r="A138" s="3" t="n">
-        <v>41579</v>
+        <v>41609</v>
       </c>
       <c r="B138" s="2" t="n">
-        <v>55.5</v>
+        <v>56.5</v>
       </c>
       <c r="C138">
         <f>(B138/B150-1)*100</f>
@@ -2081,10 +2083,10 @@
     </row>
     <row r="139">
       <c r="A139" s="3" t="n">
-        <v>41548</v>
+        <v>41579</v>
       </c>
       <c r="B139" s="2" t="n">
-        <v>54.6</v>
+        <v>55.5</v>
       </c>
       <c r="C139">
         <f>(B139/B151-1)*100</f>
@@ -2093,7 +2095,7 @@
     </row>
     <row r="140">
       <c r="A140" s="3" t="n">
-        <v>41518</v>
+        <v>41548</v>
       </c>
       <c r="B140" s="2" t="n">
         <v>54.6</v>
@@ -2105,10 +2107,10 @@
     </row>
     <row r="141">
       <c r="A141" s="3" t="n">
-        <v>41487</v>
+        <v>41518</v>
       </c>
       <c r="B141" s="2" t="n">
-        <v>54</v>
+        <v>54.6</v>
       </c>
       <c r="C141">
         <f>(B141/B153-1)*100</f>
@@ -2117,10 +2119,10 @@
     </row>
     <row r="142">
       <c r="A142" s="3" t="n">
-        <v>41456</v>
+        <v>41487</v>
       </c>
       <c r="B142" s="2" t="n">
-        <v>53.8</v>
+        <v>54</v>
       </c>
       <c r="C142">
         <f>(B142/B154-1)*100</f>
@@ -2129,10 +2131,10 @@
     </row>
     <row r="143">
       <c r="A143" s="3" t="n">
-        <v>41426</v>
+        <v>41456</v>
       </c>
       <c r="B143" s="2" t="n">
-        <v>51.1</v>
+        <v>53.8</v>
       </c>
       <c r="C143">
         <f>(B143/B155-1)*100</f>
@@ -2141,10 +2143,10 @@
     </row>
     <row r="144">
       <c r="A144" s="3" t="n">
-        <v>41395</v>
+        <v>41426</v>
       </c>
       <c r="B144" s="2" t="n">
-        <v>50.8</v>
+        <v>51.1</v>
       </c>
       <c r="C144">
         <f>(B144/B156-1)*100</f>
@@ -2153,10 +2155,10 @@
     </row>
     <row r="145">
       <c r="A145" s="3" t="n">
-        <v>41365</v>
+        <v>41395</v>
       </c>
       <c r="B145" s="2" t="n">
-        <v>51</v>
+        <v>50.8</v>
       </c>
       <c r="C145">
         <f>(B145/B157-1)*100</f>
@@ -2165,10 +2167,10 @@
     </row>
     <row r="146">
       <c r="A146" s="3" t="n">
-        <v>41334</v>
+        <v>41365</v>
       </c>
       <c r="B146" s="2" t="n">
-        <v>51.9</v>
+        <v>51</v>
       </c>
       <c r="C146">
         <f>(B146/B158-1)*100</f>
@@ -2177,10 +2179,10 @@
     </row>
     <row r="147">
       <c r="A147" s="3" t="n">
-        <v>41306</v>
+        <v>41334</v>
       </c>
       <c r="B147" s="2" t="n">
-        <v>54.2</v>
+        <v>51.9</v>
       </c>
       <c r="C147">
         <f>(B147/B159-1)*100</f>
@@ -2189,10 +2191,10 @@
     </row>
     <row r="148">
       <c r="A148" s="3" t="n">
-        <v>41275</v>
+        <v>41306</v>
       </c>
       <c r="B148" s="2" t="n">
-        <v>53.3</v>
+        <v>54.2</v>
       </c>
       <c r="C148">
         <f>(B148/B160-1)*100</f>
@@ -2201,10 +2203,10 @@
     </row>
     <row r="149">
       <c r="A149" s="3" t="n">
-        <v>41244</v>
+        <v>41275</v>
       </c>
       <c r="B149" s="2" t="n">
-        <v>50.1</v>
+        <v>53.3</v>
       </c>
       <c r="C149">
         <f>(B149/B161-1)*100</f>
@@ -2213,10 +2215,10 @@
     </row>
     <row r="150">
       <c r="A150" s="3" t="n">
-        <v>41214</v>
+        <v>41244</v>
       </c>
       <c r="B150" s="2" t="n">
-        <v>48</v>
+        <v>50.1</v>
       </c>
       <c r="C150">
         <f>(B150/B162-1)*100</f>
@@ -2225,10 +2227,10 @@
     </row>
     <row r="151">
       <c r="A151" s="3" t="n">
-        <v>41183</v>
+        <v>41214</v>
       </c>
       <c r="B151" s="2" t="n">
-        <v>50.5</v>
+        <v>48</v>
       </c>
       <c r="C151">
         <f>(B151/B163-1)*100</f>
@@ -2237,10 +2239,10 @@
     </row>
     <row r="152">
       <c r="A152" s="3" t="n">
-        <v>41153</v>
+        <v>41183</v>
       </c>
       <c r="B152" s="2" t="n">
-        <v>50.8</v>
+        <v>50.5</v>
       </c>
       <c r="C152">
         <f>(B152/B164-1)*100</f>
@@ -2249,10 +2251,10 @@
     </row>
     <row r="153">
       <c r="A153" s="3" t="n">
-        <v>41122</v>
+        <v>41153</v>
       </c>
       <c r="B153" s="2" t="n">
-        <v>49</v>
+        <v>50.8</v>
       </c>
       <c r="C153">
         <f>(B153/B165-1)*100</f>
@@ -2261,10 +2263,10 @@
     </row>
     <row r="154">
       <c r="A154" s="3" t="n">
-        <v>41091</v>
+        <v>41122</v>
       </c>
       <c r="B154" s="2" t="n">
-        <v>49.6</v>
+        <v>49</v>
       </c>
       <c r="C154">
         <f>(B154/B166-1)*100</f>
@@ -2273,10 +2275,10 @@
     </row>
     <row r="155">
       <c r="A155" s="3" t="n">
-        <v>41061</v>
+        <v>41091</v>
       </c>
       <c r="B155" s="2" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="C155">
         <f>(B155/B167-1)*100</f>
@@ -2285,10 +2287,10 @@
     </row>
     <row r="156">
       <c r="A156" s="3" t="n">
-        <v>41030</v>
+        <v>41061</v>
       </c>
       <c r="B156" s="2" t="n">
-        <v>53.2</v>
+        <v>49.5</v>
       </c>
       <c r="C156">
         <f>(B156/B168-1)*100</f>
@@ -2297,10 +2299,10 @@
     </row>
     <row r="157">
       <c r="A157" s="3" t="n">
-        <v>41000</v>
+        <v>41030</v>
       </c>
       <c r="B157" s="2" t="n">
-        <v>55.2</v>
+        <v>53.2</v>
       </c>
       <c r="C157">
         <f>(B157/B169-1)*100</f>
@@ -2309,10 +2311,10 @@
     </row>
     <row r="158">
       <c r="A158" s="3" t="n">
-        <v>40969</v>
+        <v>41000</v>
       </c>
       <c r="B158" s="2" t="n">
-        <v>53.5</v>
+        <v>55.2</v>
       </c>
       <c r="C158">
         <f>(B158/B170-1)*100</f>
@@ -2321,10 +2323,10 @@
     </row>
     <row r="159">
       <c r="A159" s="3" t="n">
-        <v>40940</v>
+        <v>40969</v>
       </c>
       <c r="B159" s="2" t="n">
-        <v>53.3</v>
+        <v>53.5</v>
       </c>
       <c r="C159">
         <f>(B159/B171-1)*100</f>
@@ -2333,10 +2335,10 @@
     </row>
     <row r="160">
       <c r="A160" s="3" t="n">
-        <v>40909</v>
+        <v>40940</v>
       </c>
       <c r="B160" s="2" t="n">
-        <v>54.2</v>
+        <v>53.3</v>
       </c>
       <c r="C160">
         <f>(B160/B172-1)*100</f>
@@ -2345,10 +2347,10 @@
     </row>
     <row r="161">
       <c r="A161" s="3" t="n">
-        <v>40878</v>
+        <v>40909</v>
       </c>
       <c r="B161" s="2" t="n">
-        <v>53</v>
+        <v>54.2</v>
       </c>
       <c r="C161">
         <f>(B161/B173-1)*100</f>
@@ -2357,10 +2359,10 @@
     </row>
     <row r="162">
       <c r="A162" s="3" t="n">
-        <v>40848</v>
+        <v>40878</v>
       </c>
       <c r="B162" s="2" t="n">
-        <v>51.8</v>
+        <v>53</v>
       </c>
       <c r="C162">
         <f>(B162/B174-1)*100</f>
@@ -2369,10 +2371,10 @@
     </row>
     <row r="163">
       <c r="A163" s="3" t="n">
-        <v>40817</v>
+        <v>40848</v>
       </c>
       <c r="B163" s="2" t="n">
-        <v>51.4</v>
+        <v>51.8</v>
       </c>
       <c r="C163">
         <f>(B163/B175-1)*100</f>
@@ -2381,10 +2383,10 @@
     </row>
     <row r="164">
       <c r="A164" s="3" t="n">
-        <v>40787</v>
+        <v>40817</v>
       </c>
       <c r="B164" s="2" t="n">
-        <v>53.7</v>
+        <v>51.4</v>
       </c>
       <c r="C164">
         <f>(B164/B176-1)*100</f>
@@ -2393,10 +2395,10 @@
     </row>
     <row r="165">
       <c r="A165" s="3" t="n">
-        <v>40756</v>
+        <v>40787</v>
       </c>
       <c r="B165" s="2" t="n">
-        <v>52.6</v>
+        <v>53.7</v>
       </c>
       <c r="C165">
         <f>(B165/B177-1)*100</f>
@@ -2405,10 +2407,10 @@
     </row>
     <row r="166">
       <c r="A166" s="3" t="n">
-        <v>40725</v>
+        <v>40756</v>
       </c>
       <c r="B166" s="2" t="n">
-        <v>52.9</v>
+        <v>52.6</v>
       </c>
       <c r="C166">
         <f>(B166/B178-1)*100</f>
@@ -2417,10 +2419,10 @@
     </row>
     <row r="167">
       <c r="A167" s="3" t="n">
-        <v>40695</v>
+        <v>40725</v>
       </c>
       <c r="B167" s="2" t="n">
-        <v>55.8</v>
+        <v>52.9</v>
       </c>
       <c r="C167">
         <f>(B167/B179-1)*100</f>
@@ -2429,10 +2431,10 @@
     </row>
     <row r="168">
       <c r="A168" s="3" t="n">
-        <v>40664</v>
+        <v>40695</v>
       </c>
       <c r="B168" s="2" t="n">
-        <v>54.8</v>
+        <v>55.8</v>
       </c>
       <c r="C168">
         <f>(B168/B180-1)*100</f>
@@ -2441,10 +2443,10 @@
     </row>
     <row r="169">
       <c r="A169" s="3" t="n">
-        <v>40634</v>
+        <v>40664</v>
       </c>
       <c r="B169" s="2" t="n">
-        <v>57.9</v>
+        <v>54.8</v>
       </c>
       <c r="C169">
         <f>(B169/B181-1)*100</f>
@@ -2453,10 +2455,10 @@
     </row>
     <row r="170">
       <c r="A170" s="3" t="n">
-        <v>40603</v>
+        <v>40634</v>
       </c>
       <c r="B170" s="2" t="n">
-        <v>58.4</v>
+        <v>57.9</v>
       </c>
       <c r="C170">
         <f>(B170/B182-1)*100</f>
@@ -2465,10 +2467,10 @@
     </row>
     <row r="171">
       <c r="A171" s="3" t="n">
-        <v>40575</v>
+        <v>40603</v>
       </c>
       <c r="B171" s="2" t="n">
-        <v>59.2</v>
+        <v>58.4</v>
       </c>
       <c r="C171">
         <f>(B171/B183-1)*100</f>
@@ -2477,10 +2479,10 @@
     </row>
     <row r="172">
       <c r="A172" s="3" t="n">
-        <v>40544</v>
+        <v>40575</v>
       </c>
       <c r="B172" s="2" t="n">
-        <v>59.1</v>
+        <v>59.2</v>
       </c>
       <c r="C172">
         <f>(B172/B184-1)*100</f>
@@ -2489,10 +2491,10 @@
     </row>
     <row r="173">
       <c r="A173" s="3" t="n">
-        <v>40513</v>
+        <v>40544</v>
       </c>
       <c r="B173" s="2" t="n">
-        <v>56.6</v>
+        <v>59.1</v>
       </c>
       <c r="C173">
         <f>(B173/B185-1)*100</f>
@@ -2501,10 +2503,10 @@
     </row>
     <row r="174">
       <c r="A174" s="3" t="n">
-        <v>40483</v>
+        <v>40513</v>
       </c>
       <c r="B174" s="2" t="n">
-        <v>57.3</v>
+        <v>56.6</v>
       </c>
       <c r="C174">
         <f>(B174/B186-1)*100</f>
@@ -2513,10 +2515,10 @@
     </row>
     <row r="175">
       <c r="A175" s="3" t="n">
-        <v>40452</v>
+        <v>40483</v>
       </c>
       <c r="B175" s="2" t="n">
-        <v>56.9</v>
+        <v>57.3</v>
       </c>
       <c r="C175">
         <f>(B175/B187-1)*100</f>
@@ -2525,10 +2527,10 @@
     </row>
     <row r="176">
       <c r="A176" s="3" t="n">
-        <v>40422</v>
+        <v>40452</v>
       </c>
       <c r="B176" s="2" t="n">
-        <v>55.3</v>
+        <v>56.9</v>
       </c>
       <c r="C176">
         <f>(B176/B188-1)*100</f>
@@ -2537,10 +2539,10 @@
     </row>
     <row r="177">
       <c r="A177" s="3" t="n">
-        <v>40391</v>
+        <v>40422</v>
       </c>
       <c r="B177" s="2" t="n">
-        <v>56.4</v>
+        <v>55.3</v>
       </c>
       <c r="C177">
         <f>(B177/B189-1)*100</f>
@@ -2549,10 +2551,10 @@
     </row>
     <row r="178">
       <c r="A178" s="3" t="n">
-        <v>40360</v>
+        <v>40391</v>
       </c>
       <c r="B178" s="2" t="n">
-        <v>56.1</v>
+        <v>56.4</v>
       </c>
       <c r="C178">
         <f>(B178/B190-1)*100</f>
@@ -2561,10 +2563,10 @@
     </row>
     <row r="179">
       <c r="A179" s="3" t="n">
-        <v>40330</v>
+        <v>40360</v>
       </c>
       <c r="B179" s="2" t="n">
-        <v>56.5</v>
+        <v>56.1</v>
       </c>
       <c r="C179">
         <f>(B179/B191-1)*100</f>
@@ -2573,10 +2575,10 @@
     </row>
     <row r="180">
       <c r="A180" s="3" t="n">
-        <v>40299</v>
+        <v>40330</v>
       </c>
       <c r="B180" s="2" t="n">
-        <v>57.4</v>
+        <v>56.5</v>
       </c>
       <c r="C180">
         <f>(B180/B192-1)*100</f>
@@ -2585,10 +2587,10 @@
     </row>
     <row r="181">
       <c r="A181" s="3" t="n">
-        <v>40269</v>
+        <v>40299</v>
       </c>
       <c r="B181" s="2" t="n">
-        <v>58.1</v>
+        <v>57.4</v>
       </c>
       <c r="C181">
         <f>(B181/B193-1)*100</f>
@@ -2597,10 +2599,10 @@
     </row>
     <row r="182">
       <c r="A182" s="3" t="n">
-        <v>40238</v>
+        <v>40269</v>
       </c>
       <c r="B182" s="2" t="n">
-        <v>58.8</v>
+        <v>58.1</v>
       </c>
       <c r="C182">
         <f>(B182/B194-1)*100</f>
@@ -2609,10 +2611,10 @@
     </row>
     <row r="183">
       <c r="A183" s="3" t="n">
-        <v>40210</v>
+        <v>40238</v>
       </c>
       <c r="B183" s="2" t="n">
-        <v>55.5</v>
+        <v>58.8</v>
       </c>
       <c r="C183">
         <f>(B183/B195-1)*100</f>
@@ -2621,10 +2623,10 @@
     </row>
     <row r="184">
       <c r="A184" s="3" t="n">
-        <v>40179</v>
+        <v>40210</v>
       </c>
       <c r="B184" s="2" t="n">
-        <v>56.3</v>
+        <v>55.5</v>
       </c>
       <c r="C184">
         <f>(B184/B196-1)*100</f>
@@ -2633,10 +2635,10 @@
     </row>
     <row r="185">
       <c r="A185" s="3" t="n">
-        <v>40148</v>
+        <v>40179</v>
       </c>
       <c r="B185" s="2" t="n">
-        <v>55.8</v>
+        <v>56.3</v>
       </c>
       <c r="C185">
         <f>(B185/B197-1)*100</f>
@@ -2645,10 +2647,10 @@
     </row>
     <row r="186">
       <c r="A186" s="3" t="n">
-        <v>40118</v>
+        <v>40148</v>
       </c>
       <c r="B186" s="2" t="n">
-        <v>55.4</v>
+        <v>55.8</v>
       </c>
       <c r="C186">
         <f>(B186/B198-1)*100</f>
@@ -2657,10 +2659,10 @@
     </row>
     <row r="187">
       <c r="A187" s="3" t="n">
-        <v>40087</v>
+        <v>40118</v>
       </c>
       <c r="B187" s="2" t="n">
-        <v>57.6</v>
+        <v>55.4</v>
       </c>
       <c r="C187">
         <f>(B187/B199-1)*100</f>
@@ -2669,10 +2671,10 @@
     </row>
     <row r="188">
       <c r="A188" s="3" t="n">
-        <v>40057</v>
+        <v>40087</v>
       </c>
       <c r="B188" s="2" t="n">
-        <v>54.9</v>
+        <v>57.6</v>
       </c>
       <c r="C188">
         <f>(B188/B200-1)*100</f>
@@ -2681,10 +2683,10 @@
     </row>
     <row r="189">
       <c r="A189" s="3" t="n">
-        <v>40026</v>
+        <v>40057</v>
       </c>
       <c r="B189" s="2" t="n">
-        <v>53.4</v>
+        <v>54.9</v>
       </c>
       <c r="C189">
         <f>(B189/B201-1)*100</f>
@@ -2693,10 +2695,10 @@
     </row>
     <row r="190">
       <c r="A190" s="3" t="n">
-        <v>39995</v>
+        <v>40026</v>
       </c>
       <c r="B190" s="2" t="n">
-        <v>49.7</v>
+        <v>53.4</v>
       </c>
       <c r="C190">
         <f>(B190/B202-1)*100</f>
@@ -2705,10 +2707,10 @@
     </row>
     <row r="191">
       <c r="A191" s="3" t="n">
-        <v>39965</v>
+        <v>39995</v>
       </c>
       <c r="B191" s="2" t="n">
-        <v>46.3</v>
+        <v>49.7</v>
       </c>
       <c r="C191">
         <f>(B191/B203-1)*100</f>
@@ -2717,10 +2719,10 @@
     </row>
     <row r="192">
       <c r="A192" s="3" t="n">
-        <v>39934</v>
+        <v>39965</v>
       </c>
       <c r="B192" s="2" t="n">
-        <v>44.1</v>
+        <v>46.3</v>
       </c>
       <c r="C192">
         <f>(B192/B204-1)*100</f>
@@ -2729,10 +2731,10 @@
     </row>
     <row r="193">
       <c r="A193" s="3" t="n">
-        <v>39904</v>
+        <v>39934</v>
       </c>
       <c r="B193" s="2" t="n">
-        <v>39.9</v>
+        <v>44.1</v>
       </c>
       <c r="C193">
         <f>(B193/B205-1)*100</f>
@@ -2741,10 +2743,10 @@
     </row>
     <row r="194">
       <c r="A194" s="3" t="n">
-        <v>39873</v>
+        <v>39904</v>
       </c>
       <c r="B194" s="2" t="n">
-        <v>37.2</v>
+        <v>39.9</v>
       </c>
       <c r="C194">
         <f>(B194/B206-1)*100</f>
@@ -2753,10 +2755,10 @@
     </row>
     <row r="195">
       <c r="A195" s="3" t="n">
-        <v>39845</v>
+        <v>39873</v>
       </c>
       <c r="B195" s="2" t="n">
-        <v>36.6</v>
+        <v>37.2</v>
       </c>
       <c r="C195">
         <f>(B195/B207-1)*100</f>
@@ -2765,10 +2767,10 @@
     </row>
     <row r="196">
       <c r="A196" s="3" t="n">
-        <v>39814</v>
+        <v>39845</v>
       </c>
       <c r="B196" s="2" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="C196">
         <f>(B196/B208-1)*100</f>
@@ -2777,10 +2779,10 @@
     </row>
     <row r="197">
       <c r="A197" s="3" t="n">
-        <v>39783</v>
+        <v>39814</v>
       </c>
       <c r="B197" s="2" t="n">
-        <v>34.5</v>
+        <v>36.4</v>
       </c>
       <c r="C197">
         <f>(B197/B209-1)*100</f>
@@ -2789,10 +2791,10 @@
     </row>
     <row r="198">
       <c r="A198" s="3" t="n">
-        <v>39753</v>
+        <v>39783</v>
       </c>
       <c r="B198" s="2" t="n">
-        <v>39</v>
+        <v>34.5</v>
       </c>
       <c r="C198">
         <f>(B198/B210-1)*100</f>
@@ -2801,10 +2803,10 @@
     </row>
     <row r="199">
       <c r="A199" s="3" t="n">
-        <v>39722</v>
+        <v>39753</v>
       </c>
       <c r="B199" s="2" t="n">
-        <v>38.2</v>
+        <v>39</v>
       </c>
       <c r="C199">
         <f>(B199/B211-1)*100</f>
@@ -2813,10 +2815,10 @@
     </row>
     <row r="200">
       <c r="A200" s="3" t="n">
-        <v>39692</v>
+        <v>39722</v>
       </c>
       <c r="B200" s="2" t="n">
-        <v>47.2</v>
+        <v>38.2</v>
       </c>
       <c r="C200">
         <f>(B200/B212-1)*100</f>
@@ -2825,10 +2827,10 @@
     </row>
     <row r="201">
       <c r="A201" s="3" t="n">
-        <v>39661</v>
+        <v>39692</v>
       </c>
       <c r="B201" s="2" t="n">
-        <v>50.1</v>
+        <v>47.2</v>
       </c>
       <c r="C201">
         <f>(B201/B213-1)*100</f>
@@ -2837,10 +2839,10 @@
     </row>
     <row r="202">
       <c r="A202" s="3" t="n">
-        <v>39630</v>
+        <v>39661</v>
       </c>
       <c r="B202" s="2" t="n">
-        <v>50.8</v>
+        <v>50.1</v>
       </c>
       <c r="C202">
         <f>(B202/B214-1)*100</f>
@@ -2849,10 +2851,10 @@
     </row>
     <row r="203">
       <c r="A203" s="3" t="n">
-        <v>39600</v>
+        <v>39630</v>
       </c>
       <c r="B203" s="2" t="n">
-        <v>49.9</v>
+        <v>50.8</v>
       </c>
       <c r="C203">
         <f>(B203/B215-1)*100</f>
@@ -2861,10 +2863,10 @@
     </row>
     <row r="204">
       <c r="A204" s="3" t="n">
-        <v>39569</v>
+        <v>39600</v>
       </c>
       <c r="B204" s="2" t="n">
-        <v>48.9</v>
+        <v>49.9</v>
       </c>
       <c r="C204">
         <f>(B204/B216-1)*100</f>
@@ -2873,10 +2875,10 @@
     </row>
     <row r="205">
       <c r="A205" s="3" t="n">
-        <v>39539</v>
+        <v>39569</v>
       </c>
       <c r="B205" s="2" t="n">
-        <v>48.5</v>
+        <v>48.9</v>
       </c>
       <c r="C205">
         <f>(B205/B217-1)*100</f>
@@ -2885,10 +2887,10 @@
     </row>
     <row r="206">
       <c r="A206" s="3" t="n">
-        <v>39508</v>
+        <v>39539</v>
       </c>
       <c r="B206" s="2" t="n">
-        <v>49.7</v>
+        <v>48.5</v>
       </c>
       <c r="C206">
         <f>(B206/B218-1)*100</f>
@@ -2897,10 +2899,10 @@
     </row>
     <row r="207">
       <c r="A207" s="3" t="n">
-        <v>39479</v>
+        <v>39508</v>
       </c>
       <c r="B207" s="2" t="n">
-        <v>48.8</v>
+        <v>49.7</v>
       </c>
       <c r="C207">
         <f>(B207/B219-1)*100</f>
@@ -2909,10 +2911,10 @@
     </row>
     <row r="208">
       <c r="A208" s="3" t="n">
-        <v>39448</v>
+        <v>39479</v>
       </c>
       <c r="B208" s="2" t="n">
-        <v>50.9</v>
+        <v>48.8</v>
       </c>
       <c r="C208">
         <f>(B208/B220-1)*100</f>
@@ -2921,10 +2923,10 @@
     </row>
     <row r="209">
       <c r="A209" s="3" t="n">
-        <v>39417</v>
+        <v>39448</v>
       </c>
       <c r="B209" s="2" t="n">
-        <v>50.1</v>
+        <v>50.9</v>
       </c>
       <c r="C209">
         <f>(B209/B221-1)*100</f>
@@ -2933,10 +2935,10 @@
     </row>
     <row r="210">
       <c r="A210" s="3" t="n">
-        <v>39387</v>
+        <v>39417</v>
       </c>
       <c r="B210" s="2" t="n">
-        <v>51.5</v>
+        <v>50.1</v>
       </c>
       <c r="C210">
         <f>(B210/B222-1)*100</f>
@@ -2945,10 +2947,10 @@
     </row>
     <row r="211">
       <c r="A211" s="3" t="n">
-        <v>39356</v>
+        <v>39387</v>
       </c>
       <c r="B211" s="2" t="n">
-        <v>52.8</v>
+        <v>51.5</v>
       </c>
       <c r="C211">
         <f>(B211/B223-1)*100</f>
@@ -2957,10 +2959,10 @@
     </row>
     <row r="212">
       <c r="A212" s="3" t="n">
-        <v>39326</v>
+        <v>39356</v>
       </c>
       <c r="B212" s="2" t="n">
-        <v>53.8</v>
+        <v>52.8</v>
       </c>
       <c r="C212">
         <f>(B212/B224-1)*100</f>
@@ -2969,10 +2971,10 @@
     </row>
     <row r="213">
       <c r="A213" s="3" t="n">
-        <v>39295</v>
+        <v>39326</v>
       </c>
       <c r="B213" s="2" t="n">
-        <v>52.2</v>
+        <v>53.8</v>
       </c>
       <c r="C213">
         <f>(B213/B225-1)*100</f>
@@ -2981,10 +2983,10 @@
     </row>
     <row r="214">
       <c r="A214" s="3" t="n">
-        <v>39264</v>
+        <v>39295</v>
       </c>
       <c r="B214" s="2" t="n">
-        <v>51.8</v>
+        <v>52.2</v>
       </c>
       <c r="C214">
         <f>(B214/B226-1)*100</f>
@@ -2993,10 +2995,10 @@
     </row>
     <row r="215">
       <c r="A215" s="3" t="n">
-        <v>39234</v>
+        <v>39264</v>
       </c>
       <c r="B215" s="2" t="n">
-        <v>54</v>
+        <v>51.8</v>
       </c>
       <c r="C215">
         <f>(B215/B227-1)*100</f>
@@ -3005,10 +3007,10 @@
     </row>
     <row r="216">
       <c r="A216" s="3" t="n">
-        <v>39203</v>
+        <v>39234</v>
       </c>
       <c r="B216" s="2" t="n">
-        <v>53.1</v>
+        <v>54</v>
       </c>
       <c r="C216">
         <f>(B216/B228-1)*100</f>
@@ -3017,10 +3019,10 @@
     </row>
     <row r="217">
       <c r="A217" s="3" t="n">
-        <v>39173</v>
+        <v>39203</v>
       </c>
       <c r="B217" s="2" t="n">
-        <v>52.7</v>
+        <v>53.1</v>
       </c>
       <c r="C217">
         <f>(B217/B229-1)*100</f>
@@ -3029,10 +3031,10 @@
     </row>
     <row r="218">
       <c r="A218" s="3" t="n">
-        <v>39142</v>
+        <v>39173</v>
       </c>
       <c r="B218" s="2" t="n">
-        <v>52.8</v>
+        <v>52.7</v>
       </c>
       <c r="C218">
         <f>(B218/B230-1)*100</f>
@@ -3041,10 +3043,10 @@
     </row>
     <row r="219">
       <c r="A219" s="3" t="n">
-        <v>39114</v>
+        <v>39142</v>
       </c>
       <c r="B219" s="2" t="n">
-        <v>54.1</v>
+        <v>52.8</v>
       </c>
       <c r="C219">
         <f>(B219/B231-1)*100</f>
@@ -3053,10 +3055,10 @@
     </row>
     <row r="220">
       <c r="A220" s="3" t="n">
-        <v>39083</v>
+        <v>39114</v>
       </c>
       <c r="B220" s="2" t="n">
-        <v>50.4</v>
+        <v>54.1</v>
       </c>
       <c r="C220">
         <f>(B220/B232-1)*100</f>
@@ -3065,10 +3067,10 @@
     </row>
     <row r="221">
       <c r="A221" s="3" t="n">
-        <v>39052</v>
+        <v>39083</v>
       </c>
       <c r="B221" s="2" t="n">
-        <v>51.4</v>
+        <v>50.4</v>
       </c>
       <c r="C221">
         <f>(B221/B233-1)*100</f>
@@ -3077,10 +3079,10 @@
     </row>
     <row r="222">
       <c r="A222" s="3" t="n">
-        <v>39022</v>
+        <v>39052</v>
       </c>
       <c r="B222" s="2" t="n">
-        <v>50.3</v>
+        <v>51.4</v>
       </c>
       <c r="C222">
         <f>(B222/B234-1)*100</f>
@@ -3089,10 +3091,10 @@
     </row>
     <row r="223">
       <c r="A223" s="3" t="n">
-        <v>38991</v>
+        <v>39022</v>
       </c>
       <c r="B223" s="2" t="n">
-        <v>51.4</v>
+        <v>50.3</v>
       </c>
       <c r="C223">
         <f>(B223/B235-1)*100</f>
@@ -3101,10 +3103,10 @@
     </row>
     <row r="224">
       <c r="A224" s="3" t="n">
-        <v>38961</v>
+        <v>38991</v>
       </c>
       <c r="B224" s="2" t="n">
-        <v>52.2</v>
+        <v>51.4</v>
       </c>
       <c r="C224">
         <f>(B224/B236-1)*100</f>
@@ -3113,10 +3115,10 @@
     </row>
     <row r="225">
       <c r="A225" s="3" t="n">
-        <v>38930</v>
+        <v>38961</v>
       </c>
       <c r="B225" s="2" t="n">
-        <v>53.7</v>
+        <v>52.2</v>
       </c>
       <c r="C225">
         <f>(B225/B237-1)*100</f>
@@ -3125,10 +3127,10 @@
     </row>
     <row r="226">
       <c r="A226" s="3" t="n">
-        <v>38899</v>
+        <v>38930</v>
       </c>
       <c r="B226" s="2" t="n">
-        <v>53</v>
+        <v>53.7</v>
       </c>
       <c r="C226">
         <f>(B226/B238-1)*100</f>
@@ -3137,10 +3139,10 @@
     </row>
     <row r="227">
       <c r="A227" s="3" t="n">
-        <v>38869</v>
+        <v>38899</v>
       </c>
       <c r="B227" s="2" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C227">
         <f>(B227/B239-1)*100</f>
@@ -3149,10 +3151,10 @@
     </row>
     <row r="228">
       <c r="A228" s="3" t="n">
-        <v>38838</v>
+        <v>38869</v>
       </c>
       <c r="B228" s="2" t="n">
-        <v>53.7</v>
+        <v>52</v>
       </c>
       <c r="C228">
         <f>(B228/B240-1)*100</f>
@@ -3161,10 +3163,10 @@
     </row>
     <row r="229">
       <c r="A229" s="3" t="n">
-        <v>38808</v>
+        <v>38838</v>
       </c>
       <c r="B229" s="2" t="n">
-        <v>55.2</v>
+        <v>53.7</v>
       </c>
       <c r="C229">
         <f>(B229/B241-1)*100</f>
@@ -3173,10 +3175,10 @@
     </row>
     <row r="230">
       <c r="A230" s="3" t="n">
-        <v>38777</v>
+        <v>38808</v>
       </c>
       <c r="B230" s="2" t="n">
-        <v>54.3</v>
+        <v>55.2</v>
       </c>
       <c r="C230">
         <f>(B230/B242-1)*100</f>
@@ -3185,10 +3187,10 @@
     </row>
     <row r="231">
       <c r="A231" s="3" t="n">
-        <v>38749</v>
+        <v>38777</v>
       </c>
       <c r="B231" s="2" t="n">
-        <v>55.8</v>
+        <v>54.3</v>
       </c>
       <c r="C231">
         <f>(B231/B243-1)*100</f>
@@ -3197,10 +3199,10 @@
     </row>
     <row r="232">
       <c r="A232" s="3" t="n">
-        <v>38718</v>
+        <v>38749</v>
       </c>
       <c r="B232" s="2" t="n">
-        <v>55</v>
+        <v>55.8</v>
       </c>
       <c r="C232">
         <f>(B232/B244-1)*100</f>
@@ -3209,10 +3211,10 @@
     </row>
     <row r="233">
       <c r="A233" s="3" t="n">
-        <v>38687</v>
+        <v>38718</v>
       </c>
       <c r="B233" s="2" t="n">
-        <v>55.1</v>
+        <v>55</v>
       </c>
       <c r="C233">
         <f>(B233/B245-1)*100</f>
@@ -3221,10 +3223,10 @@
     </row>
     <row r="234">
       <c r="A234" s="3" t="n">
-        <v>38657</v>
+        <v>38687</v>
       </c>
       <c r="B234" s="2" t="n">
-        <v>56.7</v>
+        <v>55.1</v>
       </c>
       <c r="C234">
         <f>(B234/B246-1)*100</f>
@@ -3233,10 +3235,10 @@
     </row>
     <row r="235">
       <c r="A235" s="3" t="n">
-        <v>38626</v>
+        <v>38657</v>
       </c>
       <c r="B235" s="2" t="n">
-        <v>57.2</v>
+        <v>56.7</v>
       </c>
       <c r="C235">
         <f>(B235/B247-1)*100</f>
@@ -3245,10 +3247,10 @@
     </row>
     <row r="236">
       <c r="A236" s="3" t="n">
-        <v>38596</v>
+        <v>38626</v>
       </c>
       <c r="B236" s="2" t="n">
-        <v>56.8</v>
+        <v>57.2</v>
       </c>
       <c r="C236">
         <f>(B236/B248-1)*100</f>
@@ -3257,10 +3259,10 @@
     </row>
     <row r="237">
       <c r="A237" s="3" t="n">
-        <v>38565</v>
+        <v>38596</v>
       </c>
       <c r="B237" s="2" t="n">
-        <v>52.4</v>
+        <v>56.8</v>
       </c>
       <c r="C237">
         <f>(B237/B249-1)*100</f>
@@ -3269,10 +3271,10 @@
     </row>
     <row r="238">
       <c r="A238" s="3" t="n">
-        <v>38534</v>
+        <v>38565</v>
       </c>
       <c r="B238" s="2" t="n">
-        <v>52.8</v>
+        <v>52.4</v>
       </c>
       <c r="C238">
         <f>(B238/B250-1)*100</f>
@@ -3281,10 +3283,10 @@
     </row>
     <row r="239">
       <c r="A239" s="3" t="n">
-        <v>38504</v>
+        <v>38534</v>
       </c>
       <c r="B239" s="2" t="n">
-        <v>52.4</v>
+        <v>52.8</v>
       </c>
       <c r="C239">
         <f>(B239/B251-1)*100</f>
@@ -3293,10 +3295,10 @@
     </row>
     <row r="240">
       <c r="A240" s="3" t="n">
-        <v>38473</v>
+        <v>38504</v>
       </c>
       <c r="B240" s="2" t="n">
-        <v>50.8</v>
+        <v>52.4</v>
       </c>
       <c r="C240">
         <f>(B240/B252-1)*100</f>
@@ -3305,10 +3307,10 @@
     </row>
     <row r="241">
       <c r="A241" s="3" t="n">
-        <v>38443</v>
+        <v>38473</v>
       </c>
       <c r="B241" s="2" t="n">
-        <v>52.2</v>
+        <v>50.8</v>
       </c>
       <c r="C241">
         <f>(B241/B253-1)*100</f>
@@ -3317,10 +3319,10 @@
     </row>
     <row r="242">
       <c r="A242" s="3" t="n">
-        <v>38412</v>
+        <v>38443</v>
       </c>
       <c r="B242" s="2" t="n">
-        <v>55.2</v>
+        <v>52.2</v>
       </c>
       <c r="C242">
         <f>(B242/B254-1)*100</f>
@@ -3329,10 +3331,10 @@
     </row>
     <row r="243">
       <c r="A243" s="3" t="n">
-        <v>38384</v>
+        <v>38412</v>
       </c>
       <c r="B243" s="2" t="n">
-        <v>55.5</v>
+        <v>55.2</v>
       </c>
       <c r="C243">
         <f>(B243/B255-1)*100</f>
@@ -3341,10 +3343,10 @@
     </row>
     <row r="244">
       <c r="A244" s="3" t="n">
-        <v>38353</v>
+        <v>38384</v>
       </c>
       <c r="B244" s="2" t="n">
-        <v>56.8</v>
+        <v>55.5</v>
       </c>
       <c r="C244">
         <f>(B244/B256-1)*100</f>
@@ -3353,10 +3355,10 @@
     </row>
     <row r="245">
       <c r="A245" s="3" t="n">
-        <v>38322</v>
+        <v>38353</v>
       </c>
       <c r="B245" s="2" t="n">
-        <v>57.2</v>
+        <v>56.8</v>
       </c>
       <c r="C245">
         <f>(B245/B257-1)*100</f>
@@ -3365,10 +3367,10 @@
     </row>
     <row r="246">
       <c r="A246" s="3" t="n">
-        <v>38292</v>
+        <v>38322</v>
       </c>
       <c r="B246" s="2" t="n">
-        <v>56.2</v>
+        <v>57.2</v>
       </c>
       <c r="C246">
         <f>(B246/B258-1)*100</f>
@@ -3377,10 +3379,10 @@
     </row>
     <row r="247">
       <c r="A247" s="3" t="n">
-        <v>38261</v>
+        <v>38292</v>
       </c>
       <c r="B247" s="2" t="n">
-        <v>56.3</v>
+        <v>56.2</v>
       </c>
       <c r="C247">
         <f>(B247/B259-1)*100</f>
@@ -3389,10 +3391,10 @@
     </row>
     <row r="248">
       <c r="A248" s="3" t="n">
-        <v>38231</v>
+        <v>38261</v>
       </c>
       <c r="B248" s="2" t="n">
-        <v>57.4</v>
+        <v>56.3</v>
       </c>
       <c r="C248">
         <f>(B248/B260-1)*100</f>
@@ -3401,10 +3403,10 @@
     </row>
     <row r="249">
       <c r="A249" s="3" t="n">
-        <v>38200</v>
+        <v>38231</v>
       </c>
       <c r="B249" s="2" t="n">
-        <v>58.5</v>
+        <v>57.4</v>
       </c>
       <c r="C249">
         <f>(B249/B261-1)*100</f>
@@ -3413,10 +3415,10 @@
     </row>
     <row r="250">
       <c r="A250" s="3" t="n">
-        <v>38169</v>
+        <v>38200</v>
       </c>
       <c r="B250" s="2" t="n">
-        <v>59.9</v>
+        <v>58.5</v>
       </c>
       <c r="C250">
         <f>(B250/B262-1)*100</f>
@@ -3425,10 +3427,10 @@
     </row>
     <row r="251">
       <c r="A251" s="3" t="n">
-        <v>38139</v>
+        <v>38169</v>
       </c>
       <c r="B251" s="2" t="n">
-        <v>60.5</v>
+        <v>59.9</v>
       </c>
       <c r="C251">
         <f>(B251/B263-1)*100</f>
@@ -3437,10 +3439,10 @@
     </row>
     <row r="252">
       <c r="A252" s="3" t="n">
-        <v>38108</v>
+        <v>38139</v>
       </c>
       <c r="B252" s="2" t="n">
-        <v>61.4</v>
+        <v>60.5</v>
       </c>
       <c r="C252">
         <f>(B252/B264-1)*100</f>
@@ -3449,10 +3451,10 @@
     </row>
     <row r="253">
       <c r="A253" s="3" t="n">
-        <v>38078</v>
+        <v>38108</v>
       </c>
       <c r="B253" s="2" t="n">
-        <v>60.6</v>
+        <v>61.4</v>
       </c>
       <c r="C253">
         <f>(B253/B265-1)*100</f>
@@ -3461,7 +3463,7 @@
     </row>
     <row r="254">
       <c r="A254" s="3" t="n">
-        <v>38047</v>
+        <v>38078</v>
       </c>
       <c r="B254" s="2" t="n">
         <v>60.6</v>
@@ -3473,10 +3475,10 @@
     </row>
     <row r="255">
       <c r="A255" s="3" t="n">
-        <v>38018</v>
+        <v>38047</v>
       </c>
       <c r="B255" s="2" t="n">
-        <v>59.9</v>
+        <v>60.6</v>
       </c>
       <c r="C255">
         <f>(B255/B267-1)*100</f>
@@ -3485,10 +3487,10 @@
     </row>
     <row r="256">
       <c r="A256" s="3" t="n">
-        <v>37987</v>
+        <v>38018</v>
       </c>
       <c r="B256" s="2" t="n">
-        <v>60.8</v>
+        <v>59.9</v>
       </c>
       <c r="C256">
         <f>(B256/B268-1)*100</f>
@@ -3497,10 +3499,10 @@
     </row>
     <row r="257">
       <c r="A257" s="3" t="n">
-        <v>37956</v>
+        <v>37987</v>
       </c>
       <c r="B257" s="2" t="n">
-        <v>60.1</v>
+        <v>60.8</v>
       </c>
       <c r="C257">
         <f>(B257/B269-1)*100</f>
@@ -3509,10 +3511,10 @@
     </row>
     <row r="258">
       <c r="A258" s="3" t="n">
-        <v>37926</v>
+        <v>37956</v>
       </c>
       <c r="B258" s="2" t="n">
-        <v>58.4</v>
+        <v>60.1</v>
       </c>
       <c r="C258">
         <f>(B258/B270-1)*100</f>
@@ -3521,10 +3523,10 @@
     </row>
     <row r="259">
       <c r="A259" s="3" t="n">
-        <v>37895</v>
+        <v>37926</v>
       </c>
       <c r="B259" s="2" t="n">
-        <v>55.2</v>
+        <v>58.4</v>
       </c>
       <c r="C259">
         <f>(B259/B271-1)*100</f>
@@ -3533,10 +3535,10 @@
     </row>
     <row r="260">
       <c r="A260" s="3" t="n">
-        <v>37865</v>
+        <v>37895</v>
       </c>
       <c r="B260" s="2" t="n">
-        <v>52.4</v>
+        <v>55.2</v>
       </c>
       <c r="C260">
         <f>(B260/B272-1)*100</f>
@@ -3545,10 +3547,10 @@
     </row>
     <row r="261">
       <c r="A261" s="3" t="n">
-        <v>37834</v>
+        <v>37865</v>
       </c>
       <c r="B261" s="2" t="n">
-        <v>53.2</v>
+        <v>52.4</v>
       </c>
       <c r="C261">
         <f>(B261/B273-1)*100</f>
@@ -3557,10 +3559,10 @@
     </row>
     <row r="262">
       <c r="A262" s="3" t="n">
-        <v>37803</v>
+        <v>37834</v>
       </c>
       <c r="B262" s="2" t="n">
-        <v>51</v>
+        <v>53.2</v>
       </c>
       <c r="C262">
         <f>(B262/B274-1)*100</f>
@@ -3569,10 +3571,10 @@
     </row>
     <row r="263">
       <c r="A263" s="3" t="n">
-        <v>37773</v>
+        <v>37803</v>
       </c>
       <c r="B263" s="2" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C263">
         <f>(B263/B275-1)*100</f>
@@ -3581,7 +3583,7 @@
     </row>
     <row r="264">
       <c r="A264" s="3" t="n">
-        <v>37742</v>
+        <v>37773</v>
       </c>
       <c r="B264" s="2" t="n">
         <v>49</v>
@@ -3593,10 +3595,10 @@
     </row>
     <row r="265">
       <c r="A265" s="3" t="n">
-        <v>37712</v>
+        <v>37742</v>
       </c>
       <c r="B265" s="2" t="n">
-        <v>46.1</v>
+        <v>49</v>
       </c>
       <c r="C265">
         <f>(B265/B277-1)*100</f>
@@ -3605,10 +3607,10 @@
     </row>
     <row r="266">
       <c r="A266" s="3" t="n">
-        <v>37681</v>
+        <v>37712</v>
       </c>
       <c r="B266" s="2" t="n">
-        <v>46.3</v>
+        <v>46.1</v>
       </c>
       <c r="C266">
         <f>(B266/B278-1)*100</f>
@@ -3617,10 +3619,10 @@
     </row>
     <row r="267">
       <c r="A267" s="3" t="n">
-        <v>37653</v>
+        <v>37681</v>
       </c>
       <c r="B267" s="2" t="n">
-        <v>48.8</v>
+        <v>46.3</v>
       </c>
       <c r="C267">
         <f>(B267/B279-1)*100</f>
@@ -3629,10 +3631,10 @@
     </row>
     <row r="268">
       <c r="A268" s="3" t="n">
-        <v>37622</v>
+        <v>37653</v>
       </c>
       <c r="B268" s="2" t="n">
-        <v>51.3</v>
+        <v>48.8</v>
       </c>
       <c r="C268">
         <f>(B268/B280-1)*100</f>
@@ -3641,10 +3643,10 @@
     </row>
     <row r="269">
       <c r="A269" s="3" t="n">
-        <v>37591</v>
+        <v>37622</v>
       </c>
       <c r="B269" s="2" t="n">
-        <v>51.6</v>
+        <v>51.3</v>
       </c>
       <c r="C269">
         <f>(B269/B281-1)*100</f>
@@ -3653,10 +3655,10 @@
     </row>
     <row r="270">
       <c r="A270" s="3" t="n">
-        <v>37561</v>
+        <v>37591</v>
       </c>
       <c r="B270" s="2" t="n">
-        <v>48.5</v>
+        <v>51.6</v>
       </c>
       <c r="C270">
         <f>(B270/B282-1)*100</f>
@@ -3665,10 +3667,10 @@
     </row>
     <row r="271">
       <c r="A271" s="3" t="n">
-        <v>37530</v>
+        <v>37561</v>
       </c>
       <c r="B271" s="2" t="n">
-        <v>49</v>
+        <v>48.5</v>
       </c>
       <c r="C271">
         <f>(B271/B283-1)*100</f>
@@ -3677,10 +3679,10 @@
     </row>
     <row r="272">
       <c r="A272" s="3" t="n">
-        <v>37500</v>
+        <v>37530</v>
       </c>
       <c r="B272" s="2" t="n">
-        <v>50.5</v>
+        <v>49</v>
       </c>
       <c r="C272">
         <f>(B272/B284-1)*100</f>
@@ -3689,10 +3691,10 @@
     </row>
     <row r="273">
       <c r="A273" s="3" t="n">
-        <v>37469</v>
+        <v>37500</v>
       </c>
       <c r="B273" s="2" t="n">
-        <v>50.3</v>
+        <v>50.5</v>
       </c>
       <c r="C273">
         <f>(B273/B285-1)*100</f>
@@ -3701,10 +3703,10 @@
     </row>
     <row r="274">
       <c r="A274" s="3" t="n">
-        <v>37438</v>
+        <v>37469</v>
       </c>
       <c r="B274" s="2" t="n">
-        <v>50.2</v>
+        <v>50.3</v>
       </c>
       <c r="C274">
         <f>(B274/B286-1)*100</f>
@@ -3713,10 +3715,10 @@
     </row>
     <row r="275">
       <c r="A275" s="3" t="n">
-        <v>37408</v>
+        <v>37438</v>
       </c>
       <c r="B275" s="2" t="n">
-        <v>53.6</v>
+        <v>50.2</v>
       </c>
       <c r="C275">
         <f>(B275/B287-1)*100</f>
@@ -3725,10 +3727,10 @@
     </row>
     <row r="276">
       <c r="A276" s="3" t="n">
-        <v>37377</v>
+        <v>37408</v>
       </c>
       <c r="B276" s="2" t="n">
-        <v>53.1</v>
+        <v>53.6</v>
       </c>
       <c r="C276">
         <f>(B276/B288-1)*100</f>
@@ -3737,10 +3739,10 @@
     </row>
     <row r="277">
       <c r="A277" s="3" t="n">
-        <v>37347</v>
+        <v>37377</v>
       </c>
       <c r="B277" s="2" t="n">
-        <v>52.4</v>
+        <v>53.1</v>
       </c>
       <c r="C277">
         <f>(B277/B289-1)*100</f>
@@ -3749,7 +3751,7 @@
     </row>
     <row r="278">
       <c r="A278" s="3" t="n">
-        <v>37316</v>
+        <v>37347</v>
       </c>
       <c r="B278" s="2" t="n">
         <v>52.4</v>
@@ -3761,10 +3763,10 @@
     </row>
     <row r="279">
       <c r="A279" s="3" t="n">
-        <v>37288</v>
+        <v>37316</v>
       </c>
       <c r="B279" s="2" t="n">
-        <v>50.7</v>
+        <v>52.4</v>
       </c>
       <c r="C279">
         <f>(B279/B291-1)*100</f>
@@ -3773,10 +3775,10 @@
     </row>
     <row r="280">
       <c r="A280" s="3" t="n">
-        <v>37257</v>
+        <v>37288</v>
       </c>
       <c r="B280" s="2" t="n">
-        <v>47.5</v>
+        <v>50.7</v>
       </c>
       <c r="C280">
         <f>(B280/B292-1)*100</f>
@@ -3785,10 +3787,10 @@
     </row>
     <row r="281">
       <c r="A281" s="3" t="n">
-        <v>37226</v>
+        <v>37257</v>
       </c>
       <c r="B281" s="2" t="n">
-        <v>45.3</v>
+        <v>47.5</v>
       </c>
       <c r="C281">
         <f>(B281/B293-1)*100</f>
@@ -3797,10 +3799,10 @@
     </row>
     <row r="282">
       <c r="A282" s="3" t="n">
-        <v>37196</v>
+        <v>37226</v>
       </c>
       <c r="B282" s="2" t="n">
-        <v>44.1</v>
+        <v>45.3</v>
       </c>
       <c r="C282">
         <f>(B282/B294-1)*100</f>
@@ -3809,10 +3811,10 @@
     </row>
     <row r="283">
       <c r="A283" s="3" t="n">
-        <v>37165</v>
+        <v>37196</v>
       </c>
       <c r="B283" s="2" t="n">
-        <v>40.8</v>
+        <v>44.1</v>
       </c>
       <c r="C283">
         <f>(B283/B295-1)*100</f>
@@ -3821,10 +3823,10 @@
     </row>
     <row r="284">
       <c r="A284" s="3" t="n">
-        <v>37135</v>
+        <v>37165</v>
       </c>
       <c r="B284" s="2" t="n">
-        <v>46.2</v>
+        <v>40.8</v>
       </c>
       <c r="C284">
         <f>(B284/B296-1)*100</f>
@@ -3833,10 +3835,10 @@
     </row>
     <row r="285">
       <c r="A285" s="3" t="n">
-        <v>37104</v>
+        <v>37135</v>
       </c>
       <c r="B285" s="2" t="n">
-        <v>46.3</v>
+        <v>46.2</v>
       </c>
       <c r="C285">
         <f>(B285/B297-1)*100</f>
@@ -3845,10 +3847,10 @@
     </row>
     <row r="286">
       <c r="A286" s="3" t="n">
-        <v>37073</v>
+        <v>37104</v>
       </c>
       <c r="B286" s="2" t="n">
-        <v>43.5</v>
+        <v>46.3</v>
       </c>
       <c r="C286">
         <f>(B286/B298-1)*100</f>
@@ -3857,10 +3859,10 @@
     </row>
     <row r="287">
       <c r="A287" s="3" t="n">
-        <v>37043</v>
+        <v>37073</v>
       </c>
       <c r="B287" s="2" t="n">
-        <v>43.2</v>
+        <v>43.5</v>
       </c>
       <c r="C287">
         <f>(B287/B299-1)*100</f>
@@ -3869,10 +3871,10 @@
     </row>
     <row r="288">
       <c r="A288" s="3" t="n">
-        <v>37012</v>
+        <v>37043</v>
       </c>
       <c r="B288" s="2" t="n">
-        <v>41.3</v>
+        <v>43.2</v>
       </c>
       <c r="C288">
         <f>(B288/B300-1)*100</f>
@@ -3881,10 +3883,10 @@
     </row>
     <row r="289">
       <c r="A289" s="3" t="n">
-        <v>36982</v>
+        <v>37012</v>
       </c>
       <c r="B289" s="2" t="n">
-        <v>42.7</v>
+        <v>41.3</v>
       </c>
       <c r="C289">
         <f>(B289/B301-1)*100</f>
@@ -3893,10 +3895,10 @@
     </row>
     <row r="290">
       <c r="A290" s="3" t="n">
-        <v>36951</v>
+        <v>36982</v>
       </c>
       <c r="B290" s="2" t="n">
-        <v>43.1</v>
+        <v>42.7</v>
       </c>
       <c r="C290">
         <f>(B290/B302-1)*100</f>
@@ -3905,10 +3907,10 @@
     </row>
     <row r="291">
       <c r="A291" s="3" t="n">
-        <v>36923</v>
+        <v>36951</v>
       </c>
       <c r="B291" s="2" t="n">
-        <v>42.1</v>
+        <v>43.1</v>
       </c>
       <c r="C291">
         <f>(B291/B303-1)*100</f>
@@ -3917,10 +3919,10 @@
     </row>
     <row r="292">
       <c r="A292" s="3" t="n">
-        <v>36892</v>
+        <v>36923</v>
       </c>
       <c r="B292" s="2" t="n">
-        <v>42.3</v>
+        <v>42.1</v>
       </c>
       <c r="C292">
         <f>(B292/B304-1)*100</f>
@@ -3929,10 +3931,10 @@
     </row>
     <row r="293">
       <c r="A293" s="3" t="n">
-        <v>36861</v>
+        <v>36892</v>
       </c>
       <c r="B293" s="2" t="n">
-        <v>43.9</v>
+        <v>42.3</v>
       </c>
       <c r="C293">
         <f>(B293/B305-1)*100</f>
@@ -3941,10 +3943,10 @@
     </row>
     <row r="294">
       <c r="A294" s="3" t="n">
-        <v>36831</v>
+        <v>36861</v>
       </c>
       <c r="B294" s="2" t="n">
-        <v>48.5</v>
+        <v>43.9</v>
       </c>
       <c r="C294">
         <f>(B294/B306-1)*100</f>
@@ -3953,10 +3955,10 @@
     </row>
     <row r="295">
       <c r="A295" s="3" t="n">
-        <v>36800</v>
+        <v>36831</v>
       </c>
       <c r="B295" s="2" t="n">
-        <v>48.7</v>
+        <v>48.5</v>
       </c>
       <c r="C295">
         <f>(B295/B307-1)*100</f>
@@ -3965,10 +3967,10 @@
     </row>
     <row r="296">
       <c r="A296" s="3" t="n">
-        <v>36770</v>
+        <v>36800</v>
       </c>
       <c r="B296" s="2" t="n">
-        <v>49.7</v>
+        <v>48.7</v>
       </c>
       <c r="C296">
         <f>(B296/B308-1)*100</f>
@@ -3977,10 +3979,10 @@
     </row>
     <row r="297">
       <c r="A297" s="3" t="n">
-        <v>36739</v>
+        <v>36770</v>
       </c>
       <c r="B297" s="2" t="n">
-        <v>49.9</v>
+        <v>49.7</v>
       </c>
       <c r="C297">
         <f>(B297/B309-1)*100</f>
@@ -3989,10 +3991,10 @@
     </row>
     <row r="298">
       <c r="A298" s="3" t="n">
-        <v>36708</v>
+        <v>36739</v>
       </c>
       <c r="B298" s="2" t="n">
-        <v>52.5</v>
+        <v>49.9</v>
       </c>
       <c r="C298">
         <f>(B298/B310-1)*100</f>
@@ -4001,10 +4003,10 @@
     </row>
     <row r="299">
       <c r="A299" s="3" t="n">
-        <v>36678</v>
+        <v>36708</v>
       </c>
       <c r="B299" s="2" t="n">
-        <v>51.4</v>
+        <v>52.5</v>
       </c>
       <c r="C299">
         <f>(B299/B311-1)*100</f>
@@ -4013,10 +4015,10 @@
     </row>
     <row r="300">
       <c r="A300" s="3" t="n">
-        <v>36647</v>
+        <v>36678</v>
       </c>
       <c r="B300" s="2" t="n">
-        <v>53.2</v>
+        <v>51.4</v>
       </c>
       <c r="C300">
         <f>(B300/B312-1)*100</f>
@@ -4025,10 +4027,10 @@
     </row>
     <row r="301">
       <c r="A301" s="3" t="n">
-        <v>36617</v>
+        <v>36647</v>
       </c>
       <c r="B301" s="2" t="n">
-        <v>54.7</v>
+        <v>53.2</v>
       </c>
       <c r="C301">
         <f>(B301/B313-1)*100</f>
@@ -4037,10 +4039,10 @@
     </row>
     <row r="302">
       <c r="A302" s="3" t="n">
-        <v>36586</v>
+        <v>36617</v>
       </c>
       <c r="B302" s="2" t="n">
-        <v>54.9</v>
+        <v>54.7</v>
       </c>
       <c r="C302">
         <f>(B302/B314-1)*100</f>
@@ -4049,10 +4051,10 @@
     </row>
     <row r="303">
       <c r="A303" s="3" t="n">
-        <v>36557</v>
+        <v>36586</v>
       </c>
       <c r="B303" s="2" t="n">
-        <v>55.8</v>
+        <v>54.9</v>
       </c>
       <c r="C303">
         <f>(B303/B315-1)*100</f>
@@ -4061,10 +4063,10 @@
     </row>
     <row r="304">
       <c r="A304" s="3" t="n">
-        <v>36526</v>
+        <v>36557</v>
       </c>
       <c r="B304" s="2" t="n">
-        <v>56.7</v>
+        <v>55.8</v>
       </c>
       <c r="C304">
         <f>(B304/B316-1)*100</f>
@@ -4073,10 +4075,10 @@
     </row>
     <row r="305">
       <c r="A305" s="3" t="n">
-        <v>36495</v>
+        <v>36526</v>
       </c>
       <c r="B305" s="2" t="n">
-        <v>57.8</v>
+        <v>56.7</v>
       </c>
       <c r="C305">
         <f>(B305/B317-1)*100</f>
@@ -4085,10 +4087,10 @@
     </row>
     <row r="306">
       <c r="A306" s="3" t="n">
-        <v>36465</v>
+        <v>36495</v>
       </c>
       <c r="B306" s="2" t="n">
-        <v>58.1</v>
+        <v>57.8</v>
       </c>
       <c r="C306">
         <f>(B306/B318-1)*100</f>
@@ -4097,10 +4099,10 @@
     </row>
     <row r="307">
       <c r="A307" s="3" t="n">
-        <v>36434</v>
+        <v>36465</v>
       </c>
       <c r="B307" s="2" t="n">
-        <v>57.2</v>
+        <v>58.1</v>
       </c>
       <c r="C307">
         <f>(B307/B319-1)*100</f>
@@ -4109,10 +4111,10 @@
     </row>
     <row r="308">
       <c r="A308" s="3" t="n">
-        <v>36404</v>
+        <v>36434</v>
       </c>
       <c r="B308" s="2" t="n">
-        <v>57</v>
+        <v>57.2</v>
       </c>
       <c r="C308">
         <f>(B308/B320-1)*100</f>
@@ -4121,10 +4123,10 @@
     </row>
     <row r="309">
       <c r="A309" s="3" t="n">
-        <v>36373</v>
+        <v>36404</v>
       </c>
       <c r="B309" s="2" t="n">
-        <v>54.8</v>
+        <v>57</v>
       </c>
       <c r="C309">
         <f>(B309/B321-1)*100</f>
@@ -4133,10 +4135,10 @@
     </row>
     <row r="310">
       <c r="A310" s="3" t="n">
-        <v>36342</v>
+        <v>36373</v>
       </c>
       <c r="B310" s="2" t="n">
-        <v>53.6</v>
+        <v>54.8</v>
       </c>
       <c r="C310">
         <f>(B310/B322-1)*100</f>
@@ -4145,10 +4147,10 @@
     </row>
     <row r="311">
       <c r="A311" s="3" t="n">
-        <v>36312</v>
+        <v>36342</v>
       </c>
       <c r="B311" s="2" t="n">
-        <v>55.8</v>
+        <v>53.6</v>
       </c>
       <c r="C311">
         <f>(B311/B323-1)*100</f>
@@ -4157,10 +4159,10 @@
     </row>
     <row r="312">
       <c r="A312" s="3" t="n">
-        <v>36281</v>
+        <v>36312</v>
       </c>
       <c r="B312" s="2" t="n">
-        <v>54.3</v>
+        <v>55.8</v>
       </c>
       <c r="C312">
         <f>(B312/B324-1)*100</f>
@@ -4169,10 +4171,10 @@
     </row>
     <row r="313">
       <c r="A313" s="3" t="n">
-        <v>36251</v>
+        <v>36281</v>
       </c>
       <c r="B313" s="2" t="n">
-        <v>52.3</v>
+        <v>54.3</v>
       </c>
       <c r="C313">
         <f>(B313/B325-1)*100</f>
@@ -4181,10 +4183,10 @@
     </row>
     <row r="314">
       <c r="A314" s="3" t="n">
-        <v>36220</v>
+        <v>36251</v>
       </c>
       <c r="B314" s="2" t="n">
-        <v>52.4</v>
+        <v>52.3</v>
       </c>
       <c r="C314">
         <f>(B314/B326-1)*100</f>
@@ -4193,10 +4195,10 @@
     </row>
     <row r="315">
       <c r="A315" s="3" t="n">
-        <v>36192</v>
+        <v>36220</v>
       </c>
       <c r="B315" s="2" t="n">
-        <v>51.7</v>
+        <v>52.4</v>
       </c>
       <c r="C315">
         <f>(B315/B327-1)*100</f>
@@ -4205,10 +4207,10 @@
     </row>
     <row r="316">
       <c r="A316" s="3" t="n">
-        <v>36161</v>
+        <v>36192</v>
       </c>
       <c r="B316" s="2" t="n">
-        <v>50.6</v>
+        <v>51.7</v>
       </c>
       <c r="C316">
         <f>(B316/B328-1)*100</f>
@@ -4216,7 +4218,12 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="3" t="n"/>
+      <c r="A317" s="3" t="n">
+        <v>36161</v>
+      </c>
+      <c r="B317" s="2" t="n">
+        <v>50.6</v>
+      </c>
       <c r="C317">
         <f>(B317/B329-1)*100</f>
         <v/>
@@ -4306,6 +4313,13 @@
         <v/>
       </c>
     </row>
+    <row r="330">
+      <c r="A330" s="3" t="n"/>
+      <c r="C330">
+        <f>(B330/B342-1)*100</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/pmi.xlsx
+++ b/data/pmi.xlsx
@@ -400,7 +400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C330"/>
+  <dimension ref="A1:C331"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,11 +432,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48.7</v>
+        <v>48.5</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -446,11 +446,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49</v>
+        <v>48.7</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -460,11 +460,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50.3</v>
+        <v>49</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -474,23 +474,25 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="C5">
+        <f>(B5/B17-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>2025-01-01</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B6" t="n">
         <v>50.9</v>
-      </c>
-      <c r="C5">
-        <f>(B5/B17-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="n">
-        <v>45627</v>
-      </c>
-      <c r="B6" t="n">
-        <v>49.3</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -499,10 +501,10 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B7" t="n">
-        <v>48.4</v>
+        <v>49.3</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -510,11 +512,11 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>45566</v>
+      <c r="A8" s="4" t="n">
+        <v>45597</v>
       </c>
       <c r="B8" t="n">
-        <v>46.5</v>
+        <v>48.4</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -523,10 +525,10 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B9" t="n">
-        <v>47.2</v>
+        <v>46.5</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -535,7 +537,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B10" t="n">
         <v>47.2</v>
@@ -547,10 +549,10 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B11" t="n">
-        <v>46.8</v>
+        <v>47.2</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -559,10 +561,10 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45444</v>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>48.5</v>
+        <v>45474</v>
+      </c>
+      <c r="B12" t="n">
+        <v>46.8</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -571,10 +573,10 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>48.7</v>
+        <v>48.5</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -583,10 +585,10 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>49.2</v>
+        <v>48.7</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -595,10 +597,10 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>50.3</v>
+        <v>49.2</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -607,10 +609,10 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>47.8</v>
+        <v>50.3</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -619,10 +621,10 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>49.1</v>
+        <v>47.8</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -631,10 +633,10 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>47.1</v>
+        <v>49.1</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -643,10 +645,10 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>46.6</v>
+        <v>47.1</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -655,10 +657,10 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>46.7</v>
+        <v>46.6</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -667,10 +669,10 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>49</v>
+        <v>46.7</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -679,10 +681,10 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>47.6</v>
+        <v>49</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -691,10 +693,10 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>46.4</v>
+        <v>47.6</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -703,10 +705,10 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>46</v>
+        <v>46.4</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -715,10 +717,10 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>46.9</v>
+        <v>46</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -727,10 +729,10 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>47.1</v>
+        <v>46.9</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -739,10 +741,10 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>46.3</v>
+        <v>47.1</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -751,10 +753,10 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>47.7</v>
+        <v>46.3</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -763,10 +765,10 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B29" s="2" t="n">
-        <v>47.4</v>
+        <v>44958</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>47.7</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -775,10 +777,10 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>48.4</v>
+        <v>47.4</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -787,10 +789,10 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>49</v>
+        <v>48.4</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -799,10 +801,10 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -811,10 +813,10 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -823,10 +825,10 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>52.9</v>
+        <v>51</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -835,10 +837,10 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>52.7</v>
+        <v>52.9</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -847,10 +849,10 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>53.1</v>
+        <v>52.7</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -859,10 +861,10 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>56.1</v>
+        <v>53.1</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -871,10 +873,10 @@
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>55.9</v>
+        <v>56.1</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -883,10 +885,10 @@
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>57</v>
+        <v>55.9</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -895,10 +897,10 @@
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>58.4</v>
+        <v>57</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -907,10 +909,10 @@
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>57.6</v>
+        <v>58.4</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -919,10 +921,10 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>58.6</v>
+        <v>57.6</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -931,10 +933,10 @@
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>60.8</v>
+        <v>58.6</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -943,7 +945,7 @@
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B44" s="2" t="n">
         <v>60.8</v>
@@ -955,10 +957,10 @@
     </row>
     <row r="45">
       <c r="A45" s="3" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>61.1</v>
+        <v>60.8</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -967,10 +969,10 @@
     </row>
     <row r="46">
       <c r="A46" s="3" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>59.9</v>
+        <v>61.1</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -979,10 +981,10 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>59.4</v>
+        <v>59.9</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -991,10 +993,10 @@
     </row>
     <row r="48">
       <c r="A48" s="3" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>60.6</v>
+        <v>59.4</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1003,10 +1005,10 @@
     </row>
     <row r="49">
       <c r="A49" s="3" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>61.2</v>
+        <v>60.6</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1015,10 +1017,10 @@
     </row>
     <row r="50">
       <c r="A50" s="3" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>60.7</v>
+        <v>61.2</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1027,10 +1029,10 @@
     </row>
     <row r="51">
       <c r="A51" s="3" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>64.7</v>
+        <v>60.7</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1039,10 +1041,10 @@
     </row>
     <row r="52">
       <c r="A52" s="3" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>60.8</v>
+        <v>64.7</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1051,10 +1053,10 @@
     </row>
     <row r="53">
       <c r="A53" s="3" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>58.7</v>
+        <v>60.8</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1063,10 +1065,10 @@
     </row>
     <row r="54">
       <c r="A54" s="3" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>60.5</v>
+        <v>58.7</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1075,10 +1077,10 @@
     </row>
     <row r="55">
       <c r="A55" s="3" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>57.7</v>
+        <v>60.5</v>
       </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
@@ -1087,10 +1089,10 @@
     </row>
     <row r="56">
       <c r="A56" s="3" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>58.8</v>
+        <v>57.7</v>
       </c>
       <c r="C56">
         <f>(B56/B68-1)*100</f>
@@ -1099,10 +1101,10 @@
     </row>
     <row r="57">
       <c r="A57" s="3" t="n">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>55.7</v>
+        <v>58.8</v>
       </c>
       <c r="C57">
         <f>(B57/B69-1)*100</f>
@@ -1111,10 +1113,10 @@
     </row>
     <row r="58">
       <c r="A58" s="3" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>55.6</v>
+        <v>55.7</v>
       </c>
       <c r="C58">
         <f>(B58/B70-1)*100</f>
@@ -1123,10 +1125,10 @@
     </row>
     <row r="59">
       <c r="A59" s="3" t="n">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>53.7</v>
+        <v>55.6</v>
       </c>
       <c r="C59">
         <f>(B59/B71-1)*100</f>
@@ -1135,10 +1137,10 @@
     </row>
     <row r="60">
       <c r="A60" s="3" t="n">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>52.2</v>
+        <v>53.7</v>
       </c>
       <c r="C60">
         <f>(B60/B72-1)*100</f>
@@ -1147,10 +1149,10 @@
     </row>
     <row r="61">
       <c r="A61" s="3" t="n">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>43.1</v>
+        <v>52.2</v>
       </c>
       <c r="C61">
         <f>(B61/B73-1)*100</f>
@@ -1159,10 +1161,10 @@
     </row>
     <row r="62">
       <c r="A62" s="3" t="n">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>41.7</v>
+        <v>43.1</v>
       </c>
       <c r="C62">
         <f>(B62/B74-1)*100</f>
@@ -1171,10 +1173,10 @@
     </row>
     <row r="63">
       <c r="A63" s="3" t="n">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>49.7</v>
+        <v>41.7</v>
       </c>
       <c r="C63">
         <f>(B63/B75-1)*100</f>
@@ -1183,10 +1185,10 @@
     </row>
     <row r="64">
       <c r="A64" s="3" t="n">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>50.3</v>
+        <v>49.7</v>
       </c>
       <c r="C64">
         <f>(B64/B76-1)*100</f>
@@ -1195,10 +1197,10 @@
     </row>
     <row r="65">
       <c r="A65" s="3" t="n">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>51.1</v>
+        <v>50.3</v>
       </c>
       <c r="C65">
         <f>(B65/B77-1)*100</f>
@@ -1207,10 +1209,10 @@
     </row>
     <row r="66">
       <c r="A66" s="3" t="n">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>47.7</v>
+        <v>51.1</v>
       </c>
       <c r="C66">
         <f>(B66/B78-1)*100</f>
@@ -1219,10 +1221,10 @@
     </row>
     <row r="67">
       <c r="A67" s="3" t="n">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>48.2</v>
+        <v>47.7</v>
       </c>
       <c r="C67">
         <f>(B67/B79-1)*100</f>
@@ -1231,10 +1233,10 @@
     </row>
     <row r="68">
       <c r="A68" s="3" t="n">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="C68">
         <f>(B68/B80-1)*100</f>
@@ -1243,7 +1245,7 @@
     </row>
     <row r="69">
       <c r="A69" s="3" t="n">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B69" s="2" t="n">
         <v>48.3</v>
@@ -1255,10 +1257,10 @@
     </row>
     <row r="70">
       <c r="A70" s="3" t="n">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="C70">
         <f>(B70/B82-1)*100</f>
@@ -1267,10 +1269,10 @@
     </row>
     <row r="71">
       <c r="A71" s="3" t="n">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>51</v>
+        <v>48.4</v>
       </c>
       <c r="C71">
         <f>(B71/B83-1)*100</f>
@@ -1279,10 +1281,10 @@
     </row>
     <row r="72">
       <c r="A72" s="3" t="n">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>51.3</v>
+        <v>51</v>
       </c>
       <c r="C72">
         <f>(B72/B84-1)*100</f>
@@ -1291,10 +1293,10 @@
     </row>
     <row r="73">
       <c r="A73" s="3" t="n">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>52.2</v>
+        <v>51.3</v>
       </c>
       <c r="C73">
         <f>(B73/B85-1)*100</f>
@@ -1303,10 +1305,10 @@
     </row>
     <row r="74">
       <c r="A74" s="3" t="n">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>53.6</v>
+        <v>52.2</v>
       </c>
       <c r="C74">
         <f>(B74/B86-1)*100</f>
@@ -1315,10 +1317,10 @@
     </row>
     <row r="75">
       <c r="A75" s="3" t="n">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>55.3</v>
+        <v>53.6</v>
       </c>
       <c r="C75">
         <f>(B75/B87-1)*100</f>
@@ -1327,10 +1329,10 @@
     </row>
     <row r="76">
       <c r="A76" s="3" t="n">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>54.2</v>
+        <v>55.3</v>
       </c>
       <c r="C76">
         <f>(B76/B88-1)*100</f>
@@ -1339,10 +1341,10 @@
     </row>
     <row r="77">
       <c r="A77" s="3" t="n">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>55.7</v>
+        <v>54.2</v>
       </c>
       <c r="C77">
         <f>(B77/B89-1)*100</f>
@@ -1351,10 +1353,10 @@
     </row>
     <row r="78">
       <c r="A78" s="3" t="n">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>54.8</v>
+        <v>55.7</v>
       </c>
       <c r="C78">
         <f>(B78/B90-1)*100</f>
@@ -1363,10 +1365,10 @@
     </row>
     <row r="79">
       <c r="A79" s="3" t="n">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>58.7</v>
+        <v>54.8</v>
       </c>
       <c r="C79">
         <f>(B79/B91-1)*100</f>
@@ -1375,10 +1377,10 @@
     </row>
     <row r="80">
       <c r="A80" s="3" t="n">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>58.3</v>
+        <v>58.7</v>
       </c>
       <c r="C80">
         <f>(B80/B92-1)*100</f>
@@ -1387,10 +1389,10 @@
     </row>
     <row r="81">
       <c r="A81" s="3" t="n">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>59.5</v>
+        <v>58.3</v>
       </c>
       <c r="C81">
         <f>(B81/B93-1)*100</f>
@@ -1399,10 +1401,10 @@
     </row>
     <row r="82">
       <c r="A82" s="3" t="n">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>60.4</v>
+        <v>59.5</v>
       </c>
       <c r="C82">
         <f>(B82/B94-1)*100</f>
@@ -1411,10 +1413,10 @@
     </row>
     <row r="83">
       <c r="A83" s="3" t="n">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>58</v>
+        <v>60.4</v>
       </c>
       <c r="C83">
         <f>(B83/B95-1)*100</f>
@@ -1423,10 +1425,10 @@
     </row>
     <row r="84">
       <c r="A84" s="3" t="n">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>59.7</v>
+        <v>58</v>
       </c>
       <c r="C84">
         <f>(B84/B96-1)*100</f>
@@ -1435,10 +1437,10 @@
     </row>
     <row r="85">
       <c r="A85" s="3" t="n">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>58.9</v>
+        <v>59.7</v>
       </c>
       <c r="C85">
         <f>(B85/B97-1)*100</f>
@@ -1447,10 +1449,10 @@
     </row>
     <row r="86">
       <c r="A86" s="3" t="n">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>58.6</v>
+        <v>58.9</v>
       </c>
       <c r="C86">
         <f>(B86/B98-1)*100</f>
@@ -1459,10 +1461,10 @@
     </row>
     <row r="87">
       <c r="A87" s="3" t="n">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>59.2</v>
+        <v>58.6</v>
       </c>
       <c r="C87">
         <f>(B87/B99-1)*100</f>
@@ -1471,10 +1473,10 @@
     </row>
     <row r="88">
       <c r="A88" s="3" t="n">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>60.8</v>
+        <v>59.2</v>
       </c>
       <c r="C88">
         <f>(B88/B100-1)*100</f>
@@ -1483,10 +1485,10 @@
     </row>
     <row r="89">
       <c r="A89" s="3" t="n">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>59.4</v>
+        <v>60.8</v>
       </c>
       <c r="C89">
         <f>(B89/B101-1)*100</f>
@@ -1495,10 +1497,10 @@
     </row>
     <row r="90">
       <c r="A90" s="3" t="n">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>59.2</v>
+        <v>59.4</v>
       </c>
       <c r="C90">
         <f>(B90/B102-1)*100</f>
@@ -1507,10 +1509,10 @@
     </row>
     <row r="91">
       <c r="A91" s="3" t="n">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>57.9</v>
+        <v>59.2</v>
       </c>
       <c r="C91">
         <f>(B91/B103-1)*100</f>
@@ -1519,10 +1521,10 @@
     </row>
     <row r="92">
       <c r="A92" s="3" t="n">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>58.6</v>
+        <v>57.9</v>
       </c>
       <c r="C92">
         <f>(B92/B104-1)*100</f>
@@ -1531,10 +1533,10 @@
     </row>
     <row r="93">
       <c r="A93" s="3" t="n">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>59.9</v>
+        <v>58.6</v>
       </c>
       <c r="C93">
         <f>(B93/B105-1)*100</f>
@@ -1543,10 +1545,10 @@
     </row>
     <row r="94">
       <c r="A94" s="3" t="n">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>58.5</v>
+        <v>59.9</v>
       </c>
       <c r="C94">
         <f>(B94/B106-1)*100</f>
@@ -1555,10 +1557,10 @@
     </row>
     <row r="95">
       <c r="A95" s="3" t="n">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>56.5</v>
+        <v>58.5</v>
       </c>
       <c r="C95">
         <f>(B95/B107-1)*100</f>
@@ -1567,10 +1569,10 @@
     </row>
     <row r="96">
       <c r="A96" s="3" t="n">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>56.1</v>
+        <v>56.5</v>
       </c>
       <c r="C96">
         <f>(B96/B108-1)*100</f>
@@ -1579,10 +1581,10 @@
     </row>
     <row r="97">
       <c r="A97" s="3" t="n">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>56.4</v>
+        <v>56.1</v>
       </c>
       <c r="C97">
         <f>(B97/B109-1)*100</f>
@@ -1591,10 +1593,10 @@
     </row>
     <row r="98">
       <c r="A98" s="3" t="n">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>55.7</v>
+        <v>56.4</v>
       </c>
       <c r="C98">
         <f>(B98/B110-1)*100</f>
@@ -1603,10 +1605,10 @@
     </row>
     <row r="99">
       <c r="A99" s="3" t="n">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>56.8</v>
+        <v>55.7</v>
       </c>
       <c r="C99">
         <f>(B99/B111-1)*100</f>
@@ -1615,10 +1617,10 @@
     </row>
     <row r="100">
       <c r="A100" s="3" t="n">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>57.7</v>
+        <v>56.8</v>
       </c>
       <c r="C100">
         <f>(B100/B112-1)*100</f>
@@ -1627,10 +1629,10 @@
     </row>
     <row r="101">
       <c r="A101" s="3" t="n">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>55.7</v>
+        <v>57.7</v>
       </c>
       <c r="C101">
         <f>(B101/B113-1)*100</f>
@@ -1639,10 +1641,10 @@
     </row>
     <row r="102">
       <c r="A102" s="3" t="n">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>54.2</v>
+        <v>55.7</v>
       </c>
       <c r="C102">
         <f>(B102/B114-1)*100</f>
@@ -1651,10 +1653,10 @@
     </row>
     <row r="103">
       <c r="A103" s="3" t="n">
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>53.3</v>
+        <v>54.2</v>
       </c>
       <c r="C103">
         <f>(B103/B115-1)*100</f>
@@ -1663,10 +1665,10 @@
     </row>
     <row r="104">
       <c r="A104" s="3" t="n">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>51.8</v>
+        <v>53.3</v>
       </c>
       <c r="C104">
         <f>(B104/B116-1)*100</f>
@@ -1675,10 +1677,10 @@
     </row>
     <row r="105">
       <c r="A105" s="3" t="n">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>51</v>
+        <v>51.8</v>
       </c>
       <c r="C105">
         <f>(B105/B117-1)*100</f>
@@ -1687,10 +1689,10 @@
     </row>
     <row r="106">
       <c r="A106" s="3" t="n">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>49.7</v>
+        <v>51</v>
       </c>
       <c r="C106">
         <f>(B106/B118-1)*100</f>
@@ -1699,10 +1701,10 @@
     </row>
     <row r="107">
       <c r="A107" s="3" t="n">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>52.4</v>
+        <v>49.7</v>
       </c>
       <c r="C107">
         <f>(B107/B119-1)*100</f>
@@ -1711,7 +1713,7 @@
     </row>
     <row r="108">
       <c r="A108" s="3" t="n">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B108" s="2" t="n">
         <v>52.4</v>
@@ -1723,10 +1725,10 @@
     </row>
     <row r="109">
       <c r="A109" s="3" t="n">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B109" s="2" t="n">
-        <v>51.3</v>
+        <v>52.4</v>
       </c>
       <c r="C109">
         <f>(B109/B121-1)*100</f>
@@ -1735,10 +1737,10 @@
     </row>
     <row r="110">
       <c r="A110" s="3" t="n">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>51</v>
+        <v>51.3</v>
       </c>
       <c r="C110">
         <f>(B110/B122-1)*100</f>
@@ -1747,10 +1749,10 @@
     </row>
     <row r="111">
       <c r="A111" s="3" t="n">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>51.4</v>
+        <v>51</v>
       </c>
       <c r="C111">
         <f>(B111/B123-1)*100</f>
@@ -1759,10 +1761,10 @@
     </row>
     <row r="112">
       <c r="A112" s="3" t="n">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>49.2</v>
+        <v>51.4</v>
       </c>
       <c r="C112">
         <f>(B112/B124-1)*100</f>
@@ -1771,10 +1773,10 @@
     </row>
     <row r="113">
       <c r="A113" s="3" t="n">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>47.5</v>
+        <v>49.2</v>
       </c>
       <c r="C113">
         <f>(B113/B125-1)*100</f>
@@ -1783,10 +1785,10 @@
     </row>
     <row r="114">
       <c r="A114" s="3" t="n">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B114" s="2" t="n">
-        <v>48.8</v>
+        <v>47.5</v>
       </c>
       <c r="C114">
         <f>(B114/B126-1)*100</f>
@@ -1795,10 +1797,10 @@
     </row>
     <row r="115">
       <c r="A115" s="3" t="n">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B115" s="2" t="n">
-        <v>49.1</v>
+        <v>48.8</v>
       </c>
       <c r="C115">
         <f>(B115/B127-1)*100</f>
@@ -1807,10 +1809,10 @@
     </row>
     <row r="116">
       <c r="A116" s="3" t="n">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B116" s="2" t="n">
-        <v>49</v>
+        <v>49.1</v>
       </c>
       <c r="C116">
         <f>(B116/B128-1)*100</f>
@@ -1819,10 +1821,10 @@
     </row>
     <row r="117">
       <c r="A117" s="3" t="n">
-        <v>42248</v>
+        <v>42278</v>
       </c>
       <c r="B117" s="2" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C117">
         <f>(B117/B129-1)*100</f>
@@ -1831,7 +1833,7 @@
     </row>
     <row r="118">
       <c r="A118" s="3" t="n">
-        <v>42217</v>
+        <v>42248</v>
       </c>
       <c r="B118" s="2" t="n">
         <v>50</v>
@@ -1843,10 +1845,10 @@
     </row>
     <row r="119">
       <c r="A119" s="3" t="n">
-        <v>42186</v>
+        <v>42217</v>
       </c>
       <c r="B119" s="2" t="n">
-        <v>51.9</v>
+        <v>50</v>
       </c>
       <c r="C119">
         <f>(B119/B131-1)*100</f>
@@ -1855,10 +1857,10 @@
     </row>
     <row r="120">
       <c r="A120" s="3" t="n">
-        <v>42156</v>
+        <v>42186</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>52.6</v>
+        <v>51.9</v>
       </c>
       <c r="C120">
         <f>(B120/B132-1)*100</f>
@@ -1867,10 +1869,10 @@
     </row>
     <row r="121">
       <c r="A121" s="3" t="n">
-        <v>42125</v>
+        <v>42156</v>
       </c>
       <c r="B121" s="2" t="n">
-        <v>52.7</v>
+        <v>52.6</v>
       </c>
       <c r="C121">
         <f>(B121/B133-1)*100</f>
@@ -1879,10 +1881,10 @@
     </row>
     <row r="122">
       <c r="A122" s="3" t="n">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>52.1</v>
+        <v>52.7</v>
       </c>
       <c r="C122">
         <f>(B122/B134-1)*100</f>
@@ -1891,10 +1893,10 @@
     </row>
     <row r="123">
       <c r="A123" s="3" t="n">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="B123" s="2" t="n">
-        <v>52.3</v>
+        <v>52.1</v>
       </c>
       <c r="C123">
         <f>(B123/B135-1)*100</f>
@@ -1903,10 +1905,10 @@
     </row>
     <row r="124">
       <c r="A124" s="3" t="n">
-        <v>42036</v>
+        <v>42064</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>53.1</v>
+        <v>52.3</v>
       </c>
       <c r="C124">
         <f>(B124/B136-1)*100</f>
@@ -1915,10 +1917,10 @@
     </row>
     <row r="125">
       <c r="A125" s="3" t="n">
-        <v>42005</v>
+        <v>42036</v>
       </c>
       <c r="B125" s="2" t="n">
-        <v>54</v>
+        <v>53.1</v>
       </c>
       <c r="C125">
         <f>(B125/B137-1)*100</f>
@@ -1927,10 +1929,10 @@
     </row>
     <row r="126">
       <c r="A126" s="3" t="n">
-        <v>41974</v>
+        <v>42005</v>
       </c>
       <c r="B126" s="2" t="n">
-        <v>55.7</v>
+        <v>54</v>
       </c>
       <c r="C126">
         <f>(B126/B138-1)*100</f>
@@ -1939,10 +1941,10 @@
     </row>
     <row r="127">
       <c r="A127" s="3" t="n">
-        <v>41944</v>
+        <v>41974</v>
       </c>
       <c r="B127" s="2" t="n">
-        <v>56.3</v>
+        <v>55.7</v>
       </c>
       <c r="C127">
         <f>(B127/B139-1)*100</f>
@@ -1951,10 +1953,10 @@
     </row>
     <row r="128">
       <c r="A128" s="3" t="n">
-        <v>41913</v>
+        <v>41944</v>
       </c>
       <c r="B128" s="2" t="n">
-        <v>56.2</v>
+        <v>56.3</v>
       </c>
       <c r="C128">
         <f>(B128/B140-1)*100</f>
@@ -1963,10 +1965,10 @@
     </row>
     <row r="129">
       <c r="A129" s="3" t="n">
-        <v>41883</v>
+        <v>41913</v>
       </c>
       <c r="B129" s="2" t="n">
-        <v>55.7</v>
+        <v>56.2</v>
       </c>
       <c r="C129">
         <f>(B129/B141-1)*100</f>
@@ -1975,10 +1977,10 @@
     </row>
     <row r="130">
       <c r="A130" s="3" t="n">
-        <v>41852</v>
+        <v>41883</v>
       </c>
       <c r="B130" s="2" t="n">
-        <v>56.3</v>
+        <v>55.7</v>
       </c>
       <c r="C130">
         <f>(B130/B142-1)*100</f>
@@ -1987,10 +1989,10 @@
     </row>
     <row r="131">
       <c r="A131" s="3" t="n">
-        <v>41821</v>
+        <v>41852</v>
       </c>
       <c r="B131" s="2" t="n">
-        <v>55.1</v>
+        <v>56.3</v>
       </c>
       <c r="C131">
         <f>(B131/B143-1)*100</f>
@@ -1999,10 +2001,10 @@
     </row>
     <row r="132">
       <c r="A132" s="3" t="n">
-        <v>41791</v>
+        <v>41821</v>
       </c>
       <c r="B132" s="2" t="n">
-        <v>55</v>
+        <v>55.1</v>
       </c>
       <c r="C132">
         <f>(B132/B144-1)*100</f>
@@ -2011,10 +2013,10 @@
     </row>
     <row r="133">
       <c r="A133" s="3" t="n">
-        <v>41760</v>
+        <v>41791</v>
       </c>
       <c r="B133" s="2" t="n">
-        <v>55.7</v>
+        <v>55</v>
       </c>
       <c r="C133">
         <f>(B133/B145-1)*100</f>
@@ -2023,10 +2025,10 @@
     </row>
     <row r="134">
       <c r="A134" s="3" t="n">
-        <v>41730</v>
+        <v>41760</v>
       </c>
       <c r="B134" s="2" t="n">
-        <v>56.6</v>
+        <v>55.7</v>
       </c>
       <c r="C134">
         <f>(B134/B146-1)*100</f>
@@ -2035,10 +2037,10 @@
     </row>
     <row r="135">
       <c r="A135" s="3" t="n">
-        <v>41699</v>
+        <v>41730</v>
       </c>
       <c r="B135" s="2" t="n">
-        <v>55.9</v>
+        <v>56.6</v>
       </c>
       <c r="C135">
         <f>(B135/B147-1)*100</f>
@@ -2047,10 +2049,10 @@
     </row>
     <row r="136">
       <c r="A136" s="3" t="n">
-        <v>41671</v>
+        <v>41699</v>
       </c>
       <c r="B136" s="2" t="n">
-        <v>55</v>
+        <v>55.9</v>
       </c>
       <c r="C136">
         <f>(B136/B148-1)*100</f>
@@ -2059,10 +2061,10 @@
     </row>
     <row r="137">
       <c r="A137" s="3" t="n">
-        <v>41640</v>
+        <v>41671</v>
       </c>
       <c r="B137" s="2" t="n">
-        <v>52.5</v>
+        <v>55</v>
       </c>
       <c r="C137">
         <f>(B137/B149-1)*100</f>
@@ -2071,10 +2073,10 @@
     </row>
     <row r="138">
       <c r="A138" s="3" t="n">
-        <v>41609</v>
+        <v>41640</v>
       </c>
       <c r="B138" s="2" t="n">
-        <v>56.5</v>
+        <v>52.5</v>
       </c>
       <c r="C138">
         <f>(B138/B150-1)*100</f>
@@ -2083,10 +2085,10 @@
     </row>
     <row r="139">
       <c r="A139" s="3" t="n">
-        <v>41579</v>
+        <v>41609</v>
       </c>
       <c r="B139" s="2" t="n">
-        <v>55.5</v>
+        <v>56.5</v>
       </c>
       <c r="C139">
         <f>(B139/B151-1)*100</f>
@@ -2095,10 +2097,10 @@
     </row>
     <row r="140">
       <c r="A140" s="3" t="n">
-        <v>41548</v>
+        <v>41579</v>
       </c>
       <c r="B140" s="2" t="n">
-        <v>54.6</v>
+        <v>55.5</v>
       </c>
       <c r="C140">
         <f>(B140/B152-1)*100</f>
@@ -2107,7 +2109,7 @@
     </row>
     <row r="141">
       <c r="A141" s="3" t="n">
-        <v>41518</v>
+        <v>41548</v>
       </c>
       <c r="B141" s="2" t="n">
         <v>54.6</v>
@@ -2119,10 +2121,10 @@
     </row>
     <row r="142">
       <c r="A142" s="3" t="n">
-        <v>41487</v>
+        <v>41518</v>
       </c>
       <c r="B142" s="2" t="n">
-        <v>54</v>
+        <v>54.6</v>
       </c>
       <c r="C142">
         <f>(B142/B154-1)*100</f>
@@ -2131,10 +2133,10 @@
     </row>
     <row r="143">
       <c r="A143" s="3" t="n">
-        <v>41456</v>
+        <v>41487</v>
       </c>
       <c r="B143" s="2" t="n">
-        <v>53.8</v>
+        <v>54</v>
       </c>
       <c r="C143">
         <f>(B143/B155-1)*100</f>
@@ -2143,10 +2145,10 @@
     </row>
     <row r="144">
       <c r="A144" s="3" t="n">
-        <v>41426</v>
+        <v>41456</v>
       </c>
       <c r="B144" s="2" t="n">
-        <v>51.1</v>
+        <v>53.8</v>
       </c>
       <c r="C144">
         <f>(B144/B156-1)*100</f>
@@ -2155,10 +2157,10 @@
     </row>
     <row r="145">
       <c r="A145" s="3" t="n">
-        <v>41395</v>
+        <v>41426</v>
       </c>
       <c r="B145" s="2" t="n">
-        <v>50.8</v>
+        <v>51.1</v>
       </c>
       <c r="C145">
         <f>(B145/B157-1)*100</f>
@@ -2167,10 +2169,10 @@
     </row>
     <row r="146">
       <c r="A146" s="3" t="n">
-        <v>41365</v>
+        <v>41395</v>
       </c>
       <c r="B146" s="2" t="n">
-        <v>51</v>
+        <v>50.8</v>
       </c>
       <c r="C146">
         <f>(B146/B158-1)*100</f>
@@ -2179,10 +2181,10 @@
     </row>
     <row r="147">
       <c r="A147" s="3" t="n">
-        <v>41334</v>
+        <v>41365</v>
       </c>
       <c r="B147" s="2" t="n">
-        <v>51.9</v>
+        <v>51</v>
       </c>
       <c r="C147">
         <f>(B147/B159-1)*100</f>
@@ -2191,10 +2193,10 @@
     </row>
     <row r="148">
       <c r="A148" s="3" t="n">
-        <v>41306</v>
+        <v>41334</v>
       </c>
       <c r="B148" s="2" t="n">
-        <v>54.2</v>
+        <v>51.9</v>
       </c>
       <c r="C148">
         <f>(B148/B160-1)*100</f>
@@ -2203,10 +2205,10 @@
     </row>
     <row r="149">
       <c r="A149" s="3" t="n">
-        <v>41275</v>
+        <v>41306</v>
       </c>
       <c r="B149" s="2" t="n">
-        <v>53.3</v>
+        <v>54.2</v>
       </c>
       <c r="C149">
         <f>(B149/B161-1)*100</f>
@@ -2215,10 +2217,10 @@
     </row>
     <row r="150">
       <c r="A150" s="3" t="n">
-        <v>41244</v>
+        <v>41275</v>
       </c>
       <c r="B150" s="2" t="n">
-        <v>50.1</v>
+        <v>53.3</v>
       </c>
       <c r="C150">
         <f>(B150/B162-1)*100</f>
@@ -2227,10 +2229,10 @@
     </row>
     <row r="151">
       <c r="A151" s="3" t="n">
-        <v>41214</v>
+        <v>41244</v>
       </c>
       <c r="B151" s="2" t="n">
-        <v>48</v>
+        <v>50.1</v>
       </c>
       <c r="C151">
         <f>(B151/B163-1)*100</f>
@@ -2239,10 +2241,10 @@
     </row>
     <row r="152">
       <c r="A152" s="3" t="n">
-        <v>41183</v>
+        <v>41214</v>
       </c>
       <c r="B152" s="2" t="n">
-        <v>50.5</v>
+        <v>48</v>
       </c>
       <c r="C152">
         <f>(B152/B164-1)*100</f>
@@ -2251,10 +2253,10 @@
     </row>
     <row r="153">
       <c r="A153" s="3" t="n">
-        <v>41153</v>
+        <v>41183</v>
       </c>
       <c r="B153" s="2" t="n">
-        <v>50.8</v>
+        <v>50.5</v>
       </c>
       <c r="C153">
         <f>(B153/B165-1)*100</f>
@@ -2263,10 +2265,10 @@
     </row>
     <row r="154">
       <c r="A154" s="3" t="n">
-        <v>41122</v>
+        <v>41153</v>
       </c>
       <c r="B154" s="2" t="n">
-        <v>49</v>
+        <v>50.8</v>
       </c>
       <c r="C154">
         <f>(B154/B166-1)*100</f>
@@ -2275,10 +2277,10 @@
     </row>
     <row r="155">
       <c r="A155" s="3" t="n">
-        <v>41091</v>
+        <v>41122</v>
       </c>
       <c r="B155" s="2" t="n">
-        <v>49.6</v>
+        <v>49</v>
       </c>
       <c r="C155">
         <f>(B155/B167-1)*100</f>
@@ -2287,10 +2289,10 @@
     </row>
     <row r="156">
       <c r="A156" s="3" t="n">
-        <v>41061</v>
+        <v>41091</v>
       </c>
       <c r="B156" s="2" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="C156">
         <f>(B156/B168-1)*100</f>
@@ -2299,10 +2301,10 @@
     </row>
     <row r="157">
       <c r="A157" s="3" t="n">
-        <v>41030</v>
+        <v>41061</v>
       </c>
       <c r="B157" s="2" t="n">
-        <v>53.2</v>
+        <v>49.5</v>
       </c>
       <c r="C157">
         <f>(B157/B169-1)*100</f>
@@ -2311,10 +2313,10 @@
     </row>
     <row r="158">
       <c r="A158" s="3" t="n">
-        <v>41000</v>
+        <v>41030</v>
       </c>
       <c r="B158" s="2" t="n">
-        <v>55.2</v>
+        <v>53.2</v>
       </c>
       <c r="C158">
         <f>(B158/B170-1)*100</f>
@@ -2323,10 +2325,10 @@
     </row>
     <row r="159">
       <c r="A159" s="3" t="n">
-        <v>40969</v>
+        <v>41000</v>
       </c>
       <c r="B159" s="2" t="n">
-        <v>53.5</v>
+        <v>55.2</v>
       </c>
       <c r="C159">
         <f>(B159/B171-1)*100</f>
@@ -2335,10 +2337,10 @@
     </row>
     <row r="160">
       <c r="A160" s="3" t="n">
-        <v>40940</v>
+        <v>40969</v>
       </c>
       <c r="B160" s="2" t="n">
-        <v>53.3</v>
+        <v>53.5</v>
       </c>
       <c r="C160">
         <f>(B160/B172-1)*100</f>
@@ -2347,10 +2349,10 @@
     </row>
     <row r="161">
       <c r="A161" s="3" t="n">
-        <v>40909</v>
+        <v>40940</v>
       </c>
       <c r="B161" s="2" t="n">
-        <v>54.2</v>
+        <v>53.3</v>
       </c>
       <c r="C161">
         <f>(B161/B173-1)*100</f>
@@ -2359,10 +2361,10 @@
     </row>
     <row r="162">
       <c r="A162" s="3" t="n">
-        <v>40878</v>
+        <v>40909</v>
       </c>
       <c r="B162" s="2" t="n">
-        <v>53</v>
+        <v>54.2</v>
       </c>
       <c r="C162">
         <f>(B162/B174-1)*100</f>
@@ -2371,10 +2373,10 @@
     </row>
     <row r="163">
       <c r="A163" s="3" t="n">
-        <v>40848</v>
+        <v>40878</v>
       </c>
       <c r="B163" s="2" t="n">
-        <v>51.8</v>
+        <v>53</v>
       </c>
       <c r="C163">
         <f>(B163/B175-1)*100</f>
@@ -2383,10 +2385,10 @@
     </row>
     <row r="164">
       <c r="A164" s="3" t="n">
-        <v>40817</v>
+        <v>40848</v>
       </c>
       <c r="B164" s="2" t="n">
-        <v>51.4</v>
+        <v>51.8</v>
       </c>
       <c r="C164">
         <f>(B164/B176-1)*100</f>
@@ -2395,10 +2397,10 @@
     </row>
     <row r="165">
       <c r="A165" s="3" t="n">
-        <v>40787</v>
+        <v>40817</v>
       </c>
       <c r="B165" s="2" t="n">
-        <v>53.7</v>
+        <v>51.4</v>
       </c>
       <c r="C165">
         <f>(B165/B177-1)*100</f>
@@ -2407,10 +2409,10 @@
     </row>
     <row r="166">
       <c r="A166" s="3" t="n">
-        <v>40756</v>
+        <v>40787</v>
       </c>
       <c r="B166" s="2" t="n">
-        <v>52.6</v>
+        <v>53.7</v>
       </c>
       <c r="C166">
         <f>(B166/B178-1)*100</f>
@@ -2419,10 +2421,10 @@
     </row>
     <row r="167">
       <c r="A167" s="3" t="n">
-        <v>40725</v>
+        <v>40756</v>
       </c>
       <c r="B167" s="2" t="n">
-        <v>52.9</v>
+        <v>52.6</v>
       </c>
       <c r="C167">
         <f>(B167/B179-1)*100</f>
@@ -2431,10 +2433,10 @@
     </row>
     <row r="168">
       <c r="A168" s="3" t="n">
-        <v>40695</v>
+        <v>40725</v>
       </c>
       <c r="B168" s="2" t="n">
-        <v>55.8</v>
+        <v>52.9</v>
       </c>
       <c r="C168">
         <f>(B168/B180-1)*100</f>
@@ -2443,10 +2445,10 @@
     </row>
     <row r="169">
       <c r="A169" s="3" t="n">
-        <v>40664</v>
+        <v>40695</v>
       </c>
       <c r="B169" s="2" t="n">
-        <v>54.8</v>
+        <v>55.8</v>
       </c>
       <c r="C169">
         <f>(B169/B181-1)*100</f>
@@ -2455,10 +2457,10 @@
     </row>
     <row r="170">
       <c r="A170" s="3" t="n">
-        <v>40634</v>
+        <v>40664</v>
       </c>
       <c r="B170" s="2" t="n">
-        <v>57.9</v>
+        <v>54.8</v>
       </c>
       <c r="C170">
         <f>(B170/B182-1)*100</f>
@@ -2467,10 +2469,10 @@
     </row>
     <row r="171">
       <c r="A171" s="3" t="n">
-        <v>40603</v>
+        <v>40634</v>
       </c>
       <c r="B171" s="2" t="n">
-        <v>58.4</v>
+        <v>57.9</v>
       </c>
       <c r="C171">
         <f>(B171/B183-1)*100</f>
@@ -2479,10 +2481,10 @@
     </row>
     <row r="172">
       <c r="A172" s="3" t="n">
-        <v>40575</v>
+        <v>40603</v>
       </c>
       <c r="B172" s="2" t="n">
-        <v>59.2</v>
+        <v>58.4</v>
       </c>
       <c r="C172">
         <f>(B172/B184-1)*100</f>
@@ -2491,10 +2493,10 @@
     </row>
     <row r="173">
       <c r="A173" s="3" t="n">
-        <v>40544</v>
+        <v>40575</v>
       </c>
       <c r="B173" s="2" t="n">
-        <v>59.1</v>
+        <v>59.2</v>
       </c>
       <c r="C173">
         <f>(B173/B185-1)*100</f>
@@ -2503,10 +2505,10 @@
     </row>
     <row r="174">
       <c r="A174" s="3" t="n">
-        <v>40513</v>
+        <v>40544</v>
       </c>
       <c r="B174" s="2" t="n">
-        <v>56.6</v>
+        <v>59.1</v>
       </c>
       <c r="C174">
         <f>(B174/B186-1)*100</f>
@@ -2515,10 +2517,10 @@
     </row>
     <row r="175">
       <c r="A175" s="3" t="n">
-        <v>40483</v>
+        <v>40513</v>
       </c>
       <c r="B175" s="2" t="n">
-        <v>57.3</v>
+        <v>56.6</v>
       </c>
       <c r="C175">
         <f>(B175/B187-1)*100</f>
@@ -2527,10 +2529,10 @@
     </row>
     <row r="176">
       <c r="A176" s="3" t="n">
-        <v>40452</v>
+        <v>40483</v>
       </c>
       <c r="B176" s="2" t="n">
-        <v>56.9</v>
+        <v>57.3</v>
       </c>
       <c r="C176">
         <f>(B176/B188-1)*100</f>
@@ -2539,10 +2541,10 @@
     </row>
     <row r="177">
       <c r="A177" s="3" t="n">
-        <v>40422</v>
+        <v>40452</v>
       </c>
       <c r="B177" s="2" t="n">
-        <v>55.3</v>
+        <v>56.9</v>
       </c>
       <c r="C177">
         <f>(B177/B189-1)*100</f>
@@ -2551,10 +2553,10 @@
     </row>
     <row r="178">
       <c r="A178" s="3" t="n">
-        <v>40391</v>
+        <v>40422</v>
       </c>
       <c r="B178" s="2" t="n">
-        <v>56.4</v>
+        <v>55.3</v>
       </c>
       <c r="C178">
         <f>(B178/B190-1)*100</f>
@@ -2563,10 +2565,10 @@
     </row>
     <row r="179">
       <c r="A179" s="3" t="n">
-        <v>40360</v>
+        <v>40391</v>
       </c>
       <c r="B179" s="2" t="n">
-        <v>56.1</v>
+        <v>56.4</v>
       </c>
       <c r="C179">
         <f>(B179/B191-1)*100</f>
@@ -2575,10 +2577,10 @@
     </row>
     <row r="180">
       <c r="A180" s="3" t="n">
-        <v>40330</v>
+        <v>40360</v>
       </c>
       <c r="B180" s="2" t="n">
-        <v>56.5</v>
+        <v>56.1</v>
       </c>
       <c r="C180">
         <f>(B180/B192-1)*100</f>
@@ -2587,10 +2589,10 @@
     </row>
     <row r="181">
       <c r="A181" s="3" t="n">
-        <v>40299</v>
+        <v>40330</v>
       </c>
       <c r="B181" s="2" t="n">
-        <v>57.4</v>
+        <v>56.5</v>
       </c>
       <c r="C181">
         <f>(B181/B193-1)*100</f>
@@ -2599,10 +2601,10 @@
     </row>
     <row r="182">
       <c r="A182" s="3" t="n">
-        <v>40269</v>
+        <v>40299</v>
       </c>
       <c r="B182" s="2" t="n">
-        <v>58.1</v>
+        <v>57.4</v>
       </c>
       <c r="C182">
         <f>(B182/B194-1)*100</f>
@@ -2611,10 +2613,10 @@
     </row>
     <row r="183">
       <c r="A183" s="3" t="n">
-        <v>40238</v>
+        <v>40269</v>
       </c>
       <c r="B183" s="2" t="n">
-        <v>58.8</v>
+        <v>58.1</v>
       </c>
       <c r="C183">
         <f>(B183/B195-1)*100</f>
@@ -2623,10 +2625,10 @@
     </row>
     <row r="184">
       <c r="A184" s="3" t="n">
-        <v>40210</v>
+        <v>40238</v>
       </c>
       <c r="B184" s="2" t="n">
-        <v>55.5</v>
+        <v>58.8</v>
       </c>
       <c r="C184">
         <f>(B184/B196-1)*100</f>
@@ -2635,10 +2637,10 @@
     </row>
     <row r="185">
       <c r="A185" s="3" t="n">
-        <v>40179</v>
+        <v>40210</v>
       </c>
       <c r="B185" s="2" t="n">
-        <v>56.3</v>
+        <v>55.5</v>
       </c>
       <c r="C185">
         <f>(B185/B197-1)*100</f>
@@ -2647,10 +2649,10 @@
     </row>
     <row r="186">
       <c r="A186" s="3" t="n">
-        <v>40148</v>
+        <v>40179</v>
       </c>
       <c r="B186" s="2" t="n">
-        <v>55.8</v>
+        <v>56.3</v>
       </c>
       <c r="C186">
         <f>(B186/B198-1)*100</f>
@@ -2659,10 +2661,10 @@
     </row>
     <row r="187">
       <c r="A187" s="3" t="n">
-        <v>40118</v>
+        <v>40148</v>
       </c>
       <c r="B187" s="2" t="n">
-        <v>55.4</v>
+        <v>55.8</v>
       </c>
       <c r="C187">
         <f>(B187/B199-1)*100</f>
@@ -2671,10 +2673,10 @@
     </row>
     <row r="188">
       <c r="A188" s="3" t="n">
-        <v>40087</v>
+        <v>40118</v>
       </c>
       <c r="B188" s="2" t="n">
-        <v>57.6</v>
+        <v>55.4</v>
       </c>
       <c r="C188">
         <f>(B188/B200-1)*100</f>
@@ -2683,10 +2685,10 @@
     </row>
     <row r="189">
       <c r="A189" s="3" t="n">
-        <v>40057</v>
+        <v>40087</v>
       </c>
       <c r="B189" s="2" t="n">
-        <v>54.9</v>
+        <v>57.6</v>
       </c>
       <c r="C189">
         <f>(B189/B201-1)*100</f>
@@ -2695,10 +2697,10 @@
     </row>
     <row r="190">
       <c r="A190" s="3" t="n">
-        <v>40026</v>
+        <v>40057</v>
       </c>
       <c r="B190" s="2" t="n">
-        <v>53.4</v>
+        <v>54.9</v>
       </c>
       <c r="C190">
         <f>(B190/B202-1)*100</f>
@@ -2707,10 +2709,10 @@
     </row>
     <row r="191">
       <c r="A191" s="3" t="n">
-        <v>39995</v>
+        <v>40026</v>
       </c>
       <c r="B191" s="2" t="n">
-        <v>49.7</v>
+        <v>53.4</v>
       </c>
       <c r="C191">
         <f>(B191/B203-1)*100</f>
@@ -2719,10 +2721,10 @@
     </row>
     <row r="192">
       <c r="A192" s="3" t="n">
-        <v>39965</v>
+        <v>39995</v>
       </c>
       <c r="B192" s="2" t="n">
-        <v>46.3</v>
+        <v>49.7</v>
       </c>
       <c r="C192">
         <f>(B192/B204-1)*100</f>
@@ -2731,10 +2733,10 @@
     </row>
     <row r="193">
       <c r="A193" s="3" t="n">
-        <v>39934</v>
+        <v>39965</v>
       </c>
       <c r="B193" s="2" t="n">
-        <v>44.1</v>
+        <v>46.3</v>
       </c>
       <c r="C193">
         <f>(B193/B205-1)*100</f>
@@ -2743,10 +2745,10 @@
     </row>
     <row r="194">
       <c r="A194" s="3" t="n">
-        <v>39904</v>
+        <v>39934</v>
       </c>
       <c r="B194" s="2" t="n">
-        <v>39.9</v>
+        <v>44.1</v>
       </c>
       <c r="C194">
         <f>(B194/B206-1)*100</f>
@@ -2755,10 +2757,10 @@
     </row>
     <row r="195">
       <c r="A195" s="3" t="n">
-        <v>39873</v>
+        <v>39904</v>
       </c>
       <c r="B195" s="2" t="n">
-        <v>37.2</v>
+        <v>39.9</v>
       </c>
       <c r="C195">
         <f>(B195/B207-1)*100</f>
@@ -2767,10 +2769,10 @@
     </row>
     <row r="196">
       <c r="A196" s="3" t="n">
-        <v>39845</v>
+        <v>39873</v>
       </c>
       <c r="B196" s="2" t="n">
-        <v>36.6</v>
+        <v>37.2</v>
       </c>
       <c r="C196">
         <f>(B196/B208-1)*100</f>
@@ -2779,10 +2781,10 @@
     </row>
     <row r="197">
       <c r="A197" s="3" t="n">
-        <v>39814</v>
+        <v>39845</v>
       </c>
       <c r="B197" s="2" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="C197">
         <f>(B197/B209-1)*100</f>
@@ -2791,10 +2793,10 @@
     </row>
     <row r="198">
       <c r="A198" s="3" t="n">
-        <v>39783</v>
+        <v>39814</v>
       </c>
       <c r="B198" s="2" t="n">
-        <v>34.5</v>
+        <v>36.4</v>
       </c>
       <c r="C198">
         <f>(B198/B210-1)*100</f>
@@ -2803,10 +2805,10 @@
     </row>
     <row r="199">
       <c r="A199" s="3" t="n">
-        <v>39753</v>
+        <v>39783</v>
       </c>
       <c r="B199" s="2" t="n">
-        <v>39</v>
+        <v>34.5</v>
       </c>
       <c r="C199">
         <f>(B199/B211-1)*100</f>
@@ -2815,10 +2817,10 @@
     </row>
     <row r="200">
       <c r="A200" s="3" t="n">
-        <v>39722</v>
+        <v>39753</v>
       </c>
       <c r="B200" s="2" t="n">
-        <v>38.2</v>
+        <v>39</v>
       </c>
       <c r="C200">
         <f>(B200/B212-1)*100</f>
@@ -2827,10 +2829,10 @@
     </row>
     <row r="201">
       <c r="A201" s="3" t="n">
-        <v>39692</v>
+        <v>39722</v>
       </c>
       <c r="B201" s="2" t="n">
-        <v>47.2</v>
+        <v>38.2</v>
       </c>
       <c r="C201">
         <f>(B201/B213-1)*100</f>
@@ -2839,10 +2841,10 @@
     </row>
     <row r="202">
       <c r="A202" s="3" t="n">
-        <v>39661</v>
+        <v>39692</v>
       </c>
       <c r="B202" s="2" t="n">
-        <v>50.1</v>
+        <v>47.2</v>
       </c>
       <c r="C202">
         <f>(B202/B214-1)*100</f>
@@ -2851,10 +2853,10 @@
     </row>
     <row r="203">
       <c r="A203" s="3" t="n">
-        <v>39630</v>
+        <v>39661</v>
       </c>
       <c r="B203" s="2" t="n">
-        <v>50.8</v>
+        <v>50.1</v>
       </c>
       <c r="C203">
         <f>(B203/B215-1)*100</f>
@@ -2863,10 +2865,10 @@
     </row>
     <row r="204">
       <c r="A204" s="3" t="n">
-        <v>39600</v>
+        <v>39630</v>
       </c>
       <c r="B204" s="2" t="n">
-        <v>49.9</v>
+        <v>50.8</v>
       </c>
       <c r="C204">
         <f>(B204/B216-1)*100</f>
@@ -2875,10 +2877,10 @@
     </row>
     <row r="205">
       <c r="A205" s="3" t="n">
-        <v>39569</v>
+        <v>39600</v>
       </c>
       <c r="B205" s="2" t="n">
-        <v>48.9</v>
+        <v>49.9</v>
       </c>
       <c r="C205">
         <f>(B205/B217-1)*100</f>
@@ -2887,10 +2889,10 @@
     </row>
     <row r="206">
       <c r="A206" s="3" t="n">
-        <v>39539</v>
+        <v>39569</v>
       </c>
       <c r="B206" s="2" t="n">
-        <v>48.5</v>
+        <v>48.9</v>
       </c>
       <c r="C206">
         <f>(B206/B218-1)*100</f>
@@ -2899,10 +2901,10 @@
     </row>
     <row r="207">
       <c r="A207" s="3" t="n">
-        <v>39508</v>
+        <v>39539</v>
       </c>
       <c r="B207" s="2" t="n">
-        <v>49.7</v>
+        <v>48.5</v>
       </c>
       <c r="C207">
         <f>(B207/B219-1)*100</f>
@@ -2911,10 +2913,10 @@
     </row>
     <row r="208">
       <c r="A208" s="3" t="n">
-        <v>39479</v>
+        <v>39508</v>
       </c>
       <c r="B208" s="2" t="n">
-        <v>48.8</v>
+        <v>49.7</v>
       </c>
       <c r="C208">
         <f>(B208/B220-1)*100</f>
@@ -2923,10 +2925,10 @@
     </row>
     <row r="209">
       <c r="A209" s="3" t="n">
-        <v>39448</v>
+        <v>39479</v>
       </c>
       <c r="B209" s="2" t="n">
-        <v>50.9</v>
+        <v>48.8</v>
       </c>
       <c r="C209">
         <f>(B209/B221-1)*100</f>
@@ -2935,10 +2937,10 @@
     </row>
     <row r="210">
       <c r="A210" s="3" t="n">
-        <v>39417</v>
+        <v>39448</v>
       </c>
       <c r="B210" s="2" t="n">
-        <v>50.1</v>
+        <v>50.9</v>
       </c>
       <c r="C210">
         <f>(B210/B222-1)*100</f>
@@ -2947,10 +2949,10 @@
     </row>
     <row r="211">
       <c r="A211" s="3" t="n">
-        <v>39387</v>
+        <v>39417</v>
       </c>
       <c r="B211" s="2" t="n">
-        <v>51.5</v>
+        <v>50.1</v>
       </c>
       <c r="C211">
         <f>(B211/B223-1)*100</f>
@@ -2959,10 +2961,10 @@
     </row>
     <row r="212">
       <c r="A212" s="3" t="n">
-        <v>39356</v>
+        <v>39387</v>
       </c>
       <c r="B212" s="2" t="n">
-        <v>52.8</v>
+        <v>51.5</v>
       </c>
       <c r="C212">
         <f>(B212/B224-1)*100</f>
@@ -2971,10 +2973,10 @@
     </row>
     <row r="213">
       <c r="A213" s="3" t="n">
-        <v>39326</v>
+        <v>39356</v>
       </c>
       <c r="B213" s="2" t="n">
-        <v>53.8</v>
+        <v>52.8</v>
       </c>
       <c r="C213">
         <f>(B213/B225-1)*100</f>
@@ -2983,10 +2985,10 @@
     </row>
     <row r="214">
       <c r="A214" s="3" t="n">
-        <v>39295</v>
+        <v>39326</v>
       </c>
       <c r="B214" s="2" t="n">
-        <v>52.2</v>
+        <v>53.8</v>
       </c>
       <c r="C214">
         <f>(B214/B226-1)*100</f>
@@ -2995,10 +2997,10 @@
     </row>
     <row r="215">
       <c r="A215" s="3" t="n">
-        <v>39264</v>
+        <v>39295</v>
       </c>
       <c r="B215" s="2" t="n">
-        <v>51.8</v>
+        <v>52.2</v>
       </c>
       <c r="C215">
         <f>(B215/B227-1)*100</f>
@@ -3007,10 +3009,10 @@
     </row>
     <row r="216">
       <c r="A216" s="3" t="n">
-        <v>39234</v>
+        <v>39264</v>
       </c>
       <c r="B216" s="2" t="n">
-        <v>54</v>
+        <v>51.8</v>
       </c>
       <c r="C216">
         <f>(B216/B228-1)*100</f>
@@ -3019,10 +3021,10 @@
     </row>
     <row r="217">
       <c r="A217" s="3" t="n">
-        <v>39203</v>
+        <v>39234</v>
       </c>
       <c r="B217" s="2" t="n">
-        <v>53.1</v>
+        <v>54</v>
       </c>
       <c r="C217">
         <f>(B217/B229-1)*100</f>
@@ -3031,10 +3033,10 @@
     </row>
     <row r="218">
       <c r="A218" s="3" t="n">
-        <v>39173</v>
+        <v>39203</v>
       </c>
       <c r="B218" s="2" t="n">
-        <v>52.7</v>
+        <v>53.1</v>
       </c>
       <c r="C218">
         <f>(B218/B230-1)*100</f>
@@ -3043,10 +3045,10 @@
     </row>
     <row r="219">
       <c r="A219" s="3" t="n">
-        <v>39142</v>
+        <v>39173</v>
       </c>
       <c r="B219" s="2" t="n">
-        <v>52.8</v>
+        <v>52.7</v>
       </c>
       <c r="C219">
         <f>(B219/B231-1)*100</f>
@@ -3055,10 +3057,10 @@
     </row>
     <row r="220">
       <c r="A220" s="3" t="n">
-        <v>39114</v>
+        <v>39142</v>
       </c>
       <c r="B220" s="2" t="n">
-        <v>54.1</v>
+        <v>52.8</v>
       </c>
       <c r="C220">
         <f>(B220/B232-1)*100</f>
@@ -3067,10 +3069,10 @@
     </row>
     <row r="221">
       <c r="A221" s="3" t="n">
-        <v>39083</v>
+        <v>39114</v>
       </c>
       <c r="B221" s="2" t="n">
-        <v>50.4</v>
+        <v>54.1</v>
       </c>
       <c r="C221">
         <f>(B221/B233-1)*100</f>
@@ -3079,10 +3081,10 @@
     </row>
     <row r="222">
       <c r="A222" s="3" t="n">
-        <v>39052</v>
+        <v>39083</v>
       </c>
       <c r="B222" s="2" t="n">
-        <v>51.4</v>
+        <v>50.4</v>
       </c>
       <c r="C222">
         <f>(B222/B234-1)*100</f>
@@ -3091,10 +3093,10 @@
     </row>
     <row r="223">
       <c r="A223" s="3" t="n">
-        <v>39022</v>
+        <v>39052</v>
       </c>
       <c r="B223" s="2" t="n">
-        <v>50.3</v>
+        <v>51.4</v>
       </c>
       <c r="C223">
         <f>(B223/B235-1)*100</f>
@@ -3103,10 +3105,10 @@
     </row>
     <row r="224">
       <c r="A224" s="3" t="n">
-        <v>38991</v>
+        <v>39022</v>
       </c>
       <c r="B224" s="2" t="n">
-        <v>51.4</v>
+        <v>50.3</v>
       </c>
       <c r="C224">
         <f>(B224/B236-1)*100</f>
@@ -3115,10 +3117,10 @@
     </row>
     <row r="225">
       <c r="A225" s="3" t="n">
-        <v>38961</v>
+        <v>38991</v>
       </c>
       <c r="B225" s="2" t="n">
-        <v>52.2</v>
+        <v>51.4</v>
       </c>
       <c r="C225">
         <f>(B225/B237-1)*100</f>
@@ -3127,10 +3129,10 @@
     </row>
     <row r="226">
       <c r="A226" s="3" t="n">
-        <v>38930</v>
+        <v>38961</v>
       </c>
       <c r="B226" s="2" t="n">
-        <v>53.7</v>
+        <v>52.2</v>
       </c>
       <c r="C226">
         <f>(B226/B238-1)*100</f>
@@ -3139,10 +3141,10 @@
     </row>
     <row r="227">
       <c r="A227" s="3" t="n">
-        <v>38899</v>
+        <v>38930</v>
       </c>
       <c r="B227" s="2" t="n">
-        <v>53</v>
+        <v>53.7</v>
       </c>
       <c r="C227">
         <f>(B227/B239-1)*100</f>
@@ -3151,10 +3153,10 @@
     </row>
     <row r="228">
       <c r="A228" s="3" t="n">
-        <v>38869</v>
+        <v>38899</v>
       </c>
       <c r="B228" s="2" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C228">
         <f>(B228/B240-1)*100</f>
@@ -3163,10 +3165,10 @@
     </row>
     <row r="229">
       <c r="A229" s="3" t="n">
-        <v>38838</v>
+        <v>38869</v>
       </c>
       <c r="B229" s="2" t="n">
-        <v>53.7</v>
+        <v>52</v>
       </c>
       <c r="C229">
         <f>(B229/B241-1)*100</f>
@@ -3175,10 +3177,10 @@
     </row>
     <row r="230">
       <c r="A230" s="3" t="n">
-        <v>38808</v>
+        <v>38838</v>
       </c>
       <c r="B230" s="2" t="n">
-        <v>55.2</v>
+        <v>53.7</v>
       </c>
       <c r="C230">
         <f>(B230/B242-1)*100</f>
@@ -3187,10 +3189,10 @@
     </row>
     <row r="231">
       <c r="A231" s="3" t="n">
-        <v>38777</v>
+        <v>38808</v>
       </c>
       <c r="B231" s="2" t="n">
-        <v>54.3</v>
+        <v>55.2</v>
       </c>
       <c r="C231">
         <f>(B231/B243-1)*100</f>
@@ -3199,10 +3201,10 @@
     </row>
     <row r="232">
       <c r="A232" s="3" t="n">
-        <v>38749</v>
+        <v>38777</v>
       </c>
       <c r="B232" s="2" t="n">
-        <v>55.8</v>
+        <v>54.3</v>
       </c>
       <c r="C232">
         <f>(B232/B244-1)*100</f>
@@ -3211,10 +3213,10 @@
     </row>
     <row r="233">
       <c r="A233" s="3" t="n">
-        <v>38718</v>
+        <v>38749</v>
       </c>
       <c r="B233" s="2" t="n">
-        <v>55</v>
+        <v>55.8</v>
       </c>
       <c r="C233">
         <f>(B233/B245-1)*100</f>
@@ -3223,10 +3225,10 @@
     </row>
     <row r="234">
       <c r="A234" s="3" t="n">
-        <v>38687</v>
+        <v>38718</v>
       </c>
       <c r="B234" s="2" t="n">
-        <v>55.1</v>
+        <v>55</v>
       </c>
       <c r="C234">
         <f>(B234/B246-1)*100</f>
@@ -3235,10 +3237,10 @@
     </row>
     <row r="235">
       <c r="A235" s="3" t="n">
-        <v>38657</v>
+        <v>38687</v>
       </c>
       <c r="B235" s="2" t="n">
-        <v>56.7</v>
+        <v>55.1</v>
       </c>
       <c r="C235">
         <f>(B235/B247-1)*100</f>
@@ -3247,10 +3249,10 @@
     </row>
     <row r="236">
       <c r="A236" s="3" t="n">
-        <v>38626</v>
+        <v>38657</v>
       </c>
       <c r="B236" s="2" t="n">
-        <v>57.2</v>
+        <v>56.7</v>
       </c>
       <c r="C236">
         <f>(B236/B248-1)*100</f>
@@ -3259,10 +3261,10 @@
     </row>
     <row r="237">
       <c r="A237" s="3" t="n">
-        <v>38596</v>
+        <v>38626</v>
       </c>
       <c r="B237" s="2" t="n">
-        <v>56.8</v>
+        <v>57.2</v>
       </c>
       <c r="C237">
         <f>(B237/B249-1)*100</f>
@@ -3271,10 +3273,10 @@
     </row>
     <row r="238">
       <c r="A238" s="3" t="n">
-        <v>38565</v>
+        <v>38596</v>
       </c>
       <c r="B238" s="2" t="n">
-        <v>52.4</v>
+        <v>56.8</v>
       </c>
       <c r="C238">
         <f>(B238/B250-1)*100</f>
@@ -3283,10 +3285,10 @@
     </row>
     <row r="239">
       <c r="A239" s="3" t="n">
-        <v>38534</v>
+        <v>38565</v>
       </c>
       <c r="B239" s="2" t="n">
-        <v>52.8</v>
+        <v>52.4</v>
       </c>
       <c r="C239">
         <f>(B239/B251-1)*100</f>
@@ -3295,10 +3297,10 @@
     </row>
     <row r="240">
       <c r="A240" s="3" t="n">
-        <v>38504</v>
+        <v>38534</v>
       </c>
       <c r="B240" s="2" t="n">
-        <v>52.4</v>
+        <v>52.8</v>
       </c>
       <c r="C240">
         <f>(B240/B252-1)*100</f>
@@ -3307,10 +3309,10 @@
     </row>
     <row r="241">
       <c r="A241" s="3" t="n">
-        <v>38473</v>
+        <v>38504</v>
       </c>
       <c r="B241" s="2" t="n">
-        <v>50.8</v>
+        <v>52.4</v>
       </c>
       <c r="C241">
         <f>(B241/B253-1)*100</f>
@@ -3319,10 +3321,10 @@
     </row>
     <row r="242">
       <c r="A242" s="3" t="n">
-        <v>38443</v>
+        <v>38473</v>
       </c>
       <c r="B242" s="2" t="n">
-        <v>52.2</v>
+        <v>50.8</v>
       </c>
       <c r="C242">
         <f>(B242/B254-1)*100</f>
@@ -3331,10 +3333,10 @@
     </row>
     <row r="243">
       <c r="A243" s="3" t="n">
-        <v>38412</v>
+        <v>38443</v>
       </c>
       <c r="B243" s="2" t="n">
-        <v>55.2</v>
+        <v>52.2</v>
       </c>
       <c r="C243">
         <f>(B243/B255-1)*100</f>
@@ -3343,10 +3345,10 @@
     </row>
     <row r="244">
       <c r="A244" s="3" t="n">
-        <v>38384</v>
+        <v>38412</v>
       </c>
       <c r="B244" s="2" t="n">
-        <v>55.5</v>
+        <v>55.2</v>
       </c>
       <c r="C244">
         <f>(B244/B256-1)*100</f>
@@ -3355,10 +3357,10 @@
     </row>
     <row r="245">
       <c r="A245" s="3" t="n">
-        <v>38353</v>
+        <v>38384</v>
       </c>
       <c r="B245" s="2" t="n">
-        <v>56.8</v>
+        <v>55.5</v>
       </c>
       <c r="C245">
         <f>(B245/B257-1)*100</f>
@@ -3367,10 +3369,10 @@
     </row>
     <row r="246">
       <c r="A246" s="3" t="n">
-        <v>38322</v>
+        <v>38353</v>
       </c>
       <c r="B246" s="2" t="n">
-        <v>57.2</v>
+        <v>56.8</v>
       </c>
       <c r="C246">
         <f>(B246/B258-1)*100</f>
@@ -3379,10 +3381,10 @@
     </row>
     <row r="247">
       <c r="A247" s="3" t="n">
-        <v>38292</v>
+        <v>38322</v>
       </c>
       <c r="B247" s="2" t="n">
-        <v>56.2</v>
+        <v>57.2</v>
       </c>
       <c r="C247">
         <f>(B247/B259-1)*100</f>
@@ -3391,10 +3393,10 @@
     </row>
     <row r="248">
       <c r="A248" s="3" t="n">
-        <v>38261</v>
+        <v>38292</v>
       </c>
       <c r="B248" s="2" t="n">
-        <v>56.3</v>
+        <v>56.2</v>
       </c>
       <c r="C248">
         <f>(B248/B260-1)*100</f>
@@ -3403,10 +3405,10 @@
     </row>
     <row r="249">
       <c r="A249" s="3" t="n">
-        <v>38231</v>
+        <v>38261</v>
       </c>
       <c r="B249" s="2" t="n">
-        <v>57.4</v>
+        <v>56.3</v>
       </c>
       <c r="C249">
         <f>(B249/B261-1)*100</f>
@@ -3415,10 +3417,10 @@
     </row>
     <row r="250">
       <c r="A250" s="3" t="n">
-        <v>38200</v>
+        <v>38231</v>
       </c>
       <c r="B250" s="2" t="n">
-        <v>58.5</v>
+        <v>57.4</v>
       </c>
       <c r="C250">
         <f>(B250/B262-1)*100</f>
@@ -3427,10 +3429,10 @@
     </row>
     <row r="251">
       <c r="A251" s="3" t="n">
-        <v>38169</v>
+        <v>38200</v>
       </c>
       <c r="B251" s="2" t="n">
-        <v>59.9</v>
+        <v>58.5</v>
       </c>
       <c r="C251">
         <f>(B251/B263-1)*100</f>
@@ -3439,10 +3441,10 @@
     </row>
     <row r="252">
       <c r="A252" s="3" t="n">
-        <v>38139</v>
+        <v>38169</v>
       </c>
       <c r="B252" s="2" t="n">
-        <v>60.5</v>
+        <v>59.9</v>
       </c>
       <c r="C252">
         <f>(B252/B264-1)*100</f>
@@ -3451,10 +3453,10 @@
     </row>
     <row r="253">
       <c r="A253" s="3" t="n">
-        <v>38108</v>
+        <v>38139</v>
       </c>
       <c r="B253" s="2" t="n">
-        <v>61.4</v>
+        <v>60.5</v>
       </c>
       <c r="C253">
         <f>(B253/B265-1)*100</f>
@@ -3463,10 +3465,10 @@
     </row>
     <row r="254">
       <c r="A254" s="3" t="n">
-        <v>38078</v>
+        <v>38108</v>
       </c>
       <c r="B254" s="2" t="n">
-        <v>60.6</v>
+        <v>61.4</v>
       </c>
       <c r="C254">
         <f>(B254/B266-1)*100</f>
@@ -3475,7 +3477,7 @@
     </row>
     <row r="255">
       <c r="A255" s="3" t="n">
-        <v>38047</v>
+        <v>38078</v>
       </c>
       <c r="B255" s="2" t="n">
         <v>60.6</v>
@@ -3487,10 +3489,10 @@
     </row>
     <row r="256">
       <c r="A256" s="3" t="n">
-        <v>38018</v>
+        <v>38047</v>
       </c>
       <c r="B256" s="2" t="n">
-        <v>59.9</v>
+        <v>60.6</v>
       </c>
       <c r="C256">
         <f>(B256/B268-1)*100</f>
@@ -3499,10 +3501,10 @@
     </row>
     <row r="257">
       <c r="A257" s="3" t="n">
-        <v>37987</v>
+        <v>38018</v>
       </c>
       <c r="B257" s="2" t="n">
-        <v>60.8</v>
+        <v>59.9</v>
       </c>
       <c r="C257">
         <f>(B257/B269-1)*100</f>
@@ -3511,10 +3513,10 @@
     </row>
     <row r="258">
       <c r="A258" s="3" t="n">
-        <v>37956</v>
+        <v>37987</v>
       </c>
       <c r="B258" s="2" t="n">
-        <v>60.1</v>
+        <v>60.8</v>
       </c>
       <c r="C258">
         <f>(B258/B270-1)*100</f>
@@ -3523,10 +3525,10 @@
     </row>
     <row r="259">
       <c r="A259" s="3" t="n">
-        <v>37926</v>
+        <v>37956</v>
       </c>
       <c r="B259" s="2" t="n">
-        <v>58.4</v>
+        <v>60.1</v>
       </c>
       <c r="C259">
         <f>(B259/B271-1)*100</f>
@@ -3535,10 +3537,10 @@
     </row>
     <row r="260">
       <c r="A260" s="3" t="n">
-        <v>37895</v>
+        <v>37926</v>
       </c>
       <c r="B260" s="2" t="n">
-        <v>55.2</v>
+        <v>58.4</v>
       </c>
       <c r="C260">
         <f>(B260/B272-1)*100</f>
@@ -3547,10 +3549,10 @@
     </row>
     <row r="261">
       <c r="A261" s="3" t="n">
-        <v>37865</v>
+        <v>37895</v>
       </c>
       <c r="B261" s="2" t="n">
-        <v>52.4</v>
+        <v>55.2</v>
       </c>
       <c r="C261">
         <f>(B261/B273-1)*100</f>
@@ -3559,10 +3561,10 @@
     </row>
     <row r="262">
       <c r="A262" s="3" t="n">
-        <v>37834</v>
+        <v>37865</v>
       </c>
       <c r="B262" s="2" t="n">
-        <v>53.2</v>
+        <v>52.4</v>
       </c>
       <c r="C262">
         <f>(B262/B274-1)*100</f>
@@ -3571,10 +3573,10 @@
     </row>
     <row r="263">
       <c r="A263" s="3" t="n">
-        <v>37803</v>
+        <v>37834</v>
       </c>
       <c r="B263" s="2" t="n">
-        <v>51</v>
+        <v>53.2</v>
       </c>
       <c r="C263">
         <f>(B263/B275-1)*100</f>
@@ -3583,10 +3585,10 @@
     </row>
     <row r="264">
       <c r="A264" s="3" t="n">
-        <v>37773</v>
+        <v>37803</v>
       </c>
       <c r="B264" s="2" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C264">
         <f>(B264/B276-1)*100</f>
@@ -3595,7 +3597,7 @@
     </row>
     <row r="265">
       <c r="A265" s="3" t="n">
-        <v>37742</v>
+        <v>37773</v>
       </c>
       <c r="B265" s="2" t="n">
         <v>49</v>
@@ -3607,10 +3609,10 @@
     </row>
     <row r="266">
       <c r="A266" s="3" t="n">
-        <v>37712</v>
+        <v>37742</v>
       </c>
       <c r="B266" s="2" t="n">
-        <v>46.1</v>
+        <v>49</v>
       </c>
       <c r="C266">
         <f>(B266/B278-1)*100</f>
@@ -3619,10 +3621,10 @@
     </row>
     <row r="267">
       <c r="A267" s="3" t="n">
-        <v>37681</v>
+        <v>37712</v>
       </c>
       <c r="B267" s="2" t="n">
-        <v>46.3</v>
+        <v>46.1</v>
       </c>
       <c r="C267">
         <f>(B267/B279-1)*100</f>
@@ -3631,10 +3633,10 @@
     </row>
     <row r="268">
       <c r="A268" s="3" t="n">
-        <v>37653</v>
+        <v>37681</v>
       </c>
       <c r="B268" s="2" t="n">
-        <v>48.8</v>
+        <v>46.3</v>
       </c>
       <c r="C268">
         <f>(B268/B280-1)*100</f>
@@ -3643,10 +3645,10 @@
     </row>
     <row r="269">
       <c r="A269" s="3" t="n">
-        <v>37622</v>
+        <v>37653</v>
       </c>
       <c r="B269" s="2" t="n">
-        <v>51.3</v>
+        <v>48.8</v>
       </c>
       <c r="C269">
         <f>(B269/B281-1)*100</f>
@@ -3655,10 +3657,10 @@
     </row>
     <row r="270">
       <c r="A270" s="3" t="n">
-        <v>37591</v>
+        <v>37622</v>
       </c>
       <c r="B270" s="2" t="n">
-        <v>51.6</v>
+        <v>51.3</v>
       </c>
       <c r="C270">
         <f>(B270/B282-1)*100</f>
@@ -3667,10 +3669,10 @@
     </row>
     <row r="271">
       <c r="A271" s="3" t="n">
-        <v>37561</v>
+        <v>37591</v>
       </c>
       <c r="B271" s="2" t="n">
-        <v>48.5</v>
+        <v>51.6</v>
       </c>
       <c r="C271">
         <f>(B271/B283-1)*100</f>
@@ -3679,10 +3681,10 @@
     </row>
     <row r="272">
       <c r="A272" s="3" t="n">
-        <v>37530</v>
+        <v>37561</v>
       </c>
       <c r="B272" s="2" t="n">
-        <v>49</v>
+        <v>48.5</v>
       </c>
       <c r="C272">
         <f>(B272/B284-1)*100</f>
@@ -3691,10 +3693,10 @@
     </row>
     <row r="273">
       <c r="A273" s="3" t="n">
-        <v>37500</v>
+        <v>37530</v>
       </c>
       <c r="B273" s="2" t="n">
-        <v>50.5</v>
+        <v>49</v>
       </c>
       <c r="C273">
         <f>(B273/B285-1)*100</f>
@@ -3703,10 +3705,10 @@
     </row>
     <row r="274">
       <c r="A274" s="3" t="n">
-        <v>37469</v>
+        <v>37500</v>
       </c>
       <c r="B274" s="2" t="n">
-        <v>50.3</v>
+        <v>50.5</v>
       </c>
       <c r="C274">
         <f>(B274/B286-1)*100</f>
@@ -3715,10 +3717,10 @@
     </row>
     <row r="275">
       <c r="A275" s="3" t="n">
-        <v>37438</v>
+        <v>37469</v>
       </c>
       <c r="B275" s="2" t="n">
-        <v>50.2</v>
+        <v>50.3</v>
       </c>
       <c r="C275">
         <f>(B275/B287-1)*100</f>
@@ -3727,10 +3729,10 @@
     </row>
     <row r="276">
       <c r="A276" s="3" t="n">
-        <v>37408</v>
+        <v>37438</v>
       </c>
       <c r="B276" s="2" t="n">
-        <v>53.6</v>
+        <v>50.2</v>
       </c>
       <c r="C276">
         <f>(B276/B288-1)*100</f>
@@ -3739,10 +3741,10 @@
     </row>
     <row r="277">
       <c r="A277" s="3" t="n">
-        <v>37377</v>
+        <v>37408</v>
       </c>
       <c r="B277" s="2" t="n">
-        <v>53.1</v>
+        <v>53.6</v>
       </c>
       <c r="C277">
         <f>(B277/B289-1)*100</f>
@@ -3751,10 +3753,10 @@
     </row>
     <row r="278">
       <c r="A278" s="3" t="n">
-        <v>37347</v>
+        <v>37377</v>
       </c>
       <c r="B278" s="2" t="n">
-        <v>52.4</v>
+        <v>53.1</v>
       </c>
       <c r="C278">
         <f>(B278/B290-1)*100</f>
@@ -3763,7 +3765,7 @@
     </row>
     <row r="279">
       <c r="A279" s="3" t="n">
-        <v>37316</v>
+        <v>37347</v>
       </c>
       <c r="B279" s="2" t="n">
         <v>52.4</v>
@@ -3775,10 +3777,10 @@
     </row>
     <row r="280">
       <c r="A280" s="3" t="n">
-        <v>37288</v>
+        <v>37316</v>
       </c>
       <c r="B280" s="2" t="n">
-        <v>50.7</v>
+        <v>52.4</v>
       </c>
       <c r="C280">
         <f>(B280/B292-1)*100</f>
@@ -3787,10 +3789,10 @@
     </row>
     <row r="281">
       <c r="A281" s="3" t="n">
-        <v>37257</v>
+        <v>37288</v>
       </c>
       <c r="B281" s="2" t="n">
-        <v>47.5</v>
+        <v>50.7</v>
       </c>
       <c r="C281">
         <f>(B281/B293-1)*100</f>
@@ -3799,10 +3801,10 @@
     </row>
     <row r="282">
       <c r="A282" s="3" t="n">
-        <v>37226</v>
+        <v>37257</v>
       </c>
       <c r="B282" s="2" t="n">
-        <v>45.3</v>
+        <v>47.5</v>
       </c>
       <c r="C282">
         <f>(B282/B294-1)*100</f>
@@ -3811,10 +3813,10 @@
     </row>
     <row r="283">
       <c r="A283" s="3" t="n">
-        <v>37196</v>
+        <v>37226</v>
       </c>
       <c r="B283" s="2" t="n">
-        <v>44.1</v>
+        <v>45.3</v>
       </c>
       <c r="C283">
         <f>(B283/B295-1)*100</f>
@@ -3823,10 +3825,10 @@
     </row>
     <row r="284">
       <c r="A284" s="3" t="n">
-        <v>37165</v>
+        <v>37196</v>
       </c>
       <c r="B284" s="2" t="n">
-        <v>40.8</v>
+        <v>44.1</v>
       </c>
       <c r="C284">
         <f>(B284/B296-1)*100</f>
@@ -3835,10 +3837,10 @@
     </row>
     <row r="285">
       <c r="A285" s="3" t="n">
-        <v>37135</v>
+        <v>37165</v>
       </c>
       <c r="B285" s="2" t="n">
-        <v>46.2</v>
+        <v>40.8</v>
       </c>
       <c r="C285">
         <f>(B285/B297-1)*100</f>
@@ -3847,10 +3849,10 @@
     </row>
     <row r="286">
       <c r="A286" s="3" t="n">
-        <v>37104</v>
+        <v>37135</v>
       </c>
       <c r="B286" s="2" t="n">
-        <v>46.3</v>
+        <v>46.2</v>
       </c>
       <c r="C286">
         <f>(B286/B298-1)*100</f>
@@ -3859,10 +3861,10 @@
     </row>
     <row r="287">
       <c r="A287" s="3" t="n">
-        <v>37073</v>
+        <v>37104</v>
       </c>
       <c r="B287" s="2" t="n">
-        <v>43.5</v>
+        <v>46.3</v>
       </c>
       <c r="C287">
         <f>(B287/B299-1)*100</f>
@@ -3871,10 +3873,10 @@
     </row>
     <row r="288">
       <c r="A288" s="3" t="n">
-        <v>37043</v>
+        <v>37073</v>
       </c>
       <c r="B288" s="2" t="n">
-        <v>43.2</v>
+        <v>43.5</v>
       </c>
       <c r="C288">
         <f>(B288/B300-1)*100</f>
@@ -3883,10 +3885,10 @@
     </row>
     <row r="289">
       <c r="A289" s="3" t="n">
-        <v>37012</v>
+        <v>37043</v>
       </c>
       <c r="B289" s="2" t="n">
-        <v>41.3</v>
+        <v>43.2</v>
       </c>
       <c r="C289">
         <f>(B289/B301-1)*100</f>
@@ -3895,10 +3897,10 @@
     </row>
     <row r="290">
       <c r="A290" s="3" t="n">
-        <v>36982</v>
+        <v>37012</v>
       </c>
       <c r="B290" s="2" t="n">
-        <v>42.7</v>
+        <v>41.3</v>
       </c>
       <c r="C290">
         <f>(B290/B302-1)*100</f>
@@ -3907,10 +3909,10 @@
     </row>
     <row r="291">
       <c r="A291" s="3" t="n">
-        <v>36951</v>
+        <v>36982</v>
       </c>
       <c r="B291" s="2" t="n">
-        <v>43.1</v>
+        <v>42.7</v>
       </c>
       <c r="C291">
         <f>(B291/B303-1)*100</f>
@@ -3919,10 +3921,10 @@
     </row>
     <row r="292">
       <c r="A292" s="3" t="n">
-        <v>36923</v>
+        <v>36951</v>
       </c>
       <c r="B292" s="2" t="n">
-        <v>42.1</v>
+        <v>43.1</v>
       </c>
       <c r="C292">
         <f>(B292/B304-1)*100</f>
@@ -3931,10 +3933,10 @@
     </row>
     <row r="293">
       <c r="A293" s="3" t="n">
-        <v>36892</v>
+        <v>36923</v>
       </c>
       <c r="B293" s="2" t="n">
-        <v>42.3</v>
+        <v>42.1</v>
       </c>
       <c r="C293">
         <f>(B293/B305-1)*100</f>
@@ -3943,10 +3945,10 @@
     </row>
     <row r="294">
       <c r="A294" s="3" t="n">
-        <v>36861</v>
+        <v>36892</v>
       </c>
       <c r="B294" s="2" t="n">
-        <v>43.9</v>
+        <v>42.3</v>
       </c>
       <c r="C294">
         <f>(B294/B306-1)*100</f>
@@ -3955,10 +3957,10 @@
     </row>
     <row r="295">
       <c r="A295" s="3" t="n">
-        <v>36831</v>
+        <v>36861</v>
       </c>
       <c r="B295" s="2" t="n">
-        <v>48.5</v>
+        <v>43.9</v>
       </c>
       <c r="C295">
         <f>(B295/B307-1)*100</f>
@@ -3967,10 +3969,10 @@
     </row>
     <row r="296">
       <c r="A296" s="3" t="n">
-        <v>36800</v>
+        <v>36831</v>
       </c>
       <c r="B296" s="2" t="n">
-        <v>48.7</v>
+        <v>48.5</v>
       </c>
       <c r="C296">
         <f>(B296/B308-1)*100</f>
@@ -3979,10 +3981,10 @@
     </row>
     <row r="297">
       <c r="A297" s="3" t="n">
-        <v>36770</v>
+        <v>36800</v>
       </c>
       <c r="B297" s="2" t="n">
-        <v>49.7</v>
+        <v>48.7</v>
       </c>
       <c r="C297">
         <f>(B297/B309-1)*100</f>
@@ -3991,10 +3993,10 @@
     </row>
     <row r="298">
       <c r="A298" s="3" t="n">
-        <v>36739</v>
+        <v>36770</v>
       </c>
       <c r="B298" s="2" t="n">
-        <v>49.9</v>
+        <v>49.7</v>
       </c>
       <c r="C298">
         <f>(B298/B310-1)*100</f>
@@ -4003,10 +4005,10 @@
     </row>
     <row r="299">
       <c r="A299" s="3" t="n">
-        <v>36708</v>
+        <v>36739</v>
       </c>
       <c r="B299" s="2" t="n">
-        <v>52.5</v>
+        <v>49.9</v>
       </c>
       <c r="C299">
         <f>(B299/B311-1)*100</f>
@@ -4015,10 +4017,10 @@
     </row>
     <row r="300">
       <c r="A300" s="3" t="n">
-        <v>36678</v>
+        <v>36708</v>
       </c>
       <c r="B300" s="2" t="n">
-        <v>51.4</v>
+        <v>52.5</v>
       </c>
       <c r="C300">
         <f>(B300/B312-1)*100</f>
@@ -4027,10 +4029,10 @@
     </row>
     <row r="301">
       <c r="A301" s="3" t="n">
-        <v>36647</v>
+        <v>36678</v>
       </c>
       <c r="B301" s="2" t="n">
-        <v>53.2</v>
+        <v>51.4</v>
       </c>
       <c r="C301">
         <f>(B301/B313-1)*100</f>
@@ -4039,10 +4041,10 @@
     </row>
     <row r="302">
       <c r="A302" s="3" t="n">
-        <v>36617</v>
+        <v>36647</v>
       </c>
       <c r="B302" s="2" t="n">
-        <v>54.7</v>
+        <v>53.2</v>
       </c>
       <c r="C302">
         <f>(B302/B314-1)*100</f>
@@ -4051,10 +4053,10 @@
     </row>
     <row r="303">
       <c r="A303" s="3" t="n">
-        <v>36586</v>
+        <v>36617</v>
       </c>
       <c r="B303" s="2" t="n">
-        <v>54.9</v>
+        <v>54.7</v>
       </c>
       <c r="C303">
         <f>(B303/B315-1)*100</f>
@@ -4063,10 +4065,10 @@
     </row>
     <row r="304">
       <c r="A304" s="3" t="n">
-        <v>36557</v>
+        <v>36586</v>
       </c>
       <c r="B304" s="2" t="n">
-        <v>55.8</v>
+        <v>54.9</v>
       </c>
       <c r="C304">
         <f>(B304/B316-1)*100</f>
@@ -4075,10 +4077,10 @@
     </row>
     <row r="305">
       <c r="A305" s="3" t="n">
-        <v>36526</v>
+        <v>36557</v>
       </c>
       <c r="B305" s="2" t="n">
-        <v>56.7</v>
+        <v>55.8</v>
       </c>
       <c r="C305">
         <f>(B305/B317-1)*100</f>
@@ -4087,10 +4089,10 @@
     </row>
     <row r="306">
       <c r="A306" s="3" t="n">
-        <v>36495</v>
+        <v>36526</v>
       </c>
       <c r="B306" s="2" t="n">
-        <v>57.8</v>
+        <v>56.7</v>
       </c>
       <c r="C306">
         <f>(B306/B318-1)*100</f>
@@ -4099,10 +4101,10 @@
     </row>
     <row r="307">
       <c r="A307" s="3" t="n">
-        <v>36465</v>
+        <v>36495</v>
       </c>
       <c r="B307" s="2" t="n">
-        <v>58.1</v>
+        <v>57.8</v>
       </c>
       <c r="C307">
         <f>(B307/B319-1)*100</f>
@@ -4111,10 +4113,10 @@
     </row>
     <row r="308">
       <c r="A308" s="3" t="n">
-        <v>36434</v>
+        <v>36465</v>
       </c>
       <c r="B308" s="2" t="n">
-        <v>57.2</v>
+        <v>58.1</v>
       </c>
       <c r="C308">
         <f>(B308/B320-1)*100</f>
@@ -4123,10 +4125,10 @@
     </row>
     <row r="309">
       <c r="A309" s="3" t="n">
-        <v>36404</v>
+        <v>36434</v>
       </c>
       <c r="B309" s="2" t="n">
-        <v>57</v>
+        <v>57.2</v>
       </c>
       <c r="C309">
         <f>(B309/B321-1)*100</f>
@@ -4135,10 +4137,10 @@
     </row>
     <row r="310">
       <c r="A310" s="3" t="n">
-        <v>36373</v>
+        <v>36404</v>
       </c>
       <c r="B310" s="2" t="n">
-        <v>54.8</v>
+        <v>57</v>
       </c>
       <c r="C310">
         <f>(B310/B322-1)*100</f>
@@ -4147,10 +4149,10 @@
     </row>
     <row r="311">
       <c r="A311" s="3" t="n">
-        <v>36342</v>
+        <v>36373</v>
       </c>
       <c r="B311" s="2" t="n">
-        <v>53.6</v>
+        <v>54.8</v>
       </c>
       <c r="C311">
         <f>(B311/B323-1)*100</f>
@@ -4159,10 +4161,10 @@
     </row>
     <row r="312">
       <c r="A312" s="3" t="n">
-        <v>36312</v>
+        <v>36342</v>
       </c>
       <c r="B312" s="2" t="n">
-        <v>55.8</v>
+        <v>53.6</v>
       </c>
       <c r="C312">
         <f>(B312/B324-1)*100</f>
@@ -4171,10 +4173,10 @@
     </row>
     <row r="313">
       <c r="A313" s="3" t="n">
-        <v>36281</v>
+        <v>36312</v>
       </c>
       <c r="B313" s="2" t="n">
-        <v>54.3</v>
+        <v>55.8</v>
       </c>
       <c r="C313">
         <f>(B313/B325-1)*100</f>
@@ -4183,10 +4185,10 @@
     </row>
     <row r="314">
       <c r="A314" s="3" t="n">
-        <v>36251</v>
+        <v>36281</v>
       </c>
       <c r="B314" s="2" t="n">
-        <v>52.3</v>
+        <v>54.3</v>
       </c>
       <c r="C314">
         <f>(B314/B326-1)*100</f>
@@ -4195,10 +4197,10 @@
     </row>
     <row r="315">
       <c r="A315" s="3" t="n">
-        <v>36220</v>
+        <v>36251</v>
       </c>
       <c r="B315" s="2" t="n">
-        <v>52.4</v>
+        <v>52.3</v>
       </c>
       <c r="C315">
         <f>(B315/B327-1)*100</f>
@@ -4207,10 +4209,10 @@
     </row>
     <row r="316">
       <c r="A316" s="3" t="n">
-        <v>36192</v>
+        <v>36220</v>
       </c>
       <c r="B316" s="2" t="n">
-        <v>51.7</v>
+        <v>52.4</v>
       </c>
       <c r="C316">
         <f>(B316/B328-1)*100</f>
@@ -4219,10 +4221,10 @@
     </row>
     <row r="317">
       <c r="A317" s="3" t="n">
-        <v>36161</v>
+        <v>36192</v>
       </c>
       <c r="B317" s="2" t="n">
-        <v>50.6</v>
+        <v>51.7</v>
       </c>
       <c r="C317">
         <f>(B317/B329-1)*100</f>
@@ -4230,7 +4232,12 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="3" t="n"/>
+      <c r="A318" s="3" t="n">
+        <v>36161</v>
+      </c>
+      <c r="B318" s="2" t="n">
+        <v>50.6</v>
+      </c>
       <c r="C318">
         <f>(B318/B330-1)*100</f>
         <v/>
@@ -4320,6 +4327,13 @@
         <v/>
       </c>
     </row>
+    <row r="331">
+      <c r="A331" s="3" t="n"/>
+      <c r="C331">
+        <f>(B331/B343-1)*100</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/pmi.xlsx
+++ b/data/pmi.xlsx
@@ -400,7 +400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C331"/>
+  <dimension ref="A1:C332"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,1119 +432,1121 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48.5</v>
+        <v>49</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.7</v>
+        <v>48.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-1</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49</v>
+        <v>48.7</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50.3</v>
+        <v>49</v>
       </c>
       <c r="C5" t="n">
-        <v>5.2</v>
+        <v>-2.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>2025-01-01</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B7" t="n">
         <v>50.9</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3.7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="n">
-        <v>45627</v>
-      </c>
-      <c r="B7" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="C7" t="n">
-        <v>4.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B8" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="n">
         <v>45597</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B9" t="n">
         <v>48.4</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>3.9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>45566</v>
-      </c>
-      <c r="B9" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-0.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B10" t="n">
-        <v>47.2</v>
+        <v>46.5</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.7</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B11" t="n">
         <v>47.2</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.8</v>
+        <v>-3.7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B12" t="n">
-        <v>46.8</v>
+        <v>47.2</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45444</v>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>48.5</v>
+        <v>45474</v>
+      </c>
+      <c r="B13" t="n">
+        <v>46.8</v>
       </c>
       <c r="C13" t="n">
-        <v>5.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>48.7</v>
+        <v>48.5</v>
       </c>
       <c r="C14" t="n">
-        <v>3.8</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>49.2</v>
+        <v>48.7</v>
       </c>
       <c r="C15" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>50.3</v>
+        <v>49.2</v>
       </c>
       <c r="C16" t="n">
-        <v>8.6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>47.8</v>
+        <v>50.3</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>49.1</v>
+        <v>47.8</v>
       </c>
       <c r="C18" t="n">
-        <v>3.6</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>47.1</v>
+        <v>49.1</v>
       </c>
       <c r="C19" t="n">
-        <v>-2.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>46.6</v>
+        <v>47.1</v>
       </c>
       <c r="C20" t="n">
-        <v>-4.9</v>
+        <v>-2.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>46.7</v>
+        <v>46.6</v>
       </c>
       <c r="C21" t="n">
-        <v>-6.6</v>
+        <v>-4.9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>49</v>
+        <v>46.7</v>
       </c>
       <c r="C22" t="n">
-        <v>-3.9</v>
+        <v>-6.6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>47.6</v>
+        <v>49</v>
       </c>
       <c r="C23" t="n">
-        <v>-10</v>
+        <v>-3.9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>46.4</v>
+        <v>47.6</v>
       </c>
       <c r="C24" t="n">
-        <v>-12</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>46</v>
+        <v>46.4</v>
       </c>
       <c r="C25" t="n">
-        <v>-13.4</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>46.9</v>
+        <v>46</v>
       </c>
       <c r="C26" t="n">
-        <v>-16.4</v>
+        <v>-13.4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>47.1</v>
+        <v>46.9</v>
       </c>
       <c r="C27" t="n">
-        <v>-15.7</v>
+        <v>-16.4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>46.3</v>
+        <v>47.1</v>
       </c>
       <c r="C28" t="n">
-        <v>-18.8</v>
+        <v>-15.7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>47.7</v>
+        <v>46.3</v>
       </c>
       <c r="C29" t="n">
-        <v>-18.3</v>
+        <v>-18.8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B30" s="2" t="n">
-        <v>47.4</v>
+        <v>44958</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>47.7</v>
       </c>
       <c r="C30" t="n">
-        <v>-17.7</v>
+        <v>-18.3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>48.4</v>
+        <v>47.4</v>
       </c>
       <c r="C31" t="n">
-        <v>-17.4</v>
+        <v>-17.7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>49</v>
+        <v>48.4</v>
       </c>
       <c r="C32" t="n">
-        <v>-19.4</v>
+        <v>-17.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" t="n">
-        <v>-17.8</v>
+        <v>-19.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34" t="n">
-        <v>-16.5</v>
+        <v>-17.8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>52.9</v>
+        <v>51</v>
       </c>
       <c r="C35" t="n">
-        <v>-11.7</v>
+        <v>-16.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>52.7</v>
+        <v>52.9</v>
       </c>
       <c r="C36" t="n">
-        <v>-11.3</v>
+        <v>-11.7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>53.1</v>
+        <v>52.7</v>
       </c>
       <c r="C37" t="n">
-        <v>-12.4</v>
+        <v>-11.3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>56.1</v>
+        <v>53.1</v>
       </c>
       <c r="C38" t="n">
-        <v>-8.300000000000001</v>
+        <v>-12.4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>55.9</v>
+        <v>56.1</v>
       </c>
       <c r="C39" t="n">
-        <v>-7.9</v>
+        <v>-8.300000000000001</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>57</v>
+        <v>55.9</v>
       </c>
       <c r="C40" t="n">
-        <v>-11.9</v>
+        <v>-7.9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>58.4</v>
+        <v>57</v>
       </c>
       <c r="C41" t="n">
-        <v>-3.9</v>
+        <v>-11.9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>57.6</v>
+        <v>58.4</v>
       </c>
       <c r="C42" t="n">
-        <v>-1.9</v>
+        <v>-3.9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>58.6</v>
+        <v>57.6</v>
       </c>
       <c r="C43" t="n">
-        <v>-3.1</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>60.8</v>
+        <v>58.6</v>
       </c>
       <c r="C44" t="n">
-        <v>5.4</v>
+        <v>-3.1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B45" s="2" t="n">
         <v>60.8</v>
       </c>
       <c r="C45" t="n">
-        <v>3.4</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>61.1</v>
+        <v>60.8</v>
       </c>
       <c r="C46" t="n">
-        <v>9.699999999999999</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>59.9</v>
+        <v>61.1</v>
       </c>
       <c r="C47" t="n">
-        <v>7.7</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>59.4</v>
+        <v>59.9</v>
       </c>
       <c r="C48" t="n">
-        <v>10.6</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>60.6</v>
+        <v>59.4</v>
       </c>
       <c r="C49" t="n">
-        <v>16.1</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>61.2</v>
+        <v>60.6</v>
       </c>
       <c r="C50" t="n">
-        <v>42</v>
+        <v>16.1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>60.7</v>
+        <v>61.2</v>
       </c>
       <c r="C51" t="n">
-        <v>45.6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>64.7</v>
+        <v>60.7</v>
       </c>
       <c r="C52" t="n">
-        <v>30.2</v>
+        <v>45.6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>60.8</v>
+        <v>64.7</v>
       </c>
       <c r="C53" t="n">
-        <v>20.9</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>58.7</v>
+        <v>60.8</v>
       </c>
       <c r="C54" t="n">
-        <v>14.9</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>60.5</v>
+        <v>58.7</v>
       </c>
       <c r="C55" t="n">
-        <v>26.8</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>57.7</v>
+        <v>60.5</v>
       </c>
       <c r="C56" t="n">
-        <v>19.7</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>58.8</v>
+        <v>57.7</v>
       </c>
       <c r="C57" t="n">
-        <v>21.7</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="n">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>55.7</v>
+        <v>58.8</v>
       </c>
       <c r="C58" t="n">
-        <v>15.3</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>55.6</v>
+        <v>55.7</v>
       </c>
       <c r="C59" t="n">
-        <v>14.9</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="n">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>53.7</v>
+        <v>55.6</v>
       </c>
       <c r="C60" t="n">
-        <v>5.3</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="n">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>52.2</v>
+        <v>53.7</v>
       </c>
       <c r="C61" t="n">
-        <v>1.8</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="n">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>43.1</v>
+        <v>52.2</v>
       </c>
       <c r="C62" t="n">
-        <v>-17.4</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="n">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>41.7</v>
+        <v>43.1</v>
       </c>
       <c r="C63" t="n">
-        <v>-22.2</v>
+        <v>-17.4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="3" t="n">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>49.7</v>
+        <v>41.7</v>
       </c>
       <c r="C64" t="n">
-        <v>-10.1</v>
+        <v>-22.2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="3" t="n">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>50.3</v>
+        <v>49.7</v>
       </c>
       <c r="C65" t="n">
-        <v>-7.2</v>
+        <v>-10.1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="n">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>51.1</v>
+        <v>50.3</v>
       </c>
       <c r="C66" t="n">
-        <v>-8.300000000000001</v>
+        <v>-7.2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="n">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>47.7</v>
+        <v>51.1</v>
       </c>
       <c r="C67" t="n">
-        <v>-13</v>
+        <v>-8.300000000000001</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="3" t="n">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>48.2</v>
+        <v>47.7</v>
       </c>
       <c r="C68" t="n">
-        <v>-17.9</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="n">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="C69" t="n">
-        <v>-17.2</v>
+        <v>-17.9</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="n">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B70" s="2" t="n">
         <v>48.3</v>
       </c>
       <c r="C70" t="n">
-        <v>-18.8</v>
+        <v>-17.2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="n">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="C71" t="n">
-        <v>-19.9</v>
+        <v>-18.8</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="3" t="n">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>51</v>
+        <v>48.4</v>
       </c>
       <c r="C72" t="n">
-        <v>-12.1</v>
+        <v>-19.9</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="3" t="n">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>51.3</v>
+        <v>51</v>
       </c>
       <c r="C73" t="n">
-        <v>-14.1</v>
+        <v>-12.1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="3" t="n">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>52.2</v>
+        <v>51.3</v>
       </c>
       <c r="C74" t="n">
-        <v>-11.4</v>
+        <v>-14.1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="3" t="n">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>53.6</v>
+        <v>52.2</v>
       </c>
       <c r="C75" t="n">
-        <v>-8.5</v>
+        <v>-11.4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="3" t="n">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>55.3</v>
+        <v>53.6</v>
       </c>
       <c r="C76" t="n">
-        <v>-6.6</v>
+        <v>-8.5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="3" t="n">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>54.2</v>
+        <v>55.3</v>
       </c>
       <c r="C77" t="n">
-        <v>-10.9</v>
+        <v>-6.6</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="3" t="n">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>55.7</v>
+        <v>54.2</v>
       </c>
       <c r="C78" t="n">
-        <v>-6.2</v>
+        <v>-10.9</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="3" t="n">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>54.8</v>
+        <v>55.7</v>
       </c>
       <c r="C79" t="n">
-        <v>-7.4</v>
+        <v>-6.2</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="3" t="n">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>58.7</v>
+        <v>54.8</v>
       </c>
       <c r="C80" t="n">
-        <v>1.4</v>
+        <v>-7.4</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="3" t="n">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>58.3</v>
+        <v>58.7</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.5</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="3" t="n">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>59.5</v>
+        <v>58.3</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.7</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="3" t="n">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>60.4</v>
+        <v>59.5</v>
       </c>
       <c r="C83" t="n">
-        <v>3.2</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="3" t="n">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>58</v>
+        <v>60.4</v>
       </c>
       <c r="C84" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="3" t="n">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>59.7</v>
+        <v>58</v>
       </c>
       <c r="C85" t="n">
-        <v>6.4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="3" t="n">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>58.9</v>
+        <v>59.7</v>
       </c>
       <c r="C86" t="n">
-        <v>4.4</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="3" t="n">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>58.6</v>
+        <v>58.9</v>
       </c>
       <c r="C87" t="n">
-        <v>5.2</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="3" t="n">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>59.2</v>
+        <v>58.6</v>
       </c>
       <c r="C88" t="n">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="3" t="n">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>60.8</v>
+        <v>59.2</v>
       </c>
       <c r="C89" t="n">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="3" t="n">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>59.4</v>
+        <v>60.8</v>
       </c>
       <c r="C90" t="n">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="3" t="n">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>59.2</v>
+        <v>59.4</v>
       </c>
       <c r="C91" t="n">
-        <v>9.199999999999999</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="3" t="n">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>57.9</v>
+        <v>59.2</v>
       </c>
       <c r="C92" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="3" t="n">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>58.6</v>
+        <v>57.9</v>
       </c>
       <c r="C93" t="n">
-        <v>13.1</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="3" t="n">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>59.9</v>
+        <v>58.6</v>
       </c>
       <c r="C94" t="n">
-        <v>17.5</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="3" t="n">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>58.5</v>
+        <v>59.9</v>
       </c>
       <c r="C95" t="n">
-        <v>17.7</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="3" t="n">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>56.5</v>
+        <v>58.5</v>
       </c>
       <c r="C96" t="n">
-        <v>7.8</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="3" t="n">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>56.1</v>
+        <v>56.5</v>
       </c>
       <c r="C97" t="n">
-        <v>7.1</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="3" t="n">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>56.4</v>
+        <v>56.1</v>
       </c>
       <c r="C98" t="n">
-        <v>9.9</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="3" t="n">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>55.7</v>
+        <v>56.4</v>
       </c>
       <c r="C99" t="n">
-        <v>9.199999999999999</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="3" t="n">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>56.8</v>
+        <v>55.7</v>
       </c>
       <c r="C100" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="3" t="n">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>57.7</v>
+        <v>56.8</v>
       </c>
       <c r="C101" t="n">
-        <v>17.3</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="3" t="n">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>55.7</v>
+        <v>57.7</v>
       </c>
       <c r="C102" t="n">
         <v>17.3</v>
@@ -1552,164 +1554,164 @@
     </row>
     <row r="103">
       <c r="A103" s="3" t="n">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>54.2</v>
+        <v>55.7</v>
       </c>
       <c r="C103" t="n">
-        <v>11.1</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="3" t="n">
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>53.3</v>
+        <v>54.2</v>
       </c>
       <c r="C104" t="n">
-        <v>8.6</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="3" t="n">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>51.8</v>
+        <v>53.3</v>
       </c>
       <c r="C105" t="n">
-        <v>5.7</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="3" t="n">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>51</v>
+        <v>51.8</v>
       </c>
       <c r="C106" t="n">
-        <v>2</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="3" t="n">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>49.7</v>
+        <v>51</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="3" t="n">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>52.4</v>
+        <v>49.7</v>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="3" t="n">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B109" s="2" t="n">
         <v>52.4</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="3" t="n">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>51.3</v>
+        <v>52.4</v>
       </c>
       <c r="C110" t="n">
-        <v>-2.7</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="3" t="n">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>51</v>
+        <v>51.3</v>
       </c>
       <c r="C111" t="n">
-        <v>-2.1</v>
+        <v>-2.7</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="3" t="n">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>51.4</v>
+        <v>51</v>
       </c>
       <c r="C112" t="n">
-        <v>-1.7</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="3" t="n">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>49.2</v>
+        <v>51.4</v>
       </c>
       <c r="C113" t="n">
-        <v>-7.3</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="3" t="n">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B114" s="2" t="n">
-        <v>47.5</v>
+        <v>49.2</v>
       </c>
       <c r="C114" t="n">
-        <v>-12</v>
+        <v>-7.3</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="3" t="n">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B115" s="2" t="n">
-        <v>48.8</v>
+        <v>47.5</v>
       </c>
       <c r="C115" t="n">
-        <v>-12.4</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="3" t="n">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B116" s="2" t="n">
-        <v>49.1</v>
+        <v>48.8</v>
       </c>
       <c r="C116" t="n">
-        <v>-12.8</v>
+        <v>-12.4</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="3" t="n">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B117" s="2" t="n">
-        <v>49</v>
+        <v>49.1</v>
       </c>
       <c r="C117" t="n">
         <v>-12.8</v>
@@ -1717,1253 +1719,1253 @@
     </row>
     <row r="118">
       <c r="A118" s="3" t="n">
-        <v>42248</v>
+        <v>42278</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C118" t="n">
-        <v>-10.2</v>
+        <v>-12.8</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="3" t="n">
-        <v>42217</v>
+        <v>42248</v>
       </c>
       <c r="B119" s="2" t="n">
         <v>50</v>
       </c>
       <c r="C119" t="n">
-        <v>-11.2</v>
+        <v>-10.2</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="3" t="n">
-        <v>42186</v>
+        <v>42217</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>51.9</v>
+        <v>50</v>
       </c>
       <c r="C120" t="n">
-        <v>-5.8</v>
+        <v>-11.2</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="3" t="n">
-        <v>42156</v>
+        <v>42186</v>
       </c>
       <c r="B121" s="2" t="n">
-        <v>52.6</v>
+        <v>51.9</v>
       </c>
       <c r="C121" t="n">
-        <v>-4.4</v>
+        <v>-5.8</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="3" t="n">
-        <v>42125</v>
+        <v>42156</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>52.7</v>
+        <v>52.6</v>
       </c>
       <c r="C122" t="n">
-        <v>-5.4</v>
+        <v>-4.4</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="3" t="n">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="B123" s="2" t="n">
-        <v>52.1</v>
+        <v>52.7</v>
       </c>
       <c r="C123" t="n">
-        <v>-8</v>
+        <v>-5.4</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="3" t="n">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>52.3</v>
+        <v>52.1</v>
       </c>
       <c r="C124" t="n">
-        <v>-6.4</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="3" t="n">
-        <v>42036</v>
+        <v>42064</v>
       </c>
       <c r="B125" s="2" t="n">
-        <v>53.1</v>
+        <v>52.3</v>
       </c>
       <c r="C125" t="n">
-        <v>-3.5</v>
+        <v>-6.4</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="3" t="n">
-        <v>42005</v>
+        <v>42036</v>
       </c>
       <c r="B126" s="2" t="n">
-        <v>54</v>
+        <v>53.1</v>
       </c>
       <c r="C126" t="n">
-        <v>2.9</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="3" t="n">
-        <v>41974</v>
+        <v>42005</v>
       </c>
       <c r="B127" s="2" t="n">
-        <v>55.7</v>
+        <v>54</v>
       </c>
       <c r="C127" t="n">
-        <v>-1.4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="3" t="n">
-        <v>41944</v>
+        <v>41974</v>
       </c>
       <c r="B128" s="2" t="n">
-        <v>56.3</v>
+        <v>55.7</v>
       </c>
       <c r="C128" t="n">
-        <v>1.4</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="3" t="n">
-        <v>41913</v>
+        <v>41944</v>
       </c>
       <c r="B129" s="2" t="n">
-        <v>56.2</v>
+        <v>56.3</v>
       </c>
       <c r="C129" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="3" t="n">
-        <v>41883</v>
+        <v>41913</v>
       </c>
       <c r="B130" s="2" t="n">
-        <v>55.7</v>
+        <v>56.2</v>
       </c>
       <c r="C130" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="3" t="n">
-        <v>41852</v>
+        <v>41883</v>
       </c>
       <c r="B131" s="2" t="n">
-        <v>56.3</v>
+        <v>55.7</v>
       </c>
       <c r="C131" t="n">
-        <v>4.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="3" t="n">
-        <v>41821</v>
+        <v>41852</v>
       </c>
       <c r="B132" s="2" t="n">
-        <v>55.1</v>
+        <v>56.3</v>
       </c>
       <c r="C132" t="n">
-        <v>2.4</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="3" t="n">
-        <v>41791</v>
+        <v>41821</v>
       </c>
       <c r="B133" s="2" t="n">
-        <v>55</v>
+        <v>55.1</v>
       </c>
       <c r="C133" t="n">
-        <v>7.6</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="3" t="n">
-        <v>41760</v>
+        <v>41791</v>
       </c>
       <c r="B134" s="2" t="n">
-        <v>55.7</v>
+        <v>55</v>
       </c>
       <c r="C134" t="n">
-        <v>9.6</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="3" t="n">
-        <v>41730</v>
+        <v>41760</v>
       </c>
       <c r="B135" s="2" t="n">
-        <v>56.6</v>
+        <v>55.7</v>
       </c>
       <c r="C135" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="3" t="n">
-        <v>41699</v>
+        <v>41730</v>
       </c>
       <c r="B136" s="2" t="n">
-        <v>55.9</v>
+        <v>56.6</v>
       </c>
       <c r="C136" t="n">
-        <v>7.7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="3" t="n">
-        <v>41671</v>
+        <v>41699</v>
       </c>
       <c r="B137" s="2" t="n">
-        <v>55</v>
+        <v>55.9</v>
       </c>
       <c r="C137" t="n">
-        <v>1.5</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="3" t="n">
-        <v>41640</v>
+        <v>41671</v>
       </c>
       <c r="B138" s="2" t="n">
-        <v>52.5</v>
+        <v>55</v>
       </c>
       <c r="C138" t="n">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="3" t="n">
-        <v>41609</v>
+        <v>41640</v>
       </c>
       <c r="B139" s="2" t="n">
-        <v>56.5</v>
+        <v>52.5</v>
       </c>
       <c r="C139" t="n">
-        <v>12.8</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="3" t="n">
-        <v>41579</v>
+        <v>41609</v>
       </c>
       <c r="B140" s="2" t="n">
-        <v>55.5</v>
+        <v>56.5</v>
       </c>
       <c r="C140" t="n">
-        <v>15.6</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="3" t="n">
-        <v>41548</v>
+        <v>41579</v>
       </c>
       <c r="B141" s="2" t="n">
-        <v>54.6</v>
+        <v>55.5</v>
       </c>
       <c r="C141" t="n">
-        <v>8.1</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="3" t="n">
-        <v>41518</v>
+        <v>41548</v>
       </c>
       <c r="B142" s="2" t="n">
         <v>54.6</v>
       </c>
       <c r="C142" t="n">
-        <v>7.5</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="3" t="n">
-        <v>41487</v>
+        <v>41518</v>
       </c>
       <c r="B143" s="2" t="n">
-        <v>54</v>
+        <v>54.6</v>
       </c>
       <c r="C143" t="n">
-        <v>10.2</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="3" t="n">
-        <v>41456</v>
+        <v>41487</v>
       </c>
       <c r="B144" s="2" t="n">
-        <v>53.8</v>
+        <v>54</v>
       </c>
       <c r="C144" t="n">
-        <v>8.5</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="3" t="n">
-        <v>41426</v>
+        <v>41456</v>
       </c>
       <c r="B145" s="2" t="n">
-        <v>51.1</v>
+        <v>53.8</v>
       </c>
       <c r="C145" t="n">
-        <v>3.2</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="3" t="n">
-        <v>41395</v>
+        <v>41426</v>
       </c>
       <c r="B146" s="2" t="n">
-        <v>50.8</v>
+        <v>51.1</v>
       </c>
       <c r="C146" t="n">
-        <v>-4.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="3" t="n">
-        <v>41365</v>
+        <v>41395</v>
       </c>
       <c r="B147" s="2" t="n">
-        <v>51</v>
+        <v>50.8</v>
       </c>
       <c r="C147" t="n">
-        <v>-7.6</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="3" t="n">
-        <v>41334</v>
+        <v>41365</v>
       </c>
       <c r="B148" s="2" t="n">
-        <v>51.9</v>
+        <v>51</v>
       </c>
       <c r="C148" t="n">
-        <v>-3</v>
+        <v>-7.6</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="3" t="n">
-        <v>41306</v>
+        <v>41334</v>
       </c>
       <c r="B149" s="2" t="n">
-        <v>54.2</v>
+        <v>51.9</v>
       </c>
       <c r="C149" t="n">
-        <v>1.7</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="3" t="n">
-        <v>41275</v>
+        <v>41306</v>
       </c>
       <c r="B150" s="2" t="n">
-        <v>53.3</v>
+        <v>54.2</v>
       </c>
       <c r="C150" t="n">
-        <v>-1.7</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="3" t="n">
-        <v>41244</v>
+        <v>41275</v>
       </c>
       <c r="B151" s="2" t="n">
-        <v>50.1</v>
+        <v>53.3</v>
       </c>
       <c r="C151" t="n">
-        <v>-5.5</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="3" t="n">
-        <v>41214</v>
+        <v>41244</v>
       </c>
       <c r="B152" s="2" t="n">
-        <v>48</v>
+        <v>50.1</v>
       </c>
       <c r="C152" t="n">
-        <v>-7.3</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="3" t="n">
-        <v>41183</v>
+        <v>41214</v>
       </c>
       <c r="B153" s="2" t="n">
-        <v>50.5</v>
+        <v>48</v>
       </c>
       <c r="C153" t="n">
-        <v>-1.8</v>
+        <v>-7.3</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="3" t="n">
-        <v>41153</v>
+        <v>41183</v>
       </c>
       <c r="B154" s="2" t="n">
-        <v>50.8</v>
+        <v>50.5</v>
       </c>
       <c r="C154" t="n">
-        <v>-5.4</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="3" t="n">
-        <v>41122</v>
+        <v>41153</v>
       </c>
       <c r="B155" s="2" t="n">
-        <v>49</v>
+        <v>50.8</v>
       </c>
       <c r="C155" t="n">
-        <v>-6.8</v>
+        <v>-5.4</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="3" t="n">
-        <v>41091</v>
+        <v>41122</v>
       </c>
       <c r="B156" s="2" t="n">
-        <v>49.6</v>
+        <v>49</v>
       </c>
       <c r="C156" t="n">
-        <v>-6.2</v>
+        <v>-6.8</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="3" t="n">
-        <v>41061</v>
+        <v>41091</v>
       </c>
       <c r="B157" s="2" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="C157" t="n">
-        <v>-11.3</v>
+        <v>-6.2</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="3" t="n">
-        <v>41030</v>
+        <v>41061</v>
       </c>
       <c r="B158" s="2" t="n">
-        <v>53.2</v>
+        <v>49.5</v>
       </c>
       <c r="C158" t="n">
-        <v>-2.9</v>
+        <v>-11.3</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="3" t="n">
-        <v>41000</v>
+        <v>41030</v>
       </c>
       <c r="B159" s="2" t="n">
-        <v>55.2</v>
+        <v>53.2</v>
       </c>
       <c r="C159" t="n">
-        <v>-4.7</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="3" t="n">
-        <v>40969</v>
+        <v>41000</v>
       </c>
       <c r="B160" s="2" t="n">
-        <v>53.5</v>
+        <v>55.2</v>
       </c>
       <c r="C160" t="n">
-        <v>-8.4</v>
+        <v>-4.7</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="3" t="n">
-        <v>40940</v>
+        <v>40969</v>
       </c>
       <c r="B161" s="2" t="n">
-        <v>53.3</v>
+        <v>53.5</v>
       </c>
       <c r="C161" t="n">
-        <v>-10</v>
+        <v>-8.4</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="3" t="n">
-        <v>40909</v>
+        <v>40940</v>
       </c>
       <c r="B162" s="2" t="n">
-        <v>54.2</v>
+        <v>53.3</v>
       </c>
       <c r="C162" t="n">
-        <v>-8.300000000000001</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="3" t="n">
-        <v>40878</v>
+        <v>40909</v>
       </c>
       <c r="B163" s="2" t="n">
-        <v>53</v>
+        <v>54.2</v>
       </c>
       <c r="C163" t="n">
-        <v>-6.4</v>
+        <v>-8.300000000000001</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="3" t="n">
-        <v>40848</v>
+        <v>40878</v>
       </c>
       <c r="B164" s="2" t="n">
-        <v>51.8</v>
+        <v>53</v>
       </c>
       <c r="C164" t="n">
-        <v>-9.6</v>
+        <v>-6.4</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="3" t="n">
-        <v>40817</v>
+        <v>40848</v>
       </c>
       <c r="B165" s="2" t="n">
-        <v>51.4</v>
+        <v>51.8</v>
       </c>
       <c r="C165" t="n">
-        <v>-9.699999999999999</v>
+        <v>-9.6</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="3" t="n">
-        <v>40787</v>
+        <v>40817</v>
       </c>
       <c r="B166" s="2" t="n">
-        <v>53.7</v>
+        <v>51.4</v>
       </c>
       <c r="C166" t="n">
-        <v>-2.9</v>
+        <v>-9.699999999999999</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="3" t="n">
-        <v>40756</v>
+        <v>40787</v>
       </c>
       <c r="B167" s="2" t="n">
-        <v>52.6</v>
+        <v>53.7</v>
       </c>
       <c r="C167" t="n">
-        <v>-6.7</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="3" t="n">
-        <v>40725</v>
+        <v>40756</v>
       </c>
       <c r="B168" s="2" t="n">
-        <v>52.9</v>
+        <v>52.6</v>
       </c>
       <c r="C168" t="n">
-        <v>-5.7</v>
+        <v>-6.7</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="3" t="n">
-        <v>40695</v>
+        <v>40725</v>
       </c>
       <c r="B169" s="2" t="n">
-        <v>55.8</v>
+        <v>52.9</v>
       </c>
       <c r="C169" t="n">
-        <v>-1.2</v>
+        <v>-5.7</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="3" t="n">
-        <v>40664</v>
+        <v>40695</v>
       </c>
       <c r="B170" s="2" t="n">
-        <v>54.8</v>
+        <v>55.8</v>
       </c>
       <c r="C170" t="n">
-        <v>-4.5</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="3" t="n">
-        <v>40634</v>
+        <v>40664</v>
       </c>
       <c r="B171" s="2" t="n">
-        <v>57.9</v>
+        <v>54.8</v>
       </c>
       <c r="C171" t="n">
-        <v>-0.3</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="3" t="n">
-        <v>40603</v>
+        <v>40634</v>
       </c>
       <c r="B172" s="2" t="n">
-        <v>58.4</v>
+        <v>57.9</v>
       </c>
       <c r="C172" t="n">
-        <v>-0.7</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="3" t="n">
-        <v>40575</v>
+        <v>40603</v>
       </c>
       <c r="B173" s="2" t="n">
-        <v>59.2</v>
+        <v>58.4</v>
       </c>
       <c r="C173" t="n">
-        <v>6.7</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="3" t="n">
-        <v>40544</v>
+        <v>40575</v>
       </c>
       <c r="B174" s="2" t="n">
-        <v>59.1</v>
+        <v>59.2</v>
       </c>
       <c r="C174" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="3" t="n">
-        <v>40513</v>
+        <v>40544</v>
       </c>
       <c r="B175" s="2" t="n">
-        <v>56.6</v>
+        <v>59.1</v>
       </c>
       <c r="C175" t="n">
-        <v>1.4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="3" t="n">
-        <v>40483</v>
+        <v>40513</v>
       </c>
       <c r="B176" s="2" t="n">
-        <v>57.3</v>
+        <v>56.6</v>
       </c>
       <c r="C176" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="3" t="n">
-        <v>40452</v>
+        <v>40483</v>
       </c>
       <c r="B177" s="2" t="n">
-        <v>56.9</v>
+        <v>57.3</v>
       </c>
       <c r="C177" t="n">
-        <v>-1.2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="3" t="n">
-        <v>40422</v>
+        <v>40452</v>
       </c>
       <c r="B178" s="2" t="n">
-        <v>55.3</v>
+        <v>56.9</v>
       </c>
       <c r="C178" t="n">
-        <v>0.7</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="3" t="n">
-        <v>40391</v>
+        <v>40422</v>
       </c>
       <c r="B179" s="2" t="n">
-        <v>56.4</v>
+        <v>55.3</v>
       </c>
       <c r="C179" t="n">
-        <v>5.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="3" t="n">
-        <v>40360</v>
+        <v>40391</v>
       </c>
       <c r="B180" s="2" t="n">
-        <v>56.1</v>
+        <v>56.4</v>
       </c>
       <c r="C180" t="n">
-        <v>12.9</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="3" t="n">
-        <v>40330</v>
+        <v>40360</v>
       </c>
       <c r="B181" s="2" t="n">
-        <v>56.5</v>
+        <v>56.1</v>
       </c>
       <c r="C181" t="n">
-        <v>22</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="3" t="n">
-        <v>40299</v>
+        <v>40330</v>
       </c>
       <c r="B182" s="2" t="n">
-        <v>57.4</v>
+        <v>56.5</v>
       </c>
       <c r="C182" t="n">
-        <v>30.2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="3" t="n">
-        <v>40269</v>
+        <v>40299</v>
       </c>
       <c r="B183" s="2" t="n">
-        <v>58.1</v>
+        <v>57.4</v>
       </c>
       <c r="C183" t="n">
-        <v>45.6</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="3" t="n">
-        <v>40238</v>
+        <v>40269</v>
       </c>
       <c r="B184" s="2" t="n">
-        <v>58.8</v>
+        <v>58.1</v>
       </c>
       <c r="C184" t="n">
-        <v>58.1</v>
+        <v>45.6</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="3" t="n">
-        <v>40210</v>
+        <v>40238</v>
       </c>
       <c r="B185" s="2" t="n">
-        <v>55.5</v>
+        <v>58.8</v>
       </c>
       <c r="C185" t="n">
-        <v>51.6</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="3" t="n">
-        <v>40179</v>
+        <v>40210</v>
       </c>
       <c r="B186" s="2" t="n">
-        <v>56.3</v>
+        <v>55.5</v>
       </c>
       <c r="C186" t="n">
-        <v>54.7</v>
+        <v>51.6</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="3" t="n">
-        <v>40148</v>
+        <v>40179</v>
       </c>
       <c r="B187" s="2" t="n">
-        <v>55.8</v>
+        <v>56.3</v>
       </c>
       <c r="C187" t="n">
-        <v>61.7</v>
+        <v>54.7</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="3" t="n">
-        <v>40118</v>
+        <v>40148</v>
       </c>
       <c r="B188" s="2" t="n">
-        <v>55.4</v>
+        <v>55.8</v>
       </c>
       <c r="C188" t="n">
-        <v>42.1</v>
+        <v>61.7</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="3" t="n">
-        <v>40087</v>
+        <v>40118</v>
       </c>
       <c r="B189" s="2" t="n">
-        <v>57.6</v>
+        <v>55.4</v>
       </c>
       <c r="C189" t="n">
-        <v>50.8</v>
+        <v>42.1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="3" t="n">
-        <v>40057</v>
+        <v>40087</v>
       </c>
       <c r="B190" s="2" t="n">
-        <v>54.9</v>
+        <v>57.6</v>
       </c>
       <c r="C190" t="n">
-        <v>16.3</v>
+        <v>50.8</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="3" t="n">
-        <v>40026</v>
+        <v>40057</v>
       </c>
       <c r="B191" s="2" t="n">
-        <v>53.4</v>
+        <v>54.9</v>
       </c>
       <c r="C191" t="n">
-        <v>6.6</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="3" t="n">
-        <v>39995</v>
+        <v>40026</v>
       </c>
       <c r="B192" s="2" t="n">
-        <v>49.7</v>
+        <v>53.4</v>
       </c>
       <c r="C192" t="n">
-        <v>-2.2</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="3" t="n">
-        <v>39965</v>
+        <v>39995</v>
       </c>
       <c r="B193" s="2" t="n">
-        <v>46.3</v>
+        <v>49.7</v>
       </c>
       <c r="C193" t="n">
-        <v>-7.2</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="3" t="n">
-        <v>39934</v>
+        <v>39965</v>
       </c>
       <c r="B194" s="2" t="n">
-        <v>44.1</v>
+        <v>46.3</v>
       </c>
       <c r="C194" t="n">
-        <v>-9.800000000000001</v>
+        <v>-7.2</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="3" t="n">
-        <v>39904</v>
+        <v>39934</v>
       </c>
       <c r="B195" s="2" t="n">
-        <v>39.9</v>
+        <v>44.1</v>
       </c>
       <c r="C195" t="n">
-        <v>-17.7</v>
+        <v>-9.800000000000001</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="3" t="n">
-        <v>39873</v>
+        <v>39904</v>
       </c>
       <c r="B196" s="2" t="n">
-        <v>37.2</v>
+        <v>39.9</v>
       </c>
       <c r="C196" t="n">
-        <v>-25.2</v>
+        <v>-17.7</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="3" t="n">
-        <v>39845</v>
+        <v>39873</v>
       </c>
       <c r="B197" s="2" t="n">
-        <v>36.6</v>
+        <v>37.2</v>
       </c>
       <c r="C197" t="n">
-        <v>-25</v>
+        <v>-25.2</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="3" t="n">
-        <v>39814</v>
+        <v>39845</v>
       </c>
       <c r="B198" s="2" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="C198" t="n">
-        <v>-28.5</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="3" t="n">
-        <v>39783</v>
+        <v>39814</v>
       </c>
       <c r="B199" s="2" t="n">
-        <v>34.5</v>
+        <v>36.4</v>
       </c>
       <c r="C199" t="n">
-        <v>-31.1</v>
+        <v>-28.5</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="3" t="n">
-        <v>39753</v>
+        <v>39783</v>
       </c>
       <c r="B200" s="2" t="n">
-        <v>39</v>
+        <v>34.5</v>
       </c>
       <c r="C200" t="n">
-        <v>-24.3</v>
+        <v>-31.1</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="3" t="n">
-        <v>39722</v>
+        <v>39753</v>
       </c>
       <c r="B201" s="2" t="n">
-        <v>38.2</v>
+        <v>39</v>
       </c>
       <c r="C201" t="n">
-        <v>-27.7</v>
+        <v>-24.3</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="3" t="n">
-        <v>39692</v>
+        <v>39722</v>
       </c>
       <c r="B202" s="2" t="n">
-        <v>47.2</v>
+        <v>38.2</v>
       </c>
       <c r="C202" t="n">
-        <v>-12.3</v>
+        <v>-27.7</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="3" t="n">
-        <v>39661</v>
+        <v>39692</v>
       </c>
       <c r="B203" s="2" t="n">
-        <v>50.1</v>
+        <v>47.2</v>
       </c>
       <c r="C203" t="n">
-        <v>-4</v>
+        <v>-12.3</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="3" t="n">
-        <v>39630</v>
+        <v>39661</v>
       </c>
       <c r="B204" s="2" t="n">
-        <v>50.8</v>
+        <v>50.1</v>
       </c>
       <c r="C204" t="n">
-        <v>-1.9</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="3" t="n">
-        <v>39600</v>
+        <v>39630</v>
       </c>
       <c r="B205" s="2" t="n">
-        <v>49.9</v>
+        <v>50.8</v>
       </c>
       <c r="C205" t="n">
-        <v>-7.6</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="3" t="n">
-        <v>39569</v>
+        <v>39600</v>
       </c>
       <c r="B206" s="2" t="n">
-        <v>48.9</v>
+        <v>49.9</v>
       </c>
       <c r="C206" t="n">
-        <v>-7.9</v>
+        <v>-7.6</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="3" t="n">
-        <v>39539</v>
+        <v>39569</v>
       </c>
       <c r="B207" s="2" t="n">
-        <v>48.5</v>
+        <v>48.9</v>
       </c>
       <c r="C207" t="n">
-        <v>-8</v>
+        <v>-7.9</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="3" t="n">
-        <v>39508</v>
+        <v>39539</v>
       </c>
       <c r="B208" s="2" t="n">
-        <v>49.7</v>
+        <v>48.5</v>
       </c>
       <c r="C208" t="n">
-        <v>-5.9</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="3" t="n">
-        <v>39479</v>
+        <v>39508</v>
       </c>
       <c r="B209" s="2" t="n">
-        <v>48.8</v>
+        <v>49.7</v>
       </c>
       <c r="C209" t="n">
-        <v>-9.800000000000001</v>
+        <v>-5.9</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="3" t="n">
-        <v>39448</v>
+        <v>39479</v>
       </c>
       <c r="B210" s="2" t="n">
-        <v>50.9</v>
+        <v>48.8</v>
       </c>
       <c r="C210" t="n">
-        <v>1</v>
+        <v>-9.800000000000001</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="3" t="n">
-        <v>39417</v>
+        <v>39448</v>
       </c>
       <c r="B211" s="2" t="n">
-        <v>50.1</v>
+        <v>50.9</v>
       </c>
       <c r="C211" t="n">
-        <v>-2.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="3" t="n">
-        <v>39387</v>
+        <v>39417</v>
       </c>
       <c r="B212" s="2" t="n">
-        <v>51.5</v>
+        <v>50.1</v>
       </c>
       <c r="C212" t="n">
-        <v>2.4</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="3" t="n">
-        <v>39356</v>
+        <v>39387</v>
       </c>
       <c r="B213" s="2" t="n">
-        <v>52.8</v>
+        <v>51.5</v>
       </c>
       <c r="C213" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="3" t="n">
-        <v>39326</v>
+        <v>39356</v>
       </c>
       <c r="B214" s="2" t="n">
-        <v>53.8</v>
+        <v>52.8</v>
       </c>
       <c r="C214" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="3" t="n">
-        <v>39295</v>
+        <v>39326</v>
       </c>
       <c r="B215" s="2" t="n">
-        <v>52.2</v>
+        <v>53.8</v>
       </c>
       <c r="C215" t="n">
-        <v>-2.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="3" t="n">
-        <v>39264</v>
+        <v>39295</v>
       </c>
       <c r="B216" s="2" t="n">
-        <v>51.8</v>
+        <v>52.2</v>
       </c>
       <c r="C216" t="n">
-        <v>-2.3</v>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="3" t="n">
-        <v>39234</v>
+        <v>39264</v>
       </c>
       <c r="B217" s="2" t="n">
-        <v>54</v>
+        <v>51.8</v>
       </c>
       <c r="C217" t="n">
-        <v>3.8</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="3" t="n">
-        <v>39203</v>
+        <v>39234</v>
       </c>
       <c r="B218" s="2" t="n">
-        <v>53.1</v>
+        <v>54</v>
       </c>
       <c r="C218" t="n">
-        <v>-1.1</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="3" t="n">
-        <v>39173</v>
+        <v>39203</v>
       </c>
       <c r="B219" s="2" t="n">
-        <v>52.7</v>
+        <v>53.1</v>
       </c>
       <c r="C219" t="n">
-        <v>-4.5</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="3" t="n">
-        <v>39142</v>
+        <v>39173</v>
       </c>
       <c r="B220" s="2" t="n">
-        <v>52.8</v>
+        <v>52.7</v>
       </c>
       <c r="C220" t="n">
-        <v>-2.8</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="3" t="n">
-        <v>39114</v>
+        <v>39142</v>
       </c>
       <c r="B221" s="2" t="n">
-        <v>54.1</v>
+        <v>52.8</v>
       </c>
       <c r="C221" t="n">
-        <v>-3</v>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="3" t="n">
-        <v>39083</v>
+        <v>39114</v>
       </c>
       <c r="B222" s="2" t="n">
-        <v>50.4</v>
+        <v>54.1</v>
       </c>
       <c r="C222" t="n">
-        <v>-8.4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="3" t="n">
-        <v>39052</v>
+        <v>39083</v>
       </c>
       <c r="B223" s="2" t="n">
-        <v>51.4</v>
+        <v>50.4</v>
       </c>
       <c r="C223" t="n">
-        <v>-6.7</v>
+        <v>-8.4</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="3" t="n">
-        <v>39022</v>
+        <v>39052</v>
       </c>
       <c r="B224" s="2" t="n">
-        <v>50.3</v>
+        <v>51.4</v>
       </c>
       <c r="C224" t="n">
-        <v>-11.3</v>
+        <v>-6.7</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="3" t="n">
-        <v>38991</v>
+        <v>39022</v>
       </c>
       <c r="B225" s="2" t="n">
-        <v>51.4</v>
+        <v>50.3</v>
       </c>
       <c r="C225" t="n">
-        <v>-10.1</v>
+        <v>-11.3</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="3" t="n">
-        <v>38961</v>
+        <v>38991</v>
       </c>
       <c r="B226" s="2" t="n">
-        <v>52.2</v>
+        <v>51.4</v>
       </c>
       <c r="C226" t="n">
-        <v>-8.1</v>
+        <v>-10.1</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="3" t="n">
-        <v>38930</v>
+        <v>38961</v>
       </c>
       <c r="B227" s="2" t="n">
-        <v>53.7</v>
+        <v>52.2</v>
       </c>
       <c r="C227" t="n">
-        <v>2.5</v>
+        <v>-8.1</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="3" t="n">
-        <v>38899</v>
+        <v>38930</v>
       </c>
       <c r="B228" s="2" t="n">
-        <v>53</v>
+        <v>53.7</v>
       </c>
       <c r="C228" t="n">
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="3" t="n">
-        <v>38869</v>
+        <v>38899</v>
       </c>
       <c r="B229" s="2" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C229" t="n">
-        <v>-0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="3" t="n">
-        <v>38838</v>
+        <v>38869</v>
       </c>
       <c r="B230" s="2" t="n">
-        <v>53.7</v>
+        <v>52</v>
       </c>
       <c r="C230" t="n">
-        <v>5.7</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="3" t="n">
-        <v>38808</v>
+        <v>38838</v>
       </c>
       <c r="B231" s="2" t="n">
-        <v>55.2</v>
+        <v>53.7</v>
       </c>
       <c r="C231" t="n">
         <v>5.7</v>
@@ -2971,927 +2973,935 @@
     </row>
     <row r="232">
       <c r="A232" s="3" t="n">
-        <v>38777</v>
+        <v>38808</v>
       </c>
       <c r="B232" s="2" t="n">
-        <v>54.3</v>
+        <v>55.2</v>
       </c>
       <c r="C232" t="n">
-        <v>-1.6</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="3" t="n">
-        <v>38749</v>
+        <v>38777</v>
       </c>
       <c r="B233" s="2" t="n">
-        <v>55.8</v>
+        <v>54.3</v>
       </c>
       <c r="C233" t="n">
-        <v>0.5</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="3" t="n">
-        <v>38718</v>
+        <v>38749</v>
       </c>
       <c r="B234" s="2" t="n">
-        <v>55</v>
+        <v>55.8</v>
       </c>
       <c r="C234" t="n">
-        <v>-3.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="3" t="n">
-        <v>38687</v>
+        <v>38718</v>
       </c>
       <c r="B235" s="2" t="n">
-        <v>55.1</v>
+        <v>55</v>
       </c>
       <c r="C235" t="n">
-        <v>-3.7</v>
+        <v>-3.2</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="3" t="n">
-        <v>38657</v>
+        <v>38687</v>
       </c>
       <c r="B236" s="2" t="n">
-        <v>56.7</v>
+        <v>55.1</v>
       </c>
       <c r="C236" t="n">
-        <v>0.9</v>
+        <v>-3.7</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="3" t="n">
-        <v>38626</v>
+        <v>38657</v>
       </c>
       <c r="B237" s="2" t="n">
-        <v>57.2</v>
+        <v>56.7</v>
       </c>
       <c r="C237" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="3" t="n">
-        <v>38596</v>
+        <v>38626</v>
       </c>
       <c r="B238" s="2" t="n">
-        <v>56.8</v>
+        <v>57.2</v>
       </c>
       <c r="C238" t="n">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="3" t="n">
-        <v>38565</v>
+        <v>38596</v>
       </c>
       <c r="B239" s="2" t="n">
-        <v>52.4</v>
+        <v>56.8</v>
       </c>
       <c r="C239" t="n">
-        <v>-10.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="3" t="n">
-        <v>38534</v>
+        <v>38565</v>
       </c>
       <c r="B240" s="2" t="n">
-        <v>52.8</v>
+        <v>52.4</v>
       </c>
       <c r="C240" t="n">
-        <v>-11.9</v>
+        <v>-10.4</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="3" t="n">
-        <v>38504</v>
+        <v>38534</v>
       </c>
       <c r="B241" s="2" t="n">
-        <v>52.4</v>
+        <v>52.8</v>
       </c>
       <c r="C241" t="n">
-        <v>-13.4</v>
+        <v>-11.9</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="3" t="n">
-        <v>38473</v>
+        <v>38504</v>
       </c>
       <c r="B242" s="2" t="n">
-        <v>50.8</v>
+        <v>52.4</v>
       </c>
       <c r="C242" t="n">
-        <v>-17.3</v>
+        <v>-13.4</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="3" t="n">
-        <v>38443</v>
+        <v>38473</v>
       </c>
       <c r="B243" s="2" t="n">
-        <v>52.2</v>
+        <v>50.8</v>
       </c>
       <c r="C243" t="n">
-        <v>-13.9</v>
+        <v>-17.3</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="3" t="n">
-        <v>38412</v>
+        <v>38443</v>
       </c>
       <c r="B244" s="2" t="n">
-        <v>55.2</v>
+        <v>52.2</v>
       </c>
       <c r="C244" t="n">
-        <v>-8.9</v>
+        <v>-13.9</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="3" t="n">
-        <v>38384</v>
+        <v>38412</v>
       </c>
       <c r="B245" s="2" t="n">
-        <v>55.5</v>
+        <v>55.2</v>
       </c>
       <c r="C245" t="n">
-        <v>-7.3</v>
+        <v>-8.9</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="3" t="n">
-        <v>38353</v>
+        <v>38384</v>
       </c>
       <c r="B246" s="2" t="n">
-        <v>56.8</v>
+        <v>55.5</v>
       </c>
       <c r="C246" t="n">
-        <v>-6.6</v>
+        <v>-7.3</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="3" t="n">
-        <v>38322</v>
+        <v>38353</v>
       </c>
       <c r="B247" s="2" t="n">
-        <v>57.2</v>
+        <v>56.8</v>
       </c>
       <c r="C247" t="n">
-        <v>-4.8</v>
+        <v>-6.6</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="3" t="n">
-        <v>38292</v>
+        <v>38322</v>
       </c>
       <c r="B248" s="2" t="n">
-        <v>56.2</v>
+        <v>57.2</v>
       </c>
       <c r="C248" t="n">
-        <v>-3.8</v>
+        <v>-4.8</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="3" t="n">
-        <v>38261</v>
+        <v>38292</v>
       </c>
       <c r="B249" s="2" t="n">
-        <v>56.3</v>
+        <v>56.2</v>
       </c>
       <c r="C249" t="n">
-        <v>2</v>
+        <v>-3.8</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="3" t="n">
-        <v>38231</v>
+        <v>38261</v>
       </c>
       <c r="B250" s="2" t="n">
-        <v>57.4</v>
+        <v>56.3</v>
       </c>
       <c r="C250" t="n">
-        <v>9.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="3" t="n">
-        <v>38200</v>
+        <v>38231</v>
       </c>
       <c r="B251" s="2" t="n">
-        <v>58.5</v>
+        <v>57.4</v>
       </c>
       <c r="C251" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="3" t="n">
-        <v>38169</v>
+        <v>38200</v>
       </c>
       <c r="B252" s="2" t="n">
-        <v>59.9</v>
+        <v>58.5</v>
       </c>
       <c r="C252" t="n">
-        <v>17.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="3" t="n">
-        <v>38139</v>
+        <v>38169</v>
       </c>
       <c r="B253" s="2" t="n">
-        <v>60.5</v>
+        <v>59.9</v>
       </c>
       <c r="C253" t="n">
-        <v>23.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="3" t="n">
-        <v>38108</v>
+        <v>38139</v>
       </c>
       <c r="B254" s="2" t="n">
-        <v>61.4</v>
+        <v>60.5</v>
       </c>
       <c r="C254" t="n">
-        <v>25.3</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="3" t="n">
-        <v>38078</v>
+        <v>38108</v>
       </c>
       <c r="B255" s="2" t="n">
-        <v>60.6</v>
+        <v>61.4</v>
       </c>
       <c r="C255" t="n">
-        <v>31.5</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="3" t="n">
-        <v>38047</v>
+        <v>38078</v>
       </c>
       <c r="B256" s="2" t="n">
         <v>60.6</v>
       </c>
       <c r="C256" t="n">
-        <v>30.9</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="3" t="n">
-        <v>38018</v>
+        <v>38047</v>
       </c>
       <c r="B257" s="2" t="n">
-        <v>59.9</v>
+        <v>60.6</v>
       </c>
       <c r="C257" t="n">
-        <v>22.7</v>
+        <v>30.9</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="3" t="n">
-        <v>37987</v>
+        <v>38018</v>
       </c>
       <c r="B258" s="2" t="n">
-        <v>60.8</v>
+        <v>59.9</v>
       </c>
       <c r="C258" t="n">
-        <v>18.5</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="3" t="n">
-        <v>37956</v>
+        <v>37987</v>
       </c>
       <c r="B259" s="2" t="n">
-        <v>60.1</v>
+        <v>60.8</v>
       </c>
       <c r="C259" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="3" t="n">
-        <v>37926</v>
+        <v>37956</v>
       </c>
       <c r="B260" s="2" t="n">
-        <v>58.4</v>
+        <v>60.1</v>
       </c>
       <c r="C260" t="n">
-        <v>20.4</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="3" t="n">
-        <v>37895</v>
+        <v>37926</v>
       </c>
       <c r="B261" s="2" t="n">
-        <v>55.2</v>
+        <v>58.4</v>
       </c>
       <c r="C261" t="n">
-        <v>12.7</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="3" t="n">
-        <v>37865</v>
+        <v>37895</v>
       </c>
       <c r="B262" s="2" t="n">
-        <v>52.4</v>
+        <v>55.2</v>
       </c>
       <c r="C262" t="n">
-        <v>3.8</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="3" t="n">
-        <v>37834</v>
+        <v>37865</v>
       </c>
       <c r="B263" s="2" t="n">
-        <v>53.2</v>
+        <v>52.4</v>
       </c>
       <c r="C263" t="n">
-        <v>5.8</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="3" t="n">
-        <v>37803</v>
+        <v>37834</v>
       </c>
       <c r="B264" s="2" t="n">
-        <v>51</v>
+        <v>53.2</v>
       </c>
       <c r="C264" t="n">
-        <v>1.6</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="3" t="n">
-        <v>37773</v>
+        <v>37803</v>
       </c>
       <c r="B265" s="2" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C265" t="n">
-        <v>-8.6</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="3" t="n">
-        <v>37742</v>
+        <v>37773</v>
       </c>
       <c r="B266" s="2" t="n">
         <v>49</v>
       </c>
       <c r="C266" t="n">
-        <v>-7.7</v>
+        <v>-8.6</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="3" t="n">
-        <v>37712</v>
+        <v>37742</v>
       </c>
       <c r="B267" s="2" t="n">
-        <v>46.1</v>
+        <v>49</v>
       </c>
       <c r="C267" t="n">
-        <v>-12</v>
+        <v>-7.7</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="3" t="n">
-        <v>37681</v>
+        <v>37712</v>
       </c>
       <c r="B268" s="2" t="n">
-        <v>46.3</v>
+        <v>46.1</v>
       </c>
       <c r="C268" t="n">
-        <v>-11.6</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="3" t="n">
-        <v>37653</v>
+        <v>37681</v>
       </c>
       <c r="B269" s="2" t="n">
-        <v>48.8</v>
+        <v>46.3</v>
       </c>
       <c r="C269" t="n">
-        <v>-3.7</v>
+        <v>-11.6</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="3" t="n">
-        <v>37622</v>
+        <v>37653</v>
       </c>
       <c r="B270" s="2" t="n">
-        <v>51.3</v>
+        <v>48.8</v>
       </c>
       <c r="C270" t="n">
-        <v>8</v>
+        <v>-3.7</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="3" t="n">
-        <v>37591</v>
+        <v>37622</v>
       </c>
       <c r="B271" s="2" t="n">
-        <v>51.6</v>
+        <v>51.3</v>
       </c>
       <c r="C271" t="n">
-        <v>13.9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="3" t="n">
-        <v>37561</v>
+        <v>37591</v>
       </c>
       <c r="B272" s="2" t="n">
-        <v>48.5</v>
+        <v>51.6</v>
       </c>
       <c r="C272" t="n">
-        <v>10</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="3" t="n">
-        <v>37530</v>
+        <v>37561</v>
       </c>
       <c r="B273" s="2" t="n">
-        <v>49</v>
+        <v>48.5</v>
       </c>
       <c r="C273" t="n">
-        <v>20.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="3" t="n">
-        <v>37500</v>
+        <v>37530</v>
       </c>
       <c r="B274" s="2" t="n">
-        <v>50.5</v>
+        <v>49</v>
       </c>
       <c r="C274" t="n">
-        <v>9.300000000000001</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="3" t="n">
-        <v>37469</v>
+        <v>37500</v>
       </c>
       <c r="B275" s="2" t="n">
-        <v>50.3</v>
+        <v>50.5</v>
       </c>
       <c r="C275" t="n">
-        <v>8.6</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="3" t="n">
-        <v>37438</v>
+        <v>37469</v>
       </c>
       <c r="B276" s="2" t="n">
-        <v>50.2</v>
+        <v>50.3</v>
       </c>
       <c r="C276" t="n">
-        <v>15.4</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="3" t="n">
-        <v>37408</v>
+        <v>37438</v>
       </c>
       <c r="B277" s="2" t="n">
-        <v>53.6</v>
+        <v>50.2</v>
       </c>
       <c r="C277" t="n">
-        <v>24.1</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="3" t="n">
-        <v>37377</v>
+        <v>37408</v>
       </c>
       <c r="B278" s="2" t="n">
-        <v>53.1</v>
+        <v>53.6</v>
       </c>
       <c r="C278" t="n">
-        <v>28.6</v>
+        <v>24.1</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="3" t="n">
-        <v>37347</v>
+        <v>37377</v>
       </c>
       <c r="B279" s="2" t="n">
-        <v>52.4</v>
+        <v>53.1</v>
       </c>
       <c r="C279" t="n">
-        <v>22.7</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="3" t="n">
-        <v>37316</v>
+        <v>37347</v>
       </c>
       <c r="B280" s="2" t="n">
         <v>52.4</v>
       </c>
       <c r="C280" t="n">
-        <v>21.6</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="3" t="n">
-        <v>37288</v>
+        <v>37316</v>
       </c>
       <c r="B281" s="2" t="n">
-        <v>50.7</v>
+        <v>52.4</v>
       </c>
       <c r="C281" t="n">
-        <v>20.4</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="3" t="n">
-        <v>37257</v>
+        <v>37288</v>
       </c>
       <c r="B282" s="2" t="n">
-        <v>47.5</v>
+        <v>50.7</v>
       </c>
       <c r="C282" t="n">
-        <v>12.3</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="3" t="n">
-        <v>37226</v>
+        <v>37257</v>
       </c>
       <c r="B283" s="2" t="n">
-        <v>45.3</v>
+        <v>47.5</v>
       </c>
       <c r="C283" t="n">
-        <v>3.2</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="3" t="n">
-        <v>37196</v>
+        <v>37226</v>
       </c>
       <c r="B284" s="2" t="n">
-        <v>44.1</v>
+        <v>45.3</v>
       </c>
       <c r="C284" t="n">
-        <v>-9.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="3" t="n">
-        <v>37165</v>
+        <v>37196</v>
       </c>
       <c r="B285" s="2" t="n">
-        <v>40.8</v>
+        <v>44.1</v>
       </c>
       <c r="C285" t="n">
-        <v>-16.2</v>
+        <v>-9.1</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="3" t="n">
-        <v>37135</v>
+        <v>37165</v>
       </c>
       <c r="B286" s="2" t="n">
-        <v>46.2</v>
+        <v>40.8</v>
       </c>
       <c r="C286" t="n">
-        <v>-7</v>
+        <v>-16.2</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="3" t="n">
-        <v>37104</v>
+        <v>37135</v>
       </c>
       <c r="B287" s="2" t="n">
-        <v>46.3</v>
+        <v>46.2</v>
       </c>
       <c r="C287" t="n">
-        <v>-7.2</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="3" t="n">
-        <v>37073</v>
+        <v>37104</v>
       </c>
       <c r="B288" s="2" t="n">
-        <v>43.5</v>
+        <v>46.3</v>
       </c>
       <c r="C288" t="n">
-        <v>-17.1</v>
+        <v>-7.2</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="3" t="n">
-        <v>37043</v>
+        <v>37073</v>
       </c>
       <c r="B289" s="2" t="n">
-        <v>43.2</v>
+        <v>43.5</v>
       </c>
       <c r="C289" t="n">
-        <v>-16</v>
+        <v>-17.1</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="3" t="n">
-        <v>37012</v>
+        <v>37043</v>
       </c>
       <c r="B290" s="2" t="n">
-        <v>41.3</v>
+        <v>43.2</v>
       </c>
       <c r="C290" t="n">
-        <v>-22.4</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="3" t="n">
-        <v>36982</v>
+        <v>37012</v>
       </c>
       <c r="B291" s="2" t="n">
-        <v>42.7</v>
+        <v>41.3</v>
       </c>
       <c r="C291" t="n">
-        <v>-21.9</v>
+        <v>-22.4</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="3" t="n">
-        <v>36951</v>
+        <v>36982</v>
       </c>
       <c r="B292" s="2" t="n">
-        <v>43.1</v>
+        <v>42.7</v>
       </c>
       <c r="C292" t="n">
-        <v>-21.5</v>
+        <v>-21.9</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="3" t="n">
-        <v>36923</v>
+        <v>36951</v>
       </c>
       <c r="B293" s="2" t="n">
-        <v>42.1</v>
+        <v>43.1</v>
       </c>
       <c r="C293" t="n">
-        <v>-24.6</v>
+        <v>-21.5</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="3" t="n">
-        <v>36892</v>
+        <v>36923</v>
       </c>
       <c r="B294" s="2" t="n">
-        <v>42.3</v>
+        <v>42.1</v>
       </c>
       <c r="C294" t="n">
-        <v>-25.4</v>
+        <v>-24.6</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="3" t="n">
-        <v>36861</v>
+        <v>36892</v>
       </c>
       <c r="B295" s="2" t="n">
-        <v>43.9</v>
+        <v>42.3</v>
       </c>
       <c r="C295" t="n">
-        <v>-24</v>
+        <v>-25.4</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="3" t="n">
-        <v>36831</v>
+        <v>36861</v>
       </c>
       <c r="B296" s="2" t="n">
-        <v>48.5</v>
+        <v>43.9</v>
       </c>
       <c r="C296" t="n">
-        <v>-16.5</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="3" t="n">
-        <v>36800</v>
+        <v>36831</v>
       </c>
       <c r="B297" s="2" t="n">
-        <v>48.7</v>
+        <v>48.5</v>
       </c>
       <c r="C297" t="n">
-        <v>-14.9</v>
+        <v>-16.5</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="3" t="n">
-        <v>36770</v>
+        <v>36800</v>
       </c>
       <c r="B298" s="2" t="n">
-        <v>49.7</v>
+        <v>48.7</v>
       </c>
       <c r="C298" t="n">
-        <v>-12.8</v>
+        <v>-14.9</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="3" t="n">
-        <v>36739</v>
+        <v>36770</v>
       </c>
       <c r="B299" s="2" t="n">
-        <v>49.9</v>
+        <v>49.7</v>
       </c>
       <c r="C299" t="n">
-        <v>-8.9</v>
+        <v>-12.8</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="3" t="n">
-        <v>36708</v>
+        <v>36739</v>
       </c>
       <c r="B300" s="2" t="n">
-        <v>52.5</v>
+        <v>49.9</v>
       </c>
       <c r="C300" t="n">
-        <v>-2.1</v>
+        <v>-8.9</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="3" t="n">
-        <v>36678</v>
+        <v>36708</v>
       </c>
       <c r="B301" s="2" t="n">
-        <v>51.4</v>
+        <v>52.5</v>
       </c>
       <c r="C301" t="n">
-        <v>-7.9</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="3" t="n">
-        <v>36647</v>
+        <v>36678</v>
       </c>
       <c r="B302" s="2" t="n">
-        <v>53.2</v>
+        <v>51.4</v>
       </c>
       <c r="C302" t="n">
-        <v>-2</v>
+        <v>-7.9</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="3" t="n">
-        <v>36617</v>
+        <v>36647</v>
       </c>
       <c r="B303" s="2" t="n">
-        <v>54.7</v>
+        <v>53.2</v>
       </c>
       <c r="C303" t="n">
-        <v>4.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="3" t="n">
-        <v>36586</v>
+        <v>36617</v>
       </c>
       <c r="B304" s="2" t="n">
-        <v>54.9</v>
+        <v>54.7</v>
       </c>
       <c r="C304" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="3" t="n">
-        <v>36557</v>
+        <v>36586</v>
       </c>
       <c r="B305" s="2" t="n">
-        <v>55.8</v>
+        <v>54.9</v>
       </c>
       <c r="C305" t="n">
-        <v>7.9</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="3" t="n">
-        <v>36526</v>
+        <v>36557</v>
       </c>
       <c r="B306" s="2" t="n">
-        <v>56.7</v>
+        <v>55.8</v>
       </c>
       <c r="C306" t="n">
-        <v>12.1</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="3" t="n">
-        <v>36495</v>
+        <v>36526</v>
       </c>
       <c r="B307" s="2" t="n">
-        <v>57.8</v>
+        <v>56.7</v>
+      </c>
+      <c r="C307" t="n">
+        <v>12.1</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="3" t="n">
-        <v>36465</v>
+        <v>36495</v>
       </c>
       <c r="B308" s="2" t="n">
-        <v>58.1</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="3" t="n">
-        <v>36434</v>
+        <v>36465</v>
       </c>
       <c r="B309" s="2" t="n">
-        <v>57.2</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="3" t="n">
-        <v>36404</v>
+        <v>36434</v>
       </c>
       <c r="B310" s="2" t="n">
-        <v>57</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="3" t="n">
-        <v>36373</v>
+        <v>36404</v>
       </c>
       <c r="B311" s="2" t="n">
-        <v>54.8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="3" t="n">
-        <v>36342</v>
+        <v>36373</v>
       </c>
       <c r="B312" s="2" t="n">
-        <v>53.6</v>
+        <v>54.8</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="3" t="n">
-        <v>36312</v>
+        <v>36342</v>
       </c>
       <c r="B313" s="2" t="n">
-        <v>55.8</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="3" t="n">
-        <v>36281</v>
+        <v>36312</v>
       </c>
       <c r="B314" s="2" t="n">
-        <v>54.3</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="3" t="n">
-        <v>36251</v>
+        <v>36281</v>
       </c>
       <c r="B315" s="2" t="n">
-        <v>52.3</v>
+        <v>54.3</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="3" t="n">
-        <v>36220</v>
+        <v>36251</v>
       </c>
       <c r="B316" s="2" t="n">
-        <v>52.4</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="3" t="n">
-        <v>36192</v>
+        <v>36220</v>
       </c>
       <c r="B317" s="2" t="n">
-        <v>51.7</v>
+        <v>52.4</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="3" t="n">
+        <v>36192</v>
+      </c>
+      <c r="B318" s="2" t="n">
+        <v>51.7</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="3" t="n">
         <v>36161</v>
       </c>
-      <c r="B318" s="2" t="n">
+      <c r="B319" s="2" t="n">
         <v>50.6</v>
       </c>
-    </row>
-    <row r="319">
-      <c r="A319" s="3" t="n"/>
     </row>
     <row r="320">
       <c r="A320" s="3" t="n"/>
@@ -3928,6 +3938,9 @@
     </row>
     <row r="331">
       <c r="A331" s="3" t="n"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/pmi.xlsx
+++ b/data/pmi.xlsx
@@ -400,7 +400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C332"/>
+  <dimension ref="A1:C333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,1132 +432,1134 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.5</v>
+        <v>49</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48.7</v>
+        <v>48.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-1</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>49</v>
+        <v>48.7</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50.3</v>
+        <v>49</v>
       </c>
       <c r="C6" t="n">
-        <v>5.2</v>
+        <v>-2.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>2025-01-01</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B8" t="n">
         <v>50.9</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3.7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="n">
-        <v>45627</v>
-      </c>
-      <c r="B8" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>4.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B9" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="n">
         <v>45597</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B10" t="n">
         <v>48.4</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>3.9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>45566</v>
-      </c>
-      <c r="B10" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-0.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B11" t="n">
-        <v>47.2</v>
+        <v>46.5</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.7</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B12" t="n">
         <v>47.2</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.8</v>
+        <v>-3.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B13" t="n">
-        <v>46.8</v>
+        <v>47.2</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45444</v>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>48.5</v>
+        <v>45474</v>
+      </c>
+      <c r="B14" t="n">
+        <v>46.8</v>
       </c>
       <c r="C14" t="n">
-        <v>5.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>48.7</v>
+        <v>48.5</v>
       </c>
       <c r="C15" t="n">
-        <v>3.8</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>49.2</v>
+        <v>48.7</v>
       </c>
       <c r="C16" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>50.3</v>
+        <v>49.2</v>
       </c>
       <c r="C17" t="n">
-        <v>8.6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>47.8</v>
+        <v>50.3</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>49.1</v>
+        <v>47.8</v>
       </c>
       <c r="C19" t="n">
-        <v>3.6</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>47.1</v>
+        <v>49.1</v>
       </c>
       <c r="C20" t="n">
-        <v>-2.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>46.6</v>
+        <v>47.1</v>
       </c>
       <c r="C21" t="n">
-        <v>-4.9</v>
+        <v>-2.7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>46.7</v>
+        <v>46.6</v>
       </c>
       <c r="C22" t="n">
-        <v>-6.6</v>
+        <v>-4.9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>49</v>
+        <v>46.7</v>
       </c>
       <c r="C23" t="n">
-        <v>-3.9</v>
+        <v>-6.6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>47.6</v>
+        <v>49</v>
       </c>
       <c r="C24" t="n">
-        <v>-10</v>
+        <v>-3.9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>46.4</v>
+        <v>47.6</v>
       </c>
       <c r="C25" t="n">
-        <v>-12</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>46</v>
+        <v>46.4</v>
       </c>
       <c r="C26" t="n">
-        <v>-13.4</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>46.9</v>
+        <v>46</v>
       </c>
       <c r="C27" t="n">
-        <v>-16.4</v>
+        <v>-13.4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>47.1</v>
+        <v>46.9</v>
       </c>
       <c r="C28" t="n">
-        <v>-15.7</v>
+        <v>-16.4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>46.3</v>
+        <v>47.1</v>
       </c>
       <c r="C29" t="n">
-        <v>-18.8</v>
+        <v>-15.7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>47.7</v>
+        <v>46.3</v>
       </c>
       <c r="C30" t="n">
-        <v>-18.3</v>
+        <v>-18.8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B31" s="2" t="n">
-        <v>47.4</v>
+        <v>44958</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>47.7</v>
       </c>
       <c r="C31" t="n">
-        <v>-17.7</v>
+        <v>-18.3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>48.4</v>
+        <v>47.4</v>
       </c>
       <c r="C32" t="n">
-        <v>-17.4</v>
+        <v>-17.7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>49</v>
+        <v>48.4</v>
       </c>
       <c r="C33" t="n">
-        <v>-19.4</v>
+        <v>-17.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" t="n">
-        <v>-17.8</v>
+        <v>-19.4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C35" t="n">
-        <v>-16.5</v>
+        <v>-17.8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>52.9</v>
+        <v>51</v>
       </c>
       <c r="C36" t="n">
-        <v>-11.7</v>
+        <v>-16.5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>52.7</v>
+        <v>52.9</v>
       </c>
       <c r="C37" t="n">
-        <v>-11.3</v>
+        <v>-11.7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>53.1</v>
+        <v>52.7</v>
       </c>
       <c r="C38" t="n">
-        <v>-12.4</v>
+        <v>-11.3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>56.1</v>
+        <v>53.1</v>
       </c>
       <c r="C39" t="n">
-        <v>-8.300000000000001</v>
+        <v>-12.4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>55.9</v>
+        <v>56.1</v>
       </c>
       <c r="C40" t="n">
-        <v>-7.9</v>
+        <v>-8.300000000000001</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>57</v>
+        <v>55.9</v>
       </c>
       <c r="C41" t="n">
-        <v>-11.9</v>
+        <v>-7.9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>58.4</v>
+        <v>57</v>
       </c>
       <c r="C42" t="n">
-        <v>-3.9</v>
+        <v>-11.9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>57.6</v>
+        <v>58.4</v>
       </c>
       <c r="C43" t="n">
-        <v>-1.9</v>
+        <v>-3.9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>58.6</v>
+        <v>57.6</v>
       </c>
       <c r="C44" t="n">
-        <v>-3.1</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>60.8</v>
+        <v>58.6</v>
       </c>
       <c r="C45" t="n">
-        <v>5.4</v>
+        <v>-3.1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B46" s="2" t="n">
         <v>60.8</v>
       </c>
       <c r="C46" t="n">
-        <v>3.4</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>61.1</v>
+        <v>60.8</v>
       </c>
       <c r="C47" t="n">
-        <v>9.699999999999999</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>59.9</v>
+        <v>61.1</v>
       </c>
       <c r="C48" t="n">
-        <v>7.7</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>59.4</v>
+        <v>59.9</v>
       </c>
       <c r="C49" t="n">
-        <v>10.6</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>60.6</v>
+        <v>59.4</v>
       </c>
       <c r="C50" t="n">
-        <v>16.1</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>61.2</v>
+        <v>60.6</v>
       </c>
       <c r="C51" t="n">
-        <v>42</v>
+        <v>16.1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>60.7</v>
+        <v>61.2</v>
       </c>
       <c r="C52" t="n">
-        <v>45.6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>64.7</v>
+        <v>60.7</v>
       </c>
       <c r="C53" t="n">
-        <v>30.2</v>
+        <v>45.6</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>60.8</v>
+        <v>64.7</v>
       </c>
       <c r="C54" t="n">
-        <v>20.9</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>58.7</v>
+        <v>60.8</v>
       </c>
       <c r="C55" t="n">
-        <v>14.9</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>60.5</v>
+        <v>58.7</v>
       </c>
       <c r="C56" t="n">
-        <v>26.8</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>57.7</v>
+        <v>60.5</v>
       </c>
       <c r="C57" t="n">
-        <v>19.7</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>58.8</v>
+        <v>57.7</v>
       </c>
       <c r="C58" t="n">
-        <v>21.7</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="n">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>55.7</v>
+        <v>58.8</v>
       </c>
       <c r="C59" t="n">
-        <v>15.3</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>55.6</v>
+        <v>55.7</v>
       </c>
       <c r="C60" t="n">
-        <v>14.9</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="n">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>53.7</v>
+        <v>55.6</v>
       </c>
       <c r="C61" t="n">
-        <v>5.3</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="n">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>52.2</v>
+        <v>53.7</v>
       </c>
       <c r="C62" t="n">
-        <v>1.8</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="n">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>43.1</v>
+        <v>52.2</v>
       </c>
       <c r="C63" t="n">
-        <v>-17.4</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="3" t="n">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>41.7</v>
+        <v>43.1</v>
       </c>
       <c r="C64" t="n">
-        <v>-22.2</v>
+        <v>-17.4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="3" t="n">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>49.7</v>
+        <v>41.7</v>
       </c>
       <c r="C65" t="n">
-        <v>-10.1</v>
+        <v>-22.2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="n">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>50.3</v>
+        <v>49.7</v>
       </c>
       <c r="C66" t="n">
-        <v>-7.2</v>
+        <v>-10.1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="n">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>51.1</v>
+        <v>50.3</v>
       </c>
       <c r="C67" t="n">
-        <v>-8.300000000000001</v>
+        <v>-7.2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="3" t="n">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>47.7</v>
+        <v>51.1</v>
       </c>
       <c r="C68" t="n">
-        <v>-13</v>
+        <v>-8.300000000000001</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="n">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>48.2</v>
+        <v>47.7</v>
       </c>
       <c r="C69" t="n">
-        <v>-17.9</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="n">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="C70" t="n">
-        <v>-17.2</v>
+        <v>-17.9</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="n">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B71" s="2" t="n">
         <v>48.3</v>
       </c>
       <c r="C71" t="n">
-        <v>-18.8</v>
+        <v>-17.2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="3" t="n">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="C72" t="n">
-        <v>-19.9</v>
+        <v>-18.8</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="3" t="n">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>51</v>
+        <v>48.4</v>
       </c>
       <c r="C73" t="n">
-        <v>-12.1</v>
+        <v>-19.9</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="3" t="n">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>51.3</v>
+        <v>51</v>
       </c>
       <c r="C74" t="n">
-        <v>-14.1</v>
+        <v>-12.1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="3" t="n">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>52.2</v>
+        <v>51.3</v>
       </c>
       <c r="C75" t="n">
-        <v>-11.4</v>
+        <v>-14.1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="3" t="n">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>53.6</v>
+        <v>52.2</v>
       </c>
       <c r="C76" t="n">
-        <v>-8.5</v>
+        <v>-11.4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="3" t="n">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>55.3</v>
+        <v>53.6</v>
       </c>
       <c r="C77" t="n">
-        <v>-6.6</v>
+        <v>-8.5</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="3" t="n">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>54.2</v>
+        <v>55.3</v>
       </c>
       <c r="C78" t="n">
-        <v>-10.9</v>
+        <v>-6.6</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="3" t="n">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>55.7</v>
+        <v>54.2</v>
       </c>
       <c r="C79" t="n">
-        <v>-6.2</v>
+        <v>-10.9</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="3" t="n">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>54.8</v>
+        <v>55.7</v>
       </c>
       <c r="C80" t="n">
-        <v>-7.4</v>
+        <v>-6.2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="3" t="n">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>58.7</v>
+        <v>54.8</v>
       </c>
       <c r="C81" t="n">
-        <v>1.4</v>
+        <v>-7.4</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="3" t="n">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>58.3</v>
+        <v>58.7</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.5</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="3" t="n">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>59.5</v>
+        <v>58.3</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.7</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="3" t="n">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>60.4</v>
+        <v>59.5</v>
       </c>
       <c r="C84" t="n">
-        <v>3.2</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="3" t="n">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>58</v>
+        <v>60.4</v>
       </c>
       <c r="C85" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="3" t="n">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>59.7</v>
+        <v>58</v>
       </c>
       <c r="C86" t="n">
-        <v>6.4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="3" t="n">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>58.9</v>
+        <v>59.7</v>
       </c>
       <c r="C87" t="n">
-        <v>4.4</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="3" t="n">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>58.6</v>
+        <v>58.9</v>
       </c>
       <c r="C88" t="n">
-        <v>5.2</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="3" t="n">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>59.2</v>
+        <v>58.6</v>
       </c>
       <c r="C89" t="n">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="3" t="n">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>60.8</v>
+        <v>59.2</v>
       </c>
       <c r="C90" t="n">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="3" t="n">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>59.4</v>
+        <v>60.8</v>
       </c>
       <c r="C91" t="n">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="3" t="n">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>59.2</v>
+        <v>59.4</v>
       </c>
       <c r="C92" t="n">
-        <v>9.199999999999999</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="3" t="n">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>57.9</v>
+        <v>59.2</v>
       </c>
       <c r="C93" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="3" t="n">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>58.6</v>
+        <v>57.9</v>
       </c>
       <c r="C94" t="n">
-        <v>13.1</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="3" t="n">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>59.9</v>
+        <v>58.6</v>
       </c>
       <c r="C95" t="n">
-        <v>17.5</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="3" t="n">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>58.5</v>
+        <v>59.9</v>
       </c>
       <c r="C96" t="n">
-        <v>17.7</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="3" t="n">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>56.5</v>
+        <v>58.5</v>
       </c>
       <c r="C97" t="n">
-        <v>7.8</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="3" t="n">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>56.1</v>
+        <v>56.5</v>
       </c>
       <c r="C98" t="n">
-        <v>7.1</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="3" t="n">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>56.4</v>
+        <v>56.1</v>
       </c>
       <c r="C99" t="n">
-        <v>9.9</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="3" t="n">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>55.7</v>
+        <v>56.4</v>
       </c>
       <c r="C100" t="n">
-        <v>9.199999999999999</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="3" t="n">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>56.8</v>
+        <v>55.7</v>
       </c>
       <c r="C101" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="3" t="n">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>57.7</v>
+        <v>56.8</v>
       </c>
       <c r="C102" t="n">
-        <v>17.3</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="3" t="n">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>55.7</v>
+        <v>57.7</v>
       </c>
       <c r="C103" t="n">
         <v>17.3</v>
@@ -1565,164 +1567,164 @@
     </row>
     <row r="104">
       <c r="A104" s="3" t="n">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>54.2</v>
+        <v>55.7</v>
       </c>
       <c r="C104" t="n">
-        <v>11.1</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="3" t="n">
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>53.3</v>
+        <v>54.2</v>
       </c>
       <c r="C105" t="n">
-        <v>8.6</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="3" t="n">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>51.8</v>
+        <v>53.3</v>
       </c>
       <c r="C106" t="n">
-        <v>5.7</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="3" t="n">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>51</v>
+        <v>51.8</v>
       </c>
       <c r="C107" t="n">
-        <v>2</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="3" t="n">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>49.7</v>
+        <v>51</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="3" t="n">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B109" s="2" t="n">
-        <v>52.4</v>
+        <v>49.7</v>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="3" t="n">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B110" s="2" t="n">
         <v>52.4</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="3" t="n">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>51.3</v>
+        <v>52.4</v>
       </c>
       <c r="C111" t="n">
-        <v>-2.7</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="3" t="n">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>51</v>
+        <v>51.3</v>
       </c>
       <c r="C112" t="n">
-        <v>-2.1</v>
+        <v>-2.7</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="3" t="n">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>51.4</v>
+        <v>51</v>
       </c>
       <c r="C113" t="n">
-        <v>-1.7</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="3" t="n">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B114" s="2" t="n">
-        <v>49.2</v>
+        <v>51.4</v>
       </c>
       <c r="C114" t="n">
-        <v>-7.3</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="3" t="n">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B115" s="2" t="n">
-        <v>47.5</v>
+        <v>49.2</v>
       </c>
       <c r="C115" t="n">
-        <v>-12</v>
+        <v>-7.3</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="3" t="n">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B116" s="2" t="n">
-        <v>48.8</v>
+        <v>47.5</v>
       </c>
       <c r="C116" t="n">
-        <v>-12.4</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="3" t="n">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B117" s="2" t="n">
-        <v>49.1</v>
+        <v>48.8</v>
       </c>
       <c r="C117" t="n">
-        <v>-12.8</v>
+        <v>-12.4</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="3" t="n">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>49</v>
+        <v>49.1</v>
       </c>
       <c r="C118" t="n">
         <v>-12.8</v>
@@ -1730,1253 +1732,1253 @@
     </row>
     <row r="119">
       <c r="A119" s="3" t="n">
-        <v>42248</v>
+        <v>42278</v>
       </c>
       <c r="B119" s="2" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C119" t="n">
-        <v>-10.2</v>
+        <v>-12.8</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="3" t="n">
-        <v>42217</v>
+        <v>42248</v>
       </c>
       <c r="B120" s="2" t="n">
         <v>50</v>
       </c>
       <c r="C120" t="n">
-        <v>-11.2</v>
+        <v>-10.2</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="3" t="n">
-        <v>42186</v>
+        <v>42217</v>
       </c>
       <c r="B121" s="2" t="n">
-        <v>51.9</v>
+        <v>50</v>
       </c>
       <c r="C121" t="n">
-        <v>-5.8</v>
+        <v>-11.2</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="3" t="n">
-        <v>42156</v>
+        <v>42186</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>52.6</v>
+        <v>51.9</v>
       </c>
       <c r="C122" t="n">
-        <v>-4.4</v>
+        <v>-5.8</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="3" t="n">
-        <v>42125</v>
+        <v>42156</v>
       </c>
       <c r="B123" s="2" t="n">
-        <v>52.7</v>
+        <v>52.6</v>
       </c>
       <c r="C123" t="n">
-        <v>-5.4</v>
+        <v>-4.4</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="3" t="n">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>52.1</v>
+        <v>52.7</v>
       </c>
       <c r="C124" t="n">
-        <v>-8</v>
+        <v>-5.4</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="3" t="n">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="B125" s="2" t="n">
-        <v>52.3</v>
+        <v>52.1</v>
       </c>
       <c r="C125" t="n">
-        <v>-6.4</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="3" t="n">
-        <v>42036</v>
+        <v>42064</v>
       </c>
       <c r="B126" s="2" t="n">
-        <v>53.1</v>
+        <v>52.3</v>
       </c>
       <c r="C126" t="n">
-        <v>-3.5</v>
+        <v>-6.4</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="3" t="n">
-        <v>42005</v>
+        <v>42036</v>
       </c>
       <c r="B127" s="2" t="n">
-        <v>54</v>
+        <v>53.1</v>
       </c>
       <c r="C127" t="n">
-        <v>2.9</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="3" t="n">
-        <v>41974</v>
+        <v>42005</v>
       </c>
       <c r="B128" s="2" t="n">
-        <v>55.7</v>
+        <v>54</v>
       </c>
       <c r="C128" t="n">
-        <v>-1.4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="3" t="n">
-        <v>41944</v>
+        <v>41974</v>
       </c>
       <c r="B129" s="2" t="n">
-        <v>56.3</v>
+        <v>55.7</v>
       </c>
       <c r="C129" t="n">
-        <v>1.4</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="3" t="n">
-        <v>41913</v>
+        <v>41944</v>
       </c>
       <c r="B130" s="2" t="n">
-        <v>56.2</v>
+        <v>56.3</v>
       </c>
       <c r="C130" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="3" t="n">
-        <v>41883</v>
+        <v>41913</v>
       </c>
       <c r="B131" s="2" t="n">
-        <v>55.7</v>
+        <v>56.2</v>
       </c>
       <c r="C131" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="3" t="n">
-        <v>41852</v>
+        <v>41883</v>
       </c>
       <c r="B132" s="2" t="n">
-        <v>56.3</v>
+        <v>55.7</v>
       </c>
       <c r="C132" t="n">
-        <v>4.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="3" t="n">
-        <v>41821</v>
+        <v>41852</v>
       </c>
       <c r="B133" s="2" t="n">
-        <v>55.1</v>
+        <v>56.3</v>
       </c>
       <c r="C133" t="n">
-        <v>2.4</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="3" t="n">
-        <v>41791</v>
+        <v>41821</v>
       </c>
       <c r="B134" s="2" t="n">
-        <v>55</v>
+        <v>55.1</v>
       </c>
       <c r="C134" t="n">
-        <v>7.6</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="3" t="n">
-        <v>41760</v>
+        <v>41791</v>
       </c>
       <c r="B135" s="2" t="n">
-        <v>55.7</v>
+        <v>55</v>
       </c>
       <c r="C135" t="n">
-        <v>9.6</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="3" t="n">
-        <v>41730</v>
+        <v>41760</v>
       </c>
       <c r="B136" s="2" t="n">
-        <v>56.6</v>
+        <v>55.7</v>
       </c>
       <c r="C136" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="3" t="n">
-        <v>41699</v>
+        <v>41730</v>
       </c>
       <c r="B137" s="2" t="n">
-        <v>55.9</v>
+        <v>56.6</v>
       </c>
       <c r="C137" t="n">
-        <v>7.7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="3" t="n">
-        <v>41671</v>
+        <v>41699</v>
       </c>
       <c r="B138" s="2" t="n">
-        <v>55</v>
+        <v>55.9</v>
       </c>
       <c r="C138" t="n">
-        <v>1.5</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="3" t="n">
-        <v>41640</v>
+        <v>41671</v>
       </c>
       <c r="B139" s="2" t="n">
-        <v>52.5</v>
+        <v>55</v>
       </c>
       <c r="C139" t="n">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="3" t="n">
-        <v>41609</v>
+        <v>41640</v>
       </c>
       <c r="B140" s="2" t="n">
-        <v>56.5</v>
+        <v>52.5</v>
       </c>
       <c r="C140" t="n">
-        <v>12.8</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="3" t="n">
-        <v>41579</v>
+        <v>41609</v>
       </c>
       <c r="B141" s="2" t="n">
-        <v>55.5</v>
+        <v>56.5</v>
       </c>
       <c r="C141" t="n">
-        <v>15.6</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="3" t="n">
-        <v>41548</v>
+        <v>41579</v>
       </c>
       <c r="B142" s="2" t="n">
-        <v>54.6</v>
+        <v>55.5</v>
       </c>
       <c r="C142" t="n">
-        <v>8.1</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="3" t="n">
-        <v>41518</v>
+        <v>41548</v>
       </c>
       <c r="B143" s="2" t="n">
         <v>54.6</v>
       </c>
       <c r="C143" t="n">
-        <v>7.5</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="3" t="n">
-        <v>41487</v>
+        <v>41518</v>
       </c>
       <c r="B144" s="2" t="n">
-        <v>54</v>
+        <v>54.6</v>
       </c>
       <c r="C144" t="n">
-        <v>10.2</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="3" t="n">
-        <v>41456</v>
+        <v>41487</v>
       </c>
       <c r="B145" s="2" t="n">
-        <v>53.8</v>
+        <v>54</v>
       </c>
       <c r="C145" t="n">
-        <v>8.5</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="3" t="n">
-        <v>41426</v>
+        <v>41456</v>
       </c>
       <c r="B146" s="2" t="n">
-        <v>51.1</v>
+        <v>53.8</v>
       </c>
       <c r="C146" t="n">
-        <v>3.2</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="3" t="n">
-        <v>41395</v>
+        <v>41426</v>
       </c>
       <c r="B147" s="2" t="n">
-        <v>50.8</v>
+        <v>51.1</v>
       </c>
       <c r="C147" t="n">
-        <v>-4.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="3" t="n">
-        <v>41365</v>
+        <v>41395</v>
       </c>
       <c r="B148" s="2" t="n">
-        <v>51</v>
+        <v>50.8</v>
       </c>
       <c r="C148" t="n">
-        <v>-7.6</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="3" t="n">
-        <v>41334</v>
+        <v>41365</v>
       </c>
       <c r="B149" s="2" t="n">
-        <v>51.9</v>
+        <v>51</v>
       </c>
       <c r="C149" t="n">
-        <v>-3</v>
+        <v>-7.6</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="3" t="n">
-        <v>41306</v>
+        <v>41334</v>
       </c>
       <c r="B150" s="2" t="n">
-        <v>54.2</v>
+        <v>51.9</v>
       </c>
       <c r="C150" t="n">
-        <v>1.7</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="3" t="n">
-        <v>41275</v>
+        <v>41306</v>
       </c>
       <c r="B151" s="2" t="n">
-        <v>53.3</v>
+        <v>54.2</v>
       </c>
       <c r="C151" t="n">
-        <v>-1.7</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="3" t="n">
-        <v>41244</v>
+        <v>41275</v>
       </c>
       <c r="B152" s="2" t="n">
-        <v>50.1</v>
+        <v>53.3</v>
       </c>
       <c r="C152" t="n">
-        <v>-5.5</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="3" t="n">
-        <v>41214</v>
+        <v>41244</v>
       </c>
       <c r="B153" s="2" t="n">
-        <v>48</v>
+        <v>50.1</v>
       </c>
       <c r="C153" t="n">
-        <v>-7.3</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="3" t="n">
-        <v>41183</v>
+        <v>41214</v>
       </c>
       <c r="B154" s="2" t="n">
-        <v>50.5</v>
+        <v>48</v>
       </c>
       <c r="C154" t="n">
-        <v>-1.8</v>
+        <v>-7.3</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="3" t="n">
-        <v>41153</v>
+        <v>41183</v>
       </c>
       <c r="B155" s="2" t="n">
-        <v>50.8</v>
+        <v>50.5</v>
       </c>
       <c r="C155" t="n">
-        <v>-5.4</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="3" t="n">
-        <v>41122</v>
+        <v>41153</v>
       </c>
       <c r="B156" s="2" t="n">
-        <v>49</v>
+        <v>50.8</v>
       </c>
       <c r="C156" t="n">
-        <v>-6.8</v>
+        <v>-5.4</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="3" t="n">
-        <v>41091</v>
+        <v>41122</v>
       </c>
       <c r="B157" s="2" t="n">
-        <v>49.6</v>
+        <v>49</v>
       </c>
       <c r="C157" t="n">
-        <v>-6.2</v>
+        <v>-6.8</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="3" t="n">
-        <v>41061</v>
+        <v>41091</v>
       </c>
       <c r="B158" s="2" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="C158" t="n">
-        <v>-11.3</v>
+        <v>-6.2</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="3" t="n">
-        <v>41030</v>
+        <v>41061</v>
       </c>
       <c r="B159" s="2" t="n">
-        <v>53.2</v>
+        <v>49.5</v>
       </c>
       <c r="C159" t="n">
-        <v>-2.9</v>
+        <v>-11.3</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="3" t="n">
-        <v>41000</v>
+        <v>41030</v>
       </c>
       <c r="B160" s="2" t="n">
-        <v>55.2</v>
+        <v>53.2</v>
       </c>
       <c r="C160" t="n">
-        <v>-4.7</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="3" t="n">
-        <v>40969</v>
+        <v>41000</v>
       </c>
       <c r="B161" s="2" t="n">
-        <v>53.5</v>
+        <v>55.2</v>
       </c>
       <c r="C161" t="n">
-        <v>-8.4</v>
+        <v>-4.7</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="3" t="n">
-        <v>40940</v>
+        <v>40969</v>
       </c>
       <c r="B162" s="2" t="n">
-        <v>53.3</v>
+        <v>53.5</v>
       </c>
       <c r="C162" t="n">
-        <v>-10</v>
+        <v>-8.4</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="3" t="n">
-        <v>40909</v>
+        <v>40940</v>
       </c>
       <c r="B163" s="2" t="n">
-        <v>54.2</v>
+        <v>53.3</v>
       </c>
       <c r="C163" t="n">
-        <v>-8.300000000000001</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="3" t="n">
-        <v>40878</v>
+        <v>40909</v>
       </c>
       <c r="B164" s="2" t="n">
-        <v>53</v>
+        <v>54.2</v>
       </c>
       <c r="C164" t="n">
-        <v>-6.4</v>
+        <v>-8.300000000000001</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="3" t="n">
-        <v>40848</v>
+        <v>40878</v>
       </c>
       <c r="B165" s="2" t="n">
-        <v>51.8</v>
+        <v>53</v>
       </c>
       <c r="C165" t="n">
-        <v>-9.6</v>
+        <v>-6.4</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="3" t="n">
-        <v>40817</v>
+        <v>40848</v>
       </c>
       <c r="B166" s="2" t="n">
-        <v>51.4</v>
+        <v>51.8</v>
       </c>
       <c r="C166" t="n">
-        <v>-9.699999999999999</v>
+        <v>-9.6</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="3" t="n">
-        <v>40787</v>
+        <v>40817</v>
       </c>
       <c r="B167" s="2" t="n">
-        <v>53.7</v>
+        <v>51.4</v>
       </c>
       <c r="C167" t="n">
-        <v>-2.9</v>
+        <v>-9.699999999999999</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="3" t="n">
-        <v>40756</v>
+        <v>40787</v>
       </c>
       <c r="B168" s="2" t="n">
-        <v>52.6</v>
+        <v>53.7</v>
       </c>
       <c r="C168" t="n">
-        <v>-6.7</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="3" t="n">
-        <v>40725</v>
+        <v>40756</v>
       </c>
       <c r="B169" s="2" t="n">
-        <v>52.9</v>
+        <v>52.6</v>
       </c>
       <c r="C169" t="n">
-        <v>-5.7</v>
+        <v>-6.7</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="3" t="n">
-        <v>40695</v>
+        <v>40725</v>
       </c>
       <c r="B170" s="2" t="n">
-        <v>55.8</v>
+        <v>52.9</v>
       </c>
       <c r="C170" t="n">
-        <v>-1.2</v>
+        <v>-5.7</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="3" t="n">
-        <v>40664</v>
+        <v>40695</v>
       </c>
       <c r="B171" s="2" t="n">
-        <v>54.8</v>
+        <v>55.8</v>
       </c>
       <c r="C171" t="n">
-        <v>-4.5</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="3" t="n">
-        <v>40634</v>
+        <v>40664</v>
       </c>
       <c r="B172" s="2" t="n">
-        <v>57.9</v>
+        <v>54.8</v>
       </c>
       <c r="C172" t="n">
-        <v>-0.3</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="3" t="n">
-        <v>40603</v>
+        <v>40634</v>
       </c>
       <c r="B173" s="2" t="n">
-        <v>58.4</v>
+        <v>57.9</v>
       </c>
       <c r="C173" t="n">
-        <v>-0.7</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="3" t="n">
-        <v>40575</v>
+        <v>40603</v>
       </c>
       <c r="B174" s="2" t="n">
-        <v>59.2</v>
+        <v>58.4</v>
       </c>
       <c r="C174" t="n">
-        <v>6.7</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="3" t="n">
-        <v>40544</v>
+        <v>40575</v>
       </c>
       <c r="B175" s="2" t="n">
-        <v>59.1</v>
+        <v>59.2</v>
       </c>
       <c r="C175" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="3" t="n">
-        <v>40513</v>
+        <v>40544</v>
       </c>
       <c r="B176" s="2" t="n">
-        <v>56.6</v>
+        <v>59.1</v>
       </c>
       <c r="C176" t="n">
-        <v>1.4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="3" t="n">
-        <v>40483</v>
+        <v>40513</v>
       </c>
       <c r="B177" s="2" t="n">
-        <v>57.3</v>
+        <v>56.6</v>
       </c>
       <c r="C177" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="3" t="n">
-        <v>40452</v>
+        <v>40483</v>
       </c>
       <c r="B178" s="2" t="n">
-        <v>56.9</v>
+        <v>57.3</v>
       </c>
       <c r="C178" t="n">
-        <v>-1.2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="3" t="n">
-        <v>40422</v>
+        <v>40452</v>
       </c>
       <c r="B179" s="2" t="n">
-        <v>55.3</v>
+        <v>56.9</v>
       </c>
       <c r="C179" t="n">
-        <v>0.7</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="3" t="n">
-        <v>40391</v>
+        <v>40422</v>
       </c>
       <c r="B180" s="2" t="n">
-        <v>56.4</v>
+        <v>55.3</v>
       </c>
       <c r="C180" t="n">
-        <v>5.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="3" t="n">
-        <v>40360</v>
+        <v>40391</v>
       </c>
       <c r="B181" s="2" t="n">
-        <v>56.1</v>
+        <v>56.4</v>
       </c>
       <c r="C181" t="n">
-        <v>12.9</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="3" t="n">
-        <v>40330</v>
+        <v>40360</v>
       </c>
       <c r="B182" s="2" t="n">
-        <v>56.5</v>
+        <v>56.1</v>
       </c>
       <c r="C182" t="n">
-        <v>22</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="3" t="n">
-        <v>40299</v>
+        <v>40330</v>
       </c>
       <c r="B183" s="2" t="n">
-        <v>57.4</v>
+        <v>56.5</v>
       </c>
       <c r="C183" t="n">
-        <v>30.2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="3" t="n">
-        <v>40269</v>
+        <v>40299</v>
       </c>
       <c r="B184" s="2" t="n">
-        <v>58.1</v>
+        <v>57.4</v>
       </c>
       <c r="C184" t="n">
-        <v>45.6</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="3" t="n">
-        <v>40238</v>
+        <v>40269</v>
       </c>
       <c r="B185" s="2" t="n">
-        <v>58.8</v>
+        <v>58.1</v>
       </c>
       <c r="C185" t="n">
-        <v>58.1</v>
+        <v>45.6</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="3" t="n">
-        <v>40210</v>
+        <v>40238</v>
       </c>
       <c r="B186" s="2" t="n">
-        <v>55.5</v>
+        <v>58.8</v>
       </c>
       <c r="C186" t="n">
-        <v>51.6</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="3" t="n">
-        <v>40179</v>
+        <v>40210</v>
       </c>
       <c r="B187" s="2" t="n">
-        <v>56.3</v>
+        <v>55.5</v>
       </c>
       <c r="C187" t="n">
-        <v>54.7</v>
+        <v>51.6</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="3" t="n">
-        <v>40148</v>
+        <v>40179</v>
       </c>
       <c r="B188" s="2" t="n">
-        <v>55.8</v>
+        <v>56.3</v>
       </c>
       <c r="C188" t="n">
-        <v>61.7</v>
+        <v>54.7</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="3" t="n">
-        <v>40118</v>
+        <v>40148</v>
       </c>
       <c r="B189" s="2" t="n">
-        <v>55.4</v>
+        <v>55.8</v>
       </c>
       <c r="C189" t="n">
-        <v>42.1</v>
+        <v>61.7</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="3" t="n">
-        <v>40087</v>
+        <v>40118</v>
       </c>
       <c r="B190" s="2" t="n">
-        <v>57.6</v>
+        <v>55.4</v>
       </c>
       <c r="C190" t="n">
-        <v>50.8</v>
+        <v>42.1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="3" t="n">
-        <v>40057</v>
+        <v>40087</v>
       </c>
       <c r="B191" s="2" t="n">
-        <v>54.9</v>
+        <v>57.6</v>
       </c>
       <c r="C191" t="n">
-        <v>16.3</v>
+        <v>50.8</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="3" t="n">
-        <v>40026</v>
+        <v>40057</v>
       </c>
       <c r="B192" s="2" t="n">
-        <v>53.4</v>
+        <v>54.9</v>
       </c>
       <c r="C192" t="n">
-        <v>6.6</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="3" t="n">
-        <v>39995</v>
+        <v>40026</v>
       </c>
       <c r="B193" s="2" t="n">
-        <v>49.7</v>
+        <v>53.4</v>
       </c>
       <c r="C193" t="n">
-        <v>-2.2</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="3" t="n">
-        <v>39965</v>
+        <v>39995</v>
       </c>
       <c r="B194" s="2" t="n">
-        <v>46.3</v>
+        <v>49.7</v>
       </c>
       <c r="C194" t="n">
-        <v>-7.2</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="3" t="n">
-        <v>39934</v>
+        <v>39965</v>
       </c>
       <c r="B195" s="2" t="n">
-        <v>44.1</v>
+        <v>46.3</v>
       </c>
       <c r="C195" t="n">
-        <v>-9.800000000000001</v>
+        <v>-7.2</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="3" t="n">
-        <v>39904</v>
+        <v>39934</v>
       </c>
       <c r="B196" s="2" t="n">
-        <v>39.9</v>
+        <v>44.1</v>
       </c>
       <c r="C196" t="n">
-        <v>-17.7</v>
+        <v>-9.800000000000001</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="3" t="n">
-        <v>39873</v>
+        <v>39904</v>
       </c>
       <c r="B197" s="2" t="n">
-        <v>37.2</v>
+        <v>39.9</v>
       </c>
       <c r="C197" t="n">
-        <v>-25.2</v>
+        <v>-17.7</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="3" t="n">
-        <v>39845</v>
+        <v>39873</v>
       </c>
       <c r="B198" s="2" t="n">
-        <v>36.6</v>
+        <v>37.2</v>
       </c>
       <c r="C198" t="n">
-        <v>-25</v>
+        <v>-25.2</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="3" t="n">
-        <v>39814</v>
+        <v>39845</v>
       </c>
       <c r="B199" s="2" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="C199" t="n">
-        <v>-28.5</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="3" t="n">
-        <v>39783</v>
+        <v>39814</v>
       </c>
       <c r="B200" s="2" t="n">
-        <v>34.5</v>
+        <v>36.4</v>
       </c>
       <c r="C200" t="n">
-        <v>-31.1</v>
+        <v>-28.5</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="3" t="n">
-        <v>39753</v>
+        <v>39783</v>
       </c>
       <c r="B201" s="2" t="n">
-        <v>39</v>
+        <v>34.5</v>
       </c>
       <c r="C201" t="n">
-        <v>-24.3</v>
+        <v>-31.1</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="3" t="n">
-        <v>39722</v>
+        <v>39753</v>
       </c>
       <c r="B202" s="2" t="n">
-        <v>38.2</v>
+        <v>39</v>
       </c>
       <c r="C202" t="n">
-        <v>-27.7</v>
+        <v>-24.3</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="3" t="n">
-        <v>39692</v>
+        <v>39722</v>
       </c>
       <c r="B203" s="2" t="n">
-        <v>47.2</v>
+        <v>38.2</v>
       </c>
       <c r="C203" t="n">
-        <v>-12.3</v>
+        <v>-27.7</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="3" t="n">
-        <v>39661</v>
+        <v>39692</v>
       </c>
       <c r="B204" s="2" t="n">
-        <v>50.1</v>
+        <v>47.2</v>
       </c>
       <c r="C204" t="n">
-        <v>-4</v>
+        <v>-12.3</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="3" t="n">
-        <v>39630</v>
+        <v>39661</v>
       </c>
       <c r="B205" s="2" t="n">
-        <v>50.8</v>
+        <v>50.1</v>
       </c>
       <c r="C205" t="n">
-        <v>-1.9</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="3" t="n">
-        <v>39600</v>
+        <v>39630</v>
       </c>
       <c r="B206" s="2" t="n">
-        <v>49.9</v>
+        <v>50.8</v>
       </c>
       <c r="C206" t="n">
-        <v>-7.6</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="3" t="n">
-        <v>39569</v>
+        <v>39600</v>
       </c>
       <c r="B207" s="2" t="n">
-        <v>48.9</v>
+        <v>49.9</v>
       </c>
       <c r="C207" t="n">
-        <v>-7.9</v>
+        <v>-7.6</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="3" t="n">
-        <v>39539</v>
+        <v>39569</v>
       </c>
       <c r="B208" s="2" t="n">
-        <v>48.5</v>
+        <v>48.9</v>
       </c>
       <c r="C208" t="n">
-        <v>-8</v>
+        <v>-7.9</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="3" t="n">
-        <v>39508</v>
+        <v>39539</v>
       </c>
       <c r="B209" s="2" t="n">
-        <v>49.7</v>
+        <v>48.5</v>
       </c>
       <c r="C209" t="n">
-        <v>-5.9</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="3" t="n">
-        <v>39479</v>
+        <v>39508</v>
       </c>
       <c r="B210" s="2" t="n">
-        <v>48.8</v>
+        <v>49.7</v>
       </c>
       <c r="C210" t="n">
-        <v>-9.800000000000001</v>
+        <v>-5.9</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="3" t="n">
-        <v>39448</v>
+        <v>39479</v>
       </c>
       <c r="B211" s="2" t="n">
-        <v>50.9</v>
+        <v>48.8</v>
       </c>
       <c r="C211" t="n">
-        <v>1</v>
+        <v>-9.800000000000001</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="3" t="n">
-        <v>39417</v>
+        <v>39448</v>
       </c>
       <c r="B212" s="2" t="n">
-        <v>50.1</v>
+        <v>50.9</v>
       </c>
       <c r="C212" t="n">
-        <v>-2.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="3" t="n">
-        <v>39387</v>
+        <v>39417</v>
       </c>
       <c r="B213" s="2" t="n">
-        <v>51.5</v>
+        <v>50.1</v>
       </c>
       <c r="C213" t="n">
-        <v>2.4</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="3" t="n">
-        <v>39356</v>
+        <v>39387</v>
       </c>
       <c r="B214" s="2" t="n">
-        <v>52.8</v>
+        <v>51.5</v>
       </c>
       <c r="C214" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="3" t="n">
-        <v>39326</v>
+        <v>39356</v>
       </c>
       <c r="B215" s="2" t="n">
-        <v>53.8</v>
+        <v>52.8</v>
       </c>
       <c r="C215" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="3" t="n">
-        <v>39295</v>
+        <v>39326</v>
       </c>
       <c r="B216" s="2" t="n">
-        <v>52.2</v>
+        <v>53.8</v>
       </c>
       <c r="C216" t="n">
-        <v>-2.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="3" t="n">
-        <v>39264</v>
+        <v>39295</v>
       </c>
       <c r="B217" s="2" t="n">
-        <v>51.8</v>
+        <v>52.2</v>
       </c>
       <c r="C217" t="n">
-        <v>-2.3</v>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="3" t="n">
-        <v>39234</v>
+        <v>39264</v>
       </c>
       <c r="B218" s="2" t="n">
-        <v>54</v>
+        <v>51.8</v>
       </c>
       <c r="C218" t="n">
-        <v>3.8</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="3" t="n">
-        <v>39203</v>
+        <v>39234</v>
       </c>
       <c r="B219" s="2" t="n">
-        <v>53.1</v>
+        <v>54</v>
       </c>
       <c r="C219" t="n">
-        <v>-1.1</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="3" t="n">
-        <v>39173</v>
+        <v>39203</v>
       </c>
       <c r="B220" s="2" t="n">
-        <v>52.7</v>
+        <v>53.1</v>
       </c>
       <c r="C220" t="n">
-        <v>-4.5</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="3" t="n">
-        <v>39142</v>
+        <v>39173</v>
       </c>
       <c r="B221" s="2" t="n">
-        <v>52.8</v>
+        <v>52.7</v>
       </c>
       <c r="C221" t="n">
-        <v>-2.8</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="3" t="n">
-        <v>39114</v>
+        <v>39142</v>
       </c>
       <c r="B222" s="2" t="n">
-        <v>54.1</v>
+        <v>52.8</v>
       </c>
       <c r="C222" t="n">
-        <v>-3</v>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="3" t="n">
-        <v>39083</v>
+        <v>39114</v>
       </c>
       <c r="B223" s="2" t="n">
-        <v>50.4</v>
+        <v>54.1</v>
       </c>
       <c r="C223" t="n">
-        <v>-8.4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="3" t="n">
-        <v>39052</v>
+        <v>39083</v>
       </c>
       <c r="B224" s="2" t="n">
-        <v>51.4</v>
+        <v>50.4</v>
       </c>
       <c r="C224" t="n">
-        <v>-6.7</v>
+        <v>-8.4</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="3" t="n">
-        <v>39022</v>
+        <v>39052</v>
       </c>
       <c r="B225" s="2" t="n">
-        <v>50.3</v>
+        <v>51.4</v>
       </c>
       <c r="C225" t="n">
-        <v>-11.3</v>
+        <v>-6.7</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="3" t="n">
-        <v>38991</v>
+        <v>39022</v>
       </c>
       <c r="B226" s="2" t="n">
-        <v>51.4</v>
+        <v>50.3</v>
       </c>
       <c r="C226" t="n">
-        <v>-10.1</v>
+        <v>-11.3</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="3" t="n">
-        <v>38961</v>
+        <v>38991</v>
       </c>
       <c r="B227" s="2" t="n">
-        <v>52.2</v>
+        <v>51.4</v>
       </c>
       <c r="C227" t="n">
-        <v>-8.1</v>
+        <v>-10.1</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="3" t="n">
-        <v>38930</v>
+        <v>38961</v>
       </c>
       <c r="B228" s="2" t="n">
-        <v>53.7</v>
+        <v>52.2</v>
       </c>
       <c r="C228" t="n">
-        <v>2.5</v>
+        <v>-8.1</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="3" t="n">
-        <v>38899</v>
+        <v>38930</v>
       </c>
       <c r="B229" s="2" t="n">
-        <v>53</v>
+        <v>53.7</v>
       </c>
       <c r="C229" t="n">
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="3" t="n">
-        <v>38869</v>
+        <v>38899</v>
       </c>
       <c r="B230" s="2" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C230" t="n">
-        <v>-0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="3" t="n">
-        <v>38838</v>
+        <v>38869</v>
       </c>
       <c r="B231" s="2" t="n">
-        <v>53.7</v>
+        <v>52</v>
       </c>
       <c r="C231" t="n">
-        <v>5.7</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="3" t="n">
-        <v>38808</v>
+        <v>38838</v>
       </c>
       <c r="B232" s="2" t="n">
-        <v>55.2</v>
+        <v>53.7</v>
       </c>
       <c r="C232" t="n">
         <v>5.7</v>
@@ -2984,927 +2986,935 @@
     </row>
     <row r="233">
       <c r="A233" s="3" t="n">
-        <v>38777</v>
+        <v>38808</v>
       </c>
       <c r="B233" s="2" t="n">
-        <v>54.3</v>
+        <v>55.2</v>
       </c>
       <c r="C233" t="n">
-        <v>-1.6</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="3" t="n">
-        <v>38749</v>
+        <v>38777</v>
       </c>
       <c r="B234" s="2" t="n">
-        <v>55.8</v>
+        <v>54.3</v>
       </c>
       <c r="C234" t="n">
-        <v>0.5</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="3" t="n">
-        <v>38718</v>
+        <v>38749</v>
       </c>
       <c r="B235" s="2" t="n">
-        <v>55</v>
+        <v>55.8</v>
       </c>
       <c r="C235" t="n">
-        <v>-3.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="3" t="n">
-        <v>38687</v>
+        <v>38718</v>
       </c>
       <c r="B236" s="2" t="n">
-        <v>55.1</v>
+        <v>55</v>
       </c>
       <c r="C236" t="n">
-        <v>-3.7</v>
+        <v>-3.2</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="3" t="n">
-        <v>38657</v>
+        <v>38687</v>
       </c>
       <c r="B237" s="2" t="n">
-        <v>56.7</v>
+        <v>55.1</v>
       </c>
       <c r="C237" t="n">
-        <v>0.9</v>
+        <v>-3.7</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="3" t="n">
-        <v>38626</v>
+        <v>38657</v>
       </c>
       <c r="B238" s="2" t="n">
-        <v>57.2</v>
+        <v>56.7</v>
       </c>
       <c r="C238" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="3" t="n">
-        <v>38596</v>
+        <v>38626</v>
       </c>
       <c r="B239" s="2" t="n">
-        <v>56.8</v>
+        <v>57.2</v>
       </c>
       <c r="C239" t="n">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="3" t="n">
-        <v>38565</v>
+        <v>38596</v>
       </c>
       <c r="B240" s="2" t="n">
-        <v>52.4</v>
+        <v>56.8</v>
       </c>
       <c r="C240" t="n">
-        <v>-10.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="3" t="n">
-        <v>38534</v>
+        <v>38565</v>
       </c>
       <c r="B241" s="2" t="n">
-        <v>52.8</v>
+        <v>52.4</v>
       </c>
       <c r="C241" t="n">
-        <v>-11.9</v>
+        <v>-10.4</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="3" t="n">
-        <v>38504</v>
+        <v>38534</v>
       </c>
       <c r="B242" s="2" t="n">
-        <v>52.4</v>
+        <v>52.8</v>
       </c>
       <c r="C242" t="n">
-        <v>-13.4</v>
+        <v>-11.9</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="3" t="n">
-        <v>38473</v>
+        <v>38504</v>
       </c>
       <c r="B243" s="2" t="n">
-        <v>50.8</v>
+        <v>52.4</v>
       </c>
       <c r="C243" t="n">
-        <v>-17.3</v>
+        <v>-13.4</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="3" t="n">
-        <v>38443</v>
+        <v>38473</v>
       </c>
       <c r="B244" s="2" t="n">
-        <v>52.2</v>
+        <v>50.8</v>
       </c>
       <c r="C244" t="n">
-        <v>-13.9</v>
+        <v>-17.3</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="3" t="n">
-        <v>38412</v>
+        <v>38443</v>
       </c>
       <c r="B245" s="2" t="n">
-        <v>55.2</v>
+        <v>52.2</v>
       </c>
       <c r="C245" t="n">
-        <v>-8.9</v>
+        <v>-13.9</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="3" t="n">
-        <v>38384</v>
+        <v>38412</v>
       </c>
       <c r="B246" s="2" t="n">
-        <v>55.5</v>
+        <v>55.2</v>
       </c>
       <c r="C246" t="n">
-        <v>-7.3</v>
+        <v>-8.9</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="3" t="n">
-        <v>38353</v>
+        <v>38384</v>
       </c>
       <c r="B247" s="2" t="n">
-        <v>56.8</v>
+        <v>55.5</v>
       </c>
       <c r="C247" t="n">
-        <v>-6.6</v>
+        <v>-7.3</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="3" t="n">
-        <v>38322</v>
+        <v>38353</v>
       </c>
       <c r="B248" s="2" t="n">
-        <v>57.2</v>
+        <v>56.8</v>
       </c>
       <c r="C248" t="n">
-        <v>-4.8</v>
+        <v>-6.6</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="3" t="n">
-        <v>38292</v>
+        <v>38322</v>
       </c>
       <c r="B249" s="2" t="n">
-        <v>56.2</v>
+        <v>57.2</v>
       </c>
       <c r="C249" t="n">
-        <v>-3.8</v>
+        <v>-4.8</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="3" t="n">
-        <v>38261</v>
+        <v>38292</v>
       </c>
       <c r="B250" s="2" t="n">
-        <v>56.3</v>
+        <v>56.2</v>
       </c>
       <c r="C250" t="n">
-        <v>2</v>
+        <v>-3.8</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="3" t="n">
-        <v>38231</v>
+        <v>38261</v>
       </c>
       <c r="B251" s="2" t="n">
-        <v>57.4</v>
+        <v>56.3</v>
       </c>
       <c r="C251" t="n">
-        <v>9.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="3" t="n">
-        <v>38200</v>
+        <v>38231</v>
       </c>
       <c r="B252" s="2" t="n">
-        <v>58.5</v>
+        <v>57.4</v>
       </c>
       <c r="C252" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="3" t="n">
-        <v>38169</v>
+        <v>38200</v>
       </c>
       <c r="B253" s="2" t="n">
-        <v>59.9</v>
+        <v>58.5</v>
       </c>
       <c r="C253" t="n">
-        <v>17.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="3" t="n">
-        <v>38139</v>
+        <v>38169</v>
       </c>
       <c r="B254" s="2" t="n">
-        <v>60.5</v>
+        <v>59.9</v>
       </c>
       <c r="C254" t="n">
-        <v>23.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="3" t="n">
-        <v>38108</v>
+        <v>38139</v>
       </c>
       <c r="B255" s="2" t="n">
-        <v>61.4</v>
+        <v>60.5</v>
       </c>
       <c r="C255" t="n">
-        <v>25.3</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="3" t="n">
-        <v>38078</v>
+        <v>38108</v>
       </c>
       <c r="B256" s="2" t="n">
-        <v>60.6</v>
+        <v>61.4</v>
       </c>
       <c r="C256" t="n">
-        <v>31.5</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="3" t="n">
-        <v>38047</v>
+        <v>38078</v>
       </c>
       <c r="B257" s="2" t="n">
         <v>60.6</v>
       </c>
       <c r="C257" t="n">
-        <v>30.9</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="3" t="n">
-        <v>38018</v>
+        <v>38047</v>
       </c>
       <c r="B258" s="2" t="n">
-        <v>59.9</v>
+        <v>60.6</v>
       </c>
       <c r="C258" t="n">
-        <v>22.7</v>
+        <v>30.9</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="3" t="n">
-        <v>37987</v>
+        <v>38018</v>
       </c>
       <c r="B259" s="2" t="n">
-        <v>60.8</v>
+        <v>59.9</v>
       </c>
       <c r="C259" t="n">
-        <v>18.5</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="3" t="n">
-        <v>37956</v>
+        <v>37987</v>
       </c>
       <c r="B260" s="2" t="n">
-        <v>60.1</v>
+        <v>60.8</v>
       </c>
       <c r="C260" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="3" t="n">
-        <v>37926</v>
+        <v>37956</v>
       </c>
       <c r="B261" s="2" t="n">
-        <v>58.4</v>
+        <v>60.1</v>
       </c>
       <c r="C261" t="n">
-        <v>20.4</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="3" t="n">
-        <v>37895</v>
+        <v>37926</v>
       </c>
       <c r="B262" s="2" t="n">
-        <v>55.2</v>
+        <v>58.4</v>
       </c>
       <c r="C262" t="n">
-        <v>12.7</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="3" t="n">
-        <v>37865</v>
+        <v>37895</v>
       </c>
       <c r="B263" s="2" t="n">
-        <v>52.4</v>
+        <v>55.2</v>
       </c>
       <c r="C263" t="n">
-        <v>3.8</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="3" t="n">
-        <v>37834</v>
+        <v>37865</v>
       </c>
       <c r="B264" s="2" t="n">
-        <v>53.2</v>
+        <v>52.4</v>
       </c>
       <c r="C264" t="n">
-        <v>5.8</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="3" t="n">
-        <v>37803</v>
+        <v>37834</v>
       </c>
       <c r="B265" s="2" t="n">
-        <v>51</v>
+        <v>53.2</v>
       </c>
       <c r="C265" t="n">
-        <v>1.6</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="3" t="n">
-        <v>37773</v>
+        <v>37803</v>
       </c>
       <c r="B266" s="2" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C266" t="n">
-        <v>-8.6</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="3" t="n">
-        <v>37742</v>
+        <v>37773</v>
       </c>
       <c r="B267" s="2" t="n">
         <v>49</v>
       </c>
       <c r="C267" t="n">
-        <v>-7.7</v>
+        <v>-8.6</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="3" t="n">
-        <v>37712</v>
+        <v>37742</v>
       </c>
       <c r="B268" s="2" t="n">
-        <v>46.1</v>
+        <v>49</v>
       </c>
       <c r="C268" t="n">
-        <v>-12</v>
+        <v>-7.7</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="3" t="n">
-        <v>37681</v>
+        <v>37712</v>
       </c>
       <c r="B269" s="2" t="n">
-        <v>46.3</v>
+        <v>46.1</v>
       </c>
       <c r="C269" t="n">
-        <v>-11.6</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="3" t="n">
-        <v>37653</v>
+        <v>37681</v>
       </c>
       <c r="B270" s="2" t="n">
-        <v>48.8</v>
+        <v>46.3</v>
       </c>
       <c r="C270" t="n">
-        <v>-3.7</v>
+        <v>-11.6</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="3" t="n">
-        <v>37622</v>
+        <v>37653</v>
       </c>
       <c r="B271" s="2" t="n">
-        <v>51.3</v>
+        <v>48.8</v>
       </c>
       <c r="C271" t="n">
-        <v>8</v>
+        <v>-3.7</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="3" t="n">
-        <v>37591</v>
+        <v>37622</v>
       </c>
       <c r="B272" s="2" t="n">
-        <v>51.6</v>
+        <v>51.3</v>
       </c>
       <c r="C272" t="n">
-        <v>13.9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="3" t="n">
-        <v>37561</v>
+        <v>37591</v>
       </c>
       <c r="B273" s="2" t="n">
-        <v>48.5</v>
+        <v>51.6</v>
       </c>
       <c r="C273" t="n">
-        <v>10</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="3" t="n">
-        <v>37530</v>
+        <v>37561</v>
       </c>
       <c r="B274" s="2" t="n">
-        <v>49</v>
+        <v>48.5</v>
       </c>
       <c r="C274" t="n">
-        <v>20.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="3" t="n">
-        <v>37500</v>
+        <v>37530</v>
       </c>
       <c r="B275" s="2" t="n">
-        <v>50.5</v>
+        <v>49</v>
       </c>
       <c r="C275" t="n">
-        <v>9.300000000000001</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="3" t="n">
-        <v>37469</v>
+        <v>37500</v>
       </c>
       <c r="B276" s="2" t="n">
-        <v>50.3</v>
+        <v>50.5</v>
       </c>
       <c r="C276" t="n">
-        <v>8.6</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="3" t="n">
-        <v>37438</v>
+        <v>37469</v>
       </c>
       <c r="B277" s="2" t="n">
-        <v>50.2</v>
+        <v>50.3</v>
       </c>
       <c r="C277" t="n">
-        <v>15.4</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="3" t="n">
-        <v>37408</v>
+        <v>37438</v>
       </c>
       <c r="B278" s="2" t="n">
-        <v>53.6</v>
+        <v>50.2</v>
       </c>
       <c r="C278" t="n">
-        <v>24.1</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="3" t="n">
-        <v>37377</v>
+        <v>37408</v>
       </c>
       <c r="B279" s="2" t="n">
-        <v>53.1</v>
+        <v>53.6</v>
       </c>
       <c r="C279" t="n">
-        <v>28.6</v>
+        <v>24.1</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="3" t="n">
-        <v>37347</v>
+        <v>37377</v>
       </c>
       <c r="B280" s="2" t="n">
-        <v>52.4</v>
+        <v>53.1</v>
       </c>
       <c r="C280" t="n">
-        <v>22.7</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="3" t="n">
-        <v>37316</v>
+        <v>37347</v>
       </c>
       <c r="B281" s="2" t="n">
         <v>52.4</v>
       </c>
       <c r="C281" t="n">
-        <v>21.6</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="3" t="n">
-        <v>37288</v>
+        <v>37316</v>
       </c>
       <c r="B282" s="2" t="n">
-        <v>50.7</v>
+        <v>52.4</v>
       </c>
       <c r="C282" t="n">
-        <v>20.4</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="3" t="n">
-        <v>37257</v>
+        <v>37288</v>
       </c>
       <c r="B283" s="2" t="n">
-        <v>47.5</v>
+        <v>50.7</v>
       </c>
       <c r="C283" t="n">
-        <v>12.3</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="3" t="n">
-        <v>37226</v>
+        <v>37257</v>
       </c>
       <c r="B284" s="2" t="n">
-        <v>45.3</v>
+        <v>47.5</v>
       </c>
       <c r="C284" t="n">
-        <v>3.2</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="3" t="n">
-        <v>37196</v>
+        <v>37226</v>
       </c>
       <c r="B285" s="2" t="n">
-        <v>44.1</v>
+        <v>45.3</v>
       </c>
       <c r="C285" t="n">
-        <v>-9.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="3" t="n">
-        <v>37165</v>
+        <v>37196</v>
       </c>
       <c r="B286" s="2" t="n">
-        <v>40.8</v>
+        <v>44.1</v>
       </c>
       <c r="C286" t="n">
-        <v>-16.2</v>
+        <v>-9.1</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="3" t="n">
-        <v>37135</v>
+        <v>37165</v>
       </c>
       <c r="B287" s="2" t="n">
-        <v>46.2</v>
+        <v>40.8</v>
       </c>
       <c r="C287" t="n">
-        <v>-7</v>
+        <v>-16.2</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="3" t="n">
-        <v>37104</v>
+        <v>37135</v>
       </c>
       <c r="B288" s="2" t="n">
-        <v>46.3</v>
+        <v>46.2</v>
       </c>
       <c r="C288" t="n">
-        <v>-7.2</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="3" t="n">
-        <v>37073</v>
+        <v>37104</v>
       </c>
       <c r="B289" s="2" t="n">
-        <v>43.5</v>
+        <v>46.3</v>
       </c>
       <c r="C289" t="n">
-        <v>-17.1</v>
+        <v>-7.2</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="3" t="n">
-        <v>37043</v>
+        <v>37073</v>
       </c>
       <c r="B290" s="2" t="n">
-        <v>43.2</v>
+        <v>43.5</v>
       </c>
       <c r="C290" t="n">
-        <v>-16</v>
+        <v>-17.1</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="3" t="n">
-        <v>37012</v>
+        <v>37043</v>
       </c>
       <c r="B291" s="2" t="n">
-        <v>41.3</v>
+        <v>43.2</v>
       </c>
       <c r="C291" t="n">
-        <v>-22.4</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="3" t="n">
-        <v>36982</v>
+        <v>37012</v>
       </c>
       <c r="B292" s="2" t="n">
-        <v>42.7</v>
+        <v>41.3</v>
       </c>
       <c r="C292" t="n">
-        <v>-21.9</v>
+        <v>-22.4</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="3" t="n">
-        <v>36951</v>
+        <v>36982</v>
       </c>
       <c r="B293" s="2" t="n">
-        <v>43.1</v>
+        <v>42.7</v>
       </c>
       <c r="C293" t="n">
-        <v>-21.5</v>
+        <v>-21.9</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="3" t="n">
-        <v>36923</v>
+        <v>36951</v>
       </c>
       <c r="B294" s="2" t="n">
-        <v>42.1</v>
+        <v>43.1</v>
       </c>
       <c r="C294" t="n">
-        <v>-24.6</v>
+        <v>-21.5</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="3" t="n">
-        <v>36892</v>
+        <v>36923</v>
       </c>
       <c r="B295" s="2" t="n">
-        <v>42.3</v>
+        <v>42.1</v>
       </c>
       <c r="C295" t="n">
-        <v>-25.4</v>
+        <v>-24.6</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="3" t="n">
-        <v>36861</v>
+        <v>36892</v>
       </c>
       <c r="B296" s="2" t="n">
-        <v>43.9</v>
+        <v>42.3</v>
       </c>
       <c r="C296" t="n">
-        <v>-24</v>
+        <v>-25.4</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="3" t="n">
-        <v>36831</v>
+        <v>36861</v>
       </c>
       <c r="B297" s="2" t="n">
-        <v>48.5</v>
+        <v>43.9</v>
       </c>
       <c r="C297" t="n">
-        <v>-16.5</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="3" t="n">
-        <v>36800</v>
+        <v>36831</v>
       </c>
       <c r="B298" s="2" t="n">
-        <v>48.7</v>
+        <v>48.5</v>
       </c>
       <c r="C298" t="n">
-        <v>-14.9</v>
+        <v>-16.5</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="3" t="n">
-        <v>36770</v>
+        <v>36800</v>
       </c>
       <c r="B299" s="2" t="n">
-        <v>49.7</v>
+        <v>48.7</v>
       </c>
       <c r="C299" t="n">
-        <v>-12.8</v>
+        <v>-14.9</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="3" t="n">
-        <v>36739</v>
+        <v>36770</v>
       </c>
       <c r="B300" s="2" t="n">
-        <v>49.9</v>
+        <v>49.7</v>
       </c>
       <c r="C300" t="n">
-        <v>-8.9</v>
+        <v>-12.8</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="3" t="n">
-        <v>36708</v>
+        <v>36739</v>
       </c>
       <c r="B301" s="2" t="n">
-        <v>52.5</v>
+        <v>49.9</v>
       </c>
       <c r="C301" t="n">
-        <v>-2.1</v>
+        <v>-8.9</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="3" t="n">
-        <v>36678</v>
+        <v>36708</v>
       </c>
       <c r="B302" s="2" t="n">
-        <v>51.4</v>
+        <v>52.5</v>
       </c>
       <c r="C302" t="n">
-        <v>-7.9</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="3" t="n">
-        <v>36647</v>
+        <v>36678</v>
       </c>
       <c r="B303" s="2" t="n">
-        <v>53.2</v>
+        <v>51.4</v>
       </c>
       <c r="C303" t="n">
-        <v>-2</v>
+        <v>-7.9</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="3" t="n">
-        <v>36617</v>
+        <v>36647</v>
       </c>
       <c r="B304" s="2" t="n">
-        <v>54.7</v>
+        <v>53.2</v>
       </c>
       <c r="C304" t="n">
-        <v>4.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="3" t="n">
-        <v>36586</v>
+        <v>36617</v>
       </c>
       <c r="B305" s="2" t="n">
-        <v>54.9</v>
+        <v>54.7</v>
       </c>
       <c r="C305" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="3" t="n">
-        <v>36557</v>
+        <v>36586</v>
       </c>
       <c r="B306" s="2" t="n">
-        <v>55.8</v>
+        <v>54.9</v>
       </c>
       <c r="C306" t="n">
-        <v>7.9</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="3" t="n">
-        <v>36526</v>
+        <v>36557</v>
       </c>
       <c r="B307" s="2" t="n">
-        <v>56.7</v>
+        <v>55.8</v>
       </c>
       <c r="C307" t="n">
-        <v>12.1</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="3" t="n">
-        <v>36495</v>
+        <v>36526</v>
       </c>
       <c r="B308" s="2" t="n">
-        <v>57.8</v>
+        <v>56.7</v>
+      </c>
+      <c r="C308" t="n">
+        <v>12.1</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="3" t="n">
-        <v>36465</v>
+        <v>36495</v>
       </c>
       <c r="B309" s="2" t="n">
-        <v>58.1</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="3" t="n">
-        <v>36434</v>
+        <v>36465</v>
       </c>
       <c r="B310" s="2" t="n">
-        <v>57.2</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="3" t="n">
-        <v>36404</v>
+        <v>36434</v>
       </c>
       <c r="B311" s="2" t="n">
-        <v>57</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="3" t="n">
-        <v>36373</v>
+        <v>36404</v>
       </c>
       <c r="B312" s="2" t="n">
-        <v>54.8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="3" t="n">
-        <v>36342</v>
+        <v>36373</v>
       </c>
       <c r="B313" s="2" t="n">
-        <v>53.6</v>
+        <v>54.8</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="3" t="n">
-        <v>36312</v>
+        <v>36342</v>
       </c>
       <c r="B314" s="2" t="n">
-        <v>55.8</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="3" t="n">
-        <v>36281</v>
+        <v>36312</v>
       </c>
       <c r="B315" s="2" t="n">
-        <v>54.3</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="3" t="n">
-        <v>36251</v>
+        <v>36281</v>
       </c>
       <c r="B316" s="2" t="n">
-        <v>52.3</v>
+        <v>54.3</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="3" t="n">
-        <v>36220</v>
+        <v>36251</v>
       </c>
       <c r="B317" s="2" t="n">
-        <v>52.4</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="3" t="n">
-        <v>36192</v>
+        <v>36220</v>
       </c>
       <c r="B318" s="2" t="n">
-        <v>51.7</v>
+        <v>52.4</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="3" t="n">
+        <v>36192</v>
+      </c>
+      <c r="B319" s="2" t="n">
+        <v>51.7</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="3" t="n">
         <v>36161</v>
       </c>
-      <c r="B319" s="2" t="n">
+      <c r="B320" s="2" t="n">
         <v>50.6</v>
       </c>
-    </row>
-    <row r="320">
-      <c r="A320" s="3" t="n"/>
     </row>
     <row r="321">
       <c r="A321" s="3" t="n"/>
@@ -3941,6 +3951,9 @@
     </row>
     <row r="332">
       <c r="A332" s="3" t="n"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/pmi.xlsx
+++ b/data/pmi.xlsx
@@ -400,7 +400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C333"/>
+  <dimension ref="A1:C334"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,1145 +432,1147 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48</v>
+        <v>48.7</v>
       </c>
       <c r="C2" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48.5</v>
+        <v>49</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48.7</v>
+        <v>48.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-1</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49</v>
+        <v>48.7</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50.3</v>
+        <v>49</v>
       </c>
       <c r="C7" t="n">
-        <v>5.2</v>
+        <v>-2.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>2025-01-01</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B9" t="n">
         <v>50.9</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>3.7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="n">
-        <v>45627</v>
-      </c>
-      <c r="B9" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B10" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="n">
         <v>45597</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B11" t="n">
         <v>48.4</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C11" t="n">
         <v>3.9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>45566</v>
-      </c>
-      <c r="B11" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-0.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B12" t="n">
-        <v>47.2</v>
+        <v>46.5</v>
       </c>
       <c r="C12" t="n">
-        <v>-3.7</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B13" t="n">
         <v>47.2</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.8</v>
+        <v>-3.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B14" t="n">
-        <v>46.8</v>
+        <v>47.2</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45444</v>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>48.5</v>
+        <v>45474</v>
+      </c>
+      <c r="B15" t="n">
+        <v>46.8</v>
       </c>
       <c r="C15" t="n">
-        <v>5.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>48.7</v>
+        <v>48.5</v>
       </c>
       <c r="C16" t="n">
-        <v>3.8</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>49.2</v>
+        <v>48.7</v>
       </c>
       <c r="C17" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>50.3</v>
+        <v>49.2</v>
       </c>
       <c r="C18" t="n">
-        <v>8.6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>47.8</v>
+        <v>50.3</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>49.1</v>
+        <v>47.8</v>
       </c>
       <c r="C20" t="n">
-        <v>3.6</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>47.1</v>
+        <v>49.1</v>
       </c>
       <c r="C21" t="n">
-        <v>-2.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>46.6</v>
+        <v>47.1</v>
       </c>
       <c r="C22" t="n">
-        <v>-4.9</v>
+        <v>-2.7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>46.7</v>
+        <v>46.6</v>
       </c>
       <c r="C23" t="n">
-        <v>-6.6</v>
+        <v>-4.9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>49</v>
+        <v>46.7</v>
       </c>
       <c r="C24" t="n">
-        <v>-3.9</v>
+        <v>-6.6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>47.6</v>
+        <v>49</v>
       </c>
       <c r="C25" t="n">
-        <v>-10</v>
+        <v>-3.9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>46.4</v>
+        <v>47.6</v>
       </c>
       <c r="C26" t="n">
-        <v>-12</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>46</v>
+        <v>46.4</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.4</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>46.9</v>
+        <v>46</v>
       </c>
       <c r="C28" t="n">
-        <v>-16.4</v>
+        <v>-13.4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>47.1</v>
+        <v>46.9</v>
       </c>
       <c r="C29" t="n">
-        <v>-15.7</v>
+        <v>-16.4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>46.3</v>
+        <v>47.1</v>
       </c>
       <c r="C30" t="n">
-        <v>-18.8</v>
+        <v>-15.7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>47.7</v>
+        <v>46.3</v>
       </c>
       <c r="C31" t="n">
-        <v>-18.3</v>
+        <v>-18.8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B32" s="2" t="n">
-        <v>47.4</v>
+        <v>44958</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>47.7</v>
       </c>
       <c r="C32" t="n">
-        <v>-17.7</v>
+        <v>-18.3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>48.4</v>
+        <v>47.4</v>
       </c>
       <c r="C33" t="n">
-        <v>-17.4</v>
+        <v>-17.7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>49</v>
+        <v>48.4</v>
       </c>
       <c r="C34" t="n">
-        <v>-19.4</v>
+        <v>-17.4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C35" t="n">
-        <v>-17.8</v>
+        <v>-19.4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C36" t="n">
-        <v>-16.5</v>
+        <v>-17.8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>52.9</v>
+        <v>51</v>
       </c>
       <c r="C37" t="n">
-        <v>-11.7</v>
+        <v>-16.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>52.7</v>
+        <v>52.9</v>
       </c>
       <c r="C38" t="n">
-        <v>-11.3</v>
+        <v>-11.7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>53.1</v>
+        <v>52.7</v>
       </c>
       <c r="C39" t="n">
-        <v>-12.4</v>
+        <v>-11.3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>56.1</v>
+        <v>53.1</v>
       </c>
       <c r="C40" t="n">
-        <v>-8.300000000000001</v>
+        <v>-12.4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>55.9</v>
+        <v>56.1</v>
       </c>
       <c r="C41" t="n">
-        <v>-7.9</v>
+        <v>-8.300000000000001</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>57</v>
+        <v>55.9</v>
       </c>
       <c r="C42" t="n">
-        <v>-11.9</v>
+        <v>-7.9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>58.4</v>
+        <v>57</v>
       </c>
       <c r="C43" t="n">
-        <v>-3.9</v>
+        <v>-11.9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>57.6</v>
+        <v>58.4</v>
       </c>
       <c r="C44" t="n">
-        <v>-1.9</v>
+        <v>-3.9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>58.6</v>
+        <v>57.6</v>
       </c>
       <c r="C45" t="n">
-        <v>-3.1</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>60.8</v>
+        <v>58.6</v>
       </c>
       <c r="C46" t="n">
-        <v>5.4</v>
+        <v>-3.1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B47" s="2" t="n">
         <v>60.8</v>
       </c>
       <c r="C47" t="n">
-        <v>3.4</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>61.1</v>
+        <v>60.8</v>
       </c>
       <c r="C48" t="n">
-        <v>9.699999999999999</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>59.9</v>
+        <v>61.1</v>
       </c>
       <c r="C49" t="n">
-        <v>7.7</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>59.4</v>
+        <v>59.9</v>
       </c>
       <c r="C50" t="n">
-        <v>10.6</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>60.6</v>
+        <v>59.4</v>
       </c>
       <c r="C51" t="n">
-        <v>16.1</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>61.2</v>
+        <v>60.6</v>
       </c>
       <c r="C52" t="n">
-        <v>42</v>
+        <v>16.1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>60.7</v>
+        <v>61.2</v>
       </c>
       <c r="C53" t="n">
-        <v>45.6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>64.7</v>
+        <v>60.7</v>
       </c>
       <c r="C54" t="n">
-        <v>30.2</v>
+        <v>45.6</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>60.8</v>
+        <v>64.7</v>
       </c>
       <c r="C55" t="n">
-        <v>20.9</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>58.7</v>
+        <v>60.8</v>
       </c>
       <c r="C56" t="n">
-        <v>14.9</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>60.5</v>
+        <v>58.7</v>
       </c>
       <c r="C57" t="n">
-        <v>26.8</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>57.7</v>
+        <v>60.5</v>
       </c>
       <c r="C58" t="n">
-        <v>19.7</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>58.8</v>
+        <v>57.7</v>
       </c>
       <c r="C59" t="n">
-        <v>21.7</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="n">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>55.7</v>
+        <v>58.8</v>
       </c>
       <c r="C60" t="n">
-        <v>15.3</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>55.6</v>
+        <v>55.7</v>
       </c>
       <c r="C61" t="n">
-        <v>14.9</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="n">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>53.7</v>
+        <v>55.6</v>
       </c>
       <c r="C62" t="n">
-        <v>5.3</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="n">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>52.2</v>
+        <v>53.7</v>
       </c>
       <c r="C63" t="n">
-        <v>1.8</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="3" t="n">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>43.1</v>
+        <v>52.2</v>
       </c>
       <c r="C64" t="n">
-        <v>-17.4</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="3" t="n">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>41.7</v>
+        <v>43.1</v>
       </c>
       <c r="C65" t="n">
-        <v>-22.2</v>
+        <v>-17.4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="n">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>49.7</v>
+        <v>41.7</v>
       </c>
       <c r="C66" t="n">
-        <v>-10.1</v>
+        <v>-22.2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="n">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>50.3</v>
+        <v>49.7</v>
       </c>
       <c r="C67" t="n">
-        <v>-7.2</v>
+        <v>-10.1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="3" t="n">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>51.1</v>
+        <v>50.3</v>
       </c>
       <c r="C68" t="n">
-        <v>-8.300000000000001</v>
+        <v>-7.2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="n">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>47.7</v>
+        <v>51.1</v>
       </c>
       <c r="C69" t="n">
-        <v>-13</v>
+        <v>-8.300000000000001</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="n">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>48.2</v>
+        <v>47.7</v>
       </c>
       <c r="C70" t="n">
-        <v>-17.9</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="n">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="C71" t="n">
-        <v>-17.2</v>
+        <v>-17.9</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="3" t="n">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B72" s="2" t="n">
         <v>48.3</v>
       </c>
       <c r="C72" t="n">
-        <v>-18.8</v>
+        <v>-17.2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="3" t="n">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="C73" t="n">
-        <v>-19.9</v>
+        <v>-18.8</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="3" t="n">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>51</v>
+        <v>48.4</v>
       </c>
       <c r="C74" t="n">
-        <v>-12.1</v>
+        <v>-19.9</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="3" t="n">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>51.3</v>
+        <v>51</v>
       </c>
       <c r="C75" t="n">
-        <v>-14.1</v>
+        <v>-12.1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="3" t="n">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>52.2</v>
+        <v>51.3</v>
       </c>
       <c r="C76" t="n">
-        <v>-11.4</v>
+        <v>-14.1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="3" t="n">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>53.6</v>
+        <v>52.2</v>
       </c>
       <c r="C77" t="n">
-        <v>-8.5</v>
+        <v>-11.4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="3" t="n">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>55.3</v>
+        <v>53.6</v>
       </c>
       <c r="C78" t="n">
-        <v>-6.6</v>
+        <v>-8.5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="3" t="n">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>54.2</v>
+        <v>55.3</v>
       </c>
       <c r="C79" t="n">
-        <v>-10.9</v>
+        <v>-6.6</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="3" t="n">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>55.7</v>
+        <v>54.2</v>
       </c>
       <c r="C80" t="n">
-        <v>-6.2</v>
+        <v>-10.9</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="3" t="n">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>54.8</v>
+        <v>55.7</v>
       </c>
       <c r="C81" t="n">
-        <v>-7.4</v>
+        <v>-6.2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="3" t="n">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>58.7</v>
+        <v>54.8</v>
       </c>
       <c r="C82" t="n">
-        <v>1.4</v>
+        <v>-7.4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="3" t="n">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>58.3</v>
+        <v>58.7</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.5</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="3" t="n">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>59.5</v>
+        <v>58.3</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.7</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="3" t="n">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>60.4</v>
+        <v>59.5</v>
       </c>
       <c r="C85" t="n">
-        <v>3.2</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="3" t="n">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>58</v>
+        <v>60.4</v>
       </c>
       <c r="C86" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="3" t="n">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>59.7</v>
+        <v>58</v>
       </c>
       <c r="C87" t="n">
-        <v>6.4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="3" t="n">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>58.9</v>
+        <v>59.7</v>
       </c>
       <c r="C88" t="n">
-        <v>4.4</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="3" t="n">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>58.6</v>
+        <v>58.9</v>
       </c>
       <c r="C89" t="n">
-        <v>5.2</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="3" t="n">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>59.2</v>
+        <v>58.6</v>
       </c>
       <c r="C90" t="n">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="3" t="n">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>60.8</v>
+        <v>59.2</v>
       </c>
       <c r="C91" t="n">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="3" t="n">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>59.4</v>
+        <v>60.8</v>
       </c>
       <c r="C92" t="n">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="3" t="n">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>59.2</v>
+        <v>59.4</v>
       </c>
       <c r="C93" t="n">
-        <v>9.199999999999999</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="3" t="n">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>57.9</v>
+        <v>59.2</v>
       </c>
       <c r="C94" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="3" t="n">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>58.6</v>
+        <v>57.9</v>
       </c>
       <c r="C95" t="n">
-        <v>13.1</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="3" t="n">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>59.9</v>
+        <v>58.6</v>
       </c>
       <c r="C96" t="n">
-        <v>17.5</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="3" t="n">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>58.5</v>
+        <v>59.9</v>
       </c>
       <c r="C97" t="n">
-        <v>17.7</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="3" t="n">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>56.5</v>
+        <v>58.5</v>
       </c>
       <c r="C98" t="n">
-        <v>7.8</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="3" t="n">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>56.1</v>
+        <v>56.5</v>
       </c>
       <c r="C99" t="n">
-        <v>7.1</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="3" t="n">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>56.4</v>
+        <v>56.1</v>
       </c>
       <c r="C100" t="n">
-        <v>9.9</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="3" t="n">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>55.7</v>
+        <v>56.4</v>
       </c>
       <c r="C101" t="n">
-        <v>9.199999999999999</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="3" t="n">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>56.8</v>
+        <v>55.7</v>
       </c>
       <c r="C102" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="3" t="n">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>57.7</v>
+        <v>56.8</v>
       </c>
       <c r="C103" t="n">
-        <v>17.3</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="3" t="n">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>55.7</v>
+        <v>57.7</v>
       </c>
       <c r="C104" t="n">
         <v>17.3</v>
@@ -1578,164 +1580,164 @@
     </row>
     <row r="105">
       <c r="A105" s="3" t="n">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>54.2</v>
+        <v>55.7</v>
       </c>
       <c r="C105" t="n">
-        <v>11.1</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="3" t="n">
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>53.3</v>
+        <v>54.2</v>
       </c>
       <c r="C106" t="n">
-        <v>8.6</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="3" t="n">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>51.8</v>
+        <v>53.3</v>
       </c>
       <c r="C107" t="n">
-        <v>5.7</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="3" t="n">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>51</v>
+        <v>51.8</v>
       </c>
       <c r="C108" t="n">
-        <v>2</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="3" t="n">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B109" s="2" t="n">
-        <v>49.7</v>
+        <v>51</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="3" t="n">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>52.4</v>
+        <v>49.7</v>
       </c>
       <c r="C110" t="n">
-        <v>1</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="3" t="n">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B111" s="2" t="n">
         <v>52.4</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="3" t="n">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>51.3</v>
+        <v>52.4</v>
       </c>
       <c r="C112" t="n">
-        <v>-2.7</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="3" t="n">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>51</v>
+        <v>51.3</v>
       </c>
       <c r="C113" t="n">
-        <v>-2.1</v>
+        <v>-2.7</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="3" t="n">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B114" s="2" t="n">
-        <v>51.4</v>
+        <v>51</v>
       </c>
       <c r="C114" t="n">
-        <v>-1.7</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="3" t="n">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B115" s="2" t="n">
-        <v>49.2</v>
+        <v>51.4</v>
       </c>
       <c r="C115" t="n">
-        <v>-7.3</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="3" t="n">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B116" s="2" t="n">
-        <v>47.5</v>
+        <v>49.2</v>
       </c>
       <c r="C116" t="n">
-        <v>-12</v>
+        <v>-7.3</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="3" t="n">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B117" s="2" t="n">
-        <v>48.8</v>
+        <v>47.5</v>
       </c>
       <c r="C117" t="n">
-        <v>-12.4</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="3" t="n">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>49.1</v>
+        <v>48.8</v>
       </c>
       <c r="C118" t="n">
-        <v>-12.8</v>
+        <v>-12.4</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="3" t="n">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B119" s="2" t="n">
-        <v>49</v>
+        <v>49.1</v>
       </c>
       <c r="C119" t="n">
         <v>-12.8</v>
@@ -1743,1253 +1745,1253 @@
     </row>
     <row r="120">
       <c r="A120" s="3" t="n">
-        <v>42248</v>
+        <v>42278</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C120" t="n">
-        <v>-10.2</v>
+        <v>-12.8</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="3" t="n">
-        <v>42217</v>
+        <v>42248</v>
       </c>
       <c r="B121" s="2" t="n">
         <v>50</v>
       </c>
       <c r="C121" t="n">
-        <v>-11.2</v>
+        <v>-10.2</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="3" t="n">
-        <v>42186</v>
+        <v>42217</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>51.9</v>
+        <v>50</v>
       </c>
       <c r="C122" t="n">
-        <v>-5.8</v>
+        <v>-11.2</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="3" t="n">
-        <v>42156</v>
+        <v>42186</v>
       </c>
       <c r="B123" s="2" t="n">
-        <v>52.6</v>
+        <v>51.9</v>
       </c>
       <c r="C123" t="n">
-        <v>-4.4</v>
+        <v>-5.8</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="3" t="n">
-        <v>42125</v>
+        <v>42156</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>52.7</v>
+        <v>52.6</v>
       </c>
       <c r="C124" t="n">
-        <v>-5.4</v>
+        <v>-4.4</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="3" t="n">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="B125" s="2" t="n">
-        <v>52.1</v>
+        <v>52.7</v>
       </c>
       <c r="C125" t="n">
-        <v>-8</v>
+        <v>-5.4</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="3" t="n">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="B126" s="2" t="n">
-        <v>52.3</v>
+        <v>52.1</v>
       </c>
       <c r="C126" t="n">
-        <v>-6.4</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="3" t="n">
-        <v>42036</v>
+        <v>42064</v>
       </c>
       <c r="B127" s="2" t="n">
-        <v>53.1</v>
+        <v>52.3</v>
       </c>
       <c r="C127" t="n">
-        <v>-3.5</v>
+        <v>-6.4</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="3" t="n">
-        <v>42005</v>
+        <v>42036</v>
       </c>
       <c r="B128" s="2" t="n">
-        <v>54</v>
+        <v>53.1</v>
       </c>
       <c r="C128" t="n">
-        <v>2.9</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="3" t="n">
-        <v>41974</v>
+        <v>42005</v>
       </c>
       <c r="B129" s="2" t="n">
-        <v>55.7</v>
+        <v>54</v>
       </c>
       <c r="C129" t="n">
-        <v>-1.4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="3" t="n">
-        <v>41944</v>
+        <v>41974</v>
       </c>
       <c r="B130" s="2" t="n">
-        <v>56.3</v>
+        <v>55.7</v>
       </c>
       <c r="C130" t="n">
-        <v>1.4</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="3" t="n">
-        <v>41913</v>
+        <v>41944</v>
       </c>
       <c r="B131" s="2" t="n">
-        <v>56.2</v>
+        <v>56.3</v>
       </c>
       <c r="C131" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="3" t="n">
-        <v>41883</v>
+        <v>41913</v>
       </c>
       <c r="B132" s="2" t="n">
-        <v>55.7</v>
+        <v>56.2</v>
       </c>
       <c r="C132" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="3" t="n">
-        <v>41852</v>
+        <v>41883</v>
       </c>
       <c r="B133" s="2" t="n">
-        <v>56.3</v>
+        <v>55.7</v>
       </c>
       <c r="C133" t="n">
-        <v>4.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="3" t="n">
-        <v>41821</v>
+        <v>41852</v>
       </c>
       <c r="B134" s="2" t="n">
-        <v>55.1</v>
+        <v>56.3</v>
       </c>
       <c r="C134" t="n">
-        <v>2.4</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="3" t="n">
-        <v>41791</v>
+        <v>41821</v>
       </c>
       <c r="B135" s="2" t="n">
-        <v>55</v>
+        <v>55.1</v>
       </c>
       <c r="C135" t="n">
-        <v>7.6</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="3" t="n">
-        <v>41760</v>
+        <v>41791</v>
       </c>
       <c r="B136" s="2" t="n">
-        <v>55.7</v>
+        <v>55</v>
       </c>
       <c r="C136" t="n">
-        <v>9.6</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="3" t="n">
-        <v>41730</v>
+        <v>41760</v>
       </c>
       <c r="B137" s="2" t="n">
-        <v>56.6</v>
+        <v>55.7</v>
       </c>
       <c r="C137" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="3" t="n">
-        <v>41699</v>
+        <v>41730</v>
       </c>
       <c r="B138" s="2" t="n">
-        <v>55.9</v>
+        <v>56.6</v>
       </c>
       <c r="C138" t="n">
-        <v>7.7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="3" t="n">
-        <v>41671</v>
+        <v>41699</v>
       </c>
       <c r="B139" s="2" t="n">
-        <v>55</v>
+        <v>55.9</v>
       </c>
       <c r="C139" t="n">
-        <v>1.5</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="3" t="n">
-        <v>41640</v>
+        <v>41671</v>
       </c>
       <c r="B140" s="2" t="n">
-        <v>52.5</v>
+        <v>55</v>
       </c>
       <c r="C140" t="n">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="3" t="n">
-        <v>41609</v>
+        <v>41640</v>
       </c>
       <c r="B141" s="2" t="n">
-        <v>56.5</v>
+        <v>52.5</v>
       </c>
       <c r="C141" t="n">
-        <v>12.8</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="3" t="n">
-        <v>41579</v>
+        <v>41609</v>
       </c>
       <c r="B142" s="2" t="n">
-        <v>55.5</v>
+        <v>56.5</v>
       </c>
       <c r="C142" t="n">
-        <v>15.6</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="3" t="n">
-        <v>41548</v>
+        <v>41579</v>
       </c>
       <c r="B143" s="2" t="n">
-        <v>54.6</v>
+        <v>55.5</v>
       </c>
       <c r="C143" t="n">
-        <v>8.1</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="3" t="n">
-        <v>41518</v>
+        <v>41548</v>
       </c>
       <c r="B144" s="2" t="n">
         <v>54.6</v>
       </c>
       <c r="C144" t="n">
-        <v>7.5</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="3" t="n">
-        <v>41487</v>
+        <v>41518</v>
       </c>
       <c r="B145" s="2" t="n">
-        <v>54</v>
+        <v>54.6</v>
       </c>
       <c r="C145" t="n">
-        <v>10.2</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="3" t="n">
-        <v>41456</v>
+        <v>41487</v>
       </c>
       <c r="B146" s="2" t="n">
-        <v>53.8</v>
+        <v>54</v>
       </c>
       <c r="C146" t="n">
-        <v>8.5</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="3" t="n">
-        <v>41426</v>
+        <v>41456</v>
       </c>
       <c r="B147" s="2" t="n">
-        <v>51.1</v>
+        <v>53.8</v>
       </c>
       <c r="C147" t="n">
-        <v>3.2</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="3" t="n">
-        <v>41395</v>
+        <v>41426</v>
       </c>
       <c r="B148" s="2" t="n">
-        <v>50.8</v>
+        <v>51.1</v>
       </c>
       <c r="C148" t="n">
-        <v>-4.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="3" t="n">
-        <v>41365</v>
+        <v>41395</v>
       </c>
       <c r="B149" s="2" t="n">
-        <v>51</v>
+        <v>50.8</v>
       </c>
       <c r="C149" t="n">
-        <v>-7.6</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="3" t="n">
-        <v>41334</v>
+        <v>41365</v>
       </c>
       <c r="B150" s="2" t="n">
-        <v>51.9</v>
+        <v>51</v>
       </c>
       <c r="C150" t="n">
-        <v>-3</v>
+        <v>-7.6</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="3" t="n">
-        <v>41306</v>
+        <v>41334</v>
       </c>
       <c r="B151" s="2" t="n">
-        <v>54.2</v>
+        <v>51.9</v>
       </c>
       <c r="C151" t="n">
-        <v>1.7</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="3" t="n">
-        <v>41275</v>
+        <v>41306</v>
       </c>
       <c r="B152" s="2" t="n">
-        <v>53.3</v>
+        <v>54.2</v>
       </c>
       <c r="C152" t="n">
-        <v>-1.7</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="3" t="n">
-        <v>41244</v>
+        <v>41275</v>
       </c>
       <c r="B153" s="2" t="n">
-        <v>50.1</v>
+        <v>53.3</v>
       </c>
       <c r="C153" t="n">
-        <v>-5.5</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="3" t="n">
-        <v>41214</v>
+        <v>41244</v>
       </c>
       <c r="B154" s="2" t="n">
-        <v>48</v>
+        <v>50.1</v>
       </c>
       <c r="C154" t="n">
-        <v>-7.3</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="3" t="n">
-        <v>41183</v>
+        <v>41214</v>
       </c>
       <c r="B155" s="2" t="n">
-        <v>50.5</v>
+        <v>48</v>
       </c>
       <c r="C155" t="n">
-        <v>-1.8</v>
+        <v>-7.3</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="3" t="n">
-        <v>41153</v>
+        <v>41183</v>
       </c>
       <c r="B156" s="2" t="n">
-        <v>50.8</v>
+        <v>50.5</v>
       </c>
       <c r="C156" t="n">
-        <v>-5.4</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="3" t="n">
-        <v>41122</v>
+        <v>41153</v>
       </c>
       <c r="B157" s="2" t="n">
-        <v>49</v>
+        <v>50.8</v>
       </c>
       <c r="C157" t="n">
-        <v>-6.8</v>
+        <v>-5.4</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="3" t="n">
-        <v>41091</v>
+        <v>41122</v>
       </c>
       <c r="B158" s="2" t="n">
-        <v>49.6</v>
+        <v>49</v>
       </c>
       <c r="C158" t="n">
-        <v>-6.2</v>
+        <v>-6.8</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="3" t="n">
-        <v>41061</v>
+        <v>41091</v>
       </c>
       <c r="B159" s="2" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="C159" t="n">
-        <v>-11.3</v>
+        <v>-6.2</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="3" t="n">
-        <v>41030</v>
+        <v>41061</v>
       </c>
       <c r="B160" s="2" t="n">
-        <v>53.2</v>
+        <v>49.5</v>
       </c>
       <c r="C160" t="n">
-        <v>-2.9</v>
+        <v>-11.3</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="3" t="n">
-        <v>41000</v>
+        <v>41030</v>
       </c>
       <c r="B161" s="2" t="n">
-        <v>55.2</v>
+        <v>53.2</v>
       </c>
       <c r="C161" t="n">
-        <v>-4.7</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="3" t="n">
-        <v>40969</v>
+        <v>41000</v>
       </c>
       <c r="B162" s="2" t="n">
-        <v>53.5</v>
+        <v>55.2</v>
       </c>
       <c r="C162" t="n">
-        <v>-8.4</v>
+        <v>-4.7</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="3" t="n">
-        <v>40940</v>
+        <v>40969</v>
       </c>
       <c r="B163" s="2" t="n">
-        <v>53.3</v>
+        <v>53.5</v>
       </c>
       <c r="C163" t="n">
-        <v>-10</v>
+        <v>-8.4</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="3" t="n">
-        <v>40909</v>
+        <v>40940</v>
       </c>
       <c r="B164" s="2" t="n">
-        <v>54.2</v>
+        <v>53.3</v>
       </c>
       <c r="C164" t="n">
-        <v>-8.300000000000001</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="3" t="n">
-        <v>40878</v>
+        <v>40909</v>
       </c>
       <c r="B165" s="2" t="n">
-        <v>53</v>
+        <v>54.2</v>
       </c>
       <c r="C165" t="n">
-        <v>-6.4</v>
+        <v>-8.300000000000001</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="3" t="n">
-        <v>40848</v>
+        <v>40878</v>
       </c>
       <c r="B166" s="2" t="n">
-        <v>51.8</v>
+        <v>53</v>
       </c>
       <c r="C166" t="n">
-        <v>-9.6</v>
+        <v>-6.4</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="3" t="n">
-        <v>40817</v>
+        <v>40848</v>
       </c>
       <c r="B167" s="2" t="n">
-        <v>51.4</v>
+        <v>51.8</v>
       </c>
       <c r="C167" t="n">
-        <v>-9.699999999999999</v>
+        <v>-9.6</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="3" t="n">
-        <v>40787</v>
+        <v>40817</v>
       </c>
       <c r="B168" s="2" t="n">
-        <v>53.7</v>
+        <v>51.4</v>
       </c>
       <c r="C168" t="n">
-        <v>-2.9</v>
+        <v>-9.699999999999999</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="3" t="n">
-        <v>40756</v>
+        <v>40787</v>
       </c>
       <c r="B169" s="2" t="n">
-        <v>52.6</v>
+        <v>53.7</v>
       </c>
       <c r="C169" t="n">
-        <v>-6.7</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="3" t="n">
-        <v>40725</v>
+        <v>40756</v>
       </c>
       <c r="B170" s="2" t="n">
-        <v>52.9</v>
+        <v>52.6</v>
       </c>
       <c r="C170" t="n">
-        <v>-5.7</v>
+        <v>-6.7</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="3" t="n">
-        <v>40695</v>
+        <v>40725</v>
       </c>
       <c r="B171" s="2" t="n">
-        <v>55.8</v>
+        <v>52.9</v>
       </c>
       <c r="C171" t="n">
-        <v>-1.2</v>
+        <v>-5.7</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="3" t="n">
-        <v>40664</v>
+        <v>40695</v>
       </c>
       <c r="B172" s="2" t="n">
-        <v>54.8</v>
+        <v>55.8</v>
       </c>
       <c r="C172" t="n">
-        <v>-4.5</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="3" t="n">
-        <v>40634</v>
+        <v>40664</v>
       </c>
       <c r="B173" s="2" t="n">
-        <v>57.9</v>
+        <v>54.8</v>
       </c>
       <c r="C173" t="n">
-        <v>-0.3</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="3" t="n">
-        <v>40603</v>
+        <v>40634</v>
       </c>
       <c r="B174" s="2" t="n">
-        <v>58.4</v>
+        <v>57.9</v>
       </c>
       <c r="C174" t="n">
-        <v>-0.7</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="3" t="n">
-        <v>40575</v>
+        <v>40603</v>
       </c>
       <c r="B175" s="2" t="n">
-        <v>59.2</v>
+        <v>58.4</v>
       </c>
       <c r="C175" t="n">
-        <v>6.7</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="3" t="n">
-        <v>40544</v>
+        <v>40575</v>
       </c>
       <c r="B176" s="2" t="n">
-        <v>59.1</v>
+        <v>59.2</v>
       </c>
       <c r="C176" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="3" t="n">
-        <v>40513</v>
+        <v>40544</v>
       </c>
       <c r="B177" s="2" t="n">
-        <v>56.6</v>
+        <v>59.1</v>
       </c>
       <c r="C177" t="n">
-        <v>1.4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="3" t="n">
-        <v>40483</v>
+        <v>40513</v>
       </c>
       <c r="B178" s="2" t="n">
-        <v>57.3</v>
+        <v>56.6</v>
       </c>
       <c r="C178" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="3" t="n">
-        <v>40452</v>
+        <v>40483</v>
       </c>
       <c r="B179" s="2" t="n">
-        <v>56.9</v>
+        <v>57.3</v>
       </c>
       <c r="C179" t="n">
-        <v>-1.2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="3" t="n">
-        <v>40422</v>
+        <v>40452</v>
       </c>
       <c r="B180" s="2" t="n">
-        <v>55.3</v>
+        <v>56.9</v>
       </c>
       <c r="C180" t="n">
-        <v>0.7</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="3" t="n">
-        <v>40391</v>
+        <v>40422</v>
       </c>
       <c r="B181" s="2" t="n">
-        <v>56.4</v>
+        <v>55.3</v>
       </c>
       <c r="C181" t="n">
-        <v>5.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="3" t="n">
-        <v>40360</v>
+        <v>40391</v>
       </c>
       <c r="B182" s="2" t="n">
-        <v>56.1</v>
+        <v>56.4</v>
       </c>
       <c r="C182" t="n">
-        <v>12.9</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="3" t="n">
-        <v>40330</v>
+        <v>40360</v>
       </c>
       <c r="B183" s="2" t="n">
-        <v>56.5</v>
+        <v>56.1</v>
       </c>
       <c r="C183" t="n">
-        <v>22</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="3" t="n">
-        <v>40299</v>
+        <v>40330</v>
       </c>
       <c r="B184" s="2" t="n">
-        <v>57.4</v>
+        <v>56.5</v>
       </c>
       <c r="C184" t="n">
-        <v>30.2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="3" t="n">
-        <v>40269</v>
+        <v>40299</v>
       </c>
       <c r="B185" s="2" t="n">
-        <v>58.1</v>
+        <v>57.4</v>
       </c>
       <c r="C185" t="n">
-        <v>45.6</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="3" t="n">
-        <v>40238</v>
+        <v>40269</v>
       </c>
       <c r="B186" s="2" t="n">
-        <v>58.8</v>
+        <v>58.1</v>
       </c>
       <c r="C186" t="n">
-        <v>58.1</v>
+        <v>45.6</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="3" t="n">
-        <v>40210</v>
+        <v>40238</v>
       </c>
       <c r="B187" s="2" t="n">
-        <v>55.5</v>
+        <v>58.8</v>
       </c>
       <c r="C187" t="n">
-        <v>51.6</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="3" t="n">
-        <v>40179</v>
+        <v>40210</v>
       </c>
       <c r="B188" s="2" t="n">
-        <v>56.3</v>
+        <v>55.5</v>
       </c>
       <c r="C188" t="n">
-        <v>54.7</v>
+        <v>51.6</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="3" t="n">
-        <v>40148</v>
+        <v>40179</v>
       </c>
       <c r="B189" s="2" t="n">
-        <v>55.8</v>
+        <v>56.3</v>
       </c>
       <c r="C189" t="n">
-        <v>61.7</v>
+        <v>54.7</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="3" t="n">
-        <v>40118</v>
+        <v>40148</v>
       </c>
       <c r="B190" s="2" t="n">
-        <v>55.4</v>
+        <v>55.8</v>
       </c>
       <c r="C190" t="n">
-        <v>42.1</v>
+        <v>61.7</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="3" t="n">
-        <v>40087</v>
+        <v>40118</v>
       </c>
       <c r="B191" s="2" t="n">
-        <v>57.6</v>
+        <v>55.4</v>
       </c>
       <c r="C191" t="n">
-        <v>50.8</v>
+        <v>42.1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="3" t="n">
-        <v>40057</v>
+        <v>40087</v>
       </c>
       <c r="B192" s="2" t="n">
-        <v>54.9</v>
+        <v>57.6</v>
       </c>
       <c r="C192" t="n">
-        <v>16.3</v>
+        <v>50.8</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="3" t="n">
-        <v>40026</v>
+        <v>40057</v>
       </c>
       <c r="B193" s="2" t="n">
-        <v>53.4</v>
+        <v>54.9</v>
       </c>
       <c r="C193" t="n">
-        <v>6.6</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="3" t="n">
-        <v>39995</v>
+        <v>40026</v>
       </c>
       <c r="B194" s="2" t="n">
-        <v>49.7</v>
+        <v>53.4</v>
       </c>
       <c r="C194" t="n">
-        <v>-2.2</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="3" t="n">
-        <v>39965</v>
+        <v>39995</v>
       </c>
       <c r="B195" s="2" t="n">
-        <v>46.3</v>
+        <v>49.7</v>
       </c>
       <c r="C195" t="n">
-        <v>-7.2</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="3" t="n">
-        <v>39934</v>
+        <v>39965</v>
       </c>
       <c r="B196" s="2" t="n">
-        <v>44.1</v>
+        <v>46.3</v>
       </c>
       <c r="C196" t="n">
-        <v>-9.800000000000001</v>
+        <v>-7.2</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="3" t="n">
-        <v>39904</v>
+        <v>39934</v>
       </c>
       <c r="B197" s="2" t="n">
-        <v>39.9</v>
+        <v>44.1</v>
       </c>
       <c r="C197" t="n">
-        <v>-17.7</v>
+        <v>-9.800000000000001</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="3" t="n">
-        <v>39873</v>
+        <v>39904</v>
       </c>
       <c r="B198" s="2" t="n">
-        <v>37.2</v>
+        <v>39.9</v>
       </c>
       <c r="C198" t="n">
-        <v>-25.2</v>
+        <v>-17.7</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="3" t="n">
-        <v>39845</v>
+        <v>39873</v>
       </c>
       <c r="B199" s="2" t="n">
-        <v>36.6</v>
+        <v>37.2</v>
       </c>
       <c r="C199" t="n">
-        <v>-25</v>
+        <v>-25.2</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="3" t="n">
-        <v>39814</v>
+        <v>39845</v>
       </c>
       <c r="B200" s="2" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="C200" t="n">
-        <v>-28.5</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="3" t="n">
-        <v>39783</v>
+        <v>39814</v>
       </c>
       <c r="B201" s="2" t="n">
-        <v>34.5</v>
+        <v>36.4</v>
       </c>
       <c r="C201" t="n">
-        <v>-31.1</v>
+        <v>-28.5</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="3" t="n">
-        <v>39753</v>
+        <v>39783</v>
       </c>
       <c r="B202" s="2" t="n">
-        <v>39</v>
+        <v>34.5</v>
       </c>
       <c r="C202" t="n">
-        <v>-24.3</v>
+        <v>-31.1</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="3" t="n">
-        <v>39722</v>
+        <v>39753</v>
       </c>
       <c r="B203" s="2" t="n">
-        <v>38.2</v>
+        <v>39</v>
       </c>
       <c r="C203" t="n">
-        <v>-27.7</v>
+        <v>-24.3</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="3" t="n">
-        <v>39692</v>
+        <v>39722</v>
       </c>
       <c r="B204" s="2" t="n">
-        <v>47.2</v>
+        <v>38.2</v>
       </c>
       <c r="C204" t="n">
-        <v>-12.3</v>
+        <v>-27.7</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="3" t="n">
-        <v>39661</v>
+        <v>39692</v>
       </c>
       <c r="B205" s="2" t="n">
-        <v>50.1</v>
+        <v>47.2</v>
       </c>
       <c r="C205" t="n">
-        <v>-4</v>
+        <v>-12.3</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="3" t="n">
-        <v>39630</v>
+        <v>39661</v>
       </c>
       <c r="B206" s="2" t="n">
-        <v>50.8</v>
+        <v>50.1</v>
       </c>
       <c r="C206" t="n">
-        <v>-1.9</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="3" t="n">
-        <v>39600</v>
+        <v>39630</v>
       </c>
       <c r="B207" s="2" t="n">
-        <v>49.9</v>
+        <v>50.8</v>
       </c>
       <c r="C207" t="n">
-        <v>-7.6</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="3" t="n">
-        <v>39569</v>
+        <v>39600</v>
       </c>
       <c r="B208" s="2" t="n">
-        <v>48.9</v>
+        <v>49.9</v>
       </c>
       <c r="C208" t="n">
-        <v>-7.9</v>
+        <v>-7.6</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="3" t="n">
-        <v>39539</v>
+        <v>39569</v>
       </c>
       <c r="B209" s="2" t="n">
-        <v>48.5</v>
+        <v>48.9</v>
       </c>
       <c r="C209" t="n">
-        <v>-8</v>
+        <v>-7.9</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="3" t="n">
-        <v>39508</v>
+        <v>39539</v>
       </c>
       <c r="B210" s="2" t="n">
-        <v>49.7</v>
+        <v>48.5</v>
       </c>
       <c r="C210" t="n">
-        <v>-5.9</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="3" t="n">
-        <v>39479</v>
+        <v>39508</v>
       </c>
       <c r="B211" s="2" t="n">
-        <v>48.8</v>
+        <v>49.7</v>
       </c>
       <c r="C211" t="n">
-        <v>-9.800000000000001</v>
+        <v>-5.9</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="3" t="n">
-        <v>39448</v>
+        <v>39479</v>
       </c>
       <c r="B212" s="2" t="n">
-        <v>50.9</v>
+        <v>48.8</v>
       </c>
       <c r="C212" t="n">
-        <v>1</v>
+        <v>-9.800000000000001</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="3" t="n">
-        <v>39417</v>
+        <v>39448</v>
       </c>
       <c r="B213" s="2" t="n">
-        <v>50.1</v>
+        <v>50.9</v>
       </c>
       <c r="C213" t="n">
-        <v>-2.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="3" t="n">
-        <v>39387</v>
+        <v>39417</v>
       </c>
       <c r="B214" s="2" t="n">
-        <v>51.5</v>
+        <v>50.1</v>
       </c>
       <c r="C214" t="n">
-        <v>2.4</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="3" t="n">
-        <v>39356</v>
+        <v>39387</v>
       </c>
       <c r="B215" s="2" t="n">
-        <v>52.8</v>
+        <v>51.5</v>
       </c>
       <c r="C215" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="3" t="n">
-        <v>39326</v>
+        <v>39356</v>
       </c>
       <c r="B216" s="2" t="n">
-        <v>53.8</v>
+        <v>52.8</v>
       </c>
       <c r="C216" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="3" t="n">
-        <v>39295</v>
+        <v>39326</v>
       </c>
       <c r="B217" s="2" t="n">
-        <v>52.2</v>
+        <v>53.8</v>
       </c>
       <c r="C217" t="n">
-        <v>-2.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="3" t="n">
-        <v>39264</v>
+        <v>39295</v>
       </c>
       <c r="B218" s="2" t="n">
-        <v>51.8</v>
+        <v>52.2</v>
       </c>
       <c r="C218" t="n">
-        <v>-2.3</v>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="3" t="n">
-        <v>39234</v>
+        <v>39264</v>
       </c>
       <c r="B219" s="2" t="n">
-        <v>54</v>
+        <v>51.8</v>
       </c>
       <c r="C219" t="n">
-        <v>3.8</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="3" t="n">
-        <v>39203</v>
+        <v>39234</v>
       </c>
       <c r="B220" s="2" t="n">
-        <v>53.1</v>
+        <v>54</v>
       </c>
       <c r="C220" t="n">
-        <v>-1.1</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="3" t="n">
-        <v>39173</v>
+        <v>39203</v>
       </c>
       <c r="B221" s="2" t="n">
-        <v>52.7</v>
+        <v>53.1</v>
       </c>
       <c r="C221" t="n">
-        <v>-4.5</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="3" t="n">
-        <v>39142</v>
+        <v>39173</v>
       </c>
       <c r="B222" s="2" t="n">
-        <v>52.8</v>
+        <v>52.7</v>
       </c>
       <c r="C222" t="n">
-        <v>-2.8</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="3" t="n">
-        <v>39114</v>
+        <v>39142</v>
       </c>
       <c r="B223" s="2" t="n">
-        <v>54.1</v>
+        <v>52.8</v>
       </c>
       <c r="C223" t="n">
-        <v>-3</v>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="3" t="n">
-        <v>39083</v>
+        <v>39114</v>
       </c>
       <c r="B224" s="2" t="n">
-        <v>50.4</v>
+        <v>54.1</v>
       </c>
       <c r="C224" t="n">
-        <v>-8.4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="3" t="n">
-        <v>39052</v>
+        <v>39083</v>
       </c>
       <c r="B225" s="2" t="n">
-        <v>51.4</v>
+        <v>50.4</v>
       </c>
       <c r="C225" t="n">
-        <v>-6.7</v>
+        <v>-8.4</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="3" t="n">
-        <v>39022</v>
+        <v>39052</v>
       </c>
       <c r="B226" s="2" t="n">
-        <v>50.3</v>
+        <v>51.4</v>
       </c>
       <c r="C226" t="n">
-        <v>-11.3</v>
+        <v>-6.7</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="3" t="n">
-        <v>38991</v>
+        <v>39022</v>
       </c>
       <c r="B227" s="2" t="n">
-        <v>51.4</v>
+        <v>50.3</v>
       </c>
       <c r="C227" t="n">
-        <v>-10.1</v>
+        <v>-11.3</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="3" t="n">
-        <v>38961</v>
+        <v>38991</v>
       </c>
       <c r="B228" s="2" t="n">
-        <v>52.2</v>
+        <v>51.4</v>
       </c>
       <c r="C228" t="n">
-        <v>-8.1</v>
+        <v>-10.1</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="3" t="n">
-        <v>38930</v>
+        <v>38961</v>
       </c>
       <c r="B229" s="2" t="n">
-        <v>53.7</v>
+        <v>52.2</v>
       </c>
       <c r="C229" t="n">
-        <v>2.5</v>
+        <v>-8.1</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="3" t="n">
-        <v>38899</v>
+        <v>38930</v>
       </c>
       <c r="B230" s="2" t="n">
-        <v>53</v>
+        <v>53.7</v>
       </c>
       <c r="C230" t="n">
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="3" t="n">
-        <v>38869</v>
+        <v>38899</v>
       </c>
       <c r="B231" s="2" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C231" t="n">
-        <v>-0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="3" t="n">
-        <v>38838</v>
+        <v>38869</v>
       </c>
       <c r="B232" s="2" t="n">
-        <v>53.7</v>
+        <v>52</v>
       </c>
       <c r="C232" t="n">
-        <v>5.7</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="3" t="n">
-        <v>38808</v>
+        <v>38838</v>
       </c>
       <c r="B233" s="2" t="n">
-        <v>55.2</v>
+        <v>53.7</v>
       </c>
       <c r="C233" t="n">
         <v>5.7</v>
@@ -2997,927 +2999,935 @@
     </row>
     <row r="234">
       <c r="A234" s="3" t="n">
-        <v>38777</v>
+        <v>38808</v>
       </c>
       <c r="B234" s="2" t="n">
-        <v>54.3</v>
+        <v>55.2</v>
       </c>
       <c r="C234" t="n">
-        <v>-1.6</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="3" t="n">
-        <v>38749</v>
+        <v>38777</v>
       </c>
       <c r="B235" s="2" t="n">
-        <v>55.8</v>
+        <v>54.3</v>
       </c>
       <c r="C235" t="n">
-        <v>0.5</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="3" t="n">
-        <v>38718</v>
+        <v>38749</v>
       </c>
       <c r="B236" s="2" t="n">
-        <v>55</v>
+        <v>55.8</v>
       </c>
       <c r="C236" t="n">
-        <v>-3.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="3" t="n">
-        <v>38687</v>
+        <v>38718</v>
       </c>
       <c r="B237" s="2" t="n">
-        <v>55.1</v>
+        <v>55</v>
       </c>
       <c r="C237" t="n">
-        <v>-3.7</v>
+        <v>-3.2</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="3" t="n">
-        <v>38657</v>
+        <v>38687</v>
       </c>
       <c r="B238" s="2" t="n">
-        <v>56.7</v>
+        <v>55.1</v>
       </c>
       <c r="C238" t="n">
-        <v>0.9</v>
+        <v>-3.7</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="3" t="n">
-        <v>38626</v>
+        <v>38657</v>
       </c>
       <c r="B239" s="2" t="n">
-        <v>57.2</v>
+        <v>56.7</v>
       </c>
       <c r="C239" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="3" t="n">
-        <v>38596</v>
+        <v>38626</v>
       </c>
       <c r="B240" s="2" t="n">
-        <v>56.8</v>
+        <v>57.2</v>
       </c>
       <c r="C240" t="n">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="3" t="n">
-        <v>38565</v>
+        <v>38596</v>
       </c>
       <c r="B241" s="2" t="n">
-        <v>52.4</v>
+        <v>56.8</v>
       </c>
       <c r="C241" t="n">
-        <v>-10.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="3" t="n">
-        <v>38534</v>
+        <v>38565</v>
       </c>
       <c r="B242" s="2" t="n">
-        <v>52.8</v>
+        <v>52.4</v>
       </c>
       <c r="C242" t="n">
-        <v>-11.9</v>
+        <v>-10.4</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="3" t="n">
-        <v>38504</v>
+        <v>38534</v>
       </c>
       <c r="B243" s="2" t="n">
-        <v>52.4</v>
+        <v>52.8</v>
       </c>
       <c r="C243" t="n">
-        <v>-13.4</v>
+        <v>-11.9</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="3" t="n">
-        <v>38473</v>
+        <v>38504</v>
       </c>
       <c r="B244" s="2" t="n">
-        <v>50.8</v>
+        <v>52.4</v>
       </c>
       <c r="C244" t="n">
-        <v>-17.3</v>
+        <v>-13.4</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="3" t="n">
-        <v>38443</v>
+        <v>38473</v>
       </c>
       <c r="B245" s="2" t="n">
-        <v>52.2</v>
+        <v>50.8</v>
       </c>
       <c r="C245" t="n">
-        <v>-13.9</v>
+        <v>-17.3</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="3" t="n">
-        <v>38412</v>
+        <v>38443</v>
       </c>
       <c r="B246" s="2" t="n">
-        <v>55.2</v>
+        <v>52.2</v>
       </c>
       <c r="C246" t="n">
-        <v>-8.9</v>
+        <v>-13.9</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="3" t="n">
-        <v>38384</v>
+        <v>38412</v>
       </c>
       <c r="B247" s="2" t="n">
-        <v>55.5</v>
+        <v>55.2</v>
       </c>
       <c r="C247" t="n">
-        <v>-7.3</v>
+        <v>-8.9</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="3" t="n">
-        <v>38353</v>
+        <v>38384</v>
       </c>
       <c r="B248" s="2" t="n">
-        <v>56.8</v>
+        <v>55.5</v>
       </c>
       <c r="C248" t="n">
-        <v>-6.6</v>
+        <v>-7.3</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="3" t="n">
-        <v>38322</v>
+        <v>38353</v>
       </c>
       <c r="B249" s="2" t="n">
-        <v>57.2</v>
+        <v>56.8</v>
       </c>
       <c r="C249" t="n">
-        <v>-4.8</v>
+        <v>-6.6</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="3" t="n">
-        <v>38292</v>
+        <v>38322</v>
       </c>
       <c r="B250" s="2" t="n">
-        <v>56.2</v>
+        <v>57.2</v>
       </c>
       <c r="C250" t="n">
-        <v>-3.8</v>
+        <v>-4.8</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="3" t="n">
-        <v>38261</v>
+        <v>38292</v>
       </c>
       <c r="B251" s="2" t="n">
-        <v>56.3</v>
+        <v>56.2</v>
       </c>
       <c r="C251" t="n">
-        <v>2</v>
+        <v>-3.8</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="3" t="n">
-        <v>38231</v>
+        <v>38261</v>
       </c>
       <c r="B252" s="2" t="n">
-        <v>57.4</v>
+        <v>56.3</v>
       </c>
       <c r="C252" t="n">
-        <v>9.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="3" t="n">
-        <v>38200</v>
+        <v>38231</v>
       </c>
       <c r="B253" s="2" t="n">
-        <v>58.5</v>
+        <v>57.4</v>
       </c>
       <c r="C253" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="3" t="n">
-        <v>38169</v>
+        <v>38200</v>
       </c>
       <c r="B254" s="2" t="n">
-        <v>59.9</v>
+        <v>58.5</v>
       </c>
       <c r="C254" t="n">
-        <v>17.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="3" t="n">
-        <v>38139</v>
+        <v>38169</v>
       </c>
       <c r="B255" s="2" t="n">
-        <v>60.5</v>
+        <v>59.9</v>
       </c>
       <c r="C255" t="n">
-        <v>23.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="3" t="n">
-        <v>38108</v>
+        <v>38139</v>
       </c>
       <c r="B256" s="2" t="n">
-        <v>61.4</v>
+        <v>60.5</v>
       </c>
       <c r="C256" t="n">
-        <v>25.3</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="3" t="n">
-        <v>38078</v>
+        <v>38108</v>
       </c>
       <c r="B257" s="2" t="n">
-        <v>60.6</v>
+        <v>61.4</v>
       </c>
       <c r="C257" t="n">
-        <v>31.5</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="3" t="n">
-        <v>38047</v>
+        <v>38078</v>
       </c>
       <c r="B258" s="2" t="n">
         <v>60.6</v>
       </c>
       <c r="C258" t="n">
-        <v>30.9</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="3" t="n">
-        <v>38018</v>
+        <v>38047</v>
       </c>
       <c r="B259" s="2" t="n">
-        <v>59.9</v>
+        <v>60.6</v>
       </c>
       <c r="C259" t="n">
-        <v>22.7</v>
+        <v>30.9</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="3" t="n">
-        <v>37987</v>
+        <v>38018</v>
       </c>
       <c r="B260" s="2" t="n">
-        <v>60.8</v>
+        <v>59.9</v>
       </c>
       <c r="C260" t="n">
-        <v>18.5</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="3" t="n">
-        <v>37956</v>
+        <v>37987</v>
       </c>
       <c r="B261" s="2" t="n">
-        <v>60.1</v>
+        <v>60.8</v>
       </c>
       <c r="C261" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="3" t="n">
-        <v>37926</v>
+        <v>37956</v>
       </c>
       <c r="B262" s="2" t="n">
-        <v>58.4</v>
+        <v>60.1</v>
       </c>
       <c r="C262" t="n">
-        <v>20.4</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="3" t="n">
-        <v>37895</v>
+        <v>37926</v>
       </c>
       <c r="B263" s="2" t="n">
-        <v>55.2</v>
+        <v>58.4</v>
       </c>
       <c r="C263" t="n">
-        <v>12.7</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="3" t="n">
-        <v>37865</v>
+        <v>37895</v>
       </c>
       <c r="B264" s="2" t="n">
-        <v>52.4</v>
+        <v>55.2</v>
       </c>
       <c r="C264" t="n">
-        <v>3.8</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="3" t="n">
-        <v>37834</v>
+        <v>37865</v>
       </c>
       <c r="B265" s="2" t="n">
-        <v>53.2</v>
+        <v>52.4</v>
       </c>
       <c r="C265" t="n">
-        <v>5.8</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="3" t="n">
-        <v>37803</v>
+        <v>37834</v>
       </c>
       <c r="B266" s="2" t="n">
-        <v>51</v>
+        <v>53.2</v>
       </c>
       <c r="C266" t="n">
-        <v>1.6</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="3" t="n">
-        <v>37773</v>
+        <v>37803</v>
       </c>
       <c r="B267" s="2" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C267" t="n">
-        <v>-8.6</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="3" t="n">
-        <v>37742</v>
+        <v>37773</v>
       </c>
       <c r="B268" s="2" t="n">
         <v>49</v>
       </c>
       <c r="C268" t="n">
-        <v>-7.7</v>
+        <v>-8.6</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="3" t="n">
-        <v>37712</v>
+        <v>37742</v>
       </c>
       <c r="B269" s="2" t="n">
-        <v>46.1</v>
+        <v>49</v>
       </c>
       <c r="C269" t="n">
-        <v>-12</v>
+        <v>-7.7</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="3" t="n">
-        <v>37681</v>
+        <v>37712</v>
       </c>
       <c r="B270" s="2" t="n">
-        <v>46.3</v>
+        <v>46.1</v>
       </c>
       <c r="C270" t="n">
-        <v>-11.6</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="3" t="n">
-        <v>37653</v>
+        <v>37681</v>
       </c>
       <c r="B271" s="2" t="n">
-        <v>48.8</v>
+        <v>46.3</v>
       </c>
       <c r="C271" t="n">
-        <v>-3.7</v>
+        <v>-11.6</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="3" t="n">
-        <v>37622</v>
+        <v>37653</v>
       </c>
       <c r="B272" s="2" t="n">
-        <v>51.3</v>
+        <v>48.8</v>
       </c>
       <c r="C272" t="n">
-        <v>8</v>
+        <v>-3.7</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="3" t="n">
-        <v>37591</v>
+        <v>37622</v>
       </c>
       <c r="B273" s="2" t="n">
-        <v>51.6</v>
+        <v>51.3</v>
       </c>
       <c r="C273" t="n">
-        <v>13.9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="3" t="n">
-        <v>37561</v>
+        <v>37591</v>
       </c>
       <c r="B274" s="2" t="n">
-        <v>48.5</v>
+        <v>51.6</v>
       </c>
       <c r="C274" t="n">
-        <v>10</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="3" t="n">
-        <v>37530</v>
+        <v>37561</v>
       </c>
       <c r="B275" s="2" t="n">
-        <v>49</v>
+        <v>48.5</v>
       </c>
       <c r="C275" t="n">
-        <v>20.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="3" t="n">
-        <v>37500</v>
+        <v>37530</v>
       </c>
       <c r="B276" s="2" t="n">
-        <v>50.5</v>
+        <v>49</v>
       </c>
       <c r="C276" t="n">
-        <v>9.300000000000001</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="3" t="n">
-        <v>37469</v>
+        <v>37500</v>
       </c>
       <c r="B277" s="2" t="n">
-        <v>50.3</v>
+        <v>50.5</v>
       </c>
       <c r="C277" t="n">
-        <v>8.6</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="3" t="n">
-        <v>37438</v>
+        <v>37469</v>
       </c>
       <c r="B278" s="2" t="n">
-        <v>50.2</v>
+        <v>50.3</v>
       </c>
       <c r="C278" t="n">
-        <v>15.4</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="3" t="n">
-        <v>37408</v>
+        <v>37438</v>
       </c>
       <c r="B279" s="2" t="n">
-        <v>53.6</v>
+        <v>50.2</v>
       </c>
       <c r="C279" t="n">
-        <v>24.1</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="3" t="n">
-        <v>37377</v>
+        <v>37408</v>
       </c>
       <c r="B280" s="2" t="n">
-        <v>53.1</v>
+        <v>53.6</v>
       </c>
       <c r="C280" t="n">
-        <v>28.6</v>
+        <v>24.1</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="3" t="n">
-        <v>37347</v>
+        <v>37377</v>
       </c>
       <c r="B281" s="2" t="n">
-        <v>52.4</v>
+        <v>53.1</v>
       </c>
       <c r="C281" t="n">
-        <v>22.7</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="3" t="n">
-        <v>37316</v>
+        <v>37347</v>
       </c>
       <c r="B282" s="2" t="n">
         <v>52.4</v>
       </c>
       <c r="C282" t="n">
-        <v>21.6</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="3" t="n">
-        <v>37288</v>
+        <v>37316</v>
       </c>
       <c r="B283" s="2" t="n">
-        <v>50.7</v>
+        <v>52.4</v>
       </c>
       <c r="C283" t="n">
-        <v>20.4</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="3" t="n">
-        <v>37257</v>
+        <v>37288</v>
       </c>
       <c r="B284" s="2" t="n">
-        <v>47.5</v>
+        <v>50.7</v>
       </c>
       <c r="C284" t="n">
-        <v>12.3</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="3" t="n">
-        <v>37226</v>
+        <v>37257</v>
       </c>
       <c r="B285" s="2" t="n">
-        <v>45.3</v>
+        <v>47.5</v>
       </c>
       <c r="C285" t="n">
-        <v>3.2</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="3" t="n">
-        <v>37196</v>
+        <v>37226</v>
       </c>
       <c r="B286" s="2" t="n">
-        <v>44.1</v>
+        <v>45.3</v>
       </c>
       <c r="C286" t="n">
-        <v>-9.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="3" t="n">
-        <v>37165</v>
+        <v>37196</v>
       </c>
       <c r="B287" s="2" t="n">
-        <v>40.8</v>
+        <v>44.1</v>
       </c>
       <c r="C287" t="n">
-        <v>-16.2</v>
+        <v>-9.1</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="3" t="n">
-        <v>37135</v>
+        <v>37165</v>
       </c>
       <c r="B288" s="2" t="n">
-        <v>46.2</v>
+        <v>40.8</v>
       </c>
       <c r="C288" t="n">
-        <v>-7</v>
+        <v>-16.2</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="3" t="n">
-        <v>37104</v>
+        <v>37135</v>
       </c>
       <c r="B289" s="2" t="n">
-        <v>46.3</v>
+        <v>46.2</v>
       </c>
       <c r="C289" t="n">
-        <v>-7.2</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="3" t="n">
-        <v>37073</v>
+        <v>37104</v>
       </c>
       <c r="B290" s="2" t="n">
-        <v>43.5</v>
+        <v>46.3</v>
       </c>
       <c r="C290" t="n">
-        <v>-17.1</v>
+        <v>-7.2</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="3" t="n">
-        <v>37043</v>
+        <v>37073</v>
       </c>
       <c r="B291" s="2" t="n">
-        <v>43.2</v>
+        <v>43.5</v>
       </c>
       <c r="C291" t="n">
-        <v>-16</v>
+        <v>-17.1</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="3" t="n">
-        <v>37012</v>
+        <v>37043</v>
       </c>
       <c r="B292" s="2" t="n">
-        <v>41.3</v>
+        <v>43.2</v>
       </c>
       <c r="C292" t="n">
-        <v>-22.4</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="3" t="n">
-        <v>36982</v>
+        <v>37012</v>
       </c>
       <c r="B293" s="2" t="n">
-        <v>42.7</v>
+        <v>41.3</v>
       </c>
       <c r="C293" t="n">
-        <v>-21.9</v>
+        <v>-22.4</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="3" t="n">
-        <v>36951</v>
+        <v>36982</v>
       </c>
       <c r="B294" s="2" t="n">
-        <v>43.1</v>
+        <v>42.7</v>
       </c>
       <c r="C294" t="n">
-        <v>-21.5</v>
+        <v>-21.9</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="3" t="n">
-        <v>36923</v>
+        <v>36951</v>
       </c>
       <c r="B295" s="2" t="n">
-        <v>42.1</v>
+        <v>43.1</v>
       </c>
       <c r="C295" t="n">
-        <v>-24.6</v>
+        <v>-21.5</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="3" t="n">
-        <v>36892</v>
+        <v>36923</v>
       </c>
       <c r="B296" s="2" t="n">
-        <v>42.3</v>
+        <v>42.1</v>
       </c>
       <c r="C296" t="n">
-        <v>-25.4</v>
+        <v>-24.6</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="3" t="n">
-        <v>36861</v>
+        <v>36892</v>
       </c>
       <c r="B297" s="2" t="n">
-        <v>43.9</v>
+        <v>42.3</v>
       </c>
       <c r="C297" t="n">
-        <v>-24</v>
+        <v>-25.4</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="3" t="n">
-        <v>36831</v>
+        <v>36861</v>
       </c>
       <c r="B298" s="2" t="n">
-        <v>48.5</v>
+        <v>43.9</v>
       </c>
       <c r="C298" t="n">
-        <v>-16.5</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="3" t="n">
-        <v>36800</v>
+        <v>36831</v>
       </c>
       <c r="B299" s="2" t="n">
-        <v>48.7</v>
+        <v>48.5</v>
       </c>
       <c r="C299" t="n">
-        <v>-14.9</v>
+        <v>-16.5</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="3" t="n">
-        <v>36770</v>
+        <v>36800</v>
       </c>
       <c r="B300" s="2" t="n">
-        <v>49.7</v>
+        <v>48.7</v>
       </c>
       <c r="C300" t="n">
-        <v>-12.8</v>
+        <v>-14.9</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="3" t="n">
-        <v>36739</v>
+        <v>36770</v>
       </c>
       <c r="B301" s="2" t="n">
-        <v>49.9</v>
+        <v>49.7</v>
       </c>
       <c r="C301" t="n">
-        <v>-8.9</v>
+        <v>-12.8</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="3" t="n">
-        <v>36708</v>
+        <v>36739</v>
       </c>
       <c r="B302" s="2" t="n">
-        <v>52.5</v>
+        <v>49.9</v>
       </c>
       <c r="C302" t="n">
-        <v>-2.1</v>
+        <v>-8.9</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="3" t="n">
-        <v>36678</v>
+        <v>36708</v>
       </c>
       <c r="B303" s="2" t="n">
-        <v>51.4</v>
+        <v>52.5</v>
       </c>
       <c r="C303" t="n">
-        <v>-7.9</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="3" t="n">
-        <v>36647</v>
+        <v>36678</v>
       </c>
       <c r="B304" s="2" t="n">
-        <v>53.2</v>
+        <v>51.4</v>
       </c>
       <c r="C304" t="n">
-        <v>-2</v>
+        <v>-7.9</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="3" t="n">
-        <v>36617</v>
+        <v>36647</v>
       </c>
       <c r="B305" s="2" t="n">
-        <v>54.7</v>
+        <v>53.2</v>
       </c>
       <c r="C305" t="n">
-        <v>4.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="3" t="n">
-        <v>36586</v>
+        <v>36617</v>
       </c>
       <c r="B306" s="2" t="n">
-        <v>54.9</v>
+        <v>54.7</v>
       </c>
       <c r="C306" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="3" t="n">
-        <v>36557</v>
+        <v>36586</v>
       </c>
       <c r="B307" s="2" t="n">
-        <v>55.8</v>
+        <v>54.9</v>
       </c>
       <c r="C307" t="n">
-        <v>7.9</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="3" t="n">
-        <v>36526</v>
+        <v>36557</v>
       </c>
       <c r="B308" s="2" t="n">
-        <v>56.7</v>
+        <v>55.8</v>
       </c>
       <c r="C308" t="n">
-        <v>12.1</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="3" t="n">
-        <v>36495</v>
+        <v>36526</v>
       </c>
       <c r="B309" s="2" t="n">
-        <v>57.8</v>
+        <v>56.7</v>
+      </c>
+      <c r="C309" t="n">
+        <v>12.1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="3" t="n">
-        <v>36465</v>
+        <v>36495</v>
       </c>
       <c r="B310" s="2" t="n">
-        <v>58.1</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="3" t="n">
-        <v>36434</v>
+        <v>36465</v>
       </c>
       <c r="B311" s="2" t="n">
-        <v>57.2</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="3" t="n">
-        <v>36404</v>
+        <v>36434</v>
       </c>
       <c r="B312" s="2" t="n">
-        <v>57</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="3" t="n">
-        <v>36373</v>
+        <v>36404</v>
       </c>
       <c r="B313" s="2" t="n">
-        <v>54.8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="3" t="n">
-        <v>36342</v>
+        <v>36373</v>
       </c>
       <c r="B314" s="2" t="n">
-        <v>53.6</v>
+        <v>54.8</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="3" t="n">
-        <v>36312</v>
+        <v>36342</v>
       </c>
       <c r="B315" s="2" t="n">
-        <v>55.8</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="3" t="n">
-        <v>36281</v>
+        <v>36312</v>
       </c>
       <c r="B316" s="2" t="n">
-        <v>54.3</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="3" t="n">
-        <v>36251</v>
+        <v>36281</v>
       </c>
       <c r="B317" s="2" t="n">
-        <v>52.3</v>
+        <v>54.3</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="3" t="n">
-        <v>36220</v>
+        <v>36251</v>
       </c>
       <c r="B318" s="2" t="n">
-        <v>52.4</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="3" t="n">
-        <v>36192</v>
+        <v>36220</v>
       </c>
       <c r="B319" s="2" t="n">
-        <v>51.7</v>
+        <v>52.4</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="3" t="n">
+        <v>36192</v>
+      </c>
+      <c r="B320" s="2" t="n">
+        <v>51.7</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="3" t="n">
         <v>36161</v>
       </c>
-      <c r="B320" s="2" t="n">
+      <c r="B321" s="2" t="n">
         <v>50.6</v>
       </c>
-    </row>
-    <row r="321">
-      <c r="A321" s="3" t="n"/>
     </row>
     <row r="322">
       <c r="A322" s="3" t="n"/>
@@ -3954,6 +3964,9 @@
     </row>
     <row r="333">
       <c r="A333" s="3" t="n"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/pmi.xlsx
+++ b/data/pmi.xlsx
@@ -400,7 +400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C334"/>
+  <dimension ref="A1:C335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,1158 +432,1160 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48.7</v>
+        <v>49.1</v>
       </c>
       <c r="C2" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48</v>
+        <v>48.7</v>
       </c>
       <c r="C3" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48.5</v>
+        <v>49</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48.7</v>
+        <v>48.5</v>
       </c>
       <c r="C6" t="n">
-        <v>-1</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49</v>
+        <v>48.7</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>50.3</v>
+        <v>49</v>
       </c>
       <c r="C8" t="n">
-        <v>5.2</v>
+        <v>-2.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>2025-01-01</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B10" t="n">
         <v>50.9</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>3.7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="n">
-        <v>45627</v>
-      </c>
-      <c r="B10" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4.7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B11" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="n">
         <v>45597</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>48.4</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>3.9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>45566</v>
-      </c>
-      <c r="B12" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-0.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B13" t="n">
-        <v>47.2</v>
+        <v>46.5</v>
       </c>
       <c r="C13" t="n">
-        <v>-3.7</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B14" t="n">
         <v>47.2</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.8</v>
+        <v>-3.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B15" t="n">
-        <v>46.8</v>
+        <v>47.2</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45444</v>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>48.5</v>
+        <v>45474</v>
+      </c>
+      <c r="B16" t="n">
+        <v>46.8</v>
       </c>
       <c r="C16" t="n">
-        <v>5.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>48.7</v>
+        <v>48.5</v>
       </c>
       <c r="C17" t="n">
-        <v>3.8</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>49.2</v>
+        <v>48.7</v>
       </c>
       <c r="C18" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>50.3</v>
+        <v>49.2</v>
       </c>
       <c r="C19" t="n">
-        <v>8.6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>47.8</v>
+        <v>50.3</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>49.1</v>
+        <v>47.8</v>
       </c>
       <c r="C21" t="n">
-        <v>3.6</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>47.1</v>
+        <v>49.1</v>
       </c>
       <c r="C22" t="n">
-        <v>-2.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>46.6</v>
+        <v>47.1</v>
       </c>
       <c r="C23" t="n">
-        <v>-4.9</v>
+        <v>-2.7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>46.7</v>
+        <v>46.6</v>
       </c>
       <c r="C24" t="n">
-        <v>-6.6</v>
+        <v>-4.9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>49</v>
+        <v>46.7</v>
       </c>
       <c r="C25" t="n">
-        <v>-3.9</v>
+        <v>-6.6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>47.6</v>
+        <v>49</v>
       </c>
       <c r="C26" t="n">
-        <v>-10</v>
+        <v>-3.9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>46.4</v>
+        <v>47.6</v>
       </c>
       <c r="C27" t="n">
-        <v>-12</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>46</v>
+        <v>46.4</v>
       </c>
       <c r="C28" t="n">
-        <v>-13.4</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>46.9</v>
+        <v>46</v>
       </c>
       <c r="C29" t="n">
-        <v>-16.4</v>
+        <v>-13.4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>47.1</v>
+        <v>46.9</v>
       </c>
       <c r="C30" t="n">
-        <v>-15.7</v>
+        <v>-16.4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>46.3</v>
+        <v>47.1</v>
       </c>
       <c r="C31" t="n">
-        <v>-18.8</v>
+        <v>-15.7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>47.7</v>
+        <v>46.3</v>
       </c>
       <c r="C32" t="n">
-        <v>-18.3</v>
+        <v>-18.8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B33" s="2" t="n">
-        <v>47.4</v>
+        <v>44958</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>47.7</v>
       </c>
       <c r="C33" t="n">
-        <v>-17.7</v>
+        <v>-18.3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>48.4</v>
+        <v>47.4</v>
       </c>
       <c r="C34" t="n">
-        <v>-17.4</v>
+        <v>-17.7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>49</v>
+        <v>48.4</v>
       </c>
       <c r="C35" t="n">
-        <v>-19.4</v>
+        <v>-17.4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C36" t="n">
-        <v>-17.8</v>
+        <v>-19.4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C37" t="n">
-        <v>-16.5</v>
+        <v>-17.8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>52.9</v>
+        <v>51</v>
       </c>
       <c r="C38" t="n">
-        <v>-11.7</v>
+        <v>-16.5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>52.7</v>
+        <v>52.9</v>
       </c>
       <c r="C39" t="n">
-        <v>-11.3</v>
+        <v>-11.7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>53.1</v>
+        <v>52.7</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.4</v>
+        <v>-11.3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>56.1</v>
+        <v>53.1</v>
       </c>
       <c r="C41" t="n">
-        <v>-8.300000000000001</v>
+        <v>-12.4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>55.9</v>
+        <v>56.1</v>
       </c>
       <c r="C42" t="n">
-        <v>-7.9</v>
+        <v>-8.300000000000001</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>57</v>
+        <v>55.9</v>
       </c>
       <c r="C43" t="n">
-        <v>-11.9</v>
+        <v>-7.9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>58.4</v>
+        <v>57</v>
       </c>
       <c r="C44" t="n">
-        <v>-3.9</v>
+        <v>-11.9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>57.6</v>
+        <v>58.4</v>
       </c>
       <c r="C45" t="n">
-        <v>-1.9</v>
+        <v>-3.9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>58.6</v>
+        <v>57.6</v>
       </c>
       <c r="C46" t="n">
-        <v>-3.1</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>60.8</v>
+        <v>58.6</v>
       </c>
       <c r="C47" t="n">
-        <v>5.4</v>
+        <v>-3.1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B48" s="2" t="n">
         <v>60.8</v>
       </c>
       <c r="C48" t="n">
-        <v>3.4</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>61.1</v>
+        <v>60.8</v>
       </c>
       <c r="C49" t="n">
-        <v>9.699999999999999</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>59.9</v>
+        <v>61.1</v>
       </c>
       <c r="C50" t="n">
-        <v>7.7</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>59.4</v>
+        <v>59.9</v>
       </c>
       <c r="C51" t="n">
-        <v>10.6</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>60.6</v>
+        <v>59.4</v>
       </c>
       <c r="C52" t="n">
-        <v>16.1</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>61.2</v>
+        <v>60.6</v>
       </c>
       <c r="C53" t="n">
-        <v>42</v>
+        <v>16.1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>60.7</v>
+        <v>61.2</v>
       </c>
       <c r="C54" t="n">
-        <v>45.6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>64.7</v>
+        <v>60.7</v>
       </c>
       <c r="C55" t="n">
-        <v>30.2</v>
+        <v>45.6</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>60.8</v>
+        <v>64.7</v>
       </c>
       <c r="C56" t="n">
-        <v>20.9</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>58.7</v>
+        <v>60.8</v>
       </c>
       <c r="C57" t="n">
-        <v>14.9</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>60.5</v>
+        <v>58.7</v>
       </c>
       <c r="C58" t="n">
-        <v>26.8</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>57.7</v>
+        <v>60.5</v>
       </c>
       <c r="C59" t="n">
-        <v>19.7</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>58.8</v>
+        <v>57.7</v>
       </c>
       <c r="C60" t="n">
-        <v>21.7</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="n">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>55.7</v>
+        <v>58.8</v>
       </c>
       <c r="C61" t="n">
-        <v>15.3</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>55.6</v>
+        <v>55.7</v>
       </c>
       <c r="C62" t="n">
-        <v>14.9</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="n">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>53.7</v>
+        <v>55.6</v>
       </c>
       <c r="C63" t="n">
-        <v>5.3</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="3" t="n">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>52.2</v>
+        <v>53.7</v>
       </c>
       <c r="C64" t="n">
-        <v>1.8</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="3" t="n">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>43.1</v>
+        <v>52.2</v>
       </c>
       <c r="C65" t="n">
-        <v>-17.4</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="n">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>41.7</v>
+        <v>43.1</v>
       </c>
       <c r="C66" t="n">
-        <v>-22.2</v>
+        <v>-17.4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="n">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>49.7</v>
+        <v>41.7</v>
       </c>
       <c r="C67" t="n">
-        <v>-10.1</v>
+        <v>-22.2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="3" t="n">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>50.3</v>
+        <v>49.7</v>
       </c>
       <c r="C68" t="n">
-        <v>-7.2</v>
+        <v>-10.1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="n">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>51.1</v>
+        <v>50.3</v>
       </c>
       <c r="C69" t="n">
-        <v>-8.300000000000001</v>
+        <v>-7.2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="n">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>47.7</v>
+        <v>51.1</v>
       </c>
       <c r="C70" t="n">
-        <v>-13</v>
+        <v>-8.300000000000001</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="n">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>48.2</v>
+        <v>47.7</v>
       </c>
       <c r="C71" t="n">
-        <v>-17.9</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="3" t="n">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="C72" t="n">
-        <v>-17.2</v>
+        <v>-17.9</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="3" t="n">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B73" s="2" t="n">
         <v>48.3</v>
       </c>
       <c r="C73" t="n">
-        <v>-18.8</v>
+        <v>-17.2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="3" t="n">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="C74" t="n">
-        <v>-19.9</v>
+        <v>-18.8</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="3" t="n">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>51</v>
+        <v>48.4</v>
       </c>
       <c r="C75" t="n">
-        <v>-12.1</v>
+        <v>-19.9</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="3" t="n">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>51.3</v>
+        <v>51</v>
       </c>
       <c r="C76" t="n">
-        <v>-14.1</v>
+        <v>-12.1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="3" t="n">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>52.2</v>
+        <v>51.3</v>
       </c>
       <c r="C77" t="n">
-        <v>-11.4</v>
+        <v>-14.1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="3" t="n">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>53.6</v>
+        <v>52.2</v>
       </c>
       <c r="C78" t="n">
-        <v>-8.5</v>
+        <v>-11.4</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="3" t="n">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>55.3</v>
+        <v>53.6</v>
       </c>
       <c r="C79" t="n">
-        <v>-6.6</v>
+        <v>-8.5</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="3" t="n">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>54.2</v>
+        <v>55.3</v>
       </c>
       <c r="C80" t="n">
-        <v>-10.9</v>
+        <v>-6.6</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="3" t="n">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>55.7</v>
+        <v>54.2</v>
       </c>
       <c r="C81" t="n">
-        <v>-6.2</v>
+        <v>-10.9</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="3" t="n">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>54.8</v>
+        <v>55.7</v>
       </c>
       <c r="C82" t="n">
-        <v>-7.4</v>
+        <v>-6.2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="3" t="n">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>58.7</v>
+        <v>54.8</v>
       </c>
       <c r="C83" t="n">
-        <v>1.4</v>
+        <v>-7.4</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="3" t="n">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>58.3</v>
+        <v>58.7</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.5</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="3" t="n">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>59.5</v>
+        <v>58.3</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.7</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="3" t="n">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>60.4</v>
+        <v>59.5</v>
       </c>
       <c r="C86" t="n">
-        <v>3.2</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="3" t="n">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>58</v>
+        <v>60.4</v>
       </c>
       <c r="C87" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="3" t="n">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>59.7</v>
+        <v>58</v>
       </c>
       <c r="C88" t="n">
-        <v>6.4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="3" t="n">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>58.9</v>
+        <v>59.7</v>
       </c>
       <c r="C89" t="n">
-        <v>4.4</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="3" t="n">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>58.6</v>
+        <v>58.9</v>
       </c>
       <c r="C90" t="n">
-        <v>5.2</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="3" t="n">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>59.2</v>
+        <v>58.6</v>
       </c>
       <c r="C91" t="n">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="3" t="n">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>60.8</v>
+        <v>59.2</v>
       </c>
       <c r="C92" t="n">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="3" t="n">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>59.4</v>
+        <v>60.8</v>
       </c>
       <c r="C93" t="n">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="3" t="n">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>59.2</v>
+        <v>59.4</v>
       </c>
       <c r="C94" t="n">
-        <v>9.199999999999999</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="3" t="n">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>57.9</v>
+        <v>59.2</v>
       </c>
       <c r="C95" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="3" t="n">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>58.6</v>
+        <v>57.9</v>
       </c>
       <c r="C96" t="n">
-        <v>13.1</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="3" t="n">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>59.9</v>
+        <v>58.6</v>
       </c>
       <c r="C97" t="n">
-        <v>17.5</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="3" t="n">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>58.5</v>
+        <v>59.9</v>
       </c>
       <c r="C98" t="n">
-        <v>17.7</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="3" t="n">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>56.5</v>
+        <v>58.5</v>
       </c>
       <c r="C99" t="n">
-        <v>7.8</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="3" t="n">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>56.1</v>
+        <v>56.5</v>
       </c>
       <c r="C100" t="n">
-        <v>7.1</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="3" t="n">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>56.4</v>
+        <v>56.1</v>
       </c>
       <c r="C101" t="n">
-        <v>9.9</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="3" t="n">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>55.7</v>
+        <v>56.4</v>
       </c>
       <c r="C102" t="n">
-        <v>9.199999999999999</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="3" t="n">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>56.8</v>
+        <v>55.7</v>
       </c>
       <c r="C103" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="3" t="n">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>57.7</v>
+        <v>56.8</v>
       </c>
       <c r="C104" t="n">
-        <v>17.3</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="3" t="n">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>55.7</v>
+        <v>57.7</v>
       </c>
       <c r="C105" t="n">
         <v>17.3</v>
@@ -1591,164 +1593,164 @@
     </row>
     <row r="106">
       <c r="A106" s="3" t="n">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>54.2</v>
+        <v>55.7</v>
       </c>
       <c r="C106" t="n">
-        <v>11.1</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="3" t="n">
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>53.3</v>
+        <v>54.2</v>
       </c>
       <c r="C107" t="n">
-        <v>8.6</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="3" t="n">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>51.8</v>
+        <v>53.3</v>
       </c>
       <c r="C108" t="n">
-        <v>5.7</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="3" t="n">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B109" s="2" t="n">
-        <v>51</v>
+        <v>51.8</v>
       </c>
       <c r="C109" t="n">
-        <v>2</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="3" t="n">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>49.7</v>
+        <v>51</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="3" t="n">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>52.4</v>
+        <v>49.7</v>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="3" t="n">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B112" s="2" t="n">
         <v>52.4</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="3" t="n">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>51.3</v>
+        <v>52.4</v>
       </c>
       <c r="C113" t="n">
-        <v>-2.7</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="3" t="n">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B114" s="2" t="n">
-        <v>51</v>
+        <v>51.3</v>
       </c>
       <c r="C114" t="n">
-        <v>-2.1</v>
+        <v>-2.7</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="3" t="n">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B115" s="2" t="n">
-        <v>51.4</v>
+        <v>51</v>
       </c>
       <c r="C115" t="n">
-        <v>-1.7</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="3" t="n">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B116" s="2" t="n">
-        <v>49.2</v>
+        <v>51.4</v>
       </c>
       <c r="C116" t="n">
-        <v>-7.3</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="3" t="n">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B117" s="2" t="n">
-        <v>47.5</v>
+        <v>49.2</v>
       </c>
       <c r="C117" t="n">
-        <v>-12</v>
+        <v>-7.3</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="3" t="n">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>48.8</v>
+        <v>47.5</v>
       </c>
       <c r="C118" t="n">
-        <v>-12.4</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="3" t="n">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B119" s="2" t="n">
-        <v>49.1</v>
+        <v>48.8</v>
       </c>
       <c r="C119" t="n">
-        <v>-12.8</v>
+        <v>-12.4</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="3" t="n">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>49</v>
+        <v>49.1</v>
       </c>
       <c r="C120" t="n">
         <v>-12.8</v>
@@ -1756,1253 +1758,1253 @@
     </row>
     <row r="121">
       <c r="A121" s="3" t="n">
-        <v>42248</v>
+        <v>42278</v>
       </c>
       <c r="B121" s="2" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C121" t="n">
-        <v>-10.2</v>
+        <v>-12.8</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="3" t="n">
-        <v>42217</v>
+        <v>42248</v>
       </c>
       <c r="B122" s="2" t="n">
         <v>50</v>
       </c>
       <c r="C122" t="n">
-        <v>-11.2</v>
+        <v>-10.2</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="3" t="n">
-        <v>42186</v>
+        <v>42217</v>
       </c>
       <c r="B123" s="2" t="n">
-        <v>51.9</v>
+        <v>50</v>
       </c>
       <c r="C123" t="n">
-        <v>-5.8</v>
+        <v>-11.2</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="3" t="n">
-        <v>42156</v>
+        <v>42186</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>52.6</v>
+        <v>51.9</v>
       </c>
       <c r="C124" t="n">
-        <v>-4.4</v>
+        <v>-5.8</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="3" t="n">
-        <v>42125</v>
+        <v>42156</v>
       </c>
       <c r="B125" s="2" t="n">
-        <v>52.7</v>
+        <v>52.6</v>
       </c>
       <c r="C125" t="n">
-        <v>-5.4</v>
+        <v>-4.4</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="3" t="n">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="B126" s="2" t="n">
-        <v>52.1</v>
+        <v>52.7</v>
       </c>
       <c r="C126" t="n">
-        <v>-8</v>
+        <v>-5.4</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="3" t="n">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="B127" s="2" t="n">
-        <v>52.3</v>
+        <v>52.1</v>
       </c>
       <c r="C127" t="n">
-        <v>-6.4</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="3" t="n">
-        <v>42036</v>
+        <v>42064</v>
       </c>
       <c r="B128" s="2" t="n">
-        <v>53.1</v>
+        <v>52.3</v>
       </c>
       <c r="C128" t="n">
-        <v>-3.5</v>
+        <v>-6.4</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="3" t="n">
-        <v>42005</v>
+        <v>42036</v>
       </c>
       <c r="B129" s="2" t="n">
-        <v>54</v>
+        <v>53.1</v>
       </c>
       <c r="C129" t="n">
-        <v>2.9</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="3" t="n">
-        <v>41974</v>
+        <v>42005</v>
       </c>
       <c r="B130" s="2" t="n">
-        <v>55.7</v>
+        <v>54</v>
       </c>
       <c r="C130" t="n">
-        <v>-1.4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="3" t="n">
-        <v>41944</v>
+        <v>41974</v>
       </c>
       <c r="B131" s="2" t="n">
-        <v>56.3</v>
+        <v>55.7</v>
       </c>
       <c r="C131" t="n">
-        <v>1.4</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="3" t="n">
-        <v>41913</v>
+        <v>41944</v>
       </c>
       <c r="B132" s="2" t="n">
-        <v>56.2</v>
+        <v>56.3</v>
       </c>
       <c r="C132" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="3" t="n">
-        <v>41883</v>
+        <v>41913</v>
       </c>
       <c r="B133" s="2" t="n">
-        <v>55.7</v>
+        <v>56.2</v>
       </c>
       <c r="C133" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="3" t="n">
-        <v>41852</v>
+        <v>41883</v>
       </c>
       <c r="B134" s="2" t="n">
-        <v>56.3</v>
+        <v>55.7</v>
       </c>
       <c r="C134" t="n">
-        <v>4.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="3" t="n">
-        <v>41821</v>
+        <v>41852</v>
       </c>
       <c r="B135" s="2" t="n">
-        <v>55.1</v>
+        <v>56.3</v>
       </c>
       <c r="C135" t="n">
-        <v>2.4</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="3" t="n">
-        <v>41791</v>
+        <v>41821</v>
       </c>
       <c r="B136" s="2" t="n">
-        <v>55</v>
+        <v>55.1</v>
       </c>
       <c r="C136" t="n">
-        <v>7.6</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="3" t="n">
-        <v>41760</v>
+        <v>41791</v>
       </c>
       <c r="B137" s="2" t="n">
-        <v>55.7</v>
+        <v>55</v>
       </c>
       <c r="C137" t="n">
-        <v>9.6</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="3" t="n">
-        <v>41730</v>
+        <v>41760</v>
       </c>
       <c r="B138" s="2" t="n">
-        <v>56.6</v>
+        <v>55.7</v>
       </c>
       <c r="C138" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="3" t="n">
-        <v>41699</v>
+        <v>41730</v>
       </c>
       <c r="B139" s="2" t="n">
-        <v>55.9</v>
+        <v>56.6</v>
       </c>
       <c r="C139" t="n">
-        <v>7.7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="3" t="n">
-        <v>41671</v>
+        <v>41699</v>
       </c>
       <c r="B140" s="2" t="n">
-        <v>55</v>
+        <v>55.9</v>
       </c>
       <c r="C140" t="n">
-        <v>1.5</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="3" t="n">
-        <v>41640</v>
+        <v>41671</v>
       </c>
       <c r="B141" s="2" t="n">
-        <v>52.5</v>
+        <v>55</v>
       </c>
       <c r="C141" t="n">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="3" t="n">
-        <v>41609</v>
+        <v>41640</v>
       </c>
       <c r="B142" s="2" t="n">
-        <v>56.5</v>
+        <v>52.5</v>
       </c>
       <c r="C142" t="n">
-        <v>12.8</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="3" t="n">
-        <v>41579</v>
+        <v>41609</v>
       </c>
       <c r="B143" s="2" t="n">
-        <v>55.5</v>
+        <v>56.5</v>
       </c>
       <c r="C143" t="n">
-        <v>15.6</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="3" t="n">
-        <v>41548</v>
+        <v>41579</v>
       </c>
       <c r="B144" s="2" t="n">
-        <v>54.6</v>
+        <v>55.5</v>
       </c>
       <c r="C144" t="n">
-        <v>8.1</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="3" t="n">
-        <v>41518</v>
+        <v>41548</v>
       </c>
       <c r="B145" s="2" t="n">
         <v>54.6</v>
       </c>
       <c r="C145" t="n">
-        <v>7.5</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="3" t="n">
-        <v>41487</v>
+        <v>41518</v>
       </c>
       <c r="B146" s="2" t="n">
-        <v>54</v>
+        <v>54.6</v>
       </c>
       <c r="C146" t="n">
-        <v>10.2</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="3" t="n">
-        <v>41456</v>
+        <v>41487</v>
       </c>
       <c r="B147" s="2" t="n">
-        <v>53.8</v>
+        <v>54</v>
       </c>
       <c r="C147" t="n">
-        <v>8.5</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="3" t="n">
-        <v>41426</v>
+        <v>41456</v>
       </c>
       <c r="B148" s="2" t="n">
-        <v>51.1</v>
+        <v>53.8</v>
       </c>
       <c r="C148" t="n">
-        <v>3.2</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="3" t="n">
-        <v>41395</v>
+        <v>41426</v>
       </c>
       <c r="B149" s="2" t="n">
-        <v>50.8</v>
+        <v>51.1</v>
       </c>
       <c r="C149" t="n">
-        <v>-4.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="3" t="n">
-        <v>41365</v>
+        <v>41395</v>
       </c>
       <c r="B150" s="2" t="n">
-        <v>51</v>
+        <v>50.8</v>
       </c>
       <c r="C150" t="n">
-        <v>-7.6</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="3" t="n">
-        <v>41334</v>
+        <v>41365</v>
       </c>
       <c r="B151" s="2" t="n">
-        <v>51.9</v>
+        <v>51</v>
       </c>
       <c r="C151" t="n">
-        <v>-3</v>
+        <v>-7.6</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="3" t="n">
-        <v>41306</v>
+        <v>41334</v>
       </c>
       <c r="B152" s="2" t="n">
-        <v>54.2</v>
+        <v>51.9</v>
       </c>
       <c r="C152" t="n">
-        <v>1.7</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="3" t="n">
-        <v>41275</v>
+        <v>41306</v>
       </c>
       <c r="B153" s="2" t="n">
-        <v>53.3</v>
+        <v>54.2</v>
       </c>
       <c r="C153" t="n">
-        <v>-1.7</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="3" t="n">
-        <v>41244</v>
+        <v>41275</v>
       </c>
       <c r="B154" s="2" t="n">
-        <v>50.1</v>
+        <v>53.3</v>
       </c>
       <c r="C154" t="n">
-        <v>-5.5</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="3" t="n">
-        <v>41214</v>
+        <v>41244</v>
       </c>
       <c r="B155" s="2" t="n">
-        <v>48</v>
+        <v>50.1</v>
       </c>
       <c r="C155" t="n">
-        <v>-7.3</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="3" t="n">
-        <v>41183</v>
+        <v>41214</v>
       </c>
       <c r="B156" s="2" t="n">
-        <v>50.5</v>
+        <v>48</v>
       </c>
       <c r="C156" t="n">
-        <v>-1.8</v>
+        <v>-7.3</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="3" t="n">
-        <v>41153</v>
+        <v>41183</v>
       </c>
       <c r="B157" s="2" t="n">
-        <v>50.8</v>
+        <v>50.5</v>
       </c>
       <c r="C157" t="n">
-        <v>-5.4</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="3" t="n">
-        <v>41122</v>
+        <v>41153</v>
       </c>
       <c r="B158" s="2" t="n">
-        <v>49</v>
+        <v>50.8</v>
       </c>
       <c r="C158" t="n">
-        <v>-6.8</v>
+        <v>-5.4</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="3" t="n">
-        <v>41091</v>
+        <v>41122</v>
       </c>
       <c r="B159" s="2" t="n">
-        <v>49.6</v>
+        <v>49</v>
       </c>
       <c r="C159" t="n">
-        <v>-6.2</v>
+        <v>-6.8</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="3" t="n">
-        <v>41061</v>
+        <v>41091</v>
       </c>
       <c r="B160" s="2" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="C160" t="n">
-        <v>-11.3</v>
+        <v>-6.2</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="3" t="n">
-        <v>41030</v>
+        <v>41061</v>
       </c>
       <c r="B161" s="2" t="n">
-        <v>53.2</v>
+        <v>49.5</v>
       </c>
       <c r="C161" t="n">
-        <v>-2.9</v>
+        <v>-11.3</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="3" t="n">
-        <v>41000</v>
+        <v>41030</v>
       </c>
       <c r="B162" s="2" t="n">
-        <v>55.2</v>
+        <v>53.2</v>
       </c>
       <c r="C162" t="n">
-        <v>-4.7</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="3" t="n">
-        <v>40969</v>
+        <v>41000</v>
       </c>
       <c r="B163" s="2" t="n">
-        <v>53.5</v>
+        <v>55.2</v>
       </c>
       <c r="C163" t="n">
-        <v>-8.4</v>
+        <v>-4.7</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="3" t="n">
-        <v>40940</v>
+        <v>40969</v>
       </c>
       <c r="B164" s="2" t="n">
-        <v>53.3</v>
+        <v>53.5</v>
       </c>
       <c r="C164" t="n">
-        <v>-10</v>
+        <v>-8.4</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="3" t="n">
-        <v>40909</v>
+        <v>40940</v>
       </c>
       <c r="B165" s="2" t="n">
-        <v>54.2</v>
+        <v>53.3</v>
       </c>
       <c r="C165" t="n">
-        <v>-8.300000000000001</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="3" t="n">
-        <v>40878</v>
+        <v>40909</v>
       </c>
       <c r="B166" s="2" t="n">
-        <v>53</v>
+        <v>54.2</v>
       </c>
       <c r="C166" t="n">
-        <v>-6.4</v>
+        <v>-8.300000000000001</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="3" t="n">
-        <v>40848</v>
+        <v>40878</v>
       </c>
       <c r="B167" s="2" t="n">
-        <v>51.8</v>
+        <v>53</v>
       </c>
       <c r="C167" t="n">
-        <v>-9.6</v>
+        <v>-6.4</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="3" t="n">
-        <v>40817</v>
+        <v>40848</v>
       </c>
       <c r="B168" s="2" t="n">
-        <v>51.4</v>
+        <v>51.8</v>
       </c>
       <c r="C168" t="n">
-        <v>-9.699999999999999</v>
+        <v>-9.6</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="3" t="n">
-        <v>40787</v>
+        <v>40817</v>
       </c>
       <c r="B169" s="2" t="n">
-        <v>53.7</v>
+        <v>51.4</v>
       </c>
       <c r="C169" t="n">
-        <v>-2.9</v>
+        <v>-9.699999999999999</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="3" t="n">
-        <v>40756</v>
+        <v>40787</v>
       </c>
       <c r="B170" s="2" t="n">
-        <v>52.6</v>
+        <v>53.7</v>
       </c>
       <c r="C170" t="n">
-        <v>-6.7</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="3" t="n">
-        <v>40725</v>
+        <v>40756</v>
       </c>
       <c r="B171" s="2" t="n">
-        <v>52.9</v>
+        <v>52.6</v>
       </c>
       <c r="C171" t="n">
-        <v>-5.7</v>
+        <v>-6.7</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="3" t="n">
-        <v>40695</v>
+        <v>40725</v>
       </c>
       <c r="B172" s="2" t="n">
-        <v>55.8</v>
+        <v>52.9</v>
       </c>
       <c r="C172" t="n">
-        <v>-1.2</v>
+        <v>-5.7</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="3" t="n">
-        <v>40664</v>
+        <v>40695</v>
       </c>
       <c r="B173" s="2" t="n">
-        <v>54.8</v>
+        <v>55.8</v>
       </c>
       <c r="C173" t="n">
-        <v>-4.5</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="3" t="n">
-        <v>40634</v>
+        <v>40664</v>
       </c>
       <c r="B174" s="2" t="n">
-        <v>57.9</v>
+        <v>54.8</v>
       </c>
       <c r="C174" t="n">
-        <v>-0.3</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="3" t="n">
-        <v>40603</v>
+        <v>40634</v>
       </c>
       <c r="B175" s="2" t="n">
-        <v>58.4</v>
+        <v>57.9</v>
       </c>
       <c r="C175" t="n">
-        <v>-0.7</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="3" t="n">
-        <v>40575</v>
+        <v>40603</v>
       </c>
       <c r="B176" s="2" t="n">
-        <v>59.2</v>
+        <v>58.4</v>
       </c>
       <c r="C176" t="n">
-        <v>6.7</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="3" t="n">
-        <v>40544</v>
+        <v>40575</v>
       </c>
       <c r="B177" s="2" t="n">
-        <v>59.1</v>
+        <v>59.2</v>
       </c>
       <c r="C177" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="3" t="n">
-        <v>40513</v>
+        <v>40544</v>
       </c>
       <c r="B178" s="2" t="n">
-        <v>56.6</v>
+        <v>59.1</v>
       </c>
       <c r="C178" t="n">
-        <v>1.4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="3" t="n">
-        <v>40483</v>
+        <v>40513</v>
       </c>
       <c r="B179" s="2" t="n">
-        <v>57.3</v>
+        <v>56.6</v>
       </c>
       <c r="C179" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="3" t="n">
-        <v>40452</v>
+        <v>40483</v>
       </c>
       <c r="B180" s="2" t="n">
-        <v>56.9</v>
+        <v>57.3</v>
       </c>
       <c r="C180" t="n">
-        <v>-1.2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="3" t="n">
-        <v>40422</v>
+        <v>40452</v>
       </c>
       <c r="B181" s="2" t="n">
-        <v>55.3</v>
+        <v>56.9</v>
       </c>
       <c r="C181" t="n">
-        <v>0.7</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="3" t="n">
-        <v>40391</v>
+        <v>40422</v>
       </c>
       <c r="B182" s="2" t="n">
-        <v>56.4</v>
+        <v>55.3</v>
       </c>
       <c r="C182" t="n">
-        <v>5.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="3" t="n">
-        <v>40360</v>
+        <v>40391</v>
       </c>
       <c r="B183" s="2" t="n">
-        <v>56.1</v>
+        <v>56.4</v>
       </c>
       <c r="C183" t="n">
-        <v>12.9</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="3" t="n">
-        <v>40330</v>
+        <v>40360</v>
       </c>
       <c r="B184" s="2" t="n">
-        <v>56.5</v>
+        <v>56.1</v>
       </c>
       <c r="C184" t="n">
-        <v>22</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="3" t="n">
-        <v>40299</v>
+        <v>40330</v>
       </c>
       <c r="B185" s="2" t="n">
-        <v>57.4</v>
+        <v>56.5</v>
       </c>
       <c r="C185" t="n">
-        <v>30.2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="3" t="n">
-        <v>40269</v>
+        <v>40299</v>
       </c>
       <c r="B186" s="2" t="n">
-        <v>58.1</v>
+        <v>57.4</v>
       </c>
       <c r="C186" t="n">
-        <v>45.6</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="3" t="n">
-        <v>40238</v>
+        <v>40269</v>
       </c>
       <c r="B187" s="2" t="n">
-        <v>58.8</v>
+        <v>58.1</v>
       </c>
       <c r="C187" t="n">
-        <v>58.1</v>
+        <v>45.6</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="3" t="n">
-        <v>40210</v>
+        <v>40238</v>
       </c>
       <c r="B188" s="2" t="n">
-        <v>55.5</v>
+        <v>58.8</v>
       </c>
       <c r="C188" t="n">
-        <v>51.6</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="3" t="n">
-        <v>40179</v>
+        <v>40210</v>
       </c>
       <c r="B189" s="2" t="n">
-        <v>56.3</v>
+        <v>55.5</v>
       </c>
       <c r="C189" t="n">
-        <v>54.7</v>
+        <v>51.6</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="3" t="n">
-        <v>40148</v>
+        <v>40179</v>
       </c>
       <c r="B190" s="2" t="n">
-        <v>55.8</v>
+        <v>56.3</v>
       </c>
       <c r="C190" t="n">
-        <v>61.7</v>
+        <v>54.7</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="3" t="n">
-        <v>40118</v>
+        <v>40148</v>
       </c>
       <c r="B191" s="2" t="n">
-        <v>55.4</v>
+        <v>55.8</v>
       </c>
       <c r="C191" t="n">
-        <v>42.1</v>
+        <v>61.7</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="3" t="n">
-        <v>40087</v>
+        <v>40118</v>
       </c>
       <c r="B192" s="2" t="n">
-        <v>57.6</v>
+        <v>55.4</v>
       </c>
       <c r="C192" t="n">
-        <v>50.8</v>
+        <v>42.1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="3" t="n">
-        <v>40057</v>
+        <v>40087</v>
       </c>
       <c r="B193" s="2" t="n">
-        <v>54.9</v>
+        <v>57.6</v>
       </c>
       <c r="C193" t="n">
-        <v>16.3</v>
+        <v>50.8</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="3" t="n">
-        <v>40026</v>
+        <v>40057</v>
       </c>
       <c r="B194" s="2" t="n">
-        <v>53.4</v>
+        <v>54.9</v>
       </c>
       <c r="C194" t="n">
-        <v>6.6</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="3" t="n">
-        <v>39995</v>
+        <v>40026</v>
       </c>
       <c r="B195" s="2" t="n">
-        <v>49.7</v>
+        <v>53.4</v>
       </c>
       <c r="C195" t="n">
-        <v>-2.2</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="3" t="n">
-        <v>39965</v>
+        <v>39995</v>
       </c>
       <c r="B196" s="2" t="n">
-        <v>46.3</v>
+        <v>49.7</v>
       </c>
       <c r="C196" t="n">
-        <v>-7.2</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="3" t="n">
-        <v>39934</v>
+        <v>39965</v>
       </c>
       <c r="B197" s="2" t="n">
-        <v>44.1</v>
+        <v>46.3</v>
       </c>
       <c r="C197" t="n">
-        <v>-9.800000000000001</v>
+        <v>-7.2</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="3" t="n">
-        <v>39904</v>
+        <v>39934</v>
       </c>
       <c r="B198" s="2" t="n">
-        <v>39.9</v>
+        <v>44.1</v>
       </c>
       <c r="C198" t="n">
-        <v>-17.7</v>
+        <v>-9.800000000000001</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="3" t="n">
-        <v>39873</v>
+        <v>39904</v>
       </c>
       <c r="B199" s="2" t="n">
-        <v>37.2</v>
+        <v>39.9</v>
       </c>
       <c r="C199" t="n">
-        <v>-25.2</v>
+        <v>-17.7</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="3" t="n">
-        <v>39845</v>
+        <v>39873</v>
       </c>
       <c r="B200" s="2" t="n">
-        <v>36.6</v>
+        <v>37.2</v>
       </c>
       <c r="C200" t="n">
-        <v>-25</v>
+        <v>-25.2</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="3" t="n">
-        <v>39814</v>
+        <v>39845</v>
       </c>
       <c r="B201" s="2" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="C201" t="n">
-        <v>-28.5</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="3" t="n">
-        <v>39783</v>
+        <v>39814</v>
       </c>
       <c r="B202" s="2" t="n">
-        <v>34.5</v>
+        <v>36.4</v>
       </c>
       <c r="C202" t="n">
-        <v>-31.1</v>
+        <v>-28.5</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="3" t="n">
-        <v>39753</v>
+        <v>39783</v>
       </c>
       <c r="B203" s="2" t="n">
-        <v>39</v>
+        <v>34.5</v>
       </c>
       <c r="C203" t="n">
-        <v>-24.3</v>
+        <v>-31.1</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="3" t="n">
-        <v>39722</v>
+        <v>39753</v>
       </c>
       <c r="B204" s="2" t="n">
-        <v>38.2</v>
+        <v>39</v>
       </c>
       <c r="C204" t="n">
-        <v>-27.7</v>
+        <v>-24.3</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="3" t="n">
-        <v>39692</v>
+        <v>39722</v>
       </c>
       <c r="B205" s="2" t="n">
-        <v>47.2</v>
+        <v>38.2</v>
       </c>
       <c r="C205" t="n">
-        <v>-12.3</v>
+        <v>-27.7</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="3" t="n">
-        <v>39661</v>
+        <v>39692</v>
       </c>
       <c r="B206" s="2" t="n">
-        <v>50.1</v>
+        <v>47.2</v>
       </c>
       <c r="C206" t="n">
-        <v>-4</v>
+        <v>-12.3</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="3" t="n">
-        <v>39630</v>
+        <v>39661</v>
       </c>
       <c r="B207" s="2" t="n">
-        <v>50.8</v>
+        <v>50.1</v>
       </c>
       <c r="C207" t="n">
-        <v>-1.9</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="3" t="n">
-        <v>39600</v>
+        <v>39630</v>
       </c>
       <c r="B208" s="2" t="n">
-        <v>49.9</v>
+        <v>50.8</v>
       </c>
       <c r="C208" t="n">
-        <v>-7.6</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="3" t="n">
-        <v>39569</v>
+        <v>39600</v>
       </c>
       <c r="B209" s="2" t="n">
-        <v>48.9</v>
+        <v>49.9</v>
       </c>
       <c r="C209" t="n">
-        <v>-7.9</v>
+        <v>-7.6</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="3" t="n">
-        <v>39539</v>
+        <v>39569</v>
       </c>
       <c r="B210" s="2" t="n">
-        <v>48.5</v>
+        <v>48.9</v>
       </c>
       <c r="C210" t="n">
-        <v>-8</v>
+        <v>-7.9</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="3" t="n">
-        <v>39508</v>
+        <v>39539</v>
       </c>
       <c r="B211" s="2" t="n">
-        <v>49.7</v>
+        <v>48.5</v>
       </c>
       <c r="C211" t="n">
-        <v>-5.9</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="3" t="n">
-        <v>39479</v>
+        <v>39508</v>
       </c>
       <c r="B212" s="2" t="n">
-        <v>48.8</v>
+        <v>49.7</v>
       </c>
       <c r="C212" t="n">
-        <v>-9.800000000000001</v>
+        <v>-5.9</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="3" t="n">
-        <v>39448</v>
+        <v>39479</v>
       </c>
       <c r="B213" s="2" t="n">
-        <v>50.9</v>
+        <v>48.8</v>
       </c>
       <c r="C213" t="n">
-        <v>1</v>
+        <v>-9.800000000000001</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="3" t="n">
-        <v>39417</v>
+        <v>39448</v>
       </c>
       <c r="B214" s="2" t="n">
-        <v>50.1</v>
+        <v>50.9</v>
       </c>
       <c r="C214" t="n">
-        <v>-2.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="3" t="n">
-        <v>39387</v>
+        <v>39417</v>
       </c>
       <c r="B215" s="2" t="n">
-        <v>51.5</v>
+        <v>50.1</v>
       </c>
       <c r="C215" t="n">
-        <v>2.4</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="3" t="n">
-        <v>39356</v>
+        <v>39387</v>
       </c>
       <c r="B216" s="2" t="n">
-        <v>52.8</v>
+        <v>51.5</v>
       </c>
       <c r="C216" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="3" t="n">
-        <v>39326</v>
+        <v>39356</v>
       </c>
       <c r="B217" s="2" t="n">
-        <v>53.8</v>
+        <v>52.8</v>
       </c>
       <c r="C217" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="3" t="n">
-        <v>39295</v>
+        <v>39326</v>
       </c>
       <c r="B218" s="2" t="n">
-        <v>52.2</v>
+        <v>53.8</v>
       </c>
       <c r="C218" t="n">
-        <v>-2.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="3" t="n">
-        <v>39264</v>
+        <v>39295</v>
       </c>
       <c r="B219" s="2" t="n">
-        <v>51.8</v>
+        <v>52.2</v>
       </c>
       <c r="C219" t="n">
-        <v>-2.3</v>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="3" t="n">
-        <v>39234</v>
+        <v>39264</v>
       </c>
       <c r="B220" s="2" t="n">
-        <v>54</v>
+        <v>51.8</v>
       </c>
       <c r="C220" t="n">
-        <v>3.8</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="3" t="n">
-        <v>39203</v>
+        <v>39234</v>
       </c>
       <c r="B221" s="2" t="n">
-        <v>53.1</v>
+        <v>54</v>
       </c>
       <c r="C221" t="n">
-        <v>-1.1</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="3" t="n">
-        <v>39173</v>
+        <v>39203</v>
       </c>
       <c r="B222" s="2" t="n">
-        <v>52.7</v>
+        <v>53.1</v>
       </c>
       <c r="C222" t="n">
-        <v>-4.5</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="3" t="n">
-        <v>39142</v>
+        <v>39173</v>
       </c>
       <c r="B223" s="2" t="n">
-        <v>52.8</v>
+        <v>52.7</v>
       </c>
       <c r="C223" t="n">
-        <v>-2.8</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="3" t="n">
-        <v>39114</v>
+        <v>39142</v>
       </c>
       <c r="B224" s="2" t="n">
-        <v>54.1</v>
+        <v>52.8</v>
       </c>
       <c r="C224" t="n">
-        <v>-3</v>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="3" t="n">
-        <v>39083</v>
+        <v>39114</v>
       </c>
       <c r="B225" s="2" t="n">
-        <v>50.4</v>
+        <v>54.1</v>
       </c>
       <c r="C225" t="n">
-        <v>-8.4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="3" t="n">
-        <v>39052</v>
+        <v>39083</v>
       </c>
       <c r="B226" s="2" t="n">
-        <v>51.4</v>
+        <v>50.4</v>
       </c>
       <c r="C226" t="n">
-        <v>-6.7</v>
+        <v>-8.4</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="3" t="n">
-        <v>39022</v>
+        <v>39052</v>
       </c>
       <c r="B227" s="2" t="n">
-        <v>50.3</v>
+        <v>51.4</v>
       </c>
       <c r="C227" t="n">
-        <v>-11.3</v>
+        <v>-6.7</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="3" t="n">
-        <v>38991</v>
+        <v>39022</v>
       </c>
       <c r="B228" s="2" t="n">
-        <v>51.4</v>
+        <v>50.3</v>
       </c>
       <c r="C228" t="n">
-        <v>-10.1</v>
+        <v>-11.3</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="3" t="n">
-        <v>38961</v>
+        <v>38991</v>
       </c>
       <c r="B229" s="2" t="n">
-        <v>52.2</v>
+        <v>51.4</v>
       </c>
       <c r="C229" t="n">
-        <v>-8.1</v>
+        <v>-10.1</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="3" t="n">
-        <v>38930</v>
+        <v>38961</v>
       </c>
       <c r="B230" s="2" t="n">
-        <v>53.7</v>
+        <v>52.2</v>
       </c>
       <c r="C230" t="n">
-        <v>2.5</v>
+        <v>-8.1</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="3" t="n">
-        <v>38899</v>
+        <v>38930</v>
       </c>
       <c r="B231" s="2" t="n">
-        <v>53</v>
+        <v>53.7</v>
       </c>
       <c r="C231" t="n">
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="3" t="n">
-        <v>38869</v>
+        <v>38899</v>
       </c>
       <c r="B232" s="2" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C232" t="n">
-        <v>-0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="3" t="n">
-        <v>38838</v>
+        <v>38869</v>
       </c>
       <c r="B233" s="2" t="n">
-        <v>53.7</v>
+        <v>52</v>
       </c>
       <c r="C233" t="n">
-        <v>5.7</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="3" t="n">
-        <v>38808</v>
+        <v>38838</v>
       </c>
       <c r="B234" s="2" t="n">
-        <v>55.2</v>
+        <v>53.7</v>
       </c>
       <c r="C234" t="n">
         <v>5.7</v>
@@ -3010,927 +3012,935 @@
     </row>
     <row r="235">
       <c r="A235" s="3" t="n">
-        <v>38777</v>
+        <v>38808</v>
       </c>
       <c r="B235" s="2" t="n">
-        <v>54.3</v>
+        <v>55.2</v>
       </c>
       <c r="C235" t="n">
-        <v>-1.6</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="3" t="n">
-        <v>38749</v>
+        <v>38777</v>
       </c>
       <c r="B236" s="2" t="n">
-        <v>55.8</v>
+        <v>54.3</v>
       </c>
       <c r="C236" t="n">
-        <v>0.5</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="3" t="n">
-        <v>38718</v>
+        <v>38749</v>
       </c>
       <c r="B237" s="2" t="n">
-        <v>55</v>
+        <v>55.8</v>
       </c>
       <c r="C237" t="n">
-        <v>-3.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="3" t="n">
-        <v>38687</v>
+        <v>38718</v>
       </c>
       <c r="B238" s="2" t="n">
-        <v>55.1</v>
+        <v>55</v>
       </c>
       <c r="C238" t="n">
-        <v>-3.7</v>
+        <v>-3.2</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="3" t="n">
-        <v>38657</v>
+        <v>38687</v>
       </c>
       <c r="B239" s="2" t="n">
-        <v>56.7</v>
+        <v>55.1</v>
       </c>
       <c r="C239" t="n">
-        <v>0.9</v>
+        <v>-3.7</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="3" t="n">
-        <v>38626</v>
+        <v>38657</v>
       </c>
       <c r="B240" s="2" t="n">
-        <v>57.2</v>
+        <v>56.7</v>
       </c>
       <c r="C240" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="3" t="n">
-        <v>38596</v>
+        <v>38626</v>
       </c>
       <c r="B241" s="2" t="n">
-        <v>56.8</v>
+        <v>57.2</v>
       </c>
       <c r="C241" t="n">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="3" t="n">
-        <v>38565</v>
+        <v>38596</v>
       </c>
       <c r="B242" s="2" t="n">
-        <v>52.4</v>
+        <v>56.8</v>
       </c>
       <c r="C242" t="n">
-        <v>-10.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="3" t="n">
-        <v>38534</v>
+        <v>38565</v>
       </c>
       <c r="B243" s="2" t="n">
-        <v>52.8</v>
+        <v>52.4</v>
       </c>
       <c r="C243" t="n">
-        <v>-11.9</v>
+        <v>-10.4</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="3" t="n">
-        <v>38504</v>
+        <v>38534</v>
       </c>
       <c r="B244" s="2" t="n">
-        <v>52.4</v>
+        <v>52.8</v>
       </c>
       <c r="C244" t="n">
-        <v>-13.4</v>
+        <v>-11.9</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="3" t="n">
-        <v>38473</v>
+        <v>38504</v>
       </c>
       <c r="B245" s="2" t="n">
-        <v>50.8</v>
+        <v>52.4</v>
       </c>
       <c r="C245" t="n">
-        <v>-17.3</v>
+        <v>-13.4</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="3" t="n">
-        <v>38443</v>
+        <v>38473</v>
       </c>
       <c r="B246" s="2" t="n">
-        <v>52.2</v>
+        <v>50.8</v>
       </c>
       <c r="C246" t="n">
-        <v>-13.9</v>
+        <v>-17.3</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="3" t="n">
-        <v>38412</v>
+        <v>38443</v>
       </c>
       <c r="B247" s="2" t="n">
-        <v>55.2</v>
+        <v>52.2</v>
       </c>
       <c r="C247" t="n">
-        <v>-8.9</v>
+        <v>-13.9</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="3" t="n">
-        <v>38384</v>
+        <v>38412</v>
       </c>
       <c r="B248" s="2" t="n">
-        <v>55.5</v>
+        <v>55.2</v>
       </c>
       <c r="C248" t="n">
-        <v>-7.3</v>
+        <v>-8.9</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="3" t="n">
-        <v>38353</v>
+        <v>38384</v>
       </c>
       <c r="B249" s="2" t="n">
-        <v>56.8</v>
+        <v>55.5</v>
       </c>
       <c r="C249" t="n">
-        <v>-6.6</v>
+        <v>-7.3</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="3" t="n">
-        <v>38322</v>
+        <v>38353</v>
       </c>
       <c r="B250" s="2" t="n">
-        <v>57.2</v>
+        <v>56.8</v>
       </c>
       <c r="C250" t="n">
-        <v>-4.8</v>
+        <v>-6.6</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="3" t="n">
-        <v>38292</v>
+        <v>38322</v>
       </c>
       <c r="B251" s="2" t="n">
-        <v>56.2</v>
+        <v>57.2</v>
       </c>
       <c r="C251" t="n">
-        <v>-3.8</v>
+        <v>-4.8</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="3" t="n">
-        <v>38261</v>
+        <v>38292</v>
       </c>
       <c r="B252" s="2" t="n">
-        <v>56.3</v>
+        <v>56.2</v>
       </c>
       <c r="C252" t="n">
-        <v>2</v>
+        <v>-3.8</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="3" t="n">
-        <v>38231</v>
+        <v>38261</v>
       </c>
       <c r="B253" s="2" t="n">
-        <v>57.4</v>
+        <v>56.3</v>
       </c>
       <c r="C253" t="n">
-        <v>9.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="3" t="n">
-        <v>38200</v>
+        <v>38231</v>
       </c>
       <c r="B254" s="2" t="n">
-        <v>58.5</v>
+        <v>57.4</v>
       </c>
       <c r="C254" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="3" t="n">
-        <v>38169</v>
+        <v>38200</v>
       </c>
       <c r="B255" s="2" t="n">
-        <v>59.9</v>
+        <v>58.5</v>
       </c>
       <c r="C255" t="n">
-        <v>17.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="3" t="n">
-        <v>38139</v>
+        <v>38169</v>
       </c>
       <c r="B256" s="2" t="n">
-        <v>60.5</v>
+        <v>59.9</v>
       </c>
       <c r="C256" t="n">
-        <v>23.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="3" t="n">
-        <v>38108</v>
+        <v>38139</v>
       </c>
       <c r="B257" s="2" t="n">
-        <v>61.4</v>
+        <v>60.5</v>
       </c>
       <c r="C257" t="n">
-        <v>25.3</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="3" t="n">
-        <v>38078</v>
+        <v>38108</v>
       </c>
       <c r="B258" s="2" t="n">
-        <v>60.6</v>
+        <v>61.4</v>
       </c>
       <c r="C258" t="n">
-        <v>31.5</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="3" t="n">
-        <v>38047</v>
+        <v>38078</v>
       </c>
       <c r="B259" s="2" t="n">
         <v>60.6</v>
       </c>
       <c r="C259" t="n">
-        <v>30.9</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="3" t="n">
-        <v>38018</v>
+        <v>38047</v>
       </c>
       <c r="B260" s="2" t="n">
-        <v>59.9</v>
+        <v>60.6</v>
       </c>
       <c r="C260" t="n">
-        <v>22.7</v>
+        <v>30.9</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="3" t="n">
-        <v>37987</v>
+        <v>38018</v>
       </c>
       <c r="B261" s="2" t="n">
-        <v>60.8</v>
+        <v>59.9</v>
       </c>
       <c r="C261" t="n">
-        <v>18.5</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="3" t="n">
-        <v>37956</v>
+        <v>37987</v>
       </c>
       <c r="B262" s="2" t="n">
-        <v>60.1</v>
+        <v>60.8</v>
       </c>
       <c r="C262" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="3" t="n">
-        <v>37926</v>
+        <v>37956</v>
       </c>
       <c r="B263" s="2" t="n">
-        <v>58.4</v>
+        <v>60.1</v>
       </c>
       <c r="C263" t="n">
-        <v>20.4</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="3" t="n">
-        <v>37895</v>
+        <v>37926</v>
       </c>
       <c r="B264" s="2" t="n">
-        <v>55.2</v>
+        <v>58.4</v>
       </c>
       <c r="C264" t="n">
-        <v>12.7</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="3" t="n">
-        <v>37865</v>
+        <v>37895</v>
       </c>
       <c r="B265" s="2" t="n">
-        <v>52.4</v>
+        <v>55.2</v>
       </c>
       <c r="C265" t="n">
-        <v>3.8</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="3" t="n">
-        <v>37834</v>
+        <v>37865</v>
       </c>
       <c r="B266" s="2" t="n">
-        <v>53.2</v>
+        <v>52.4</v>
       </c>
       <c r="C266" t="n">
-        <v>5.8</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="3" t="n">
-        <v>37803</v>
+        <v>37834</v>
       </c>
       <c r="B267" s="2" t="n">
-        <v>51</v>
+        <v>53.2</v>
       </c>
       <c r="C267" t="n">
-        <v>1.6</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="3" t="n">
-        <v>37773</v>
+        <v>37803</v>
       </c>
       <c r="B268" s="2" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C268" t="n">
-        <v>-8.6</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="3" t="n">
-        <v>37742</v>
+        <v>37773</v>
       </c>
       <c r="B269" s="2" t="n">
         <v>49</v>
       </c>
       <c r="C269" t="n">
-        <v>-7.7</v>
+        <v>-8.6</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="3" t="n">
-        <v>37712</v>
+        <v>37742</v>
       </c>
       <c r="B270" s="2" t="n">
-        <v>46.1</v>
+        <v>49</v>
       </c>
       <c r="C270" t="n">
-        <v>-12</v>
+        <v>-7.7</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="3" t="n">
-        <v>37681</v>
+        <v>37712</v>
       </c>
       <c r="B271" s="2" t="n">
-        <v>46.3</v>
+        <v>46.1</v>
       </c>
       <c r="C271" t="n">
-        <v>-11.6</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="3" t="n">
-        <v>37653</v>
+        <v>37681</v>
       </c>
       <c r="B272" s="2" t="n">
-        <v>48.8</v>
+        <v>46.3</v>
       </c>
       <c r="C272" t="n">
-        <v>-3.7</v>
+        <v>-11.6</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="3" t="n">
-        <v>37622</v>
+        <v>37653</v>
       </c>
       <c r="B273" s="2" t="n">
-        <v>51.3</v>
+        <v>48.8</v>
       </c>
       <c r="C273" t="n">
-        <v>8</v>
+        <v>-3.7</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="3" t="n">
-        <v>37591</v>
+        <v>37622</v>
       </c>
       <c r="B274" s="2" t="n">
-        <v>51.6</v>
+        <v>51.3</v>
       </c>
       <c r="C274" t="n">
-        <v>13.9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="3" t="n">
-        <v>37561</v>
+        <v>37591</v>
       </c>
       <c r="B275" s="2" t="n">
-        <v>48.5</v>
+        <v>51.6</v>
       </c>
       <c r="C275" t="n">
-        <v>10</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="3" t="n">
-        <v>37530</v>
+        <v>37561</v>
       </c>
       <c r="B276" s="2" t="n">
-        <v>49</v>
+        <v>48.5</v>
       </c>
       <c r="C276" t="n">
-        <v>20.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="3" t="n">
-        <v>37500</v>
+        <v>37530</v>
       </c>
       <c r="B277" s="2" t="n">
-        <v>50.5</v>
+        <v>49</v>
       </c>
       <c r="C277" t="n">
-        <v>9.300000000000001</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="3" t="n">
-        <v>37469</v>
+        <v>37500</v>
       </c>
       <c r="B278" s="2" t="n">
-        <v>50.3</v>
+        <v>50.5</v>
       </c>
       <c r="C278" t="n">
-        <v>8.6</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="3" t="n">
-        <v>37438</v>
+        <v>37469</v>
       </c>
       <c r="B279" s="2" t="n">
-        <v>50.2</v>
+        <v>50.3</v>
       </c>
       <c r="C279" t="n">
-        <v>15.4</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="3" t="n">
-        <v>37408</v>
+        <v>37438</v>
       </c>
       <c r="B280" s="2" t="n">
-        <v>53.6</v>
+        <v>50.2</v>
       </c>
       <c r="C280" t="n">
-        <v>24.1</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="3" t="n">
-        <v>37377</v>
+        <v>37408</v>
       </c>
       <c r="B281" s="2" t="n">
-        <v>53.1</v>
+        <v>53.6</v>
       </c>
       <c r="C281" t="n">
-        <v>28.6</v>
+        <v>24.1</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="3" t="n">
-        <v>37347</v>
+        <v>37377</v>
       </c>
       <c r="B282" s="2" t="n">
-        <v>52.4</v>
+        <v>53.1</v>
       </c>
       <c r="C282" t="n">
-        <v>22.7</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="3" t="n">
-        <v>37316</v>
+        <v>37347</v>
       </c>
       <c r="B283" s="2" t="n">
         <v>52.4</v>
       </c>
       <c r="C283" t="n">
-        <v>21.6</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="3" t="n">
-        <v>37288</v>
+        <v>37316</v>
       </c>
       <c r="B284" s="2" t="n">
-        <v>50.7</v>
+        <v>52.4</v>
       </c>
       <c r="C284" t="n">
-        <v>20.4</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="3" t="n">
-        <v>37257</v>
+        <v>37288</v>
       </c>
       <c r="B285" s="2" t="n">
-        <v>47.5</v>
+        <v>50.7</v>
       </c>
       <c r="C285" t="n">
-        <v>12.3</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="3" t="n">
-        <v>37226</v>
+        <v>37257</v>
       </c>
       <c r="B286" s="2" t="n">
-        <v>45.3</v>
+        <v>47.5</v>
       </c>
       <c r="C286" t="n">
-        <v>3.2</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="3" t="n">
-        <v>37196</v>
+        <v>37226</v>
       </c>
       <c r="B287" s="2" t="n">
-        <v>44.1</v>
+        <v>45.3</v>
       </c>
       <c r="C287" t="n">
-        <v>-9.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="3" t="n">
-        <v>37165</v>
+        <v>37196</v>
       </c>
       <c r="B288" s="2" t="n">
-        <v>40.8</v>
+        <v>44.1</v>
       </c>
       <c r="C288" t="n">
-        <v>-16.2</v>
+        <v>-9.1</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="3" t="n">
-        <v>37135</v>
+        <v>37165</v>
       </c>
       <c r="B289" s="2" t="n">
-        <v>46.2</v>
+        <v>40.8</v>
       </c>
       <c r="C289" t="n">
-        <v>-7</v>
+        <v>-16.2</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="3" t="n">
-        <v>37104</v>
+        <v>37135</v>
       </c>
       <c r="B290" s="2" t="n">
-        <v>46.3</v>
+        <v>46.2</v>
       </c>
       <c r="C290" t="n">
-        <v>-7.2</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="3" t="n">
-        <v>37073</v>
+        <v>37104</v>
       </c>
       <c r="B291" s="2" t="n">
-        <v>43.5</v>
+        <v>46.3</v>
       </c>
       <c r="C291" t="n">
-        <v>-17.1</v>
+        <v>-7.2</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="3" t="n">
-        <v>37043</v>
+        <v>37073</v>
       </c>
       <c r="B292" s="2" t="n">
-        <v>43.2</v>
+        <v>43.5</v>
       </c>
       <c r="C292" t="n">
-        <v>-16</v>
+        <v>-17.1</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="3" t="n">
-        <v>37012</v>
+        <v>37043</v>
       </c>
       <c r="B293" s="2" t="n">
-        <v>41.3</v>
+        <v>43.2</v>
       </c>
       <c r="C293" t="n">
-        <v>-22.4</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="3" t="n">
-        <v>36982</v>
+        <v>37012</v>
       </c>
       <c r="B294" s="2" t="n">
-        <v>42.7</v>
+        <v>41.3</v>
       </c>
       <c r="C294" t="n">
-        <v>-21.9</v>
+        <v>-22.4</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="3" t="n">
-        <v>36951</v>
+        <v>36982</v>
       </c>
       <c r="B295" s="2" t="n">
-        <v>43.1</v>
+        <v>42.7</v>
       </c>
       <c r="C295" t="n">
-        <v>-21.5</v>
+        <v>-21.9</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="3" t="n">
-        <v>36923</v>
+        <v>36951</v>
       </c>
       <c r="B296" s="2" t="n">
-        <v>42.1</v>
+        <v>43.1</v>
       </c>
       <c r="C296" t="n">
-        <v>-24.6</v>
+        <v>-21.5</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="3" t="n">
-        <v>36892</v>
+        <v>36923</v>
       </c>
       <c r="B297" s="2" t="n">
-        <v>42.3</v>
+        <v>42.1</v>
       </c>
       <c r="C297" t="n">
-        <v>-25.4</v>
+        <v>-24.6</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="3" t="n">
-        <v>36861</v>
+        <v>36892</v>
       </c>
       <c r="B298" s="2" t="n">
-        <v>43.9</v>
+        <v>42.3</v>
       </c>
       <c r="C298" t="n">
-        <v>-24</v>
+        <v>-25.4</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="3" t="n">
-        <v>36831</v>
+        <v>36861</v>
       </c>
       <c r="B299" s="2" t="n">
-        <v>48.5</v>
+        <v>43.9</v>
       </c>
       <c r="C299" t="n">
-        <v>-16.5</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="3" t="n">
-        <v>36800</v>
+        <v>36831</v>
       </c>
       <c r="B300" s="2" t="n">
-        <v>48.7</v>
+        <v>48.5</v>
       </c>
       <c r="C300" t="n">
-        <v>-14.9</v>
+        <v>-16.5</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="3" t="n">
-        <v>36770</v>
+        <v>36800</v>
       </c>
       <c r="B301" s="2" t="n">
-        <v>49.7</v>
+        <v>48.7</v>
       </c>
       <c r="C301" t="n">
-        <v>-12.8</v>
+        <v>-14.9</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="3" t="n">
-        <v>36739</v>
+        <v>36770</v>
       </c>
       <c r="B302" s="2" t="n">
-        <v>49.9</v>
+        <v>49.7</v>
       </c>
       <c r="C302" t="n">
-        <v>-8.9</v>
+        <v>-12.8</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="3" t="n">
-        <v>36708</v>
+        <v>36739</v>
       </c>
       <c r="B303" s="2" t="n">
-        <v>52.5</v>
+        <v>49.9</v>
       </c>
       <c r="C303" t="n">
-        <v>-2.1</v>
+        <v>-8.9</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="3" t="n">
-        <v>36678</v>
+        <v>36708</v>
       </c>
       <c r="B304" s="2" t="n">
-        <v>51.4</v>
+        <v>52.5</v>
       </c>
       <c r="C304" t="n">
-        <v>-7.9</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="3" t="n">
-        <v>36647</v>
+        <v>36678</v>
       </c>
       <c r="B305" s="2" t="n">
-        <v>53.2</v>
+        <v>51.4</v>
       </c>
       <c r="C305" t="n">
-        <v>-2</v>
+        <v>-7.9</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="3" t="n">
-        <v>36617</v>
+        <v>36647</v>
       </c>
       <c r="B306" s="2" t="n">
-        <v>54.7</v>
+        <v>53.2</v>
       </c>
       <c r="C306" t="n">
-        <v>4.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="3" t="n">
-        <v>36586</v>
+        <v>36617</v>
       </c>
       <c r="B307" s="2" t="n">
-        <v>54.9</v>
+        <v>54.7</v>
       </c>
       <c r="C307" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="3" t="n">
-        <v>36557</v>
+        <v>36586</v>
       </c>
       <c r="B308" s="2" t="n">
-        <v>55.8</v>
+        <v>54.9</v>
       </c>
       <c r="C308" t="n">
-        <v>7.9</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="3" t="n">
-        <v>36526</v>
+        <v>36557</v>
       </c>
       <c r="B309" s="2" t="n">
-        <v>56.7</v>
+        <v>55.8</v>
       </c>
       <c r="C309" t="n">
-        <v>12.1</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="3" t="n">
-        <v>36495</v>
+        <v>36526</v>
       </c>
       <c r="B310" s="2" t="n">
-        <v>57.8</v>
+        <v>56.7</v>
+      </c>
+      <c r="C310" t="n">
+        <v>12.1</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="3" t="n">
-        <v>36465</v>
+        <v>36495</v>
       </c>
       <c r="B311" s="2" t="n">
-        <v>58.1</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="3" t="n">
-        <v>36434</v>
+        <v>36465</v>
       </c>
       <c r="B312" s="2" t="n">
-        <v>57.2</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="3" t="n">
-        <v>36404</v>
+        <v>36434</v>
       </c>
       <c r="B313" s="2" t="n">
-        <v>57</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="3" t="n">
-        <v>36373</v>
+        <v>36404</v>
       </c>
       <c r="B314" s="2" t="n">
-        <v>54.8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="3" t="n">
-        <v>36342</v>
+        <v>36373</v>
       </c>
       <c r="B315" s="2" t="n">
-        <v>53.6</v>
+        <v>54.8</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="3" t="n">
-        <v>36312</v>
+        <v>36342</v>
       </c>
       <c r="B316" s="2" t="n">
-        <v>55.8</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="3" t="n">
-        <v>36281</v>
+        <v>36312</v>
       </c>
       <c r="B317" s="2" t="n">
-        <v>54.3</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="3" t="n">
-        <v>36251</v>
+        <v>36281</v>
       </c>
       <c r="B318" s="2" t="n">
-        <v>52.3</v>
+        <v>54.3</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="3" t="n">
-        <v>36220</v>
+        <v>36251</v>
       </c>
       <c r="B319" s="2" t="n">
-        <v>52.4</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="3" t="n">
-        <v>36192</v>
+        <v>36220</v>
       </c>
       <c r="B320" s="2" t="n">
-        <v>51.7</v>
+        <v>52.4</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="3" t="n">
+        <v>36192</v>
+      </c>
+      <c r="B321" s="2" t="n">
+        <v>51.7</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="3" t="n">
         <v>36161</v>
       </c>
-      <c r="B321" s="2" t="n">
+      <c r="B322" s="2" t="n">
         <v>50.6</v>
       </c>
-    </row>
-    <row r="322">
-      <c r="A322" s="3" t="n"/>
     </row>
     <row r="323">
       <c r="A323" s="3" t="n"/>
@@ -3967,6 +3977,9 @@
     </row>
     <row r="334">
       <c r="A334" s="3" t="n"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
